--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A986961F-2EF0-9C48-99AF-CEFBECC7A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97955580-42BF-CA44-8C35-2DECC1F4B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6740" yWindow="-23800" windowWidth="40100" windowHeight="18660" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25580" windowHeight="20880" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
   <si>
     <t>Date</t>
   </si>
@@ -1743,6 +1743,9 @@
   </si>
   <si>
     <t>161990.31681302804</t>
+  </si>
+  <si>
+    <t>Emerging Markets</t>
   </si>
 </sst>
 </file>
@@ -2128,13 +2131,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:K450"/>
+  <dimension ref="A1:L452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C441" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H442" sqref="H442:H450"/>
+      <selection pane="bottomRight" activeCell="K450" sqref="K450:K452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,7 +2154,7 @@
     <col min="10" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2185,8 +2188,11 @@
       <c r="K1" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -2202,8 +2208,11 @@
       <c r="I2">
         <v>53678.8922827356</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>13639.024029304001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -2219,8 +2228,11 @@
       <c r="I3">
         <v>54021.8749090118</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>14627.421428571401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -2236,8 +2248,11 @@
       <c r="I4">
         <v>53453.5698371545</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>14975.0410110864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -2253,8 +2268,11 @@
       <c r="I5">
         <v>55352.126301076598</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>14901.700172304299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -2270,8 +2288,11 @@
       <c r="I6">
         <v>59223.211243419399</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>15753.073629242799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -2287,8 +2308,11 @@
       <c r="I7">
         <v>57212.208770766098</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>15265.1375658587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -2304,8 +2328,11 @@
       <c r="I8">
         <v>59193.671461699603</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>14598.684051615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -2321,8 +2348,11 @@
       <c r="I9">
         <v>61559.616524507401</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>15003.0670212765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -2338,8 +2368,11 @@
       <c r="I10">
         <v>61167.293042381702</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>15401.7352352528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -2355,8 +2388,11 @@
       <c r="I11">
         <v>61772.091040223902</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>16786.342961251299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -2372,8 +2408,11 @@
       <c r="I12">
         <v>66530.236510028699</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>18582.710906325399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -2389,8 +2428,11 @@
       <c r="I13">
         <v>66917.440020200695</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>22232.7876923076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -2406,8 +2448,11 @@
       <c r="I14">
         <v>66917.038515285603</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>23500.913333958899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -2423,8 +2468,11 @@
       <c r="I15">
         <v>68825.346729550205</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>21022.2251050821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -2440,8 +2488,11 @@
       <c r="I16">
         <v>70004.8349235645</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>21428.557606212798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>32721</v>
       </c>
@@ -2457,8 +2508,11 @@
       <c r="I17">
         <v>70445.633525460697</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>22265.662813137798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>32752</v>
       </c>
@@ -2474,8 +2528,11 @@
       <c r="I18">
         <v>74970.420786517498</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>25457.010833725799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>32782</v>
       </c>
@@ -2491,8 +2548,11 @@
       <c r="I19">
         <v>74270.952751184901</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>24842.337388939199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32813</v>
       </c>
@@ -2508,8 +2568,11 @@
       <c r="I20">
         <v>77521.378123501607</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>23345.781876675599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>32843</v>
       </c>
@@ -2525,8 +2588,11 @@
       <c r="I21">
         <v>72097.895125471696</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>25118.1357840616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32874</v>
       </c>
@@ -2542,8 +2608,11 @@
       <c r="I22">
         <v>73885.345410741793</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>25185.059790384199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>32905</v>
       </c>
@@ -2559,8 +2628,11 @@
       <c r="I23">
         <v>73105.463001587996</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>25826.9147500615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32933</v>
       </c>
@@ -2576,8 +2648,11 @@
       <c r="I24">
         <v>67633.184251117098</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>22724.356101227699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>32964</v>
       </c>
@@ -2593,8 +2668,11 @@
       <c r="I25">
         <v>63859.578515109897</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>24052.3033476253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>32994</v>
       </c>
@@ -2610,8 +2688,11 @@
       <c r="I26">
         <v>61036.850563076499</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>25603.591856598199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>33025</v>
       </c>
@@ -2627,8 +2708,11 @@
       <c r="I27">
         <v>59369.446070565202</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>26667.8451739343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>33055</v>
       </c>
@@ -2644,8 +2728,11 @@
       <c r="I28">
         <v>64532.839630378701</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>28143.650463292899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>33086</v>
       </c>
@@ -2661,8 +2748,11 @@
       <c r="I29">
         <v>64488.229114447997</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>23473.035872198601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>33117</v>
       </c>
@@ -2678,8 +2768,11 @@
       <c r="I30">
         <v>63093.463136070597</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>20509.8250720461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>33147</v>
       </c>
@@ -2695,8 +2788,11 @@
       <c r="I31">
         <v>54653.876273390902</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>19539.270185512301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33178</v>
       </c>
@@ -2712,8 +2808,11 @@
       <c r="I32">
         <v>48953.840829208399</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>18153.440453167801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33208</v>
       </c>
@@ -2729,8 +2828,11 @@
       <c r="I33">
         <v>51937.287757419203</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>19144.441340537302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33239</v>
       </c>
@@ -2746,8 +2848,11 @@
       <c r="I34">
         <v>50056.308445569099</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>20743.6868247694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33270</v>
       </c>
@@ -2763,8 +2868,11 @@
       <c r="I35">
         <v>51690.661555202598</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>23416.594515223402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33298</v>
       </c>
@@ -2780,8 +2888,11 @@
       <c r="I36">
         <v>53696.038399755103</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>26535.330930742701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>33329</v>
       </c>
@@ -2797,8 +2908,11 @@
       <c r="I37">
         <v>57673.206652070701</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>28244.275177422001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>33359</v>
       </c>
@@ -2814,8 +2928,11 @@
       <c r="I38">
         <v>60905.157113833797</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>30867.908128449501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>33390</v>
       </c>
@@ -2831,8 +2948,11 @@
       <c r="I39">
         <v>64633.609098975197</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>30875.5185114503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>33420</v>
       </c>
@@ -2848,8 +2968,11 @@
       <c r="I40">
         <v>66962.4109913219</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>32518.570798228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>33451</v>
       </c>
@@ -2865,8 +2988,11 @@
       <c r="I41">
         <v>65151.1265046927</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>32473.225382263001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>33482</v>
       </c>
@@ -2882,8 +3008,11 @@
       <c r="I42">
         <v>68295.937818705497</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>30366.882306294399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>33512</v>
       </c>
@@ -2899,8 +3028,11 @@
       <c r="I43">
         <v>66560.465105620606</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>31564.328840125301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>33543</v>
       </c>
@@ -2916,8 +3048,11 @@
       <c r="I44">
         <v>66401.343182361699</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>29932.2919082029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>33573</v>
       </c>
@@ -2933,8 +3068,11 @@
       <c r="I45">
         <v>67368.851983933506</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>32238.122758726699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>33604</v>
       </c>
@@ -2950,8 +3088,11 @@
       <c r="I46">
         <v>62003.580830322899</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>36223.6549128919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>33635</v>
       </c>
@@ -2970,8 +3111,11 @@
       <c r="J47">
         <v>10000</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>38668.3047008547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>33664</v>
       </c>
@@ -2990,8 +3134,11 @@
       <c r="J48" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>41045.352173559702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>33695</v>
       </c>
@@ -3010,8 +3157,11 @@
       <c r="J49" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>40392.639906594697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>33725</v>
       </c>
@@ -3030,8 +3180,11 @@
       <c r="J50" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>39478.461116815401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>33756</v>
       </c>
@@ -3050,8 +3203,11 @@
       <c r="J51">
         <v>9686.8775264420601</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>34544.526822157401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>33786</v>
       </c>
@@ -3070,8 +3226,11 @@
       <c r="J52" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>33258.983938618898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>33817</v>
       </c>
@@ -3090,8 +3249,11 @@
       <c r="J53">
         <v>9169.2552566548402</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>30908.605057340199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>33848</v>
       </c>
@@ -3110,8 +3272,11 @@
       <c r="J54" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>31731.274420638299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>33878</v>
       </c>
@@ -3130,8 +3295,11 @@
       <c r="J55" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>34819.055305905502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>33909</v>
       </c>
@@ -3150,8 +3318,11 @@
       <c r="J56" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>36700.489129731402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>33939</v>
       </c>
@@ -3170,8 +3341,11 @@
       <c r="J57" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>37754.8843355965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>33970</v>
       </c>
@@ -3190,8 +3364,11 @@
       <c r="J58" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>38678.382200247201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>34001</v>
       </c>
@@ -3210,8 +3387,11 @@
       <c r="J59" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>40306.837500000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>34029</v>
       </c>
@@ -3230,8 +3410,11 @@
       <c r="J60" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>41844.765303004497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>34060</v>
       </c>
@@ -3250,8 +3433,11 @@
       <c r="J61" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>41350.5787324751</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>34090</v>
       </c>
@@ -3270,8 +3456,11 @@
       <c r="J62" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>42607.485477110196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>34121</v>
       </c>
@@ -3290,8 +3479,11 @@
       <c r="J63" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>45151.188885129399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>34151</v>
       </c>
@@ -3310,8 +3502,11 @@
       <c r="J64" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>48309.359121770503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>34182</v>
       </c>
@@ -3330,8 +3525,11 @@
       <c r="J65" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>52788.8227809862</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>34213</v>
       </c>
@@ -3350,8 +3548,11 @@
       <c r="J66" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>52544.058919887299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>34243</v>
       </c>
@@ -3370,8 +3571,11 @@
       <c r="J67" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>57930.634596460899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>34274</v>
       </c>
@@ -3390,8 +3594,11 @@
       <c r="J68" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>62118.892022690998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>34304</v>
       </c>
@@ -3410,8 +3617,11 @@
       <c r="J69" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>72354.825338885406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>34335</v>
       </c>
@@ -3430,8 +3640,11 @@
       <c r="J70" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>74670.190409482704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>34366</v>
       </c>
@@ -3450,8 +3663,11 @@
       <c r="J71">
         <v>13550.3438992548</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>73059.729349673493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>34394</v>
       </c>
@@ -3470,8 +3686,11 @@
       <c r="J72" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>65074.816241787099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>34425</v>
       </c>
@@ -3490,8 +3709,11 @@
       <c r="J73" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>63958.065419082697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>34455</v>
       </c>
@@ -3510,8 +3732,11 @@
       <c r="J74" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>64725.340543328697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>34486</v>
       </c>
@@ -3533,8 +3758,11 @@
       <c r="J75" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>61919.198342354503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>34516</v>
       </c>
@@ -3556,8 +3784,11 @@
       <c r="J76" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>63742.243131147501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>34547</v>
       </c>
@@ -3579,8 +3810,11 @@
       <c r="J77" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>71735.802215657299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>34578</v>
       </c>
@@ -3602,8 +3836,11 @@
       <c r="J78" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>71773.594836824093</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>34608</v>
       </c>
@@ -3625,8 +3862,11 @@
       <c r="J79" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>69131.972049689401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>34639</v>
       </c>
@@ -3651,8 +3891,11 @@
       <c r="J80" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>66512.037837401003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34669</v>
       </c>
@@ -3677,8 +3920,11 @@
       <c r="J81" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>62421.0779317169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34700</v>
       </c>
@@ -3703,8 +3949,11 @@
       <c r="J82" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>54639.949511268998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34731</v>
       </c>
@@ -3729,8 +3978,11 @@
       <c r="J83" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>52655.845829338403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34759</v>
       </c>
@@ -3755,8 +4007,11 @@
       <c r="J84" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>50931.329672861299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34790</v>
       </c>
@@ -3781,8 +4036,11 @@
       <c r="J85" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>52198.035944561598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34820</v>
       </c>
@@ -3807,8 +4065,11 @@
       <c r="J86" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>55824.329876089898</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34851</v>
       </c>
@@ -3833,8 +4094,11 @@
       <c r="J87" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>55522.304399271801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34881</v>
       </c>
@@ -3859,8 +4123,11 @@
       <c r="J88" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>56108.949711372603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34912</v>
       </c>
@@ -3885,8 +4152,11 @@
       <c r="J89" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>56446.1054607244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34943</v>
       </c>
@@ -3911,8 +4181,11 @@
       <c r="J90" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>56898.949072987503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34973</v>
       </c>
@@ -3937,8 +4210,11 @@
       <c r="J91" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>53869.593361571002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35004</v>
       </c>
@@ -3963,8 +4239,11 @@
       <c r="J92" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>53023.258207918399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35034</v>
       </c>
@@ -3989,8 +4268,11 @@
       <c r="J93" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>56251.916001568003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35065</v>
       </c>
@@ -4015,8 +4297,11 @@
       <c r="J94" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>60981.897333756497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35096</v>
       </c>
@@ -4041,8 +4326,11 @@
       <c r="J95" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>60357.156249002401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35125</v>
       </c>
@@ -4067,8 +4355,11 @@
       <c r="J96" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>60788.451491465901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -4093,8 +4384,11 @@
       <c r="J97" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>63757.960714285698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -4119,8 +4413,11 @@
       <c r="J98" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>64243.234047056903</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -4145,8 +4442,11 @@
       <c r="J99" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>64143.073867032799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -4171,8 +4471,11 @@
       <c r="J100" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>58851.267494033404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -4197,8 +4500,11 @@
       <c r="J101" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>59810.475206937299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -4223,8 +4529,11 @@
       <c r="J102" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>60851.492175572501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -4249,8 +4558,11 @@
       <c r="J103" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>59412.836324479496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -4275,8 +4587,11 @@
       <c r="J104" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>59633.021196850401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -4301,8 +4616,11 @@
       <c r="J105">
         <v>20772.951105164098</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>61228.555895372199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -4327,8 +4645,11 @@
       <c r="J106" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>67183.889732142794</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -4353,8 +4674,11 @@
       <c r="J107" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>73113.504132516595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -4379,8 +4703,11 @@
       <c r="J108" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>72019.349764356695</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -4405,8 +4732,11 @@
       <c r="J109" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>72539.088311688305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -4431,8 +4761,11 @@
       <c r="J110" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>74386.723313795796</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -4457,8 +4790,11 @@
       <c r="J111" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>79248.137738853504</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -4483,8 +4819,11 @@
       <c r="J112" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>82669.003109656303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -4509,8 +4848,11 @@
       <c r="J113" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>74207.373010380601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -4535,8 +4877,11 @@
       <c r="J114" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>74263.342555322801</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -4561,8 +4906,11 @@
       <c r="J115" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>60950.892006437702</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -4587,8 +4935,11 @@
       <c r="J116" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>57518.353078202999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -4613,8 +4964,11 @@
       <c r="J117" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>60493.722187247004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -4639,8 +4993,11 @@
       <c r="J118" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>57031.481369031098</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -4665,8 +5022,11 @@
       <c r="J119" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>62845.412007711297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -4691,8 +5051,11 @@
       <c r="J120" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>65814.324960840298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -4717,8 +5080,11 @@
       <c r="J121" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>64656.531911778096</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -4743,8 +5109,11 @@
       <c r="J122" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>54946.140410958898</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -4769,8 +5138,11 @@
       <c r="J123" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>49539.674836601298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -4795,8 +5167,11 @@
       <c r="J124" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>51231.313703366701</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -4821,8 +5196,11 @@
       <c r="J125" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>36269.792677843201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -4847,8 +5225,11 @@
       <c r="J126" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>36771.157477321802</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -4873,8 +5254,11 @@
       <c r="J127" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>39141.804675929699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -4902,8 +5286,11 @@
       <c r="J128" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>43623.963564763297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -4931,8 +5318,11 @@
       <c r="J129" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>42717.475671997199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -4960,8 +5350,11 @@
       <c r="J130" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>43401.641584680197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -4989,8 +5382,11 @@
       <c r="J131" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>45279.567707387898</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -5018,8 +5414,11 @@
       <c r="J132" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>52563.693502141097</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -5047,8 +5446,11 @@
       <c r="J133" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>59875.1408889308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -5076,8 +5478,11 @@
       <c r="J134" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>60329.542482785</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -5105,8 +5510,11 @@
       <c r="J135">
         <v>48159.215072663501</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>68009.001413632795</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -5134,8 +5542,11 @@
       <c r="J136" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>63897.138582382599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -5163,8 +5574,11 @@
       <c r="J137" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>65216.3917714934</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -5192,8 +5606,11 @@
       <c r="J138" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>62465.791729957797</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -5221,8 +5638,11 @@
       <c r="J139" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>65089.716138907497</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -5250,8 +5670,11 @@
       <c r="J140" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>73426.661602456094</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -5279,8 +5702,11 @@
       <c r="J141" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>83185.249631694198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -5308,8 +5734,11 @@
       <c r="J142" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>85860.446552956797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -5337,8 +5766,11 @@
       <c r="J143">
         <v>51386.4792620835</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>87683.987214329798</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -5366,8 +5798,11 @@
       <c r="J144" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <v>89596.890065947795</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -5395,8 +5830,11 @@
       <c r="J145" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>85281.692195927302</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -5424,8 +5862,11 @@
       <c r="J146" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>79840.170203160204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -5453,8 +5894,11 @@
       <c r="J147" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>80464.264734198397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -5482,8 +5926,11 @@
       <c r="J148" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>78910.688997078803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -5511,8 +5958,11 @@
       <c r="J149" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <v>82299.308556029602</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -5540,8 +5990,11 @@
       <c r="J150" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <v>76321.594021677098</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -5569,8 +6022,11 @@
       <c r="J151" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <v>73714.774266365697</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -5598,8 +6054,11 @@
       <c r="J152" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L152">
+        <v>65201.3233072316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -5627,8 +6086,11 @@
       <c r="J153">
         <v>52331.192338071101</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L153">
+        <v>62319.012122514701</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -5656,8 +6118,11 @@
       <c r="J154" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L154">
+        <v>70991.894824061106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -5685,8 +6150,11 @@
       <c r="J155" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L155">
+        <v>65751.541349480904</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -5714,8 +6182,11 @@
       <c r="J156" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L156">
+        <v>62086.266440217303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -5743,8 +6214,11 @@
       <c r="J157" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L157">
+        <v>64831.078188373103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -5772,8 +6246,11 @@
       <c r="J158" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L158">
+        <v>68668.542594339597</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -5801,8 +6278,11 @@
       <c r="J159" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L159">
+        <v>67258.994433962202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -5830,8 +6310,11 @@
       <c r="J160" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L160">
+        <v>61029.714448886298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -5859,8 +6342,11 @@
       <c r="J161" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L161">
+        <v>57768.591286306997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -5888,8 +6374,11 @@
       <c r="J162">
         <v>42453.697174198802</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L162">
+        <v>48971.575906253398</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -5917,8 +6406,11 @@
       <c r="J163" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L163">
+        <v>52522.636761778303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -5946,8 +6438,11 @@
       <c r="J164" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L164">
+        <v>58944.914565070801</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -5975,8 +6470,11 @@
       <c r="J165" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L165">
+        <v>64237.320980369899</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -6004,8 +6502,11 @@
       <c r="J166" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L166">
+        <v>67767.539562348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -6033,8 +6534,11 @@
       <c r="J167" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L167">
+        <v>68769.392417061594</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -6062,8 +6566,11 @@
       <c r="J168" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L168">
+        <v>72295.910797799195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -6091,8 +6598,11 @@
       <c r="J169" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L169">
+        <v>70471.036278863205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -6120,8 +6630,11 @@
       <c r="J170" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L170">
+        <v>66548.285139022002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -6149,8 +6662,11 @@
       <c r="J171" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L171">
+        <v>57927.157714285699</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -6178,8 +6694,11 @@
       <c r="J172" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L172">
+        <v>54571.813983440603</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -6207,8 +6726,11 @@
       <c r="J173" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L173">
+        <v>55130.9286687684</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -6236,8 +6758,11 @@
       <c r="J174" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L174">
+        <v>49048.110365111497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -6265,8 +6790,11 @@
       <c r="J175">
         <v>33998.527672081203</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L175">
+        <v>52209.552189781003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -6294,8 +6822,11 @@
       <c r="J176">
         <v>35771.186081439402</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L176">
+        <v>55449.172801450499</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -6323,8 +6854,11 @@
       <c r="J177">
         <v>31871.7564331781</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L177">
+        <v>50744.265490607402</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -6355,8 +6889,11 @@
       <c r="J178" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L178">
+        <v>48986.5167159763</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -6387,8 +6924,11 @@
       <c r="J179" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L179">
+        <v>47814.679966611002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -6419,8 +6959,11 @@
       <c r="J180" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L180">
+        <v>45977.051730151397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -6451,8 +6994,11 @@
       <c r="J181" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L181">
+        <v>49010.689300152699</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -6483,8 +7029,11 @@
       <c r="J182" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L182">
+        <v>49457.9588394518</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -6515,8 +7064,11 @@
       <c r="J183" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L183">
+        <v>54083.862641113097</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -6547,8 +7099,11 @@
       <c r="J184">
         <v>33586.183615988899</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L184">
+        <v>58024.482081639799</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -6579,8 +7134,11 @@
       <c r="J185">
         <v>35466.4482883288</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L185">
+        <v>64134.715091058802</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -6611,8 +7169,11 @@
       <c r="J186" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L186">
+        <v>60585.097476827999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -6643,8 +7204,11 @@
       <c r="J187" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L187">
+        <v>65910.441868869399</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -6675,8 +7239,11 @@
       <c r="J188" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L188">
+        <v>64651.031015507702</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -6707,8 +7274,11 @@
       <c r="J189" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L189">
+        <v>65846.386460807596</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -6739,8 +7309,11 @@
       <c r="J190">
         <v>35368.937186802097</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L190">
+        <v>69539.370348837198</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -6771,8 +7344,11 @@
       <c r="J191" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L191">
+        <v>72548.037526171698</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -6803,8 +7379,11 @@
       <c r="J192">
         <v>35781.842919726398</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L192">
+        <v>74646.384914921393</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -6835,8 +7414,11 @@
       <c r="J193" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <v>70132.732250774206</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -6867,8 +7449,11 @@
       <c r="J194" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L194">
+        <v>67336.749532710193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -6899,8 +7484,11 @@
       <c r="J195" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L195">
+        <v>67883.634866310094</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -6931,8 +7519,11 @@
       <c r="J196" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L196">
+        <v>67325.8177423374</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -6963,8 +7554,11 @@
       <c r="J197" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L197">
+        <v>69727.081991577899</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -6995,8 +7589,11 @@
       <c r="J198" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L198">
+        <v>71983.098364090503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -7027,8 +7624,11 @@
       <c r="J199" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L199">
+        <v>71809.487869984994</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -7059,8 +7659,11 @@
       <c r="J200" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L200">
+        <v>75167.805716434697</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -7091,8 +7694,11 @@
       <c r="J201" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L201">
+        <v>76900.850524924695</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -7123,8 +7729,11 @@
       <c r="J202" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L202">
+        <v>80612.338550057495</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -7155,8 +7764,11 @@
       <c r="J203" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L203">
+        <v>86222.353428377406</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -7187,8 +7799,11 @@
       <c r="J204" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <v>82362.273989509398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -7219,8 +7834,11 @@
       <c r="J205" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L205">
+        <v>80210.363047001607</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -7251,8 +7869,11 @@
       <c r="J206" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L206">
+        <v>87249.796918335807</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -7283,8 +7904,11 @@
       <c r="J207" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L207">
+        <v>92045.606218987698</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -7315,8 +7939,11 @@
       <c r="J208" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L208">
+        <v>98550.415132721406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -7347,8 +7974,11 @@
       <c r="J209" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L209">
+        <v>98581.589719626107</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -7379,8 +8009,11 @@
       <c r="J210" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L210">
+        <v>109170.120478325</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -7411,8 +8044,11 @@
       <c r="J211" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <v>102198.705397987</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -7443,8 +8079,11 @@
       <c r="J212" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L212">
+        <v>113048.743665562</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -7475,8 +8114,11 @@
       <c r="J213" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L213">
+        <v>119461.289972026</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -7507,8 +8149,11 @@
       <c r="J214" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <v>129357.54603069799</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -7539,8 +8184,11 @@
       <c r="J215" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <v>131878.22975999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -7571,8 +8219,11 @@
       <c r="J216">
         <v>43076.461622562398</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <v>130542.987937871</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -7603,8 +8254,11 @@
       <c r="J217" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <v>135028.48528356</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -7635,8 +8289,11 @@
       <c r="J218" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L218">
+        <v>117799.220982281</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -7667,8 +8324,11 @@
       <c r="J219" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L219">
+        <v>118982.63663966001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -7699,8 +8359,11 @@
       <c r="J220" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L220">
+        <v>120221.72211169401</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -7731,8 +8394,11 @@
       <c r="J221" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L221">
+        <v>122538.693144502</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -7763,8 +8429,11 @@
       <c r="J222" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L222">
+        <v>125433.024881516</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -7795,8 +8464,11 @@
       <c r="J223" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L223">
+        <v>131024.814413988</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -7827,8 +8499,11 @@
       <c r="J224" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L224">
+        <v>135407.578090909</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -7859,8 +8534,11 @@
       <c r="J225" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L225">
+        <v>141840.00232346199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -7891,8 +8569,11 @@
       <c r="J226" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L226">
+        <v>142748.52950440001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -7923,8 +8604,11 @@
       <c r="J227" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L227">
+        <v>139160.763015668</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -7955,8 +8639,11 @@
       <c r="J228" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L228">
+        <v>143572.447424538</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -7987,8 +8674,11 @@
       <c r="J229" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L229">
+        <v>147231.63850055099</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -8019,8 +8709,11 @@
       <c r="J230" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L230">
+        <v>156166.989950196</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -8051,8 +8744,11 @@
       <c r="J231" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L231">
+        <v>162924.02136986301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -8086,8 +8782,11 @@
       <c r="K232">
         <v>10000</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L232">
+        <v>169075.885095206</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -8121,8 +8820,11 @@
       <c r="K233" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L233">
+        <v>165562.23992703299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -8156,8 +8858,11 @@
       <c r="K234" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L234">
+        <v>177713.77910995099</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -8191,8 +8896,11 @@
       <c r="K235" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L235">
+        <v>193881.755367896</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -8226,8 +8934,11 @@
       <c r="K236" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L236">
+        <v>176314.51457218299</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -8261,8 +8972,11 @@
       <c r="K237" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L237">
+        <v>177428.403545954</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -8296,8 +9010,11 @@
       <c r="K238" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L238">
+        <v>153781.84095494199</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -8331,8 +9048,11 @@
       <c r="K239">
         <v>8188.3007668832297</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L239">
+        <v>161954.01318652299</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -8366,8 +9086,11 @@
       <c r="K240" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L240">
+        <v>147140.763217809</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -8401,8 +9124,11 @@
       <c r="K241" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L241">
+        <v>161890.422857142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -8436,8 +9162,11 @@
       <c r="K242" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L242">
+        <v>165281.16588857301</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -8471,8 +9200,11 @@
       <c r="K243" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L243">
+        <v>146398.528089317</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -8506,8 +9238,11 @@
       <c r="K244" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L244">
+        <v>142373.99534943301</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -8541,8 +9276,11 @@
       <c r="K245" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L245">
+        <v>138839.24143875099</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -8576,8 +9314,11 @@
       <c r="K246" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L246">
+        <v>118016.885604418</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -8611,8 +9352,11 @@
       <c r="K247" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L247">
+        <v>96125.564944736194</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -8646,8 +9390,11 @@
       <c r="K248" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L248">
+        <v>89105.854844032307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -8681,8 +9428,11 @@
       <c r="K249" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L249">
+        <v>87864.604268161202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -8716,8 +9466,11 @@
       <c r="K250" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L250">
+        <v>89290.083707865095</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -8751,8 +9504,11 @@
       <c r="K251" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L251">
+        <v>85414.299841822198</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -8786,8 +9542,11 @@
       <c r="K252" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L252">
+        <v>92826.047069431894</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -8821,8 +9580,11 @@
       <c r="K253" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L253">
+        <v>108556.640406779</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -8856,8 +9618,11 @@
       <c r="K254" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L254">
+        <v>119744.915094339</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -8891,8 +9656,11 @@
       <c r="K255" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L255">
+        <v>117854.721989528</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -8926,8 +9694,11 @@
       <c r="K256" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L256">
+        <v>131154.35118121299</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -8961,8 +9732,11 @@
       <c r="K257" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L257">
+        <v>129492.74777186</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -8996,8 +9770,11 @@
       <c r="K258" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L258">
+        <v>137688.793607867</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -9031,8 +9808,11 @@
       <c r="K259" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L259">
+        <v>136409.26500000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -9066,8 +9846,11 @@
       <c r="K260" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L260">
+        <v>140163.74973041299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -9101,8 +9884,11 @@
       <c r="K261" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L261">
+        <v>151957.183132028</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -9136,8 +9922,11 @@
       <c r="K262" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L262">
+        <v>148028.061291708</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -9171,8 +9960,11 @@
       <c r="K263" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L263">
+        <v>152915.99014001401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -9206,8 +9998,11 @@
       <c r="K264" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L264">
+        <v>166389.25693300599</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -9241,8 +10036,11 @@
       <c r="K265" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L265">
+        <v>170516.99788208699</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -9276,8 +10074,11 @@
       <c r="K266">
         <v>10793.2668795967</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L266">
+        <v>168336.14040789701</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -9311,8 +10112,11 @@
       <c r="K267" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L267">
+        <v>167619.04390840101</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -9346,8 +10150,11 @@
       <c r="K268" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L268">
+        <v>171138.745210316</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -9381,8 +10188,11 @@
       <c r="K269" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L269">
+        <v>172479.90790220801</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -9416,8 +10226,11 @@
       <c r="K270" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L270">
+        <v>178076.400483587</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -9451,8 +10264,11 @@
       <c r="K271" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L271">
+        <v>180498.52985494601</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -9486,8 +10302,11 @@
       <c r="K272" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L272">
+        <v>187355.23303585101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -9521,8 +10340,11 @@
       <c r="K273" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L273">
+        <v>195278.24777727801</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -9556,8 +10378,11 @@
       <c r="K274" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L274">
+        <v>185437.567966695</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -9591,8 +10416,11 @@
       <c r="K275" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L275">
+        <v>181849.70649125299</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -9626,8 +10454,11 @@
       <c r="K276" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L276">
+        <v>187514.25248117099</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -9661,8 +10492,11 @@
       <c r="K277" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L277">
+        <v>184874.258761776</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -9696,8 +10530,11 @@
       <c r="K278" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L278">
+        <v>186045.555954118</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -9731,8 +10568,11 @@
       <c r="K279" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L279">
+        <v>182399.53462948799</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -9766,8 +10606,11 @@
       <c r="K280" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L280">
+        <v>184172.93583450199</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -9801,8 +10644,11 @@
       <c r="K281" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L281">
+        <v>165575.882366782</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -9836,8 +10682,11 @@
       <c r="K282" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L282">
+        <v>151384.966496334</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -9871,8 +10720,11 @@
       <c r="K283" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L283">
+        <v>165353.64375401699</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -9906,8 +10758,11 @@
       <c r="K284" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L284">
+        <v>161048.41426441999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -9941,8 +10796,11 @@
       <c r="K285" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L285">
+        <v>165013.48017621099</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -9976,8 +10834,11 @@
       <c r="K286" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L286">
+        <v>180456.93073770401</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -10011,8 +10872,11 @@
       <c r="K287" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L287">
+        <v>187500.12492747101</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -10046,8 +10910,11 @@
       <c r="K288" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L288">
+        <v>182442.90107816699</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -10081,8 +10948,11 @@
       <c r="K289" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L289">
+        <v>182250.92520054401</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -10116,8 +10986,11 @@
       <c r="K290" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L290">
+        <v>172493.72077723101</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -10151,8 +11024,11 @@
       <c r="K291" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L291">
+        <v>176570.036378077</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -10186,8 +11062,11 @@
       <c r="K292" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L292">
+        <v>184628.90602409601</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -10221,8 +11100,11 @@
       <c r="K293" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L293">
+        <v>179321.759543255</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -10256,8 +11138,11 @@
       <c r="K294" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L294">
+        <v>185485.91387470899</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -10291,8 +11176,11 @@
       <c r="K295" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L295">
+        <v>183485.726945278</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -10326,8 +11214,11 @@
       <c r="K296" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L296">
+        <v>185928.92679808999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -10361,8 +11252,11 @@
       <c r="K297" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L297">
+        <v>191967.529058663</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -10396,8 +11290,11 @@
       <c r="K298" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L298">
+        <v>189530.211188191</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -10431,8 +11328,11 @@
       <c r="K299" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L299">
+        <v>193178.36005788701</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -10466,8 +11366,11 @@
       <c r="K300" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L300">
+        <v>194697.77426005399</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -10501,8 +11404,11 @@
       <c r="K301" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L301">
+        <v>192233.252616279</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -10536,8 +11442,11 @@
       <c r="K302" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L302">
+        <v>188342.81316315499</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -10571,8 +11480,11 @@
       <c r="K303" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L303">
+        <v>175443.93701834799</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -10606,8 +11518,11 @@
       <c r="K304" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L304">
+        <v>174766.46725423701</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -10641,8 +11556,11 @@
       <c r="K305" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L305">
+        <v>172352.92977710601</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -10676,8 +11594,11 @@
       <c r="K306" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L306">
+        <v>179944.846027397</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -10711,8 +11632,11 @@
       <c r="K307" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L307">
+        <v>186832.35359577701</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -10746,8 +11670,11 @@
       <c r="K308" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L308">
+        <v>184520.81207846501</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -10781,8 +11708,11 @@
       <c r="K309" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L309">
+        <v>179494.29697628799</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -10816,8 +11746,11 @@
       <c r="K310" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L310">
+        <v>171294.396818585</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -10851,8 +11784,11 @@
       <c r="K311" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L311">
+        <v>173198.84236588699</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -10886,8 +11822,11 @@
       <c r="K312" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L312">
+        <v>178877.98289817199</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -10921,8 +11860,11 @@
       <c r="K313" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L313">
+        <v>178740.171162454</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -10956,8 +11898,11 @@
       <c r="K314" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L314">
+        <v>188323.919894172</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -10991,8 +11936,11 @@
       <c r="K315" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L315">
+        <v>192690.45731439401</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -11026,8 +11974,11 @@
       <c r="K316" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L316">
+        <v>200673.86427984099</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -11061,8 +12012,11 @@
       <c r="K317" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L317">
+        <v>208249.35737033599</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -11096,8 +12050,11 @@
       <c r="K318" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L318">
+        <v>202129.221600572</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -11131,8 +12088,11 @@
       <c r="K319" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L319">
+        <v>205499.484845097</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -11166,8 +12126,11 @@
       <c r="K320" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L320">
+        <v>204006.038356164</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -11201,8 +12164,11 @@
       <c r="K321" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L321">
+        <v>200184.90422535199</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -11236,8 +12202,11 @@
       <c r="K322">
         <v>27461.7234712953</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L322">
+        <v>216294.74924369701</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -11271,8 +12240,11 @@
       <c r="K323" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L323">
+        <v>224307.68604982199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -11306,8 +12278,11 @@
       <c r="K324" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L324">
+        <v>231050.34925178901</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -11341,8 +12316,11 @@
       <c r="K325" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L325">
+        <v>238760.16267498801</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -11376,8 +12354,11 @@
       <c r="K326">
         <v>30853.782841508</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L326">
+        <v>234364.88395624401</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -11411,8 +12392,11 @@
       <c r="K327" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L327">
+        <v>223985.073643757</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -11446,8 +12430,11 @@
       <c r="K328" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L328">
+        <v>212818.88808242901</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -11481,8 +12468,11 @@
       <c r="K329" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L329">
+        <v>189362.06081141299</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -11516,8 +12506,11 @@
       <c r="K330" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L330">
+        <v>183929.72471659299</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -11551,8 +12544,11 @@
       <c r="K331" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L331">
+        <v>200389.649087773</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -11586,8 +12582,11 @@
       <c r="K332" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L332">
+        <v>200560.09870498101</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -11621,8 +12620,11 @@
       <c r="K333" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L333">
+        <v>190652.20523560201</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -11656,8 +12658,11 @@
       <c r="K334" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L334">
+        <v>177755.67445054901</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -11691,8 +12696,11 @@
       <c r="K335" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L335">
+        <v>178006.03082292399</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -11726,8 +12734,11 @@
       <c r="K336" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L336">
+        <v>192804.502134387</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -11761,8 +12772,11 @@
       <c r="K337" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L337">
+        <v>193584.78263614801</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -11796,8 +12810,11 @@
       <c r="K338" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L338">
+        <v>190563.068423883</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -11831,8 +12848,11 @@
       <c r="K339" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L339">
+        <v>199295.82684200999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -11866,8 +12886,11 @@
       <c r="K340" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L340">
+        <v>209232.34710699099</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -11901,8 +12924,11 @@
       <c r="K341" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L341">
+        <v>214135.64401724699</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -11936,8 +12962,11 @@
       <c r="K342" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L342">
+        <v>216389.06884687699</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -11971,8 +13000,11 @@
       <c r="K343" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L343">
+        <v>221184.77568061301</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -12006,8 +13038,11 @@
       <c r="K344" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L344">
+        <v>217187.73511988699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -12041,8 +13076,11 @@
       <c r="K345" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L345">
+        <v>219759.92080447701</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -12076,8 +13114,11 @@
       <c r="K346" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L346">
+        <v>227184.656736401</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -12111,8 +13152,11 @@
       <c r="K347" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L347">
+        <v>237647.899499858</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -12146,8 +13190,11 @@
       <c r="K348" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L348">
+        <v>241563.68822373901</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -12181,8 +13228,11 @@
       <c r="K349" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L349">
+        <v>241503.26870997201</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -12216,8 +13266,11 @@
       <c r="K350" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L350">
+        <v>242244.089189911</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -12251,8 +13304,11 @@
       <c r="K351">
         <v>37811.970724205901</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L351">
+        <v>240749.224763406</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -12286,8 +13342,11 @@
       <c r="K352">
         <v>38326.9386130087</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L352">
+        <v>248435.991711435</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -12321,8 +13380,11 @@
       <c r="K353" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L353">
+        <v>251964.628820296</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -12356,8 +13418,11 @@
       <c r="K354" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L354">
+        <v>251423.91873623501</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -12391,8 +13456,11 @@
       <c r="K355" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L355">
+        <v>264010.52041587897</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -12426,8 +13494,11 @@
       <c r="K356" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L356">
+        <v>259843.89352687899</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -12461,8 +13532,11 @@
       <c r="K357" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L357">
+        <v>266073.00860501901</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -12496,8 +13570,11 @@
       <c r="K358" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L358">
+        <v>277531.56687806</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -12531,8 +13608,11 @@
       <c r="K359" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L359">
+        <v>270039.19870640198</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -12566,8 +13646,11 @@
       <c r="K360" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L360">
+        <v>262785.50810810801</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -12601,8 +13684,11 @@
       <c r="K361" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L361">
+        <v>266914.12509313598</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -12636,8 +13722,11 @@
       <c r="K362" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L362">
+        <v>265884.77934866201</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -12671,8 +13760,11 @@
       <c r="K363">
         <v>46492.478946570598</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L363">
+        <v>255911.465465774</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -12706,8 +13798,11 @@
       <c r="K364" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L364">
+        <v>260018.99815950901</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -12741,8 +13836,11 @@
       <c r="K365" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L365">
+        <v>254910.81690841899</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -12776,8 +13874,11 @@
       <c r="K366" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L366">
+        <v>255285.814322736</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -12811,8 +13912,11 @@
       <c r="K367" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L367">
+        <v>238389.48639335501</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -12846,8 +13950,11 @@
       <c r="K368" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L368">
+        <v>247334.62280130299</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -12881,8 +13988,11 @@
       <c r="K369" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L369">
+        <v>239016.81961572001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -12916,8 +14026,11 @@
       <c r="K370" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L370">
+        <v>259102.98676880199</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -12951,8 +14064,11 @@
       <c r="K371">
         <v>48112.199535029999</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L371">
+        <v>261347.22088297101</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -12986,8 +14102,11 @@
       <c r="K372" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L372">
+        <v>267838.04427236301</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -13021,8 +14140,11 @@
       <c r="K373" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L373">
+        <v>273941.61586735601</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -13056,8 +14178,11 @@
       <c r="K374" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L374">
+        <v>255677.52542372799</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -13091,8 +14216,11 @@
       <c r="K375" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L375">
+        <v>266371.92616871698</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -13126,8 +14254,11 @@
       <c r="K376" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L376">
+        <v>268743.33930589102</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -13161,8 +14292,11 @@
       <c r="K377" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L377">
+        <v>258381.815023559</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -13196,8 +14330,11 @@
       <c r="K378">
         <v>55306.5051140039</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L378">
+        <v>266955.24057305499</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -13231,8 +14368,11 @@
       <c r="K379" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L379">
+        <v>271629.89725658903</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -13266,8 +14406,11 @@
       <c r="K380" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L380">
+        <v>275522.70207612403</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -13301,8 +14444,11 @@
       <c r="K381" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L381">
+        <v>289613.94755207398</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -13336,8 +14482,11 @@
       <c r="K382">
         <v>63359.019572978897</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L382">
+        <v>280672.06302931497</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -13371,8 +14520,11 @@
       <c r="K383" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L383">
+        <v>267703.975457775</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -13406,8 +14558,11 @@
       <c r="K384" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L384">
+        <v>226972.982365826</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -13441,8 +14596,11 @@
       <c r="K385" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L385">
+        <v>249624.58306362599</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -13476,8 +14634,11 @@
       <c r="K386" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L386">
+        <v>245720.77176724101</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -13511,8 +14672,11 @@
       <c r="K387" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L387">
+        <v>262449.36151098402</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -13546,8 +14710,11 @@
       <c r="K388">
         <v>71932.013383255005</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L388">
+        <v>270439.19893652899</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -13581,8 +14748,11 @@
       <c r="K389" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L389">
+        <v>274353.66316582903</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -13616,8 +14786,11 @@
       <c r="K390" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L390">
+        <v>275367.70592757</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -13651,8 +14824,11 @@
       <c r="K391" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L391">
+        <v>281323.79723029502</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -13686,8 +14862,11 @@
       <c r="K392" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L392">
+        <v>300124.88909849699</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -13721,8 +14900,11 @@
       <c r="K393" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L393">
+        <v>314686.34600277001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -13756,8 +14938,11 @@
       <c r="K394" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L394">
+        <v>328025.233536585</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -13791,8 +14976,11 @@
       <c r="K395" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L395">
+        <v>330961.24108571903</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -13826,8 +15014,11 @@
       <c r="K396" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L396">
+        <v>337056.15300639602</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -13861,8 +15052,11 @@
       <c r="K397">
         <v>89998.125885784306</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L397">
+        <v>335284.91690117499</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -13896,8 +15090,11 @@
       <c r="K398" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L398">
+        <v>339791.16941234301</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -13931,8 +15128,11 @@
       <c r="K399" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L399">
+        <v>349573.99059239298</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -13966,8 +15166,11 @@
       <c r="K400" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L400">
+        <v>326060.94202337897</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -14001,8 +15204,11 @@
       <c r="K401" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L401">
+        <v>336310.36442453897</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -14036,8 +15242,11 @@
       <c r="K402">
         <v>99740.003119598696</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L402">
+        <v>330178.03853527899</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -14071,8 +15280,11 @@
       <c r="K403" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L403">
+        <v>331593.044259338</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -14106,8 +15318,11 @@
       <c r="K404" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L404">
+        <v>326001.36159464897</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -14141,8 +15356,11 @@
       <c r="K405" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L405">
+        <v>333361.95447642502</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -14176,8 +15394,11 @@
       <c r="K406" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L406">
+        <v>332060.99134098197</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -14211,8 +15432,11 @@
       <c r="K407" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L407">
+        <v>320938.50152692199</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -14246,8 +15470,11 @@
       <c r="K408" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L408">
+        <v>316571.36805693101</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -14281,8 +15508,11 @@
       <c r="K409" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L409">
+        <v>314924.56411764701</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -14316,8 +15546,11 @@
       <c r="K410" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L410">
+        <v>311280.72231867799</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -14351,8 +15584,11 @@
       <c r="K411" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L411">
+        <v>299980.93568884098</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -14386,8 +15622,11 @@
       <c r="K412" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L412">
+        <v>305045.90062757401</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -14421,8 +15660,11 @@
       <c r="K413">
         <v>96970.549265604393</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L413">
+        <v>312501.15935999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -14456,8 +15698,11 @@
       <c r="K414" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L414">
+        <v>283156.875646286</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -14491,8 +15736,11 @@
       <c r="K415" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L415">
+        <v>269808.06723824801</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -14526,8 +15774,11 @@
       <c r="K416" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L416">
+        <v>296069.81860061601</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -14561,8 +15812,11 @@
       <c r="K417" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L417">
+        <v>284127.50133133301</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -14596,8 +15850,11 @@
       <c r="K418" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L418">
+        <v>301863.255054001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -14631,8 +15888,11 @@
       <c r="K419" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L419">
+        <v>288001.65574912803</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -14666,8 +15926,11 @@
       <c r="K420" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L420">
+        <v>289860.494565517</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -14701,8 +15964,11 @@
       <c r="K421" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L421">
+        <v>283863.871286768</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -14736,8 +16002,11 @@
       <c r="K422" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L422">
+        <v>286965.66604886198</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -14771,8 +16040,11 @@
       <c r="K423" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L423">
+        <v>293112.91921590199</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -14806,8 +16078,11 @@
       <c r="K424" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L424">
+        <v>307121.98181983101</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -14841,8 +16116,11 @@
       <c r="K425" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L425">
+        <v>292403.45769230701</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -14876,8 +16154,11 @@
       <c r="K426" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L426">
+        <v>291910.57449159498</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -14911,8 +16192,11 @@
       <c r="K427" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L427">
+        <v>281032.555781134</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -14946,8 +16230,11 @@
       <c r="K428" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L428">
+        <v>294037.75462098501</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -14981,8 +16268,11 @@
       <c r="K429" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L429">
+        <v>301785.53265323798</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -15016,8 +16306,11 @@
       <c r="K430" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L430">
+        <v>292646.906074845</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -15051,8 +16344,11 @@
       <c r="K431" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L431">
+        <v>307730.06323996797</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -15086,8 +16382,11 @@
       <c r="K432" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L432">
+        <v>315983.36250371998</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -15121,8 +16420,11 @@
       <c r="K433" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L433">
+        <v>320588.26182697603</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -15156,8 +16458,11 @@
       <c r="K434" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L434">
+        <v>317543.82672621898</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -15191,8 +16496,11 @@
       <c r="K435" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L435">
+        <v>334333.78320716898</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -15226,8 +16534,11 @@
       <c r="K436" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L436">
+        <v>332121.46265984199</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -15261,8 +16572,11 @@
       <c r="K437" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L437">
+        <v>329922.44530281698</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -15296,8 +16610,11 @@
       <c r="K438" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L438">
+        <v>349067.73162684799</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -15331,8 +16648,11 @@
       <c r="K439" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L439">
+        <v>342883.07845515502</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -15366,8 +16686,11 @@
       <c r="K440" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L440">
+        <v>339780.77447658102</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -15401,8 +16724,11 @@
       <c r="K441" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L441">
+        <v>346097.12923227</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -15436,8 +16762,11 @@
       <c r="K442">
         <v>165556.941679699</v>
       </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L442">
+        <v>350909.55832424702</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -15471,8 +16800,11 @@
       <c r="K443">
         <v>160789.07656575501</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L443">
+        <v>352456.71935644298</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -15506,8 +16838,11 @@
       <c r="K444">
         <v>142963.67985542401</v>
       </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L444">
+        <v>341488.23895192402</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -15541,8 +16876,11 @@
       <c r="K445">
         <v>138046.27939398901</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L445">
+        <v>328764.40258697298</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -15576,8 +16914,11 @@
       <c r="K446">
         <v>151070.536301844</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L446">
+        <v>343242.92975284101</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -15608,8 +16949,11 @@
       <c r="K447">
         <v>155399.40953235599</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L447">
+        <v>351915.94467064098</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -15640,8 +16984,11 @@
       <c r="K448">
         <v>162937.97163221601</v>
       </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L448">
+        <v>367958.92701609799</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -15654,6 +17001,12 @@
       <c r="D449">
         <v>324440.95168639498</v>
       </c>
+      <c r="E449">
+        <v>179259.64831776399</v>
+      </c>
+      <c r="G449">
+        <v>12941.921257956999</v>
+      </c>
       <c r="H449">
         <v>74659.108515483895</v>
       </c>
@@ -15666,8 +17019,11 @@
       <c r="K449">
         <v>161417.05821682099</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L449">
+        <v>364416.28743850801</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -15677,6 +17033,12 @@
       <c r="D450">
         <v>325886.06303551601</v>
       </c>
+      <c r="E450">
+        <v>198554.85956857901</v>
+      </c>
+      <c r="G450">
+        <v>12965.0589667351</v>
+      </c>
       <c r="H450">
         <v>76239.875334578595</v>
       </c>
@@ -15688,6 +17050,58 @@
       </c>
       <c r="K450">
         <v>169006.89903428801</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>45931</v>
+      </c>
+      <c r="D451">
+        <v>330193.98907737498</v>
+      </c>
+      <c r="E451">
+        <v>211589.70919162099</v>
+      </c>
+      <c r="G451">
+        <v>12987.5281862989</v>
+      </c>
+      <c r="H451">
+        <v>78195.469570188405</v>
+      </c>
+      <c r="I451">
+        <v>1068264.9828687799</v>
+      </c>
+      <c r="J451">
+        <v>348054.98133024102</v>
+      </c>
+      <c r="K451">
+        <v>179978.549435283</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>45962</v>
+      </c>
+      <c r="D452">
+        <v>341025.19329413801</v>
+      </c>
+      <c r="E452">
+        <v>220830.859331363</v>
+      </c>
+      <c r="G452">
+        <v>13007.882186258999</v>
+      </c>
+      <c r="H452">
+        <v>79012.5367347625</v>
+      </c>
+      <c r="I452">
+        <v>1070171.0980511799</v>
+      </c>
+      <c r="J452">
+        <v>348546.03271020099</v>
+      </c>
+      <c r="K452">
+        <v>176939.157757643</v>
       </c>
     </row>
   </sheetData>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97955580-42BF-CA44-8C35-2DECC1F4B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB05A96-EBC5-EA4D-9A2B-B28F9F70CFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25580" windowHeight="20880" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
   <si>
     <t>Date</t>
   </si>
@@ -1746,6 +1746,9 @@
   </si>
   <si>
     <t>Emerging Markets</t>
+  </si>
+  <si>
+    <t>FTSE All World</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1768,6 +1771,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1791,12 +1801,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2131,13 +2142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:L452"/>
+  <dimension ref="A1:M452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I429" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K450" sqref="K450:K452"/>
+      <selection pane="bottomRight" activeCell="N441" sqref="N441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2154,7 +2165,7 @@
     <col min="10" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2202,11 @@
       <c r="L1" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -2212,7 +2226,7 @@
         <v>13639.024029304001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -2232,7 +2246,7 @@
         <v>14627.421428571401</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -2252,7 +2266,7 @@
         <v>14975.0410110864</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>14901.700172304299</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -2292,7 +2306,7 @@
         <v>15753.073629242799</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>15265.1375658587</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -2332,7 +2346,7 @@
         <v>14598.684051615</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>15003.0670212765</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -2372,7 +2386,7 @@
         <v>15401.7352352528</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -2392,7 +2406,7 @@
         <v>16786.342961251299</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -2412,7 +2426,7 @@
         <v>18582.710906325399</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -2432,7 +2446,7 @@
         <v>22232.7876923076</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -2452,7 +2466,7 @@
         <v>23500.913333958899</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -2472,7 +2486,7 @@
         <v>21022.2251050821</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -6826,7 +6840,7 @@
         <v>55449.172801450499</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -6858,7 +6872,7 @@
         <v>50744.265490607402</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -6893,7 +6907,7 @@
         <v>48986.5167159763</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -6928,7 +6942,7 @@
         <v>47814.679966611002</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -6963,7 +6977,7 @@
         <v>45977.051730151397</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -6998,7 +7012,7 @@
         <v>49010.689300152699</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -7033,7 +7047,7 @@
         <v>49457.9588394518</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -7068,7 +7082,7 @@
         <v>54083.862641113097</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -7103,7 +7117,7 @@
         <v>58024.482081639799</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -7138,7 +7152,7 @@
         <v>64134.715091058802</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -7172,8 +7186,11 @@
       <c r="L186">
         <v>60585.097476827999</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -7207,8 +7224,11 @@
       <c r="L187">
         <v>65910.441868869399</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="5">
+        <v>10631.818499999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -7242,8 +7262,11 @@
       <c r="L188">
         <v>64651.031015507702</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="5">
+        <v>10455.157300000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -7277,8 +7300,11 @@
       <c r="L189">
         <v>65846.386460807596</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="5">
+        <v>10543.3339</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -7312,8 +7338,11 @@
       <c r="L190">
         <v>69539.370348837198</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="5">
+        <v>10950.718999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -7347,8 +7376,11 @@
       <c r="L191">
         <v>72548.037526171698</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="5">
+        <v>11135.4257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -7382,8 +7414,11 @@
       <c r="L192">
         <v>74646.384914921393</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="5">
+        <v>11255.089400000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -7417,8 +7452,11 @@
       <c r="L193">
         <v>70132.732250774206</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="5">
+        <v>11240.2989</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -7452,8 +7490,11 @@
       <c r="L194">
         <v>67336.749532710193</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="5">
+        <v>11094.0452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -7487,8 +7528,11 @@
       <c r="L195">
         <v>67883.634866310094</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="5">
+        <v>11344.092500000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -7522,8 +7566,11 @@
       <c r="L196">
         <v>67325.8177423374</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="5">
+        <v>11096.7626</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -7557,8 +7604,11 @@
       <c r="L197">
         <v>69727.081991577899</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="5">
+        <v>11108.4683</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -7592,8 +7642,11 @@
       <c r="L198">
         <v>71983.098364090503</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="5">
+        <v>11072.6877</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -7627,8 +7680,11 @@
       <c r="L199">
         <v>71809.487869984994</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="5">
+        <v>11051.527400000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -7662,8 +7718,11 @@
       <c r="L200">
         <v>75167.805716434697</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" s="5">
+        <v>11170.8851</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -7697,8 +7756,11 @@
       <c r="L201">
         <v>76900.850524924695</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="5">
+        <v>11323.867899999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -7732,8 +7794,11 @@
       <c r="L202">
         <v>80612.338550057495</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="5">
+        <v>11586.8878</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -7767,8 +7832,11 @@
       <c r="L203">
         <v>86222.353428377406</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="5">
+        <v>11790.203100000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -7802,8 +7870,11 @@
       <c r="L204">
         <v>82362.273989509398</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" s="5">
+        <v>11791.3375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -7837,8 +7908,11 @@
       <c r="L205">
         <v>80210.363047001607</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" s="5">
+        <v>11540.3256</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -7872,8 +7946,11 @@
       <c r="L206">
         <v>87249.796918335807</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" s="5">
+        <v>12378.0695</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -7907,8 +7984,11 @@
       <c r="L207">
         <v>92045.606218987698</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="5">
+        <v>12767.6708</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -7942,8 +8022,11 @@
       <c r="L208">
         <v>98550.415132721406</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="5">
+        <v>13251.210999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -7977,8 +8060,11 @@
       <c r="L209">
         <v>98581.589719626107</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" s="5">
+        <v>13232.154699999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -8012,8 +8098,11 @@
       <c r="L210">
         <v>109170.120478325</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="5">
+        <v>13796.158799999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -8047,8 +8136,11 @@
       <c r="L211">
         <v>102198.705397987</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="5">
+        <v>13459.761200000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -8082,8 +8174,11 @@
       <c r="L212">
         <v>113048.743665562</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="5">
+        <v>14245.5543</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -8117,8 +8212,11 @@
       <c r="L213">
         <v>119461.289972026</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="5">
+        <v>14562.9581</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -8152,8 +8250,11 @@
       <c r="L214">
         <v>129357.54603069799</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="5">
+        <v>14883.5479</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -8187,8 +8288,11 @@
       <c r="L215">
         <v>131878.22975999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="5">
+        <v>15178.2726</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -8222,8 +8326,11 @@
       <c r="L216">
         <v>130542.987937871</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="5">
+        <v>15215.981100000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -8257,8 +8364,11 @@
       <c r="L217">
         <v>135028.48528356</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="5">
+        <v>15174.056699999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -8292,8 +8402,11 @@
       <c r="L218">
         <v>117799.220982281</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="5">
+        <v>14212.506799999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -8327,8 +8440,11 @@
       <c r="L219">
         <v>118982.63663966001</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" s="5">
+        <v>14396.1057</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -8362,8 +8478,11 @@
       <c r="L220">
         <v>120221.72211169401</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" s="5">
+        <v>14451.8596</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -8397,8 +8516,11 @@
       <c r="L221">
         <v>122538.693144502</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="5">
+        <v>14735.380499999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -8432,8 +8554,11 @@
       <c r="L222">
         <v>125433.024881516</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="5">
+        <v>15144.072899999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -8467,8 +8592,11 @@
       <c r="L223">
         <v>131024.814413988</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="5">
+        <v>15664.4185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -8502,8 +8630,11 @@
       <c r="L224">
         <v>135407.578090909</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="5">
+        <v>15498.626399999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -8537,8 +8668,11 @@
       <c r="L225">
         <v>141840.00232346199</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="5">
+        <v>15893.254300000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -8572,8 +8706,11 @@
       <c r="L226">
         <v>142748.52950440001</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="5">
+        <v>16312.8953</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -8607,8 +8744,11 @@
       <c r="L227">
         <v>139160.763015668</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227" s="5">
+        <v>15906.0231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -8642,8 +8782,11 @@
       <c r="L228">
         <v>143572.447424538</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="5">
+        <v>16098.1083</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -8677,8 +8820,11 @@
       <c r="L229">
         <v>147231.63850055099</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" s="5">
+        <v>16472.939600000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -8712,8 +8858,11 @@
       <c r="L230">
         <v>156166.989950196</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230" s="5">
+        <v>17176.825799999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -8747,8 +8896,11 @@
       <c r="L231">
         <v>162924.02136986301</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231" s="5">
+        <v>17070.164000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -8785,8 +8937,11 @@
       <c r="L232">
         <v>169075.885095206</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232" s="5">
+        <v>16571.039799999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -8823,8 +8978,11 @@
       <c r="L233">
         <v>165562.23992703299</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233" s="5">
+        <v>16530.306799999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -8861,8 +9019,11 @@
       <c r="L234">
         <v>177713.77910995099</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234" s="5">
+        <v>16834.0766</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -8899,8 +9060,11 @@
       <c r="L235">
         <v>193881.755367896</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235" s="5">
+        <v>17189.133900000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -8937,8 +9101,11 @@
       <c r="L236">
         <v>176314.51457218299</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236" s="5">
+        <v>16118.239299999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -8975,8 +9142,11 @@
       <c r="L237">
         <v>177428.403545954</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237" s="5">
+        <v>15973.7248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -9013,8 +9183,11 @@
       <c r="L238">
         <v>153781.84095494199</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238" s="5">
+        <v>14524.3313</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -9051,8 +9224,11 @@
       <c r="L239">
         <v>161954.01318652299</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239" s="5">
+        <v>14273.247600000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -9089,8 +9265,11 @@
       <c r="L240">
         <v>147140.763217809</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" s="5">
+        <v>13492.397800000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -9127,8 +9306,11 @@
       <c r="L241">
         <v>161890.422857142</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241" s="5">
+        <v>14494.431399999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -9165,8 +9347,11 @@
       <c r="L242">
         <v>165281.16588857301</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242" s="5">
+        <v>14744.7657</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -9203,8 +9388,11 @@
       <c r="L243">
         <v>146398.528089317</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243" s="5">
+        <v>13279.951800000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -9241,8 +9429,11 @@
       <c r="L244">
         <v>142373.99534943301</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244" s="5">
+        <v>13095.2055</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -9279,8 +9470,11 @@
       <c r="L245">
         <v>138839.24143875099</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245" s="5">
+        <v>13568.8236</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -9317,8 +9511,11 @@
       <c r="L246">
         <v>118016.885604418</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246" s="5">
+        <v>12260.660900000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -9355,8 +9552,11 @@
       <c r="L247">
         <v>96125.564944736194</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247" s="5">
+        <v>11007.6576</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -9393,8 +9593,11 @@
       <c r="L248">
         <v>89105.854844032307</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248" s="5">
+        <v>10315.706099999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -9431,8 +9634,11 @@
       <c r="L249">
         <v>87864.604268161202</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249" s="5">
+        <v>9787.4717899999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -9469,8 +9675,11 @@
       <c r="L250">
         <v>89290.083707865095</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250" s="5">
+        <v>9702.1509800000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -9507,8 +9716,11 @@
       <c r="L251">
         <v>85414.299841822198</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251" s="5">
+        <v>8879.5460600000006</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -9545,8 +9757,11 @@
       <c r="L252">
         <v>92826.047069431894</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252" s="5">
+        <v>9150.4752200000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -9583,8 +9798,11 @@
       <c r="L253">
         <v>108556.640406779</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253" s="5">
+        <v>10277.8745</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -9621,8 +9839,11 @@
       <c r="L254">
         <v>119744.915094339</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254" s="5">
+        <v>10656.225200000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -9659,8 +9880,11 @@
       <c r="L255">
         <v>117854.721989528</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255" s="5">
+        <v>10572.901</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -9697,8 +9921,11 @@
       <c r="L256">
         <v>131154.35118121299</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M256" s="5">
+        <v>11508.6307</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -9735,8 +9962,11 @@
       <c r="L257">
         <v>129492.74777186</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M257" s="5">
+        <v>11822.213100000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -9773,8 +10003,11 @@
       <c r="L258">
         <v>137688.793607867</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M258" s="5">
+        <v>12051.6214</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -9811,8 +10044,11 @@
       <c r="L259">
         <v>136409.26500000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M259" s="5">
+        <v>11737.7595</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -9849,8 +10085,11 @@
       <c r="L260">
         <v>140163.74973041299</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M260" s="5">
+        <v>12035.752200000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -9887,8 +10126,11 @@
       <c r="L261">
         <v>151957.183132028</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M261" s="5">
+        <v>12806.1523</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -9925,8 +10167,11 @@
       <c r="L262">
         <v>148028.061291708</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M262" s="5">
+        <v>12641.968999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -9963,8 +10208,11 @@
       <c r="L263">
         <v>152915.99014001401</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M263" s="5">
+        <v>13163.331099999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -10001,8 +10249,11 @@
       <c r="L264">
         <v>166389.25693300599</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M264" s="5">
+        <v>14115.806500000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -10039,8 +10290,11 @@
       <c r="L265">
         <v>170516.99788208699</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M265" s="5">
+        <v>14312.683499999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -10077,8 +10331,11 @@
       <c r="L266">
         <v>168336.14040789701</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M266" s="5">
+        <v>14001.517900000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -10115,8 +10372,11 @@
       <c r="L267">
         <v>167619.04390840101</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267" s="5">
+        <v>13631.0034</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -10153,8 +10413,11 @@
       <c r="L268">
         <v>171138.745210316</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268" s="5">
+        <v>13884.6648</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -10191,8 +10454,11 @@
       <c r="L269">
         <v>172479.90790220801</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269" s="5">
+        <v>13765.1055</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -10229,8 +10495,11 @@
       <c r="L270">
         <v>178076.400483587</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270" s="5">
+        <v>14027.239799999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -10267,8 +10536,11 @@
       <c r="L271">
         <v>180498.52985494601</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271" s="5">
+        <v>14305.177100000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -10305,8 +10577,11 @@
       <c r="L272">
         <v>187355.23303585101</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M272" s="5">
+        <v>14886.9449</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -10343,8 +10618,11 @@
       <c r="L273">
         <v>195278.24777727801</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M273" s="5">
+        <v>15555.1276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -10381,8 +10659,11 @@
       <c r="L274">
         <v>185437.567966695</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M274" s="5">
+        <v>15410.726500000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -10419,8 +10700,11 @@
       <c r="L275">
         <v>181849.70649125299</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M275" s="5">
+        <v>15682.4437</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -10457,8 +10741,11 @@
       <c r="L276">
         <v>187514.25248117099</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M276" s="5">
+        <v>15269.279699999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -10495,8 +10782,11 @@
       <c r="L277">
         <v>184874.258761776</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M277" s="5">
+        <v>15195.654699999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -10533,8 +10823,11 @@
       <c r="L278">
         <v>186045.555954118</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M278" s="5">
+        <v>15352.4519</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -10571,8 +10864,11 @@
       <c r="L279">
         <v>182399.53462948799</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M279" s="5">
+        <v>15046.5092</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -10609,8 +10905,11 @@
       <c r="L280">
         <v>184172.93583450199</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M280" s="5">
+        <v>14993.9656</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -10647,8 +10946,11 @@
       <c r="L281">
         <v>165575.882366782</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M281" s="5">
+        <v>13710.6942</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -10685,8 +10987,11 @@
       <c r="L282">
         <v>151384.966496334</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M282" s="5">
+        <v>13273.502</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -10723,8 +11028,11 @@
       <c r="L283">
         <v>165353.64375401699</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M283" s="5">
+        <v>14176.1875</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -10761,8 +11069,11 @@
       <c r="L284">
         <v>161048.41426441999</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M284" s="5">
+        <v>14332.638999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -10799,8 +11110,11 @@
       <c r="L285">
         <v>165013.48017621099</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M285" s="5">
+        <v>14822.778</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -10837,8 +11151,11 @@
       <c r="L286">
         <v>180456.93073770401</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M286" s="5">
+        <v>15428.131100000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -10875,8 +11192,11 @@
       <c r="L287">
         <v>187500.12492747101</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M287" s="5">
+        <v>15883.7618</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -10913,8 +11233,11 @@
       <c r="L288">
         <v>182442.90107816699</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M288" s="5">
+        <v>16079.266600000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -10951,8 +11274,11 @@
       <c r="L289">
         <v>182250.92520054401</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M289" s="5">
+        <v>16063.293900000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -10989,8 +11315,11 @@
       <c r="L290">
         <v>172493.72077723101</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M290" s="5">
+        <v>15576.688099999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -11027,8 +11356,11 @@
       <c r="L291">
         <v>176570.036378077</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M291" s="5">
+        <v>16105.035599999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -11065,8 +11397,11 @@
       <c r="L292">
         <v>184628.90602409601</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M292" s="5">
+        <v>16736.257000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -11103,8 +11438,11 @@
       <c r="L293">
         <v>179321.759543255</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M293" s="5">
+        <v>16653.810300000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -11141,8 +11479,11 @@
       <c r="L294">
         <v>185485.91387470899</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M294" s="5">
+        <v>16762.835500000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -11179,8 +11520,11 @@
       <c r="L295">
         <v>183485.726945278</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M295" s="5">
+        <v>16583.734100000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -11217,8 +11561,11 @@
       <c r="L296">
         <v>185928.92679808999</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M296" s="5">
+        <v>16805.2258</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -11255,8 +11602,11 @@
       <c r="L297">
         <v>191967.529058663</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M297" s="5">
+        <v>16933.1247</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -11293,8 +11643,11 @@
       <c r="L298">
         <v>189530.211188191</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M298" s="5">
+        <v>17246.480500000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -11331,8 +11684,11 @@
       <c r="L299">
         <v>193178.36005788701</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M299" s="5">
+        <v>17787.6165</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -11369,8 +11725,11 @@
       <c r="L300">
         <v>194697.77426005399</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M300" s="5">
+        <v>18556.4159</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -11407,8 +11766,11 @@
       <c r="L301">
         <v>192233.252616279</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M301" s="5">
+        <v>18704.048500000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -11445,8 +11807,11 @@
       <c r="L302">
         <v>188342.81316315499</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M302" s="5">
+        <v>18751.2932</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -11483,8 +11848,11 @@
       <c r="L303">
         <v>175443.93701834799</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M303" s="5">
+        <v>18102.832999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -11521,8 +11889,11 @@
       <c r="L304">
         <v>174766.46725423701</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M304" s="5">
+        <v>18685.501400000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -11559,8 +11930,11 @@
       <c r="L305">
         <v>172352.92977710601</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M305" s="5">
+        <v>18352.074000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -11597,8 +11971,11 @@
       <c r="L306">
         <v>179944.846027397</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M306" s="5">
+        <v>18920.302199999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -11635,8 +12012,11 @@
       <c r="L307">
         <v>186832.35359577701</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M307" s="5">
+        <v>19482.84</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -11673,8 +12053,11 @@
       <c r="L308">
         <v>184520.81207846501</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M308" s="5">
+        <v>19799.529699999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -11711,8 +12094,11 @@
       <c r="L309">
         <v>179494.29697628799</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M309" s="5">
+        <v>19875.6908</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -11749,8 +12135,11 @@
       <c r="L310">
         <v>171294.396818585</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M310" s="5">
+        <v>19469.832399999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -11787,8 +12176,11 @@
       <c r="L311">
         <v>173198.84236588699</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M311" s="5">
+        <v>19950.982899999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -11825,8 +12217,11 @@
       <c r="L312">
         <v>178877.98289817199</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M312" s="5">
+        <v>20093.4349</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -11863,8 +12258,11 @@
       <c r="L313">
         <v>178740.171162454</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M313" s="5">
+        <v>20189.262999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -11901,8 +12299,11 @@
       <c r="L314">
         <v>188323.919894172</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M314" s="5">
+        <v>20994.245999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -11939,8 +12340,11 @@
       <c r="L315">
         <v>192690.45731439401</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M315" s="5">
+        <v>21317.7709</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -11977,8 +12381,11 @@
       <c r="L316">
         <v>200673.86427984099</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M316" s="5">
+        <v>21501.027900000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -12015,8 +12422,11 @@
       <c r="L317">
         <v>208249.35737033599</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M317" s="5">
+        <v>22293.128700000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -12053,8 +12463,11 @@
       <c r="L318">
         <v>202129.221600572</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M318" s="5">
+        <v>22613.8691</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -12091,8 +12504,11 @@
       <c r="L319">
         <v>205499.484845097</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M319" s="5">
+        <v>22875.1057</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -12129,8 +12545,11 @@
       <c r="L320">
         <v>204006.038356164</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M320" s="5">
+        <v>23333.444200000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -12167,8 +12586,11 @@
       <c r="L321">
         <v>200184.90422535199</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M321" s="5">
+        <v>23531.122500000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -12205,8 +12627,11 @@
       <c r="L322">
         <v>216294.74924369701</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M322" s="5">
+        <v>24895.141100000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -12243,8 +12668,11 @@
       <c r="L323">
         <v>224307.68604982199</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M323" s="5">
+        <v>26421.299900000002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -12281,8 +12709,11 @@
       <c r="L324">
         <v>231050.34925178901</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M324" s="5">
+        <v>27181.061799999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -12319,8 +12750,11 @@
       <c r="L325">
         <v>238760.16267498801</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M325" s="5">
+        <v>26837.731599999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -12357,8 +12791,11 @@
       <c r="L326">
         <v>234364.88395624401</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M326" s="5">
+        <v>27417.9866</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -12395,8 +12832,11 @@
       <c r="L327">
         <v>223985.073643757</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M327" s="5">
+        <v>26249.538700000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -12433,8 +12873,11 @@
       <c r="L328">
         <v>212818.88808242901</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M328" s="5">
+        <v>27005.1819</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -12471,8 +12914,11 @@
       <c r="L329">
         <v>189362.06081141299</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M329" s="5">
+        <v>24613.001700000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -12509,8 +12955,11 @@
       <c r="L330">
         <v>183929.72471659299</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M330" s="5">
+        <v>23746.115300000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -12547,8 +12996,11 @@
       <c r="L331">
         <v>200389.649087773</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M331" s="5">
+        <v>26033.488300000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -12585,8 +13037,11 @@
       <c r="L332">
         <v>200560.09870498101</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M332" s="5">
+        <v>26889.993200000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -12623,8 +13078,11 @@
       <c r="L333">
         <v>190652.20523560201</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M333" s="5">
+        <v>25672.900600000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -12661,8 +13119,11 @@
       <c r="L334">
         <v>177755.67445054901</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M334" s="5">
+        <v>24045.201300000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -12699,8 +13160,11 @@
       <c r="L335">
         <v>178006.03082292399</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M335" s="5">
+        <v>23943.068299999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -12737,8 +13201,11 @@
       <c r="L336">
         <v>192804.502134387</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M336" s="5">
+        <v>24613.072800000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -12775,8 +13242,11 @@
       <c r="L337">
         <v>193584.78263614801</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M337" s="5">
+        <v>24937.048200000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -12813,8 +13283,11 @@
       <c r="L338">
         <v>190563.068423883</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M338" s="5">
+        <v>25527.303800000002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -12851,8 +13324,11 @@
       <c r="L339">
         <v>199295.82684200999</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M339" s="5">
+        <v>25487.171399999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -12889,8 +13365,11 @@
       <c r="L340">
         <v>209232.34710699099</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M340" s="5">
+        <v>26561.236199999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -12927,8 +13406,11 @@
       <c r="L341">
         <v>214135.64401724699</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M341" s="5">
+        <v>26596.981599999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -12965,8 +13447,11 @@
       <c r="L342">
         <v>216389.06884687699</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M342" s="5">
+        <v>26686.193599999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -13003,8 +13488,11 @@
       <c r="L343">
         <v>221184.77568061301</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M343" s="5">
+        <v>26764.523000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -13041,8 +13529,11 @@
       <c r="L344">
         <v>217187.73511988699</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M344" s="5">
+        <v>27757.297999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -13079,8 +13570,11 @@
       <c r="L345">
         <v>219759.92080447701</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M345" s="5">
+        <v>28635.537700000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -13117,8 +13611,11 @@
       <c r="L346">
         <v>227184.656736401</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M346" s="5">
+        <v>28822.827499999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -13155,8 +13652,11 @@
       <c r="L347">
         <v>237647.899499858</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M347" s="5">
+        <v>30085.7402</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -13193,8 +13693,11 @@
       <c r="L348">
         <v>241563.68822373901</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M348" s="5">
+        <v>30184.003700000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -13231,8 +13734,11 @@
       <c r="L349">
         <v>241503.26870997201</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M349" s="5">
+        <v>29983.5681</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -13269,8 +13775,11 @@
       <c r="L350">
         <v>242244.089189911</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M350" s="5">
+        <v>29843.107499999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -13307,8 +13816,11 @@
       <c r="L351">
         <v>240749.224763406</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M351" s="5">
+        <v>29462.840700000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -13345,8 +13857,11 @@
       <c r="L352">
         <v>248435.991711435</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M352" s="5">
+        <v>29454.7215</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -13383,8 +13898,11 @@
       <c r="L353">
         <v>251964.628820296</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M353" s="5">
+        <v>29326.569100000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -13421,8 +13939,11 @@
       <c r="L354">
         <v>251423.91873623501</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M354" s="5">
+        <v>29941.846600000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -13459,8 +13980,11 @@
       <c r="L355">
         <v>264010.52041587897</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M355" s="5">
+        <v>31010.490699999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -13497,8 +14021,11 @@
       <c r="L356">
         <v>259843.89352687899</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M356" s="5">
+        <v>31054.380499999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -13535,8 +14062,11 @@
       <c r="L357">
         <v>266073.00860501901</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M357" s="5">
+        <v>31202.756000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -13573,8 +14103,11 @@
       <c r="L358">
         <v>277531.56687806</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M358" s="5">
+        <v>31723.073499999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -13611,8 +14144,11 @@
       <c r="L359">
         <v>270039.19870640198</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M359" s="5">
+        <v>31006.2932</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -13649,8 +14185,11 @@
       <c r="L360">
         <v>262785.50810810801</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M360" s="5">
+        <v>30070.1757</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -13687,8 +14226,11 @@
       <c r="L361">
         <v>266914.12509313598</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M361" s="5">
+        <v>30967.569100000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -13725,8 +14267,11 @@
       <c r="L362">
         <v>265884.77934866201</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M362" s="5">
+        <v>31984.344400000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -13763,8 +14308,11 @@
       <c r="L363">
         <v>255911.465465774</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M363" s="5">
+        <v>31902.304400000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -13801,8 +14349,11 @@
       <c r="L364">
         <v>260018.99815950901</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M364" s="5">
+        <v>32648.6158</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -13839,8 +14390,11 @@
       <c r="L365">
         <v>254910.81690841899</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M365" s="5">
+        <v>33118.082799999996</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -13877,8 +14431,11 @@
       <c r="L366">
         <v>255285.814322736</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M366" s="5">
+        <v>33489.931400000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -13915,8 +14472,11 @@
       <c r="L367">
         <v>238389.48639335501</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M367" s="5">
+        <v>31690.269100000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -13953,8 +14513,11 @@
       <c r="L368">
         <v>247334.62280130299</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M368" s="5">
+        <v>32037.3161</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -13991,8 +14554,11 @@
       <c r="L369">
         <v>239016.81961572001</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M369" s="5">
+        <v>29554.580600000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -14029,8 +14595,11 @@
       <c r="L370">
         <v>259102.98676880199</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M370" s="5">
+        <v>31748.971600000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -14067,8 +14636,11 @@
       <c r="L371">
         <v>261347.22088297101</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M371" s="5">
+        <v>32786.210899999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -14105,8 +14677,11 @@
       <c r="L372">
         <v>267838.04427236301</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M372" s="5">
+        <v>33735.618600000002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -14143,8 +14718,11 @@
       <c r="L373">
         <v>273941.61586735601</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M373" s="5">
+        <v>34924.849699999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -14181,8 +14759,11 @@
       <c r="L374">
         <v>255677.52542372799</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M374" s="5">
+        <v>33061.965100000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -14219,8 +14800,11 @@
       <c r="L375">
         <v>266371.92616871698</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M375" s="5">
+        <v>34490.750200000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -14257,8 +14841,11 @@
       <c r="L376">
         <v>268743.33930589102</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M376" s="5">
+        <v>35292.941299999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -14295,8 +14882,11 @@
       <c r="L377">
         <v>258381.815023559</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M377" s="5">
+        <v>34822.222300000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -14333,8 +14923,11 @@
       <c r="L378">
         <v>266955.24057305499</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M378" s="5">
+        <v>36063.833599999998</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -14371,8 +14964,11 @@
       <c r="L379">
         <v>271629.89725658903</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M379" s="5">
+        <v>36189.388800000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -14409,8 +15005,11 @@
       <c r="L380">
         <v>275522.70207612403</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M380" s="5">
+        <v>37642.333200000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -14447,8 +15046,11 @@
       <c r="L381">
         <v>289613.94755207398</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M381" s="5">
+        <v>38112.736199999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -14485,8 +15087,11 @@
       <c r="L382">
         <v>280672.06302931497</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M382" s="5">
+        <v>38296.2111</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -14523,8 +15128,11 @@
       <c r="L383">
         <v>267703.975457775</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M383" s="5">
+        <v>35438.433299999997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -14561,8 +15169,11 @@
       <c r="L384">
         <v>226972.982365826</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M384" s="5">
+        <v>30704.459200000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -14599,8 +15210,11 @@
       <c r="L385">
         <v>249624.58306362599</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M385" s="5">
+        <v>34218.380299999997</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -14637,8 +15251,11 @@
       <c r="L386">
         <v>245720.77176724101</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M386" s="5">
+        <v>34895.504200000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -14675,8 +15292,11 @@
       <c r="L387">
         <v>262449.36151098402</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M387" s="5">
+        <v>35793.672500000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -14713,8 +15333,11 @@
       <c r="L388">
         <v>270439.19893652899</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M388" s="5">
+        <v>35573.561999999998</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -14751,8 +15374,11 @@
       <c r="L389">
         <v>274353.66316582903</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M389" s="5">
+        <v>37487.665200000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -14789,8 +15415,11 @@
       <c r="L390">
         <v>275367.70592757</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M390" s="5">
+        <v>37000.713000000003</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -14827,8 +15456,11 @@
       <c r="L391">
         <v>281323.79723029502</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M391" s="5">
+        <v>36112.270199999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -14865,8 +15497,11 @@
       <c r="L392">
         <v>300124.88909849699</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M392" s="5">
+        <v>39624.210299999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -14903,8 +15538,11 @@
       <c r="L393">
         <v>314686.34600277001</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M393" s="5">
+        <v>40479.378199999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -14941,8 +15579,11 @@
       <c r="L394">
         <v>328025.233536585</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M394" s="5">
+        <v>40745.456700000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -14979,8 +15620,11 @@
       <c r="L395">
         <v>330961.24108571903</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M395" s="5">
+        <v>41747.291100000002</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -15017,8 +15661,11 @@
       <c r="L396">
         <v>337056.15300639602</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M396" s="5">
+        <v>44358.627200000003</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -15055,8 +15702,11 @@
       <c r="L397">
         <v>335284.91690117499</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M397" s="5">
+        <v>44904.082300000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -15093,8 +15743,11 @@
       <c r="L398">
         <v>339791.16941234301</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M398" s="5">
+        <v>45177.539799999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -15131,8 +15784,11 @@
       <c r="L399">
         <v>349573.99059239298</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M399" s="5">
+        <v>46942.566700000003</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -15169,8 +15825,11 @@
       <c r="L400">
         <v>326060.94202337897</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M400" s="5">
+        <v>47212.434300000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -15207,8 +15866,11 @@
       <c r="L401">
         <v>336310.36442453897</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M401" s="5">
+        <v>48619.054400000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -15245,8 +15907,11 @@
       <c r="L402">
         <v>330178.03853527899</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M402" s="5">
+        <v>47667.402900000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -15283,8 +15948,11 @@
       <c r="L403">
         <v>331593.044259338</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M403" s="5">
+        <v>49762.719599999997</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -15321,8 +15989,11 @@
       <c r="L404">
         <v>326001.36159464897</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M404" s="5">
+        <v>49709.796499999997</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -15359,8 +16030,11 @@
       <c r="L405">
         <v>333361.95447642502</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M405" s="5">
+        <v>51924.892599999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -15397,8 +16071,11 @@
       <c r="L406">
         <v>332060.99134098197</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M406" s="5">
+        <v>50183.496500000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -15435,8 +16112,11 @@
       <c r="L407">
         <v>320938.50152692199</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M407" s="5">
+        <v>48718.008999999998</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -15473,8 +16153,11 @@
       <c r="L408">
         <v>316571.36805693101</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M408" s="5">
+        <v>50202.067600000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -15511,8 +16194,11 @@
       <c r="L409">
         <v>314924.56411764701</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M409" s="5">
+        <v>48695.700100000002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -15549,8 +16235,11 @@
       <c r="L410">
         <v>311280.72231867799</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M410" s="5">
+        <v>47964.6466</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -15587,8 +16276,11 @@
       <c r="L411">
         <v>299980.93568884098</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M411" s="5">
+        <v>45315.477800000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -15625,8 +16317,11 @@
       <c r="L412">
         <v>305045.90062757401</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M412" s="5">
+        <v>49307.377099999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -15663,8 +16358,11 @@
       <c r="L413">
         <v>312501.15935999999</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M413" s="5">
+        <v>48469.081700000002</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -15701,8 +16399,11 @@
       <c r="L414">
         <v>283156.875646286</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M414" s="5">
+        <v>44962.732600000003</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -15739,8 +16440,11 @@
       <c r="L415">
         <v>269808.06723824801</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M415" s="5">
+        <v>46833.9519</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -15777,8 +16481,11 @@
       <c r="L416">
         <v>296069.81860061601</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M416" s="5">
+        <v>48244.3292</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -15815,8 +16522,11 @@
       <c r="L417">
         <v>284127.50133133301</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M417" s="5">
+        <v>45173.534500000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -15853,8 +16563,11 @@
       <c r="L418">
         <v>301863.255054001</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M418" s="5">
+        <v>47621.7575</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -15891,8 +16604,11 @@
       <c r="L419">
         <v>288001.65574912803</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M419" s="5">
+        <v>47183.782299999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -15929,8 +16645,11 @@
       <c r="L420">
         <v>289860.494565517</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M420" s="5">
+        <v>47462.726799999997</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -15967,8 +16686,11 @@
       <c r="L421">
         <v>283863.871286768</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M421" s="5">
+        <v>47708.055</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -16005,8 +16727,11 @@
       <c r="L422">
         <v>286965.66604886198</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M422" s="5">
+        <v>48512.069000000003</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -16043,8 +16768,11 @@
       <c r="L423">
         <v>293112.91921590199</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M423" s="5">
+        <v>50400.196100000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -16081,8 +16809,11 @@
       <c r="L424">
         <v>307121.98181983101</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M424" s="5">
+        <v>51498.455000000002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -16119,8 +16850,11 @@
       <c r="L425">
         <v>292403.45769230701</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M425" s="5">
+        <v>50805.948799999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -16157,8 +16891,11 @@
       <c r="L426">
         <v>291910.57449159498</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M426" s="5">
+        <v>50015.141600000003</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -16195,8 +16932,11 @@
       <c r="L427">
         <v>281032.555781134</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M427" s="5">
+        <v>48395.071100000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -16233,8 +16973,11 @@
       <c r="L428">
         <v>294037.75462098501</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M428" s="5">
+        <v>51327.496299999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -16271,8 +17014,11 @@
       <c r="L429">
         <v>301785.53265323798</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M429" s="5">
+        <v>53197.130599999997</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -16309,8 +17055,11 @@
       <c r="L430">
         <v>292646.906074845</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M430" s="5">
+        <v>54558.368499999997</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -16347,8 +17096,11 @@
       <c r="L431">
         <v>307730.06323996797</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M431" s="5">
+        <v>56908.450499999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -16385,8 +17137,11 @@
       <c r="L432">
         <v>315983.36250371998</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M432" s="5">
+        <v>58732.812299999998</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -16423,8 +17178,11 @@
       <c r="L433">
         <v>320588.26182697603</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M433" s="5">
+        <v>57329.5959</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -16461,8 +17219,11 @@
       <c r="L434">
         <v>317543.82672621898</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M434" s="5">
+        <v>58887.549200000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -16499,8 +17260,11 @@
       <c r="L435">
         <v>334333.78320716898</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M435" s="5">
+        <v>60965.017800000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -16538,7 +17302,7 @@
         <v>332121.46265984199</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -16576,7 +17340,7 @@
         <v>329922.44530281698</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -16614,7 +17378,7 @@
         <v>349067.73162684799</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -16652,7 +17416,7 @@
         <v>342883.07845515502</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -16690,7 +17454,7 @@
         <v>339780.77447658102</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -16728,7 +17492,7 @@
         <v>346097.12923227</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -16766,7 +17530,7 @@
         <v>350909.55832424702</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -16804,7 +17568,7 @@
         <v>352456.71935644298</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -16842,7 +17606,7 @@
         <v>341488.23895192402</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -16880,7 +17644,7 @@
         <v>328764.40258697298</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -16918,7 +17682,7 @@
         <v>343242.92975284101</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -16953,7 +17717,7 @@
         <v>351915.94467064098</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB05A96-EBC5-EA4D-9A2B-B28F9F70CFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF82312-5F18-134B-BF30-78BFBF00BF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25580" windowHeight="20880" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
+    <workbookView xWindow="9380" yWindow="-28040" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="572">
   <si>
     <t>Date</t>
   </si>
@@ -1749,6 +1749,9 @@
   </si>
   <si>
     <t>FTSE All World</t>
+  </si>
+  <si>
+    <t>MSCI World Equal Weighted</t>
   </si>
 </sst>
 </file>
@@ -2142,13 +2145,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:M452"/>
+  <dimension ref="A1:N452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I429" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N441" sqref="N441"/>
+      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2165,7 +2168,7 @@
     <col min="10" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2205,8 +2208,11 @@
       <c r="M1" s="4" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>13639.024029304001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>14627.421428571401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>14975.0410110864</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>14901.700172304299</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>15753.073629242799</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>15265.1375658587</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>14598.684051615</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>15003.0670212765</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>15401.7352352528</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>16786.342961251299</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>18582.710906325399</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>22232.7876923076</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>23500.913333958899</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>21022.2251050821</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>48309.359121770503</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>34182</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>52788.8227809862</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>34213</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>52544.058919887299</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>34243</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>57930.634596460899</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>34274</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>62118.892022690998</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>34304</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>72354.825338885406</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>34335</v>
       </c>
@@ -3648,6 +3654,9 @@
       <c r="F70">
         <v>28911.7710304065</v>
       </c>
+      <c r="G70">
+        <v>7070.7996698182997</v>
+      </c>
       <c r="I70">
         <v>82173.801117568801</v>
       </c>
@@ -3658,7 +3667,7 @@
         <v>74670.190409482704</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>34366</v>
       </c>
@@ -3671,6 +3680,9 @@
       <c r="F71">
         <v>28423.585067577798</v>
       </c>
+      <c r="G71">
+        <v>7102.5495244468102</v>
+      </c>
       <c r="I71">
         <v>86136.480901418705</v>
       </c>
@@ -3681,7 +3693,7 @@
         <v>73059.729349673493</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>34394</v>
       </c>
@@ -3694,6 +3706,9 @@
       <c r="F72">
         <v>28148.726467112599</v>
       </c>
+      <c r="G72">
+        <v>7134.4419447419996</v>
+      </c>
       <c r="I72">
         <v>93042.300764924294</v>
       </c>
@@ -3704,7 +3719,7 @@
         <v>65074.816241787099</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>34425</v>
       </c>
@@ -3717,6 +3732,9 @@
       <c r="F73">
         <v>28034.166704478401</v>
       </c>
+      <c r="G73">
+        <v>7166.4775708633197</v>
+      </c>
       <c r="I73">
         <v>91464.510843243799</v>
       </c>
@@ -3727,7 +3745,7 @@
         <v>63958.065419082697</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>34455</v>
       </c>
@@ -3740,6 +3758,9 @@
       <c r="F74">
         <v>27939.561686101901</v>
       </c>
+      <c r="G74">
+        <v>7198.6570458447104</v>
+      </c>
       <c r="I74">
         <v>85691.768608205894</v>
       </c>
@@ -3750,7 +3771,7 @@
         <v>64725.340543328697</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>34486</v>
       </c>
@@ -3766,6 +3787,9 @@
       <c r="F75">
         <v>27787.597874913401</v>
       </c>
+      <c r="G75">
+        <v>7230.98101560751</v>
+      </c>
       <c r="I75">
         <v>88576.738528594593</v>
       </c>
@@ -3775,8 +3799,11 @@
       <c r="L75">
         <v>61919.198342354503</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>34516</v>
       </c>
@@ -3792,6 +3819,9 @@
       <c r="F76">
         <v>28116.8659510709</v>
       </c>
+      <c r="G76">
+        <v>7263.4501289734199</v>
+      </c>
       <c r="I76">
         <v>86876.361770967502</v>
       </c>
@@ -3801,8 +3831,11 @@
       <c r="L76">
         <v>63742.243131147501</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>9983.1633051644694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>34547</v>
       </c>
@@ -3818,6 +3851,9 @@
       <c r="F77">
         <v>27990.6075593266</v>
       </c>
+      <c r="G77">
+        <v>7296.0650376775502</v>
+      </c>
       <c r="I77">
         <v>85208.770177692801</v>
       </c>
@@ -3827,8 +3863,11 @@
       <c r="L77">
         <v>71735.802215657299</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>10330.234708622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>34578</v>
       </c>
@@ -3844,6 +3883,9 @@
       <c r="F78">
         <v>27923.848434691801</v>
       </c>
+      <c r="G78">
+        <v>7328.8263963814497</v>
+      </c>
       <c r="I78">
         <v>84133.7472197116</v>
       </c>
@@ -3853,8 +3895,11 @@
       <c r="L78">
         <v>71773.594836824093</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>10010.773088362401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>34608</v>
       </c>
@@ -3870,6 +3915,9 @@
       <c r="F79">
         <v>27991.288170969601</v>
       </c>
+      <c r="G79">
+        <v>7361.7348626863204</v>
+      </c>
       <c r="I79">
         <v>86747.828761966695</v>
       </c>
@@ -3879,8 +3927,11 @@
       <c r="L79">
         <v>69131.972049689401</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>9977.2002131408808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>34639</v>
       </c>
@@ -3899,6 +3950,9 @@
       <c r="F80">
         <v>28218.050215329698</v>
       </c>
+      <c r="G80">
+        <v>7394.7910971461297</v>
+      </c>
       <c r="I80">
         <v>83544.418715710504</v>
       </c>
@@ -3908,8 +3962,11 @@
       <c r="L80">
         <v>66512.037837401003</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>9606.2492312224604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34669</v>
       </c>
@@ -3928,6 +3985,9 @@
       <c r="F81">
         <v>28287.867160389502</v>
       </c>
+      <c r="G81">
+        <v>7427.9957632809501</v>
+      </c>
       <c r="I81">
         <v>84259.970794916502</v>
       </c>
@@ -3937,8 +3997,11 @@
       <c r="L81">
         <v>62421.0779317169</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>9853.8695656764903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34700</v>
       </c>
@@ -3957,6 +4020,9 @@
       <c r="F82">
         <v>28675.115457380802</v>
       </c>
+      <c r="G82">
+        <v>7461.3495275902396</v>
+      </c>
       <c r="I82">
         <v>81785.199051198695</v>
       </c>
@@ -3966,8 +4032,11 @@
       <c r="L82">
         <v>54639.949511268998</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>9410.2884278588699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34731</v>
       </c>
@@ -3986,6 +4055,9 @@
       <c r="F83">
         <v>29113.1531652386</v>
       </c>
+      <c r="G83">
+        <v>7489.7959226641797</v>
+      </c>
       <c r="I83">
         <v>84246.468109845795</v>
       </c>
@@ -3995,8 +4067,11 @@
       <c r="L83">
         <v>52655.845829338403</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>9484.1820977757998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34759</v>
       </c>
@@ -4015,6 +4090,9 @@
       <c r="F84">
         <v>29579.3622767544</v>
       </c>
+      <c r="G84">
+        <v>7518.3507696193401</v>
+      </c>
       <c r="I84">
         <v>81266.123371838301</v>
       </c>
@@ -4024,8 +4102,11 @@
       <c r="L84">
         <v>50931.329672861299</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>9440.8342792039402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34790</v>
       </c>
@@ -4044,6 +4125,9 @@
       <c r="F85">
         <v>30030.302014018602</v>
       </c>
+      <c r="G85">
+        <v>7547.0144819285097</v>
+      </c>
       <c r="I85">
         <v>81528.843419697601</v>
       </c>
@@ -4053,8 +4137,11 @@
       <c r="L85">
         <v>52198.035944561598</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>9541.4559480482294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34820</v>
       </c>
@@ -4073,6 +4160,9 @@
       <c r="F86">
         <v>31097.106512762901</v>
       </c>
+      <c r="G86">
+        <v>7575.7874746408597</v>
+      </c>
       <c r="I86">
         <v>82118.770881473305</v>
       </c>
@@ -4082,8 +4172,11 @@
       <c r="L86">
         <v>55824.329876089898</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>9811.6770758148996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34851</v>
       </c>
@@ -4102,6 +4195,9 @@
       <c r="F87">
         <v>31152.7884363095</v>
       </c>
+      <c r="G87">
+        <v>7604.6701643879296</v>
+      </c>
       <c r="I87">
         <v>83336.135891652099</v>
       </c>
@@ -4111,8 +4207,11 @@
       <c r="L87">
         <v>55522.304399271801</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>9695.8082640413195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34881</v>
       </c>
@@ -4131,6 +4230,9 @@
       <c r="F88">
         <v>31367.0627366111</v>
       </c>
+      <c r="G88">
+        <v>7633.6629693896602</v>
+      </c>
       <c r="I88">
         <v>85328.472812984895</v>
       </c>
@@ -4140,8 +4242,11 @@
       <c r="L88">
         <v>56108.949711372603</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>10084.0918042055</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34912</v>
       </c>
@@ -4160,6 +4265,9 @@
       <c r="F89">
         <v>31640.846167959098</v>
       </c>
+      <c r="G89">
+        <v>7662.7663094604604</v>
+      </c>
       <c r="I89">
         <v>84571.502392434093</v>
       </c>
@@ -4169,8 +4277,11 @@
       <c r="L89">
         <v>56446.1054607244</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>10168.474801406899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34943</v>
       </c>
@@ -4189,6 +4300,9 @@
       <c r="F90">
         <v>32065.498513504699</v>
       </c>
+      <c r="G90">
+        <v>7691.9806060152796</v>
+      </c>
       <c r="I90">
         <v>87752.240325443694</v>
       </c>
@@ -4198,8 +4312,11 @@
       <c r="L90">
         <v>56898.949072987503</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>10425.8589461796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34973</v>
       </c>
@@ -4218,6 +4335,9 @@
       <c r="F91">
         <v>32451.997151295</v>
       </c>
+      <c r="G91">
+        <v>7721.3062820757104</v>
+      </c>
       <c r="I91">
         <v>88375.5040820578</v>
       </c>
@@ -4227,8 +4347,11 @@
       <c r="L91">
         <v>53869.593361571002</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>9960.8802633032992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35004</v>
       </c>
@@ -4247,6 +4370,9 @@
       <c r="F92">
         <v>33071.195923432097</v>
       </c>
+      <c r="G92">
+        <v>7750.7437622761199</v>
+      </c>
       <c r="I92">
         <v>92097.034435305104</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="L92">
         <v>53023.258207918399</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>10237.7851870907</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35034</v>
       </c>
@@ -4276,6 +4405,9 @@
       <c r="F93">
         <v>33400.414679905298</v>
       </c>
+      <c r="G93">
+        <v>7780.2934728698001</v>
+      </c>
       <c r="I93">
         <v>89217.370932410297</v>
       </c>
@@ -4285,8 +4417,11 @@
       <c r="L93">
         <v>56251.916001568003</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>10708.8174784738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35065</v>
       </c>
@@ -4305,6 +4440,9 @@
       <c r="F94">
         <v>33707.735496560403</v>
       </c>
+      <c r="G94">
+        <v>7809.95584173512</v>
+      </c>
       <c r="I94">
         <v>92495.146146652303</v>
       </c>
@@ -4314,8 +4452,11 @@
       <c r="L94">
         <v>60981.897333756497</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>11129.654597160599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35096</v>
       </c>
@@ -4334,6 +4475,9 @@
       <c r="F95">
         <v>33224.9056514439</v>
       </c>
+      <c r="G95">
+        <v>7831.7911766093002</v>
+      </c>
       <c r="I95">
         <v>96687.249308332102</v>
       </c>
@@ -4343,8 +4487,11 @@
       <c r="L95">
         <v>60357.156249002401</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>11361.871293882899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35125</v>
       </c>
@@ -4363,6 +4510,9 @@
       <c r="F96">
         <v>33320.743661927299</v>
       </c>
+      <c r="G96">
+        <v>7853.6875594405701</v>
+      </c>
       <c r="I96">
         <v>99611.205176960895</v>
       </c>
@@ -4372,8 +4522,11 @@
       <c r="L96">
         <v>60788.451491465901</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>11593.7002426667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -4392,6 +4545,9 @@
       <c r="F97">
         <v>33425.390168022299</v>
       </c>
+      <c r="G97">
+        <v>7875.6451609088399</v>
+      </c>
       <c r="I97">
         <v>100773.132381904</v>
       </c>
@@ -4401,8 +4557,11 @@
       <c r="L97">
         <v>63757.960714285698</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>12130.2331845309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -4421,6 +4580,9 @@
       <c r="F98">
         <v>33563.189365886901</v>
       </c>
+      <c r="G98">
+        <v>7897.6641521712199</v>
+      </c>
       <c r="I98">
         <v>102363.817083976</v>
       </c>
@@ -4430,8 +4592,11 @@
       <c r="L98">
         <v>64243.234047056903</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>12207.177312190801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -4450,6 +4615,9 @@
       <c r="F99">
         <v>33861.001347413701</v>
       </c>
+      <c r="G99">
+        <v>7919.7447048633303</v>
+      </c>
       <c r="I99">
         <v>105642.964329697</v>
       </c>
@@ -4459,8 +4627,11 @@
       <c r="L99">
         <v>64143.073867032799</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>12074.518015187499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -4479,6 +4650,9 @@
       <c r="F100">
         <v>34006.652239014998</v>
       </c>
+      <c r="G100">
+        <v>7941.8869911006796</v>
+      </c>
       <c r="I100">
         <v>106995.484505047</v>
       </c>
@@ -4488,8 +4662,11 @@
       <c r="L100">
         <v>58851.267494033404</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>11448.0653047624</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -4508,6 +4685,9 @@
       <c r="F101">
         <v>34270.196903907497</v>
       </c>
+      <c r="G101">
+        <v>7964.0911834799599</v>
+      </c>
       <c r="I101">
         <v>106681.286249768</v>
       </c>
@@ -4517,8 +4697,11 @@
       <c r="L101">
         <v>59810.475206937299</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <v>11535.620078883599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -4537,6 +4720,9 @@
       <c r="F102">
         <v>34897.000771359802</v>
       </c>
+      <c r="G102">
+        <v>7986.3574550804396</v>
+      </c>
       <c r="I102">
         <v>101326.264253999</v>
       </c>
@@ -4546,8 +4732,11 @@
       <c r="L102">
         <v>60851.492175572501</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>11925.5024469908</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -4566,6 +4755,9 @@
       <c r="F103">
         <v>35492.989700077102</v>
       </c>
+      <c r="G103">
+        <v>8008.6859794652701</v>
+      </c>
       <c r="I103">
         <v>101540.894917838</v>
       </c>
@@ -4575,8 +4767,11 @@
       <c r="L103">
         <v>59412.836324479496</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>11989.4799064776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -4595,6 +4790,9 @@
       <c r="F104">
         <v>36102.235759927498</v>
       </c>
+      <c r="G104">
+        <v>8031.0769306828597</v>
+      </c>
       <c r="I104">
         <v>106409.88365052499</v>
       </c>
@@ -4604,8 +4802,11 @@
       <c r="L104">
         <v>59633.021196850401</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>12313.6141724032</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -4624,6 +4825,9 @@
       <c r="F105">
         <v>35979.123964040002</v>
       </c>
+      <c r="G105">
+        <v>8053.5304832682295</v>
+      </c>
       <c r="I105">
         <v>107464.91084963099</v>
       </c>
@@ -4633,8 +4837,11 @@
       <c r="L105">
         <v>61228.555895372199</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>12442.934111672899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -4653,6 +4860,9 @@
       <c r="F106">
         <v>36257.730860510099</v>
       </c>
+      <c r="G106">
+        <v>8076.0468122443599</v>
+      </c>
       <c r="I106">
         <v>112009.60295487101</v>
       </c>
@@ -4662,8 +4872,11 @@
       <c r="L106">
         <v>67183.889732142794</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>12761.5408539861</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -4682,6 +4895,9 @@
       <c r="F107">
         <v>36379.491297048502</v>
       </c>
+      <c r="G107">
+        <v>8097.25765185819</v>
+      </c>
       <c r="I107">
         <v>112633.651528763</v>
       </c>
@@ -4691,8 +4907,11 @@
       <c r="L107">
         <v>73113.504132516595</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>13482.445853738</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -4711,6 +4930,9 @@
       <c r="F108">
         <v>36135.940832161097</v>
       </c>
+      <c r="G108">
+        <v>8118.5241993854997</v>
+      </c>
       <c r="I108">
         <v>117069.825551071</v>
       </c>
@@ -4720,8 +4942,11 @@
       <c r="L108">
         <v>72019.349764356695</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>13396.059296311299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -4740,6 +4965,9 @@
       <c r="F109">
         <v>36494.514664714901</v>
       </c>
+      <c r="G109">
+        <v>8139.8466011369401</v>
+      </c>
       <c r="I109">
         <v>123552.63828839699</v>
       </c>
@@ -4749,8 +4977,11 @@
       <c r="L109">
         <v>72539.088311688305</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>13491.5972139121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -4769,6 +5000,9 @@
       <c r="F110">
         <v>36667.468933530799</v>
       </c>
+      <c r="G110">
+        <v>8161.2250038074299</v>
+      </c>
       <c r="I110">
         <v>122491.174550649</v>
       </c>
@@ -4778,8 +5012,11 @@
       <c r="L110">
         <v>74386.723313795796</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>14339.527623178699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -4798,6 +5035,9 @@
       <c r="F111">
         <v>37171.673929812103</v>
       </c>
+      <c r="G111">
+        <v>8182.6595544771499</v>
+      </c>
       <c r="I111">
         <v>127159.80947712999</v>
       </c>
@@ -4807,8 +5047,11 @@
       <c r="L111">
         <v>79248.137738853504</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>15011.6090668578</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -4827,6 +5070,9 @@
       <c r="F112">
         <v>37877.6753462735</v>
       </c>
+      <c r="G112">
+        <v>8204.1504006125906</v>
+      </c>
       <c r="I112">
         <v>134572.05451778101</v>
       </c>
@@ -4836,8 +5082,11 @@
       <c r="L112">
         <v>82669.003109656303</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>15622.394706200999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -4856,6 +5105,9 @@
       <c r="F113">
         <v>37758.410485759399</v>
       </c>
+      <c r="G113">
+        <v>8225.6976900675309</v>
+      </c>
       <c r="I113">
         <v>142847.83689100601</v>
       </c>
@@ -4865,8 +5117,11 @@
       <c r="L113">
         <v>74207.373010380601</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>15071.2401881392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -4885,6 +5140,9 @@
       <c r="F114">
         <v>38320.063050284298</v>
       </c>
+      <c r="G114">
+        <v>8247.3015710840791</v>
+      </c>
       <c r="I114">
         <v>153560.51230524501</v>
       </c>
@@ -4894,8 +5152,11 @@
       <c r="L114">
         <v>74263.342555322801</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>15118.586928296199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -4914,6 +5175,9 @@
       <c r="F115">
         <v>38667.283491517999</v>
       </c>
+      <c r="G115">
+        <v>8268.9621922936894</v>
+      </c>
       <c r="I115">
         <v>147350.23775778399</v>
       </c>
@@ -4923,8 +5187,11 @@
       <c r="L115">
         <v>60950.892006437702</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>13930.7869472693</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -4943,6 +5210,9 @@
       <c r="F116">
         <v>38877.7404482567</v>
       </c>
+      <c r="G116">
+        <v>8290.6797027181692</v>
+      </c>
       <c r="I116">
         <v>151256.61383903399</v>
       </c>
@@ -4952,8 +5222,11 @@
       <c r="L116">
         <v>57518.353078202999</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>13232.352972635899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -4972,6 +5245,9 @@
       <c r="F117">
         <v>39285.2887272956</v>
       </c>
+      <c r="G117">
+        <v>8312.4542517707305</v>
+      </c>
       <c r="I117">
         <v>140670.86794401499</v>
       </c>
@@ -4981,8 +5257,11 @@
       <c r="L117">
         <v>60493.722187247004</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>13215.563752292501</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -5001,6 +5280,9 @@
       <c r="F118">
         <v>39767.0927229792</v>
       </c>
+      <c r="G118">
+        <v>8334.2859892569795</v>
+      </c>
       <c r="I118">
         <v>140190.50158933899</v>
       </c>
@@ -5010,8 +5292,11 @@
       <c r="L118">
         <v>57031.481369031098</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>14006.981099757</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -5030,6 +5315,9 @@
       <c r="F119">
         <v>39917.705174818497</v>
       </c>
+      <c r="G119">
+        <v>8358.2933630649204</v>
+      </c>
       <c r="I119">
         <v>145703.51622969701</v>
       </c>
@@ -5039,8 +5327,11 @@
       <c r="L119">
         <v>62845.412007711297</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>15294.498520753999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -5059,6 +5350,9 @@
       <c r="F120">
         <v>40151.115512618897</v>
       </c>
+      <c r="G120">
+        <v>8382.3698914468605</v>
+      </c>
       <c r="I120">
         <v>153183.990907025</v>
       </c>
@@ -5068,8 +5362,11 @@
       <c r="L120">
         <v>65814.324960840298</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>15837.0668833359</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -5088,6 +5385,9 @@
       <c r="F121">
         <v>40298.798375212296</v>
       </c>
+      <c r="G121">
+        <v>8406.5157736063902</v>
+      </c>
       <c r="I121">
         <v>163160.93670644</v>
       </c>
@@ -5097,8 +5397,11 @@
       <c r="L121">
         <v>64656.531911778096</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>15644.958961398201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -5117,6 +5420,9 @@
       <c r="F122">
         <v>40759.286403352096</v>
       </c>
+      <c r="G122">
+        <v>8430.7312093209202</v>
+      </c>
       <c r="I122">
         <v>170652.246596115</v>
       </c>
@@ -5126,8 +5432,11 @@
       <c r="L122">
         <v>54946.140410958898</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>15011.2187048907</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -5146,6 +5455,9 @@
       <c r="F123">
         <v>40977.9896113016</v>
       </c>
+      <c r="G123">
+        <v>8455.0163989433204</v>
+      </c>
       <c r="I123">
         <v>171127.45656904101</v>
       </c>
@@ -5155,8 +5467,11 @@
       <c r="L123">
         <v>49539.674836601298</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>14765.991481472</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -5175,6 +5490,9 @@
       <c r="F124">
         <v>41186.947249638397</v>
       </c>
+      <c r="G124">
+        <v>8479.3715434036094</v>
+      </c>
       <c r="I124">
         <v>166383.91926038699</v>
       </c>
@@ -5184,8 +5502,11 @@
       <c r="L124">
         <v>51231.313703366701</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>14445.0488095378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -5204,6 +5525,9 @@
       <c r="F125">
         <v>42026.7726974119</v>
       </c>
+      <c r="G125">
+        <v>8503.7968442105794</v>
+      </c>
       <c r="I125">
         <v>171544.17313623501</v>
       </c>
@@ -5213,8 +5537,11 @@
       <c r="L125">
         <v>36269.792677843201</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>12365.925484332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -5233,6 +5560,9 @@
       <c r="F126">
         <v>42973.769819115099</v>
       </c>
+      <c r="G126">
+        <v>8528.2925034534892</v>
+      </c>
       <c r="I126">
         <v>171648.62106685099</v>
       </c>
@@ -5242,8 +5572,11 @@
       <c r="L126">
         <v>36771.157477321802</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>11971.144485130701</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -5262,6 +5595,9 @@
       <c r="F127">
         <v>42869.971611589703</v>
       </c>
+      <c r="G127">
+        <v>8552.8587238037107</v>
+      </c>
       <c r="I127">
         <v>148126.53873703399</v>
       </c>
@@ -5271,8 +5607,11 @@
       <c r="L127">
         <v>39141.804675929699</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>12870.965039639501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -5291,6 +5630,9 @@
       <c r="F128">
         <v>43109.428542682203</v>
       </c>
+      <c r="G128">
+        <v>8577.4957085164497</v>
+      </c>
       <c r="H128">
         <v>10000</v>
       </c>
@@ -5303,8 +5645,11 @@
       <c r="L128">
         <v>43623.963564763297</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>13810.7567529764</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -5323,6 +5668,9 @@
       <c r="F129">
         <v>42973.907914231</v>
       </c>
+      <c r="G129">
+        <v>8602.2036614323697</v>
+      </c>
       <c r="H129">
         <v>10508.746623188101</v>
       </c>
@@ -5335,8 +5683,11 @@
       <c r="L129">
         <v>42717.475671997199</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>14051.6821678246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -5355,6 +5706,9 @@
       <c r="F130">
         <v>43369.441918180601</v>
       </c>
+      <c r="G130">
+        <v>8626.9827869793298</v>
+      </c>
       <c r="H130">
         <v>11111.9508764076</v>
       </c>
@@ -5367,8 +5721,11 @@
       <c r="L130">
         <v>43401.641584680197</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>14435.2536416245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -5387,6 +5744,9 @@
       <c r="F131">
         <v>42780.752302736</v>
       </c>
+      <c r="G131">
+        <v>8647.0824586809395</v>
+      </c>
       <c r="H131">
         <v>11049.6667442128</v>
       </c>
@@ -5399,8 +5759,11 @@
       <c r="L131">
         <v>45279.567707387898</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>14601.283064327999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -5419,6 +5782,9 @@
       <c r="F132">
         <v>43123.445196953202</v>
       </c>
+      <c r="G132">
+        <v>8667.2289598259904</v>
+      </c>
       <c r="H132">
         <v>11713.568401078301</v>
       </c>
@@ -5431,8 +5797,11 @@
       <c r="L132">
         <v>52563.693502141097</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>15755.1580530835</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -5451,6 +5820,9 @@
       <c r="F133">
         <v>43467.124484855798</v>
       </c>
+      <c r="G133">
+        <v>8687.4223995205793</v>
+      </c>
       <c r="H133">
         <v>12244.014220287399</v>
       </c>
@@ -5463,8 +5835,11 @@
       <c r="L133">
         <v>59875.1408889308</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>17375.3104028831</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -5483,6 +5858,9 @@
       <c r="F134">
         <v>43181.425417787003</v>
       </c>
+      <c r="G134">
+        <v>8707.6628871250196</v>
+      </c>
       <c r="H134">
         <v>11854.360219193601</v>
       </c>
@@ -5495,8 +5873,11 @@
       <c r="L134">
         <v>60329.542482785</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>17058.6685658641</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -5515,6 +5896,9 @@
       <c r="F135">
         <v>42562.433788323797</v>
       </c>
+      <c r="G135">
+        <v>8727.9505322543991</v>
+      </c>
       <c r="H135">
         <v>12615.925776652801</v>
       </c>
@@ -5527,8 +5911,11 @@
       <c r="L135">
         <v>68009.001413632795</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>17922.710145473699</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -5547,6 +5934,9 @@
       <c r="F136">
         <v>42419.081194009799</v>
       </c>
+      <c r="G136">
+        <v>8748.2854447791997</v>
+      </c>
       <c r="H136">
         <v>11965.2363460696</v>
       </c>
@@ -5559,8 +5949,11 @@
       <c r="L136">
         <v>63897.138582382599</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>17560.1239942865</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -5579,6 +5972,9 @@
       <c r="F137">
         <v>42386.618977819897</v>
       </c>
+      <c r="G137">
+        <v>8768.6677348258909</v>
+      </c>
       <c r="H137">
         <v>12131.259556163201</v>
       </c>
@@ -5591,8 +5987,11 @@
       <c r="L137">
         <v>65216.3917714934</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>17723.620221005898</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -5611,6 +6010,9 @@
       <c r="F138">
         <v>42508.300502863502</v>
       </c>
+      <c r="G138">
+        <v>8789.09751277752</v>
+      </c>
       <c r="H138">
         <v>11796.0597082035</v>
       </c>
@@ -5623,8 +6025,11 @@
       <c r="L138">
         <v>62465.791729957797</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <v>17438.096684025601</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -5643,6 +6048,9 @@
       <c r="F139">
         <v>42486.580113908698</v>
       </c>
+      <c r="G139">
+        <v>8809.5748892742995</v>
+      </c>
       <c r="H139">
         <v>12683.757763010401</v>
       </c>
@@ -5655,8 +6063,11 @@
       <c r="L139">
         <v>65089.716138907497</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <v>17890.754918633102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -5675,6 +6086,9 @@
       <c r="F140">
         <v>42551.3664511725</v>
       </c>
+      <c r="G140">
+        <v>8830.0999752142397</v>
+      </c>
       <c r="H140">
         <v>13464.7832334914</v>
       </c>
@@ -5687,8 +6101,11 @@
       <c r="L140">
         <v>73426.661602456094</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>18483.6726420757</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -5707,6 +6124,9 @@
       <c r="F141">
         <v>42474.427743703302</v>
       </c>
+      <c r="G141">
+        <v>8850.6728817537205</v>
+      </c>
       <c r="H141">
         <v>14627.4084078859</v>
       </c>
@@ -5719,8 +6139,11 @@
       <c r="L141">
         <v>83185.249631694198</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>19398.1543528527</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -5739,6 +6162,9 @@
       <c r="F142">
         <v>42428.195471663799</v>
       </c>
+      <c r="G142">
+        <v>8871.2937203080801</v>
+      </c>
       <c r="H142">
         <v>13819.214616708899</v>
       </c>
@@ -5751,8 +6177,11 @@
       <c r="L142">
         <v>85860.446552956797</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>19040.037351353301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -5771,6 +6200,9 @@
       <c r="F143">
         <v>42724.5771823467</v>
       </c>
+      <c r="G143">
+        <v>8902.1091447448707</v>
+      </c>
       <c r="H143">
         <v>13697.126845277</v>
       </c>
@@ -5783,8 +6215,11 @@
       <c r="L143">
         <v>87683.987214329798</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>18854.371922168299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -5803,6 +6238,9 @@
       <c r="F144">
         <v>43298.174974403002</v>
       </c>
+      <c r="G144">
+        <v>8933.0316099823795</v>
+      </c>
       <c r="H144">
         <v>15024.175733296801</v>
       </c>
@@ -5815,8 +6253,11 @@
       <c r="L144">
         <v>89596.890065947795</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <v>20574.729187602599</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -5835,6 +6276,9 @@
       <c r="F145">
         <v>43323.357605193902</v>
       </c>
+      <c r="G145">
+        <v>8964.0614878387205</v>
+      </c>
       <c r="H145">
         <v>15171.9385120279</v>
       </c>
@@ -5847,8 +6291,11 @@
       <c r="L145">
         <v>85281.692195927302</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>21152.1948528182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -5867,6 +6314,9 @@
       <c r="F146">
         <v>43498.531259802199</v>
       </c>
+      <c r="G146">
+        <v>8995.1991514235597</v>
+      </c>
       <c r="H146">
         <v>14685.1241276891</v>
       </c>
@@ -5879,8 +6329,11 @@
       <c r="L146">
         <v>79840.170203160204</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>20745.295380426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -5899,6 +6352,9 @@
       <c r="F147">
         <v>43763.082046253898</v>
       </c>
+      <c r="G147">
+        <v>9026.4449751426</v>
+      </c>
       <c r="H147">
         <v>14903.0408260072</v>
       </c>
@@ -5911,8 +6367,11 @@
       <c r="L147">
         <v>80464.264734198397</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <v>21179.475352283102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -5931,6 +6390,9 @@
       <c r="F148">
         <v>44030.493374393598</v>
       </c>
+      <c r="G148">
+        <v>9057.7993347020893</v>
+      </c>
       <c r="H148">
         <v>15256.2227379382</v>
       </c>
@@ -5943,8 +6405,11 @@
       <c r="L148">
         <v>78910.688997078803</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>21212.274703035499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -5963,6 +6428,9 @@
       <c r="F149">
         <v>44122.592952808896</v>
       </c>
+      <c r="G149">
+        <v>9089.2626071133309</v>
+      </c>
       <c r="H149">
         <v>15983.8119220922</v>
       </c>
@@ -5975,8 +6443,11 @@
       <c r="L149">
         <v>82299.308556029602</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>22714.6206707409</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -5995,6 +6466,9 @@
       <c r="F150">
         <v>44338.356707575702</v>
       </c>
+      <c r="G150">
+        <v>9120.8351706972007</v>
+      </c>
       <c r="H150">
         <v>15746.0551290605</v>
       </c>
@@ -6007,8 +6481,11 @@
       <c r="L150">
         <v>76321.594021677098</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>22315.242755136202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -6027,6 +6504,9 @@
       <c r="F151">
         <v>44648.962215203399</v>
       </c>
+      <c r="G151">
+        <v>9152.5174050887508</v>
+      </c>
       <c r="H151">
         <v>16495.544605828902</v>
       </c>
@@ -6039,8 +6519,11 @@
       <c r="L151">
         <v>73714.774266365697</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <v>22743.859522421699</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -6059,6 +6542,9 @@
       <c r="F152">
         <v>45372.195929350499</v>
       </c>
+      <c r="G152">
+        <v>9184.3096912417004</v>
+      </c>
       <c r="H152">
         <v>15413.5565828038</v>
       </c>
@@ -6071,8 +6557,11 @@
       <c r="L152">
         <v>65201.3233072316</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>21608.633148664401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -6091,6 +6580,9 @@
       <c r="F153">
         <v>45891.384245714602</v>
       </c>
+      <c r="G153">
+        <v>9216.2124114330909</v>
+      </c>
       <c r="H153">
         <v>14872.9272153076</v>
       </c>
@@ -6103,8 +6595,11 @@
       <c r="L153">
         <v>62319.012122514701</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>20918.721387561902</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -6123,6 +6618,9 @@
       <c r="F154">
         <v>46301.151910545901</v>
       </c>
+      <c r="G154">
+        <v>9248.2259492678004</v>
+      </c>
       <c r="H154">
         <v>14815.1852734771</v>
       </c>
@@ -6135,8 +6633,11 @@
       <c r="L154">
         <v>70991.894824061106</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>21515.949410549401</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -6155,6 +6656,9 @@
       <c r="F155">
         <v>46705.602913412302</v>
       </c>
+      <c r="G155">
+        <v>9282.7012804453498</v>
+      </c>
       <c r="H155">
         <v>13639.321960106699</v>
       </c>
@@ -6167,8 +6671,11 @@
       <c r="L155">
         <v>65751.541349480904</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>20795.2936777338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -6187,6 +6694,9 @@
       <c r="F156">
         <v>46995.987350487303</v>
       </c>
+      <c r="G156">
+        <v>9317.3051279963402</v>
+      </c>
       <c r="H156">
         <v>13332.2650116771</v>
       </c>
@@ -6199,8 +6709,11 @@
       <c r="L156">
         <v>62086.266440217303</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>20244.4595120622</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -6219,6 +6732,9 @@
       <c r="F157">
         <v>46589.731247176402</v>
       </c>
+      <c r="G157">
+        <v>9352.0379710012603</v>
+      </c>
       <c r="H157">
         <v>14262.2204239741</v>
       </c>
@@ -6231,8 +6747,11 @@
       <c r="L157">
         <v>64831.078188373103</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <v>21749.789858492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -6251,6 +6770,9 @@
       <c r="F158">
         <v>46819.600431645798</v>
       </c>
+      <c r="G158">
+        <v>9386.9002903265009</v>
+      </c>
       <c r="H158">
         <v>14700.6685806067</v>
       </c>
@@ -6263,8 +6785,11 @@
       <c r="L158">
         <v>68668.542594339597</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>22625.908294413599</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -6283,6 +6808,9 @@
       <c r="F159">
         <v>47107.430109075402</v>
       </c>
+      <c r="G159">
+        <v>9421.8925686309904</v>
+      </c>
       <c r="H159">
         <v>14319.833329937501</v>
       </c>
@@ -6295,8 +6823,11 @@
       <c r="L159">
         <v>67258.994433962202</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>21848.4949220497</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -6315,6 +6846,9 @@
       <c r="F160">
         <v>47736.463226257001</v>
       </c>
+      <c r="G160">
+        <v>9457.0152903729395</v>
+      </c>
       <c r="H160">
         <v>14012.337764682699</v>
       </c>
@@ -6327,8 +6861,11 @@
       <c r="L160">
         <v>61029.714448886298</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>20784.402150756101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -6347,6 +6884,9 @@
       <c r="F161">
         <v>48206.174035356198</v>
       </c>
+      <c r="G161">
+        <v>9492.2689418164991</v>
+      </c>
       <c r="H161">
         <v>12727.987268606699</v>
       </c>
@@ -6359,8 +6899,11 @@
       <c r="L161">
         <v>57768.591286306997</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>19461.9774721006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -6379,6 +6922,9 @@
       <c r="F162">
         <v>48589.792403584899</v>
       </c>
+      <c r="G162">
+        <v>9527.6540110384904</v>
+      </c>
       <c r="H162">
         <v>11926.6110001093</v>
       </c>
@@ -6391,8 +6937,11 @@
       <c r="L162">
         <v>48971.575906253398</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <v>16973.466049056999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -6411,6 +6960,9 @@
       <c r="F163">
         <v>49636.277192407899</v>
       </c>
+      <c r="G163">
+        <v>9563.1709879352002</v>
+      </c>
       <c r="H163">
         <v>12261.9210448187</v>
       </c>
@@ -6423,8 +6975,11 @@
       <c r="L163">
         <v>52522.636761778303</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>17726.780685937101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -6443,6 +6998,9 @@
       <c r="F164">
         <v>49215.649333099202</v>
       </c>
+      <c r="G164">
+        <v>9598.8203642291101</v>
+      </c>
       <c r="H164">
         <v>13227.8722008365</v>
       </c>
@@ -6455,8 +7013,11 @@
       <c r="L164">
         <v>58944.914565070801</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>19240.919898464799</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -6475,6 +7036,9 @@
       <c r="F165">
         <v>48914.167967062298</v>
       </c>
+      <c r="G165">
+        <v>9634.6026334757698</v>
+      </c>
       <c r="H165">
         <v>13584.3914340346</v>
       </c>
@@ -6487,8 +7051,11 @@
       <c r="L165">
         <v>64237.320980369899</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>19462.2967395743</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -6507,6 +7074,9 @@
       <c r="F166">
         <v>49038.354932066999</v>
       </c>
+      <c r="G166">
+        <v>9670.5182910705607</v>
+      </c>
       <c r="H166">
         <v>13683.8532380173</v>
       </c>
@@ -6519,8 +7089,11 @@
       <c r="L166">
         <v>67767.539562348</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <v>19401.106958981301</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -6539,6 +7112,9 @@
       <c r="F167">
         <v>49257.2455548168</v>
       </c>
+      <c r="G167">
+        <v>9697.5554484593395</v>
+      </c>
       <c r="H167">
         <v>13677.6208602958</v>
       </c>
@@ -6551,8 +7127,11 @@
       <c r="L167">
         <v>68769.392417061594</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>19433.926722153101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -6571,6 +7150,9 @@
       <c r="F168">
         <v>48850.220064431203</v>
       </c>
+      <c r="G168">
+        <v>9724.6681972339902</v>
+      </c>
       <c r="H168">
         <v>13959.6967422981</v>
       </c>
@@ -6583,8 +7165,11 @@
       <c r="L168">
         <v>72295.910797799195</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>20515.9832542363</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -6603,6 +7188,9 @@
       <c r="F169">
         <v>49489.422900510297</v>
       </c>
+      <c r="G169">
+        <v>9751.8567487354194</v>
+      </c>
       <c r="H169">
         <v>12882.801416690399</v>
       </c>
@@ -6615,8 +7203,11 @@
       <c r="L169">
         <v>70471.036278863205</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>19894.105068020199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -6635,6 +7226,9 @@
       <c r="F170">
         <v>49674.332260794501</v>
       </c>
+      <c r="G170">
+        <v>9779.1213148954303</v>
+      </c>
       <c r="H170">
         <v>12233.069065055201</v>
       </c>
@@ -6647,8 +7241,11 @@
       <c r="L170">
         <v>66548.285139022002</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>19550.203874139399</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -6667,6 +7264,9 @@
       <c r="F171">
         <v>50370.173822295197</v>
       </c>
+      <c r="G171">
+        <v>9806.4621082383292</v>
+      </c>
       <c r="H171">
         <v>11025.690147129901</v>
       </c>
@@ -6679,8 +7279,11 @@
       <c r="L171">
         <v>57927.157714285699</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>17360.9804497972</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -6699,6 +7302,9 @@
       <c r="F172">
         <v>51068.007899040596</v>
       </c>
+      <c r="G172">
+        <v>9833.8793418826099</v>
+      </c>
       <c r="H172">
         <v>10301.434324952999</v>
       </c>
@@ -6711,8 +7317,11 @@
       <c r="L172">
         <v>54571.813983440603</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>15997.477731586199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -6731,6 +7340,9 @@
       <c r="F173">
         <v>51865.595969200796</v>
       </c>
+      <c r="G173">
+        <v>9861.3732295426198</v>
+      </c>
       <c r="H173">
         <v>10290.9338951674</v>
       </c>
@@ -6743,8 +7355,11 @@
       <c r="L173">
         <v>55130.9286687684</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>15809.806484934201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -6763,6 +7378,9 @@
       <c r="F174">
         <v>52702.846929455001</v>
       </c>
+      <c r="G174">
+        <v>9888.9439855302207</v>
+      </c>
       <c r="H174">
         <v>9193.8149604473492</v>
       </c>
@@ -6775,8 +7393,11 @@
       <c r="L174">
         <v>49048.110365111497</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>14032.823299728299</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -6795,6 +7416,9 @@
       <c r="F175">
         <v>52592.449748173603</v>
       </c>
+      <c r="G175">
+        <v>9916.5918247564296</v>
+      </c>
       <c r="H175">
         <v>10056.6452699662</v>
       </c>
@@ -6807,8 +7431,11 @@
       <c r="L175">
         <v>52209.552189781003</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>14514.3005543903</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -6827,6 +7454,9 @@
       <c r="F176">
         <v>52635.121139008501</v>
       </c>
+      <c r="G176">
+        <v>9944.3169627331408</v>
+      </c>
       <c r="H176">
         <v>10451.680737204</v>
       </c>
@@ -6839,8 +7469,11 @@
       <c r="L176">
         <v>55449.172801450499</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>15412.605305024699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -6859,6 +7492,9 @@
       <c r="F177">
         <v>53565.369295931901</v>
       </c>
+      <c r="G177">
+        <v>9972.1196155747893</v>
+      </c>
       <c r="H177">
         <v>9429.9375525808191</v>
       </c>
@@ -6871,8 +7507,11 @@
       <c r="L177">
         <v>50744.265490607402</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>14080.0811815898</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -6906,8 +7545,11 @@
       <c r="L178">
         <v>48986.5167159763</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>13387.772243393199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -6941,8 +7583,11 @@
       <c r="L179">
         <v>47814.679966611002</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>13193.478225982601</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -6976,8 +7621,11 @@
       <c r="L180">
         <v>45977.051730151397</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>12878.7415765435</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -7011,8 +7659,11 @@
       <c r="L181">
         <v>49010.689300152699</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>13810.5559178719</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -7046,8 +7697,11 @@
       <c r="L182">
         <v>49457.9588394518</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>14062.201854725799</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -7081,8 +7735,11 @@
       <c r="L183">
         <v>54083.862641113097</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>15021.2008696967</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -7116,8 +7773,11 @@
       <c r="L184">
         <v>58024.482081639799</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>15673.5687660409</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -7151,8 +7811,11 @@
       <c r="L185">
         <v>64134.715091058802</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>17142.688858240399</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -7189,8 +7852,11 @@
       <c r="M186" s="5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>16508.709033392101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -7227,8 +7893,11 @@
       <c r="M187" s="5">
         <v>10631.818499999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>17720.058522585401</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -7265,8 +7934,11 @@
       <c r="M188" s="5">
         <v>10455.157300000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>17354.728884356398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -7303,8 +7975,11 @@
       <c r="M189" s="5">
         <v>10543.3339</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>17502.315556783</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -7341,8 +8016,11 @@
       <c r="M190" s="5">
         <v>10950.718999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <v>18318.510528287501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -7379,8 +8057,11 @@
       <c r="M191" s="5">
         <v>11135.4257</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <v>18667.539312438799</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -7417,8 +8098,11 @@
       <c r="M192" s="5">
         <v>11255.089400000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <v>19365.063533631801</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -7455,8 +8139,11 @@
       <c r="M193" s="5">
         <v>11240.2989</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <v>19207.409512746199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -7493,8 +8180,11 @@
       <c r="M194" s="5">
         <v>11094.0452</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>18907.447465394202</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -7531,8 +8221,11 @@
       <c r="M195" s="5">
         <v>11344.092500000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>19599.494583205698</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -7569,8 +8262,11 @@
       <c r="M196" s="5">
         <v>11096.7626</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>19034.874728917999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -7607,8 +8303,11 @@
       <c r="M197" s="5">
         <v>11108.4683</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>19040.746737792</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -7645,8 +8344,11 @@
       <c r="M198" s="5">
         <v>11072.6877</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>19119.623600266001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -7683,8 +8385,11 @@
       <c r="M199" s="5">
         <v>11051.527400000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>19210.585754093299</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -7721,8 +8426,11 @@
       <c r="M200" s="5">
         <v>11170.8851</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>19692.674720706302</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -7759,8 +8467,11 @@
       <c r="M201" s="5">
         <v>11323.867899999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>20060.437556009299</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -7797,8 +8508,11 @@
       <c r="M202" s="5">
         <v>11586.8878</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <v>20678.234074972399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -7835,8 +8549,11 @@
       <c r="M203" s="5">
         <v>11790.203100000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>21042.917077973801</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -7873,8 +8590,11 @@
       <c r="M204" s="5">
         <v>11791.3375</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>21090.009981456398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -7911,8 +8631,11 @@
       <c r="M205" s="5">
         <v>11540.3256</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>20493.7380052056</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -7949,8 +8672,11 @@
       <c r="M206" s="5">
         <v>12378.0695</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <v>21840.855538689801</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -7987,8 +8713,11 @@
       <c r="M207" s="5">
         <v>12767.6708</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>22685.562897092201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -8025,8 +8754,11 @@
       <c r="M208" s="5">
         <v>13251.210999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>23559.859373186999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -8063,8 +8795,11 @@
       <c r="M209" s="5">
         <v>13232.154699999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>23776.062202650399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -8101,8 +8836,11 @@
       <c r="M210" s="5">
         <v>13796.158799999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <v>24888.877769737101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -8139,8 +8877,11 @@
       <c r="M211" s="5">
         <v>13459.761200000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>24133.207282528099</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -8177,8 +8918,11 @@
       <c r="M212" s="5">
         <v>14245.5543</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <v>25563.666514769498</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -8215,8 +8959,11 @@
       <c r="M213" s="5">
         <v>14562.9581</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <v>26566.535709047301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -8253,8 +9000,11 @@
       <c r="M214" s="5">
         <v>14883.5479</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <v>27340.664371164999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -8291,8 +9041,11 @@
       <c r="M215" s="5">
         <v>15178.2726</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <v>27902.769857478699</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -8329,8 +9082,11 @@
       <c r="M216" s="5">
         <v>15215.981100000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>28211.797772430898</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -8367,8 +9123,11 @@
       <c r="M217" s="5">
         <v>15174.056699999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <v>28130.8986029343</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -8405,8 +9164,11 @@
       <c r="M218" s="5">
         <v>14212.506799999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <v>26250.684675265202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -8443,8 +9205,11 @@
       <c r="M219" s="5">
         <v>14396.1057</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <v>26376.597425532698</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -8481,8 +9246,11 @@
       <c r="M220" s="5">
         <v>14451.8596</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>26063.962245360501</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -8519,8 +9287,11 @@
       <c r="M221" s="5">
         <v>14735.380499999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <v>26676.710540275901</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -8557,8 +9328,11 @@
       <c r="M222" s="5">
         <v>15144.072899999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>27398.6929908329</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -8595,8 +9369,11 @@
       <c r="M223" s="5">
         <v>15664.4185</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <v>28357.5098106962</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -8633,8 +9410,11 @@
       <c r="M224" s="5">
         <v>15498.626399999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>28223.105830404202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -8671,8 +9451,11 @@
       <c r="M225" s="5">
         <v>15893.254300000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>28938.967633804699</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -8709,8 +9492,11 @@
       <c r="M226" s="5">
         <v>16312.8953</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>29972.898122051902</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -8747,8 +9533,11 @@
       <c r="M227" s="5">
         <v>15906.0231</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <v>29691.344480072199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -8785,8 +9574,11 @@
       <c r="M228" s="5">
         <v>16098.1083</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>30079.1681409136</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -8823,8 +9615,11 @@
       <c r="M229" s="5">
         <v>16472.939600000002</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <v>30540.504355878398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -8861,8 +9656,11 @@
       <c r="M230" s="5">
         <v>17176.825799999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>31625.941262946199</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -8899,8 +9697,11 @@
       <c r="M231" s="5">
         <v>17070.164000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>31173.4912074485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -8940,8 +9741,11 @@
       <c r="M232" s="5">
         <v>16571.039799999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>30070.904615179599</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -8981,8 +9785,11 @@
       <c r="M233" s="5">
         <v>16530.306799999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>29644.107356992401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -9022,8 +9829,11 @@
       <c r="M234" s="5">
         <v>16834.0766</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <v>29743.256382309701</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -9063,8 +9873,11 @@
       <c r="M235" s="5">
         <v>17189.133900000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <v>30102.417049363201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -9104,8 +9917,11 @@
       <c r="M236" s="5">
         <v>16118.239299999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>27906.5880665031</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -9145,8 +9961,11 @@
       <c r="M237" s="5">
         <v>15973.7248</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>27441.843127502299</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -9186,8 +10005,11 @@
       <c r="M238" s="5">
         <v>14524.3313</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>25166.153349284799</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -9227,8 +10049,11 @@
       <c r="M239" s="5">
         <v>14273.247600000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <v>24827.181783948399</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -9268,8 +10093,11 @@
       <c r="M240" s="5">
         <v>13492.397800000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>23520.315437026598</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -9309,8 +10137,11 @@
       <c r="M241" s="5">
         <v>14494.431399999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <v>24981.090699764802</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -9350,8 +10181,11 @@
       <c r="M242" s="5">
         <v>14744.7657</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>25530.3004826373</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -9391,8 +10225,11 @@
       <c r="M243" s="5">
         <v>13279.951800000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <v>22806.340120103501</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -9432,8 +10269,11 @@
       <c r="M244" s="5">
         <v>13095.2055</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>22302.037274638398</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -9473,8 +10313,11 @@
       <c r="M245" s="5">
         <v>13568.8236</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <v>23318.066122870099</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -9514,8 +10357,11 @@
       <c r="M246" s="5">
         <v>12260.660900000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>20750.8014170514</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -9555,8 +10401,11 @@
       <c r="M247" s="5">
         <v>11007.6576</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <v>18110.147830993901</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -9596,8 +10445,11 @@
       <c r="M248" s="5">
         <v>10315.706099999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>17285.681771672102</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -9637,8 +10489,11 @@
       <c r="M249" s="5">
         <v>9787.4717899999996</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <v>16766.060622049499</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -9678,8 +10533,11 @@
       <c r="M250" s="5">
         <v>9702.1509800000003</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>16663.906416793801</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -9719,8 +10577,11 @@
       <c r="M251" s="5">
         <v>8879.5460600000006</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <v>15100.370436908201</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -9760,8 +10621,11 @@
       <c r="M252" s="5">
         <v>9150.4752200000003</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>15661.186673456399</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -9801,8 +10665,11 @@
       <c r="M253" s="5">
         <v>10277.8745</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <v>18327.093799860399</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -9842,8 +10709,11 @@
       <c r="M254" s="5">
         <v>10656.225200000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>19074.565071052199</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -9883,8 +10753,11 @@
       <c r="M255" s="5">
         <v>10572.901</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <v>19072.637833688201</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -9924,8 +10797,11 @@
       <c r="M256" s="5">
         <v>11508.6307</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>20696.630268569301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -9965,8 +10841,11 @@
       <c r="M257" s="5">
         <v>11822.213100000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <v>21542.083348147298</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -10006,8 +10885,11 @@
       <c r="M258" s="5">
         <v>12051.6214</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <v>21976.503746091701</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -10047,8 +10929,11 @@
       <c r="M259" s="5">
         <v>11737.7595</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>21089.584311844901</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -10088,8 +10973,11 @@
       <c r="M260" s="5">
         <v>12035.752200000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <v>21379.812182460199</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -10129,8 +11017,11 @@
       <c r="M261" s="5">
         <v>12806.1523</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <v>22894.547876424</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -10170,8 +11061,11 @@
       <c r="M262" s="5">
         <v>12641.968999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <v>22944.904036618798</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -10211,8 +11105,11 @@
       <c r="M263" s="5">
         <v>13163.331099999999</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <v>24007.692178168101</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -10252,8 +11149,11 @@
       <c r="M264" s="5">
         <v>14115.806500000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <v>25753.0712735776</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -10293,8 +11193,11 @@
       <c r="M265" s="5">
         <v>14312.683499999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <v>26340.469772495799</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -10334,8 +11237,11 @@
       <c r="M266" s="5">
         <v>14001.517900000001</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <v>25773.6709530224</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -10375,8 +11281,11 @@
       <c r="M267" s="5">
         <v>13631.0034</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <v>25122.137190506499</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -10416,8 +11325,11 @@
       <c r="M268" s="5">
         <v>13884.6648</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <v>25561.152005743799</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -10457,8 +11369,11 @@
       <c r="M269" s="5">
         <v>13765.1055</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <v>25331.3594770046</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -10498,8 +11413,11 @@
       <c r="M270" s="5">
         <v>14027.239799999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <v>25892.1212601152</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -10539,8 +11457,11 @@
       <c r="M271" s="5">
         <v>14305.177100000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <v>26383.980731631498</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -10580,8 +11501,11 @@
       <c r="M272" s="5">
         <v>14886.9449</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <v>27673.210971987501</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -10621,8 +11545,11 @@
       <c r="M273" s="5">
         <v>15555.1276</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <v>29051.9587922465</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -10662,8 +11589,11 @@
       <c r="M274" s="5">
         <v>15410.726500000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <v>28854.1616251587</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -10703,8 +11633,11 @@
       <c r="M275" s="5">
         <v>15682.4437</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <v>29514.244088916101</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -10744,8 +11677,11 @@
       <c r="M276" s="5">
         <v>15269.279699999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <v>28504.726678590901</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -10785,8 +11721,11 @@
       <c r="M277" s="5">
         <v>15195.654699999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <v>28293.581741557398</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -10826,8 +11765,11 @@
       <c r="M278" s="5">
         <v>15352.4519</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <v>28698.123217956701</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -10867,8 +11809,11 @@
       <c r="M279" s="5">
         <v>15046.5092</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <v>28124.422931470901</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -10908,8 +11853,11 @@
       <c r="M280" s="5">
         <v>14993.9656</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <v>28055.6923582913</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -10949,8 +11897,11 @@
       <c r="M281" s="5">
         <v>13710.6942</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <v>25653.359993686499</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -10990,8 +11941,11 @@
       <c r="M282" s="5">
         <v>13273.502</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>24811.8896465824</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -11031,8 +11985,11 @@
       <c r="M283" s="5">
         <v>14176.1875</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <v>26210.774210080901</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -11072,8 +12029,11 @@
       <c r="M284" s="5">
         <v>14332.638999999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <v>26355.6646193253</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -11113,8 +12073,11 @@
       <c r="M285" s="5">
         <v>14822.778</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <v>27076.953437468099</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -11154,8 +12117,11 @@
       <c r="M286" s="5">
         <v>15428.131100000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <v>28271.918814905399</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -11195,8 +12161,11 @@
       <c r="M287" s="5">
         <v>15883.7618</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <v>29103.0125993002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -11236,8 +12205,11 @@
       <c r="M288" s="5">
         <v>16079.266600000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <v>29532.706470530899</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -11277,8 +12249,11 @@
       <c r="M289" s="5">
         <v>16063.293900000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <v>29353.495372772799</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -11318,8 +12293,11 @@
       <c r="M290" s="5">
         <v>15576.688099999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <v>28157.219041803401</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -11359,8 +12337,11 @@
       <c r="M291" s="5">
         <v>16105.035599999999</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291">
+        <v>29103.541004852301</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -11400,8 +12381,11 @@
       <c r="M292" s="5">
         <v>16736.257000000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <v>29915.570361423201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -11441,8 +12425,11 @@
       <c r="M293" s="5">
         <v>16653.810300000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293">
+        <v>29860.6794338205</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -11482,8 +12469,11 @@
       <c r="M294" s="5">
         <v>16762.835500000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <v>30024.6228655017</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -11523,8 +12513,11 @@
       <c r="M295" s="5">
         <v>16583.734100000001</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <v>29876.790174868202</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -11564,8 +12557,11 @@
       <c r="M296" s="5">
         <v>16805.2258</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <v>30394.613866773401</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -11605,8 +12601,11 @@
       <c r="M297" s="5">
         <v>16933.1247</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <v>30821.663022078999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -11646,8 +12645,11 @@
       <c r="M298" s="5">
         <v>17246.480500000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <v>31560.758760567202</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -11687,8 +12689,11 @@
       <c r="M299" s="5">
         <v>17787.6165</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <v>32763.570407068401</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -11728,8 +12733,11 @@
       <c r="M300" s="5">
         <v>18556.4159</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <v>34448.951834059299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -11769,8 +12777,11 @@
       <c r="M301" s="5">
         <v>18704.048500000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <v>34949.341032759403</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -11810,8 +12821,11 @@
       <c r="M302" s="5">
         <v>18751.2932</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <v>34795.472864266303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -11851,8 +12865,11 @@
       <c r="M303" s="5">
         <v>18102.832999999999</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <v>33752.465573499401</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -11892,8 +12909,11 @@
       <c r="M304" s="5">
         <v>18685.501400000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <v>34934.764175714299</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -11933,8 +12953,11 @@
       <c r="M305" s="5">
         <v>18352.074000000001</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <v>34426.823009876302</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -11974,8 +12997,11 @@
       <c r="M306" s="5">
         <v>18920.302199999998</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <v>35824.419958063801</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -12015,8 +13041,11 @@
       <c r="M307" s="5">
         <v>19482.84</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <v>36573.288886791699</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -12056,8 +13085,11 @@
       <c r="M308" s="5">
         <v>19799.529699999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <v>36929.437810945303</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -12097,8 +13129,11 @@
       <c r="M309" s="5">
         <v>19875.6908</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <v>37140.758235198802</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -12138,8 +13173,11 @@
       <c r="M310" s="5">
         <v>19469.832399999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <v>36791.8035683997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -12179,8 +13217,11 @@
       <c r="M311" s="5">
         <v>19950.982899999999</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <v>37812.498744215802</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -12220,8 +13261,11 @@
       <c r="M312" s="5">
         <v>20093.4349</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <v>37888.056065708101</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -12261,8 +13305,11 @@
       <c r="M313" s="5">
         <v>20189.262999999999</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <v>37925.481039901802</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -12302,8 +13349,11 @@
       <c r="M314" s="5">
         <v>20994.245999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <v>39398.925253780297</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -12343,8 +13393,11 @@
       <c r="M315" s="5">
         <v>21317.7709</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <v>40170.290245760101</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -12384,8 +13437,11 @@
       <c r="M316" s="5">
         <v>21501.027900000001</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <v>40297.348310408197</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -12425,8 +13481,11 @@
       <c r="M317" s="5">
         <v>22293.128700000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <v>41489.677953526298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -12466,8 +13525,11 @@
       <c r="M318" s="5">
         <v>22613.8691</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <v>41729.258811360203</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -12507,8 +13569,11 @@
       <c r="M319" s="5">
         <v>22875.1057</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <v>42032.511010454997</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -12548,8 +13613,11 @@
       <c r="M320" s="5">
         <v>23333.444200000002</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <v>42790.123133841102</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -12589,8 +13657,11 @@
       <c r="M321" s="5">
         <v>23531.122500000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <v>43427.968574493403</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -12630,8 +13701,11 @@
       <c r="M322" s="5">
         <v>24895.141100000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <v>46389.798177301796</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -12671,8 +13745,11 @@
       <c r="M323" s="5">
         <v>26421.299900000002</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <v>49364.416038112096</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -12712,8 +13789,11 @@
       <c r="M324" s="5">
         <v>27181.061799999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <v>50987.449190558596</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -12753,8 +13833,11 @@
       <c r="M325" s="5">
         <v>26837.731599999999</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <v>50319.754828970203</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -12794,8 +13877,11 @@
       <c r="M326" s="5">
         <v>27417.9866</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <v>51361.418885197701</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -12835,8 +13921,11 @@
       <c r="M327" s="5">
         <v>26249.538700000001</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <v>49082.020931214902</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -12876,8 +13965,11 @@
       <c r="M328" s="5">
         <v>27005.1819</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <v>50462.042276393702</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -12917,8 +14009,11 @@
       <c r="M329" s="5">
         <v>24613.001700000001</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <v>46295.134218226704</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -12958,8 +14053,11 @@
       <c r="M330" s="5">
         <v>23746.115300000001</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <v>44211.844973229898</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -12999,8 +14097,11 @@
       <c r="M331" s="5">
         <v>26033.488300000001</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <v>48436.293140456801</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -13040,8 +14141,11 @@
       <c r="M332" s="5">
         <v>26889.993200000001</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <v>50066.0703448528</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -13081,8 +14185,11 @@
       <c r="M333" s="5">
         <v>25672.900600000001</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <v>47698.183600410703</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -13122,8 +14229,11 @@
       <c r="M334" s="5">
         <v>24045.201300000001</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <v>44370.094138336899</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -13163,8 +14273,11 @@
       <c r="M335" s="5">
         <v>23943.068299999999</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <v>44707.079030449197</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -13204,8 +14317,11 @@
       <c r="M336" s="5">
         <v>24613.072800000002</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <v>46125.274898279698</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -13245,8 +14361,11 @@
       <c r="M337" s="5">
         <v>24937.048200000001</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <v>47334.9846613396</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -13286,8 +14405,11 @@
       <c r="M338" s="5">
         <v>25527.303800000002</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338">
+        <v>48183.912271799702</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -13327,8 +14449,11 @@
       <c r="M339" s="5">
         <v>25487.171399999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <v>47427.227461511902</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -13368,8 +14493,11 @@
       <c r="M340" s="5">
         <v>26561.236199999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340">
+        <v>49860.118262798402</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -13409,8 +14537,11 @@
       <c r="M341" s="5">
         <v>26596.981599999999</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <v>49765.505430698999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -13450,8 +14581,11 @@
       <c r="M342" s="5">
         <v>26686.193599999999</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342">
+        <v>50177.758821294097</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -13491,8 +14625,11 @@
       <c r="M343" s="5">
         <v>26764.523000000001</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <v>50183.603975770799</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -13532,8 +14669,11 @@
       <c r="M344" s="5">
         <v>27757.297999999999</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344">
+        <v>52104.607161956301</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -13573,8 +14713,11 @@
       <c r="M345" s="5">
         <v>28635.537700000001</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <v>53616.819393569902</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -13614,8 +14757,11 @@
       <c r="M346" s="5">
         <v>28822.827499999999</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <v>54198.749242046899</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -13655,8 +14801,11 @@
       <c r="M347" s="5">
         <v>30085.7402</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <v>56090.4666681171</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -13696,8 +14845,11 @@
       <c r="M348" s="5">
         <v>30184.003700000001</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <v>56317.363491395998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -13737,8 +14889,11 @@
       <c r="M349" s="5">
         <v>29983.5681</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <v>56095.975888807901</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -13778,8 +14933,11 @@
       <c r="M350" s="5">
         <v>29843.107499999998</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350">
+        <v>55926.821707121097</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -13819,8 +14977,11 @@
       <c r="M351" s="5">
         <v>29462.840700000001</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351">
+        <v>55423.3514045052</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -13860,8 +15021,11 @@
       <c r="M352" s="5">
         <v>29454.7215</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <v>55201.835112649103</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -13901,8 +15065,11 @@
       <c r="M353" s="5">
         <v>29326.569100000001</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <v>54614.500183607597</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -13942,8 +15109,11 @@
       <c r="M354" s="5">
         <v>29941.846600000001</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <v>55928.751948426703</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -13983,8 +15153,11 @@
       <c r="M355" s="5">
         <v>31010.490699999998</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <v>57580.094224627697</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -14024,8 +15197,11 @@
       <c r="M356" s="5">
         <v>31054.380499999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <v>57845.129414917501</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -14065,8 +15241,11 @@
       <c r="M357" s="5">
         <v>31202.756000000001</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <v>58122.503659832502</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -14106,8 +15285,11 @@
       <c r="M358" s="5">
         <v>31723.073499999999</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <v>58503.928548119802</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -14147,8 +15329,11 @@
       <c r="M359" s="5">
         <v>31006.2932</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <v>57188.528203941198</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -14188,8 +15373,11 @@
       <c r="M360" s="5">
         <v>30070.1757</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <v>55990.062922523699</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -14229,8 +15417,11 @@
       <c r="M361" s="5">
         <v>30967.569100000001</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <v>57855.002157408802</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -14270,8 +15461,11 @@
       <c r="M362" s="5">
         <v>31984.344400000002</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <v>59643.266272427303</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -14311,8 +15505,11 @@
       <c r="M363" s="5">
         <v>31902.304400000001</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <v>59409.184800112002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -14352,8 +15549,11 @@
       <c r="M364" s="5">
         <v>32648.6158</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <v>60300.090836849202</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -14393,8 +15593,11 @@
       <c r="M365" s="5">
         <v>33118.082799999996</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365">
+        <v>60752.345955883902</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -14434,8 +15637,11 @@
       <c r="M366" s="5">
         <v>33489.931400000001</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <v>61367.571518704797</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -14475,8 +15681,11 @@
       <c r="M367" s="5">
         <v>31690.269100000001</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367">
+        <v>57602.0893055755</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -14516,8 +15725,11 @@
       <c r="M368" s="5">
         <v>32037.3161</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <v>57993.179202962303</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -14557,8 +15769,11 @@
       <c r="M369" s="5">
         <v>29554.580600000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369">
+        <v>53429.2890837015</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -14598,8 +15813,11 @@
       <c r="M370" s="5">
         <v>31748.971600000001</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <v>57764.897039255302</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -14639,8 +15857,11 @@
       <c r="M371" s="5">
         <v>32786.210899999998</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371">
+        <v>59655.936399936101</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -14680,8 +15901,11 @@
       <c r="M372" s="5">
         <v>33735.618600000002</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <v>60773.811562393901</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -14721,8 +15945,11 @@
       <c r="M373" s="5">
         <v>34924.849699999999</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373">
+        <v>62657.8508238918</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -14762,8 +15989,11 @@
       <c r="M374" s="5">
         <v>33061.965100000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N374">
+        <v>59276.354804000097</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -14803,8 +16033,11 @@
       <c r="M375" s="5">
         <v>34490.750200000002</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375">
+        <v>61714.077487629802</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -14844,8 +16077,11 @@
       <c r="M376" s="5">
         <v>35292.941299999999</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N376">
+        <v>62740.252226336503</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -14885,8 +16121,11 @@
       <c r="M377" s="5">
         <v>34822.222300000001</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377">
+        <v>61610.949304082598</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -14926,8 +16165,11 @@
       <c r="M378" s="5">
         <v>36063.833599999998</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N378">
+        <v>64348.5889008386</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -14967,8 +16209,11 @@
       <c r="M379" s="5">
         <v>36189.388800000001</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379">
+        <v>64671.7613299312</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -15008,8 +16253,11 @@
       <c r="M380" s="5">
         <v>37642.333200000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N380">
+        <v>67167.463213448704</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -15049,8 +16297,11 @@
       <c r="M381" s="5">
         <v>38112.736199999999</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381">
+        <v>67447.761476072599</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -15090,8 +16341,11 @@
       <c r="M382" s="5">
         <v>38296.2111</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N382">
+        <v>67201.284126793893</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -15131,8 +16385,11 @@
       <c r="M383" s="5">
         <v>35438.433299999997</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383">
+        <v>61448.346627090301</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -15172,8 +16429,11 @@
       <c r="M384" s="5">
         <v>30704.459200000001</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N384">
+        <v>51256.234922512202</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -15213,8 +16473,11 @@
       <c r="M385" s="5">
         <v>34218.380299999997</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385">
+        <v>56903.014685509799</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -15254,8 +16517,11 @@
       <c r="M386" s="5">
         <v>34895.504200000003</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N386">
+        <v>58639.3008221536</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -15295,8 +16561,11 @@
       <c r="M387" s="5">
         <v>35793.672500000001</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387">
+        <v>59438.121017945399</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -15336,8 +16605,11 @@
       <c r="M388" s="5">
         <v>35573.561999999998</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N388">
+        <v>57899.953972065399</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -15377,8 +16649,11 @@
       <c r="M389" s="5">
         <v>37487.665200000003</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389">
+        <v>60747.458686327402</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -15418,8 +16693,11 @@
       <c r="M390" s="5">
         <v>37000.713000000003</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N390">
+        <v>60461.866208817897</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -15459,8 +16737,11 @@
       <c r="M391" s="5">
         <v>36112.270199999999</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N391">
+        <v>59227.393234908603</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -15500,8 +16781,11 @@
       <c r="M392" s="5">
         <v>39624.210299999999</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N392">
+        <v>66494.697286041701</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -15541,8 +16825,11 @@
       <c r="M393" s="5">
         <v>40479.378199999999</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N393">
+        <v>67676.057842672395</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -15582,8 +16869,11 @@
       <c r="M394" s="5">
         <v>40745.456700000002</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N394">
+        <v>67973.624616932095</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -15623,8 +16913,11 @@
       <c r="M395" s="5">
         <v>41747.291100000002</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N395">
+        <v>70298.889282638804</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -15664,8 +16957,11 @@
       <c r="M396" s="5">
         <v>44358.627200000003</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N396">
+        <v>75173.931058221206</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -15705,8 +17001,11 @@
       <c r="M397" s="5">
         <v>44904.082300000002</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N397">
+        <v>75433.183883445396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -15746,8 +17045,11 @@
       <c r="M398" s="5">
         <v>45177.539799999999</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N398">
+        <v>76309.924068787004</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -15787,8 +17089,11 @@
       <c r="M399" s="5">
         <v>46942.566700000003</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N399">
+        <v>78333.9730159756</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -15828,8 +17133,11 @@
       <c r="M400" s="5">
         <v>47212.434300000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N400">
+        <v>78846.462751267303</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -15869,8 +17177,11 @@
       <c r="M401" s="5">
         <v>48619.054400000001</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N401">
+        <v>80853.584794209994</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -15910,8 +17221,11 @@
       <c r="M402" s="5">
         <v>47667.402900000001</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N402">
+        <v>79989.829688733094</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -15951,8 +17265,11 @@
       <c r="M403" s="5">
         <v>49762.719599999997</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N403">
+        <v>82062.606970177701</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -15992,8 +17309,11 @@
       <c r="M404" s="5">
         <v>49709.796499999997</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N404">
+        <v>80562.810548454901</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -16033,8 +17353,11 @@
       <c r="M405" s="5">
         <v>51924.892599999999</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N405">
+        <v>84230.157584970497</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -16074,8 +17397,11 @@
       <c r="M406" s="5">
         <v>50183.496500000001</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N406">
+        <v>81024.054205175096</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -16115,8 +17441,11 @@
       <c r="M407" s="5">
         <v>48718.008999999998</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N407">
+        <v>79888.188852289895</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -16156,8 +17485,11 @@
       <c r="M408" s="5">
         <v>50202.067600000002</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N408">
+        <v>81446.410960109701</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -16197,8 +17529,11 @@
       <c r="M409" s="5">
         <v>48695.700100000002</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N409">
+        <v>79425.441721751995</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -16238,8 +17573,11 @@
       <c r="M410" s="5">
         <v>47964.6466</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N410">
+        <v>78380.326369282004</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -16279,8 +17617,11 @@
       <c r="M411" s="5">
         <v>45315.477800000001</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N411">
+        <v>73322.174148194899</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -16320,8 +17661,11 @@
       <c r="M412" s="5">
         <v>49307.377099999998</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N412">
+        <v>79749.561881069603</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -16361,8 +17705,11 @@
       <c r="M413" s="5">
         <v>48469.081700000002</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N413">
+        <v>78087.478417100298</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -16402,8 +17749,11 @@
       <c r="M414" s="5">
         <v>44962.732600000003</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N414">
+        <v>72151.826640469793</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -16443,8 +17793,11 @@
       <c r="M415" s="5">
         <v>46833.9519</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N415">
+        <v>75337.889128965093</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -16484,8 +17837,11 @@
       <c r="M416" s="5">
         <v>48244.3292</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N416">
+        <v>78227.986244670596</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -16525,8 +17881,11 @@
       <c r="M417" s="5">
         <v>45173.534500000002</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N417">
+        <v>74411.819849145395</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -16566,8 +17925,11 @@
       <c r="M418" s="5">
         <v>47621.7575</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N418">
+        <v>79226.889119606596</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -16607,8 +17969,11 @@
       <c r="M419" s="5">
         <v>47183.782299999999</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N419">
+        <v>78633.865639975804</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -16648,8 +18013,11 @@
       <c r="M420" s="5">
         <v>47462.726799999997</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N420">
+        <v>77325.758796128401</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -16689,8 +18057,11 @@
       <c r="M421" s="5">
         <v>47708.055</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N421">
+        <v>77570.209052655395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -16730,8 +18101,11 @@
       <c r="M422" s="5">
         <v>48512.069000000003</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N422">
+        <v>76828.648814259606</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -16771,8 +18145,11 @@
       <c r="M423" s="5">
         <v>50400.196100000001</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N423">
+        <v>79643.835914836105</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -16812,8 +18189,11 @@
       <c r="M424" s="5">
         <v>51498.455000000002</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N424">
+        <v>81884.428469317703</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -16833,7 +18213,7 @@
         <v>85515.961161293497</v>
       </c>
       <c r="G425">
-        <v>12098.956358629401</v>
+        <v>12098.956358629501</v>
       </c>
       <c r="H425">
         <v>58838.084891941697</v>
@@ -16853,8 +18233,11 @@
       <c r="M425" s="5">
         <v>50805.948799999998</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N425">
+        <v>79973.561518051501</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -16894,8 +18277,11 @@
       <c r="M426" s="5">
         <v>50015.141600000003</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N426">
+        <v>78560.444813323105</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -16935,8 +18321,11 @@
       <c r="M427" s="5">
         <v>48395.071100000001</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N427">
+        <v>74624.185880284</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -16976,8 +18365,11 @@
       <c r="M428" s="5">
         <v>51327.496299999999</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N428">
+        <v>79468.376219316997</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -17017,8 +18409,11 @@
       <c r="M429" s="5">
         <v>53197.130599999997</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N429">
+        <v>83823.9310863094</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -17058,8 +18453,11 @@
       <c r="M430" s="5">
         <v>54558.368499999997</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N430">
+        <v>84669.927534761693</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -17099,8 +18497,11 @@
       <c r="M431" s="5">
         <v>56908.450499999999</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N431">
+        <v>86644.003722218797</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -17140,8 +18541,11 @@
       <c r="M432" s="5">
         <v>58732.812299999998</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N432">
+        <v>89943.550625075397</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -17181,8 +18585,11 @@
       <c r="M433" s="5">
         <v>57329.5959</v>
       </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N433">
+        <v>87379.916445772396</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -17222,8 +18629,11 @@
       <c r="M434" s="5">
         <v>58887.549200000001</v>
       </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N434">
+        <v>89053.968564742594</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -17263,8 +18673,11 @@
       <c r="M435" s="5">
         <v>60965.017800000001</v>
       </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N435">
+        <v>88842.019970612499</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -17284,7 +18697,7 @@
         <v>88444.815731103794</v>
       </c>
       <c r="G436">
-        <v>12550.5357891165</v>
+        <v>12550.5357891166</v>
       </c>
       <c r="H436">
         <v>72681.908362957794</v>
@@ -17301,8 +18714,11 @@
       <c r="L436">
         <v>332121.46265984199</v>
       </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N436">
+        <v>91576.195592293501</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -17339,8 +18755,11 @@
       <c r="L437">
         <v>329922.44530281698</v>
       </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N437">
+        <v>92164.458021053797</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -17377,8 +18796,11 @@
       <c r="L438">
         <v>349067.73162684799</v>
       </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N438">
+        <v>93438.498920533093</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -17415,8 +18837,11 @@
       <c r="L439">
         <v>342883.07845515502</v>
       </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N439">
+        <v>92603.707319861307</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -17453,8 +18878,11 @@
       <c r="L440">
         <v>339780.77447658102</v>
       </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N440">
+        <v>98744.851772163296</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -17491,8 +18919,11 @@
       <c r="L441">
         <v>346097.12923227</v>
       </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N441">
+        <v>96004.067891533006</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -17529,8 +18960,11 @@
       <c r="L442">
         <v>350909.55832424702</v>
       </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N442">
+        <v>99791.447199758695</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -17567,8 +19001,11 @@
       <c r="L443">
         <v>352456.71935644298</v>
       </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N443">
+        <v>100017.302932127</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -17605,8 +19042,11 @@
       <c r="L444">
         <v>341488.23895192402</v>
       </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N444">
+        <v>94675.454203551897</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -17643,8 +19083,11 @@
       <c r="L445">
         <v>328764.40258697298</v>
       </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N445">
+        <v>92238.862346578695</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -17681,8 +19124,11 @@
       <c r="L446">
         <v>343242.92975284101</v>
       </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N446">
+        <v>96628.345208116501</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -17716,8 +19162,11 @@
       <c r="L447">
         <v>351915.94467064098</v>
       </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N447">
+        <v>96431.244693721397</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -17734,7 +19183,7 @@
         <v>175642.227102562</v>
       </c>
       <c r="G448">
-        <v>12920.9885658411</v>
+        <v>12920.9885658412</v>
       </c>
       <c r="H448">
         <v>74082.504485275902</v>
@@ -17751,8 +19200,11 @@
       <c r="L448">
         <v>367958.92701609799</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N448">
+        <v>98721.377781248797</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -17786,8 +19238,11 @@
       <c r="L449">
         <v>364416.28743850801</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N449">
+        <v>100205.60932617</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -17816,7 +19271,7 @@
         <v>169006.89903428801</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -17842,7 +19297,7 @@
         <v>179978.549435283</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43270A1-5102-2644-97E7-9D43001316A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DC352-4EF9-344C-BDBC-906CDB06B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11120" yWindow="-28060" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
+    <workbookView xWindow="11120" yWindow="-28080" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,12 @@
   <si>
     <t>MSCI World Equal Weighted</t>
   </si>
+  <si>
+    <t>iMGP DBi Managed Futures Fund</t>
+  </si>
+  <si>
+    <t>WisdomTree Global Efficient Core</t>
+  </si>
 </sst>
 </file>
 
@@ -86,8 +92,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -137,12 +143,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -479,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:O453"/>
+  <dimension ref="A1:P453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:N1"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,10 +510,9 @@
     <col min="12" max="12" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,9 +555,14 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -582,7 +592,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -612,7 +622,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -642,7 +652,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -672,7 +682,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -702,7 +712,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -732,7 +742,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -762,7 +772,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -792,7 +802,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -822,7 +832,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -852,7 +862,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -882,7 +892,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -912,7 +922,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -942,7 +952,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -972,7 +982,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -3038,7 +3048,7 @@
         <v>9606.2492312224604</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34669</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>9853.8695656764903</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34700</v>
       </c>
@@ -3118,7 +3128,7 @@
         <v>9410.2884278588699</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34731</v>
       </c>
@@ -3157,8 +3167,11 @@
       <c r="N83" s="5">
         <v>9484.1820977757998</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>101.50821705641999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34759</v>
       </c>
@@ -3197,8 +3210,11 @@
       <c r="N84" s="5">
         <v>9440.8342792039402</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>103.258503936897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34790</v>
       </c>
@@ -3237,8 +3253,11 @@
       <c r="N85" s="5">
         <v>9541.4559480482294</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>104.63746332700499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34820</v>
       </c>
@@ -3277,8 +3296,11 @@
       <c r="N86" s="5">
         <v>9811.6770758148996</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>106.090551551983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34851</v>
       </c>
@@ -3317,8 +3339,11 @@
       <c r="N87" s="5">
         <v>9695.8082640413195</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P87">
+        <v>107.883661877148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34881</v>
       </c>
@@ -3357,8 +3382,11 @@
       <c r="N88" s="5">
         <v>10084.0918042055</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>109.077827571708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34912</v>
       </c>
@@ -3397,8 +3425,11 @@
       <c r="N89" s="5">
         <v>10168.474801406899</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>110.67577335694099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34943</v>
       </c>
@@ -3437,8 +3468,11 @@
       <c r="N90" s="5">
         <v>10425.8589461796</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>111.376965231024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34973</v>
       </c>
@@ -3477,8 +3511,11 @@
       <c r="N91" s="5">
         <v>9960.8802633032992</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <v>113.34978040690299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35004</v>
       </c>
@@ -3517,8 +3554,11 @@
       <c r="N92" s="5">
         <v>10237.7851870907</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>113.816581978195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35034</v>
       </c>
@@ -3557,8 +3597,11 @@
       <c r="N93" s="5">
         <v>10708.8174784738</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>115.90442690616899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35065</v>
       </c>
@@ -3597,8 +3640,11 @@
       <c r="N94" s="5">
         <v>11129.654597160599</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>117.03102356132101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35096</v>
       </c>
@@ -3637,8 +3683,11 @@
       <c r="N95" s="5">
         <v>11361.871293882899</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>118.865290474825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35125</v>
       </c>
@@ -3677,8 +3726,11 @@
       <c r="N96" s="5">
         <v>11593.7002426667</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>119.573372748314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -3717,8 +3769,11 @@
       <c r="N97" s="5">
         <v>12130.2331845309</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P97">
+        <v>120.788899513172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -3757,8 +3812,11 @@
       <c r="N98" s="5">
         <v>12207.177312190801</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <v>121.786701393019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -3797,8 +3855,11 @@
       <c r="N99" s="5">
         <v>12074.518015187499</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <v>123.225036409564</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -3837,8 +3898,14 @@
       <c r="N100" s="5">
         <v>11448.0653047624</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>96.45</v>
+      </c>
+      <c r="P100">
+        <v>124.167283696163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -3877,8 +3944,14 @@
       <c r="N101" s="5">
         <v>11535.620078883599</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>97.46</v>
+      </c>
+      <c r="P101">
+        <v>123.11425037471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -3917,8 +3990,14 @@
       <c r="N102" s="5">
         <v>11925.5024469908</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>101.9</v>
+      </c>
+      <c r="P102">
+        <v>124.441120011804</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -3957,8 +4036,14 @@
       <c r="N103" s="5">
         <v>11989.4799064776</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <v>104.96</v>
+      </c>
+      <c r="P103">
+        <v>127.149166793294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -3997,8 +4082,14 @@
       <c r="N104" s="5">
         <v>12313.6141724032</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>111.62</v>
+      </c>
+      <c r="P104">
+        <v>129.01820245205101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -4037,8 +4128,14 @@
       <c r="N105" s="5">
         <v>12442.934111672899</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>107.98</v>
+      </c>
+      <c r="P105">
+        <v>132.48896127456899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -4077,8 +4174,14 @@
       <c r="N106" s="5">
         <v>12761.5408539861</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>112.28</v>
+      </c>
+      <c r="P106">
+        <v>132.20552935443899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -4117,8 +4220,14 @@
       <c r="N107" s="5">
         <v>13482.445853738</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>113.32</v>
+      </c>
+      <c r="P107">
+        <v>135.31708074399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -4157,8 +4266,14 @@
       <c r="N108" s="5">
         <v>13396.059296311299</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>108.98</v>
+      </c>
+      <c r="P108">
+        <v>136.38197333963001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -4197,8 +4312,14 @@
       <c r="N109" s="5">
         <v>13491.5972139121</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>114.25</v>
+      </c>
+      <c r="P109">
+        <v>135.25864189327501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -4237,8 +4358,14 @@
       <c r="N110" s="5">
         <v>14339.527623178699</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>121.08</v>
+      </c>
+      <c r="P110">
+        <v>138.475195115254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -4277,8 +4404,14 @@
       <c r="N111" s="5">
         <v>15011.6090668578</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>126.16</v>
+      </c>
+      <c r="P111">
+        <v>141.79338346764101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -4317,8 +4450,14 @@
       <c r="N112" s="5">
         <v>15622.394706200999</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>134.94</v>
+      </c>
+      <c r="P112">
+        <v>144.250768462347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -4357,8 +4496,14 @@
       <c r="N113" s="5">
         <v>15071.2401881392</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>126.46</v>
+      </c>
+      <c r="P113">
+        <v>148.40218196781899</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -4397,8 +4542,14 @@
       <c r="N114" s="5">
         <v>15118.586928296199</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>132.57</v>
+      </c>
+      <c r="P114">
+        <v>146.83788413650601</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -4437,8 +4588,14 @@
       <c r="N115" s="5">
         <v>13930.7869472693</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>128.28</v>
+      </c>
+      <c r="P115">
+        <v>149.69054008374599</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -4477,8 +4634,14 @@
       <c r="N116" s="5">
         <v>13232.352972635899</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>130.91999999999999</v>
+      </c>
+      <c r="P116">
+        <v>149.338584206853</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -4517,8 +4680,14 @@
       <c r="N117" s="5">
         <v>13215.563752292501</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>132.22</v>
+      </c>
+      <c r="P117">
+        <v>151.81895294317499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -4557,8 +4726,14 @@
       <c r="N118" s="5">
         <v>14006.981099757</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>136.15</v>
+      </c>
+      <c r="P118">
+        <v>153.44670694013899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -4597,8 +4772,14 @@
       <c r="N119" s="5">
         <v>15294.498520753999</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>144.24</v>
+      </c>
+      <c r="P119">
+        <v>154.806763165289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -4637,8 +4818,14 @@
       <c r="N120" s="5">
         <v>15837.0668833359</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>149.55000000000001</v>
+      </c>
+      <c r="P120">
+        <v>158.79895570321099</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -4677,8 +4864,14 @@
       <c r="N121" s="5">
         <v>15644.958961398201</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>151.33000000000001</v>
+      </c>
+      <c r="P121">
+        <v>161.916997177426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -4717,8 +4910,14 @@
       <c r="N122" s="5">
         <v>15011.2187048907</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>149.21</v>
+      </c>
+      <c r="P122">
+        <v>163.347914758439</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -4757,8 +4956,14 @@
       <c r="N123" s="5">
         <v>14765.991481472</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>153.11000000000001</v>
+      </c>
+      <c r="P123">
+        <v>163.14690368067301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -4797,8 +5002,14 @@
       <c r="N124" s="5">
         <v>14445.0488095378</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>152.38</v>
+      </c>
+      <c r="P124">
+        <v>166.04635133209601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -4837,8 +5048,14 @@
       <c r="N125" s="5">
         <v>12365.925484332</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>134.43</v>
+      </c>
+      <c r="P125">
+        <v>166.203427843182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -4877,8 +5094,14 @@
       <c r="N126" s="5">
         <v>11971.144485130701</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <v>139.91999999999999</v>
+      </c>
+      <c r="P126">
+        <v>174.073834557331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -4917,8 +5140,14 @@
       <c r="N127" s="5">
         <v>12870.965039639501</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <v>150.77000000000001</v>
+      </c>
+      <c r="P127">
+        <v>171.62079317936701</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -4959,8 +5188,14 @@
       <c r="N128" s="5">
         <v>13810.7567529764</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <v>158.32</v>
+      </c>
+      <c r="P128">
+        <v>176.653439342464</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -5001,8 +5236,14 @@
       <c r="N129" s="5">
         <v>14051.6821678246</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>164.7</v>
+      </c>
+      <c r="P129">
+        <v>180.48763260435999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -5043,8 +5284,14 @@
       <c r="N130" s="5">
         <v>14435.2536416245</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>170.39</v>
+      </c>
+      <c r="P130">
+        <v>184.93244282383699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -5085,8 +5332,14 @@
       <c r="N131" s="5">
         <v>14601.283064327999</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>163.97</v>
+      </c>
+      <c r="P131">
+        <v>187.81141551924699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -5127,8 +5380,14 @@
       <c r="N132" s="5">
         <v>15755.1580530835</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>170.15</v>
+      </c>
+      <c r="P132">
+        <v>186.943608203982</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -5169,8 +5428,14 @@
       <c r="N133" s="5">
         <v>17375.3104028831</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>177.21</v>
+      </c>
+      <c r="P133">
+        <v>190.20398822092</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -5211,8 +5476,14 @@
       <c r="N134" s="5">
         <v>17058.6685658641</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>171.01</v>
+      </c>
+      <c r="P134">
+        <v>193.32187303111201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -5253,8 +5524,14 @@
       <c r="N135" s="5">
         <v>17922.710145473699</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>177.83</v>
+      </c>
+      <c r="P135">
+        <v>192.96231638944801</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -5295,8 +5572,14 @@
       <c r="N136" s="5">
         <v>17560.1239942865</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>175</v>
+      </c>
+      <c r="P136">
+        <v>197.13293473099299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -5337,8 +5620,14 @@
       <c r="N137" s="5">
         <v>17723.620221005898</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>174.1</v>
+      </c>
+      <c r="P137">
+        <v>196.28398940775099</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -5379,8 +5668,14 @@
       <c r="N138" s="5">
         <v>17438.096684025601</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>172.54</v>
+      </c>
+      <c r="P138">
+        <v>196.960433428713</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -5421,8 +5716,14 @@
       <c r="N139" s="5">
         <v>17890.754918633102</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>181.47</v>
+      </c>
+      <c r="P139">
+        <v>199.265104233773</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -5463,8 +5764,14 @@
       <c r="N140" s="5">
         <v>18483.6726420757</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <v>184.96</v>
+      </c>
+      <c r="P140">
+        <v>204.09197456066599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -5505,8 +5812,14 @@
       <c r="N141" s="5">
         <v>19398.1543528527</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>194.23</v>
+      </c>
+      <c r="P141">
+        <v>206.131956689807</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -5547,8 +5860,14 @@
       <c r="N142" s="5">
         <v>19040.037351353301</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>185.23</v>
+      </c>
+      <c r="P142">
+        <v>210.589937859815</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -5589,8 +5908,14 @@
       <c r="N143" s="5">
         <v>18854.371922168299</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <v>185.58</v>
+      </c>
+      <c r="P143">
+        <v>213.51819601952201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -5631,8 +5956,14 @@
       <c r="N144" s="5">
         <v>20574.729187602599</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <v>199.08</v>
+      </c>
+      <c r="P144">
+        <v>213.016817447758</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -5673,8 +6004,14 @@
       <c r="N145" s="5">
         <v>21152.1948528182</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>191.33</v>
+      </c>
+      <c r="P145">
+        <v>208.16636929746301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -5715,8 +6052,14 @@
       <c r="N146" s="5">
         <v>20745.295380426</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>187.37</v>
+      </c>
+      <c r="P146">
+        <v>206.64221150236301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -5757,8 +6100,14 @@
       <c r="N147" s="5">
         <v>21179.475352283102</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>193.27</v>
+      </c>
+      <c r="P147">
+        <v>206.13131901676601</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -5799,8 +6148,14 @@
       <c r="N148" s="5">
         <v>21212.274703035499</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>189.68</v>
+      </c>
+      <c r="P148">
+        <v>207.446166214329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -5841,8 +6196,14 @@
       <c r="N149" s="5">
         <v>22714.6206707409</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>198.9</v>
+      </c>
+      <c r="P149">
+        <v>208.56301301114999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -5883,8 +6244,14 @@
       <c r="N150" s="5">
         <v>22315.242755136202</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>189.32</v>
+      </c>
+      <c r="P150">
+        <v>205.46025761877999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -5925,8 +6292,14 @@
       <c r="N151" s="5">
         <v>22743.859522421699</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>187.55</v>
+      </c>
+      <c r="P151">
+        <v>202.941894338412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -5967,8 +6340,14 @@
       <c r="N152" s="5">
         <v>21608.633148664401</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>177.57</v>
+      </c>
+      <c r="P152">
+        <v>203.47519879925301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -6009,8 +6388,14 @@
       <c r="N153" s="5">
         <v>20918.721387561902</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>178.79</v>
+      </c>
+      <c r="P153">
+        <v>199.97442822093899</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -6051,8 +6436,14 @@
       <c r="N154" s="5">
         <v>21515.949410549401</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>186.92</v>
+      </c>
+      <c r="P154">
+        <v>200.52734664152601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -6093,8 +6484,14 @@
       <c r="N155" s="5">
         <v>20795.2936777338</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <v>172.38</v>
+      </c>
+      <c r="P155">
+        <v>198.59095438550199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -6135,8 +6532,14 @@
       <c r="N156" s="5">
         <v>20244.4595120622</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>162.83000000000001</v>
+      </c>
+      <c r="P156">
+        <v>203.616336520494</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -6177,8 +6580,14 @@
       <c r="N157" s="5">
         <v>21749.789858492</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <v>174.66</v>
+      </c>
+      <c r="P157">
+        <v>206.76581137278501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -6219,8 +6628,14 @@
       <c r="N158" s="5">
         <v>22625.908294413599</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>172.77</v>
+      </c>
+      <c r="P158">
+        <v>202.6508259629</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -6261,8 +6676,14 @@
       <c r="N159" s="5">
         <v>21848.4949220497</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <v>168.28</v>
+      </c>
+      <c r="P159">
+        <v>203.23030797474601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -6303,8 +6724,14 @@
       <c r="N160" s="5">
         <v>20784.402150756101</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>168.14</v>
+      </c>
+      <c r="P160">
+        <v>204.73741940457799</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -6345,8 +6772,14 @@
       <c r="N161" s="5">
         <v>19461.9774721006</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O161">
+        <v>161.55000000000001</v>
+      </c>
+      <c r="P161">
+        <v>205.55788183785401</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -6387,8 +6820,14 @@
       <c r="N162" s="5">
         <v>16973.466049056999</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <v>148.81</v>
+      </c>
+      <c r="P162">
+        <v>208.90670202480001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -6429,8 +6868,14 @@
       <c r="N163" s="5">
         <v>17726.780685937101</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O163">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="P163">
+        <v>213.47465721369599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -6471,8 +6916,14 @@
       <c r="N164" s="5">
         <v>19240.919898464799</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164">
+        <v>160.65</v>
+      </c>
+      <c r="P164">
+        <v>213.09101779299601</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -6513,8 +6964,14 @@
       <c r="N165" s="5">
         <v>19462.2967395743</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165">
+        <v>159.93</v>
+      </c>
+      <c r="P165">
+        <v>209.24770471097901</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -6555,8 +7012,14 @@
       <c r="N166" s="5">
         <v>19401.106958981301</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <v>158.56</v>
+      </c>
+      <c r="P166">
+        <v>209.25785962100099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -6597,8 +7060,14 @@
       <c r="N167" s="5">
         <v>19433.926722153101</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167">
+        <v>157.76</v>
+      </c>
+      <c r="P167">
+        <v>210.07565367695199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -6639,8 +7108,14 @@
       <c r="N168" s="5">
         <v>20515.9832542363</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <v>161.68</v>
+      </c>
+      <c r="P168">
+        <v>211.32397765935099</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -6681,8 +7156,14 @@
       <c r="N169" s="5">
         <v>19894.105068020199</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169">
+        <v>157.74</v>
+      </c>
+      <c r="P169">
+        <v>209.87445969322599</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -6723,8 +7204,14 @@
       <c r="N170" s="5">
         <v>19550.203874139399</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <v>158.16</v>
+      </c>
+      <c r="P170">
+        <v>213.23186288743099</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -6765,8 +7252,14 @@
       <c r="N171" s="5">
         <v>17360.9804497972</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171">
+        <v>148.78</v>
+      </c>
+      <c r="P171">
+        <v>213.85915341318901</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -6807,8 +7300,14 @@
       <c r="N172" s="5">
         <v>15997.477731586199</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <v>138</v>
+      </c>
+      <c r="P172">
+        <v>218.11710453522301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -6849,8 +7348,14 @@
       <c r="N173" s="5">
         <v>15809.806484934201</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173">
+        <v>139.66</v>
+      </c>
+      <c r="P173">
+        <v>222.73321051904</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -6891,8 +7396,14 @@
       <c r="N174" s="5">
         <v>14032.823299728299</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <v>127.02</v>
+      </c>
+      <c r="P174">
+        <v>219.60939251063101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -6933,8 +7444,14 @@
       <c r="N175" s="5">
         <v>14514.3005543903</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O175">
+        <v>135.41999999999999</v>
+      </c>
+      <c r="P175">
+        <v>223.347916854018</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -6975,8 +7492,14 @@
       <c r="N176" s="5">
         <v>15412.605305024699</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176">
+        <v>141.88999999999999</v>
+      </c>
+      <c r="P176">
+        <v>221.14189400177301</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -7017,8 +7540,14 @@
       <c r="N177" s="5">
         <v>14080.0811815898</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <v>136.52000000000001</v>
+      </c>
+      <c r="P177">
+        <v>218.560825057074</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -7059,8 +7588,14 @@
       <c r="N178" s="5">
         <v>13387.772243393199</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178">
+        <v>134.06</v>
+      </c>
+      <c r="P178">
+        <v>219.49788105093899</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -7101,8 +7636,14 @@
       <c r="N179" s="5">
         <v>13193.478225982601</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O179">
+        <v>133.18</v>
+      </c>
+      <c r="P179">
+        <v>221.48359948874599</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -7143,8 +7684,14 @@
       <c r="N180" s="5">
         <v>12878.7415765435</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180">
+        <v>132.32</v>
+      </c>
+      <c r="P180">
+        <v>220.83787383725999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -7185,8 +7732,14 @@
       <c r="N181" s="5">
         <v>13810.5559178719</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O181">
+        <v>143.78</v>
+      </c>
+      <c r="P181">
+        <v>221.795253705569</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -7227,8 +7780,14 @@
       <c r="N182" s="5">
         <v>14062.201854725799</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <v>152.44999999999999</v>
+      </c>
+      <c r="P182">
+        <v>216.84586320854601</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -7269,8 +7828,14 @@
       <c r="N183" s="5">
         <v>15021.2008696967</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183">
+        <v>153.97</v>
+      </c>
+      <c r="P183">
+        <v>210.76331942798799</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -7311,8 +7876,14 @@
       <c r="N184" s="5">
         <v>15673.5687660409</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <v>154.56</v>
+      </c>
+      <c r="P184">
+        <v>211.46143345300999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -7353,8 +7924,14 @@
       <c r="N185" s="5">
         <v>17142.688858240399</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185">
+        <v>158.16</v>
+      </c>
+      <c r="P185">
+        <v>217.99916710376201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -7397,8 +7974,14 @@
       <c r="N186" s="5">
         <v>16508.709033392101</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <v>159.97999999999999</v>
+      </c>
+      <c r="P186">
+        <v>218.72971022527599</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -7441,8 +8024,14 @@
       <c r="N187" s="5">
         <v>17720.058522585401</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <v>167.61</v>
+      </c>
+      <c r="P187">
+        <v>215.20727525889299</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -7485,8 +8074,14 @@
       <c r="N188" s="5">
         <v>17354.728884356398</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <v>169.88</v>
+      </c>
+      <c r="P188">
+        <v>220.031854611678</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -7529,8 +8124,14 @@
       <c r="N189" s="5">
         <v>17502.315556783</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189">
+        <v>178.01</v>
+      </c>
+      <c r="P189">
+        <v>221.14022087554</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -7573,8 +8174,14 @@
       <c r="N190" s="5">
         <v>18318.510528287501</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <v>183.16</v>
+      </c>
+      <c r="P190">
+        <v>224.986885458686</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -7617,8 +8224,14 @@
       <c r="N191" s="5">
         <v>18667.539312438799</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O191">
+        <v>186.88</v>
+      </c>
+      <c r="P191">
+        <v>225.380358722495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -7661,8 +8274,14 @@
       <c r="N192" s="5">
         <v>19365.063533631801</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O192">
+        <v>185.67</v>
+      </c>
+      <c r="P192">
+        <v>227.75947348312499</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -7705,8 +8324,14 @@
       <c r="N193" s="5">
         <v>19207.409512746199</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <v>179.82</v>
+      </c>
+      <c r="P193">
+        <v>228.14085478477099</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -7749,8 +8374,14 @@
       <c r="N194" s="5">
         <v>18907.447465394202</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194">
+        <v>181.45</v>
+      </c>
+      <c r="P194">
+        <v>223.838067979448</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -7793,8 +8424,14 @@
       <c r="N195" s="5">
         <v>19599.494583205698</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O195">
+        <v>184.72</v>
+      </c>
+      <c r="P195">
+        <v>223.350750135846</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -7837,8 +8474,14 @@
       <c r="N196" s="5">
         <v>19034.874728917999</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O196">
+        <v>180.51</v>
+      </c>
+      <c r="P196">
+        <v>222.05515569485999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -7881,8 +8524,14 @@
       <c r="N197" s="5">
         <v>19040.746737792</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <v>182.88</v>
+      </c>
+      <c r="P197">
+        <v>219.74015382379901</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -7925,8 +8574,14 @@
       <c r="N198" s="5">
         <v>19119.623600266001</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198">
+        <v>185</v>
+      </c>
+      <c r="P198">
+        <v>222.482847687462</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -7969,8 +8624,14 @@
       <c r="N199" s="5">
         <v>19210.585754093299</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <v>189.26</v>
+      </c>
+      <c r="P199">
+        <v>222.77715401015999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -8013,8 +8674,14 @@
       <c r="N200" s="5">
         <v>19692.674720706302</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200">
+        <v>196.85</v>
+      </c>
+      <c r="P200">
+        <v>223.36728412052099</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -8057,8 +8724,14 @@
       <c r="N201" s="5">
         <v>20060.437556009299</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <v>202.29</v>
+      </c>
+      <c r="P201">
+        <v>224.84107868565599</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -8101,8 +8774,14 @@
       <c r="N202" s="5">
         <v>20678.234074972399</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O202">
+        <v>200.79</v>
+      </c>
+      <c r="P202">
+        <v>229.672145419694</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -8145,8 +8824,14 @@
       <c r="N203" s="5">
         <v>21042.917077973801</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <v>205.03</v>
+      </c>
+      <c r="P203">
+        <v>232.425789467025</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -8189,8 +8874,14 @@
       <c r="N204" s="5">
         <v>21090.009981456398</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O204">
+        <v>199.67</v>
+      </c>
+      <c r="P204">
+        <v>231.68165001916799</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -8233,8 +8924,14 @@
       <c r="N205" s="5">
         <v>20493.7380052056</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <v>197.91</v>
+      </c>
+      <c r="P205">
+        <v>231.45241287643</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -8277,8 +8974,14 @@
       <c r="N206" s="5">
         <v>21840.855538689801</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <v>202.8</v>
+      </c>
+      <c r="P206">
+        <v>234.537572250224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -8321,8 +9024,14 @@
       <c r="N207" s="5">
         <v>22685.562897092201</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>203.5</v>
+      </c>
+      <c r="P207">
+        <v>236.66932298758701</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -8365,8 +9074,14 @@
       <c r="N208" s="5">
         <v>23559.859373186999</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O208">
+        <v>209.52</v>
+      </c>
+      <c r="P208">
+        <v>236.17140258983</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -8409,8 +9124,14 @@
       <c r="N209" s="5">
         <v>23776.062202650399</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <v>211.08</v>
+      </c>
+      <c r="P209">
+        <v>237.452867877279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -8453,8 +9174,14 @@
       <c r="N210" s="5">
         <v>24888.877769737101</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <v>212.66</v>
+      </c>
+      <c r="P210">
+        <v>238.66323808407901</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -8497,8 +9224,14 @@
       <c r="N211" s="5">
         <v>24133.207282528099</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <v>206.77</v>
+      </c>
+      <c r="P211">
+        <v>233.70490715942199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -8541,8 +9274,14 @@
       <c r="N212" s="5">
         <v>25563.666514769498</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>214.13</v>
+      </c>
+      <c r="P212">
+        <v>234.27336044813799</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -8585,8 +9324,14 @@
       <c r="N213" s="5">
         <v>26566.535709047301</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <v>215.63</v>
+      </c>
+      <c r="P213">
+        <v>228.91003395950801</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -8629,8 +9374,14 @@
       <c r="N214" s="5">
         <v>27340.664371164999</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>224.32</v>
+      </c>
+      <c r="P214">
+        <v>229.74038095175899</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -8673,8 +9424,14 @@
       <c r="N215" s="5">
         <v>27902.769857478699</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <v>224.68</v>
+      </c>
+      <c r="P215">
+        <v>235.24685001975399</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -8717,8 +9474,14 @@
       <c r="N216" s="5">
         <v>28211.797772430898</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>226.65</v>
+      </c>
+      <c r="P216">
+        <v>236.05545589018001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -8761,8 +9524,14 @@
       <c r="N217" s="5">
         <v>28130.8986029343</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <v>231.41</v>
+      </c>
+      <c r="P217">
+        <v>235.397811988303</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -8805,8 +9574,14 @@
       <c r="N218" s="5">
         <v>26250.684675265202</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <v>223.59</v>
+      </c>
+      <c r="P218">
+        <v>241.290545275152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -8849,8 +9624,14 @@
       <c r="N219" s="5">
         <v>26376.597425532698</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <v>222.72</v>
+      </c>
+      <c r="P219">
+        <v>239.44420679360601</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -8893,8 +9674,14 @@
       <c r="N220" s="5">
         <v>26063.962245360501</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <v>225.76</v>
+      </c>
+      <c r="P220">
+        <v>237.00476585058399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -8937,8 +9724,14 @@
       <c r="N221" s="5">
         <v>26676.710540275901</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O221">
+        <v>231.89</v>
+      </c>
+      <c r="P221">
+        <v>236.51048055521099</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -8981,8 +9774,14 @@
       <c r="N222" s="5">
         <v>27398.6929908329</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O222">
+        <v>235.83</v>
+      </c>
+      <c r="P222">
+        <v>235.58945729960101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -9025,8 +9824,14 @@
       <c r="N223" s="5">
         <v>28357.5098106962</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O223">
+        <v>244.09</v>
+      </c>
+      <c r="P223">
+        <v>240.012795079412</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -9069,8 +9874,14 @@
       <c r="N224" s="5">
         <v>28223.105830404202</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <v>250.52</v>
+      </c>
+      <c r="P224">
+        <v>241.77966919049999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -9113,8 +9924,14 @@
       <c r="N225" s="5">
         <v>28938.967633804699</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225">
+        <v>251.05</v>
+      </c>
+      <c r="P225">
+        <v>239.014201672654</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -9157,8 +9974,14 @@
       <c r="N226" s="5">
         <v>29972.898122051902</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <v>255.82</v>
+      </c>
+      <c r="P226">
+        <v>238.50677095256401</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -9201,8 +10024,14 @@
       <c r="N227" s="5">
         <v>29691.344480072199</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227">
+        <v>254.22</v>
+      </c>
+      <c r="P227">
+        <v>241.23927657457901</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -9245,8 +10074,14 @@
       <c r="N228" s="5">
         <v>30079.1681409136</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O228">
+        <v>256.77</v>
+      </c>
+      <c r="P228">
+        <v>237.751791312617</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -9289,8 +10124,14 @@
       <c r="N229" s="5">
         <v>30540.504355878398</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229">
+        <v>267.47000000000003</v>
+      </c>
+      <c r="P229">
+        <v>239.509248705419</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -9333,8 +10174,14 @@
       <c r="N230" s="5">
         <v>31625.941262946199</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O230">
+        <v>273.69</v>
+      </c>
+      <c r="P230">
+        <v>244.740183369645</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -9377,8 +10224,14 @@
       <c r="N231" s="5">
         <v>31173.4912074485</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231">
+        <v>269.70999999999998</v>
+      </c>
+      <c r="P231">
+        <v>243.89524027795801</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -9421,8 +10274,14 @@
       <c r="N232" s="5">
         <v>30070.904615179599</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O232">
+        <v>264.93</v>
+      </c>
+      <c r="P232">
+        <v>245.25381416196399</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -9465,8 +10324,14 @@
       <c r="N233" s="5">
         <v>29644.107356992401</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233">
+        <v>267.97000000000003</v>
+      </c>
+      <c r="P233">
+        <v>241.53818040640999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -9509,8 +10374,14 @@
       <c r="N234" s="5">
         <v>29743.256382309701</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234">
+        <v>278.85000000000002</v>
+      </c>
+      <c r="P234">
+        <v>238.60247789828401</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -9553,8 +10424,14 @@
       <c r="N235" s="5">
         <v>30102.417049363201</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="P235">
+        <v>246.23158191535799</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -9597,8 +10474,14 @@
       <c r="N236" s="5">
         <v>27906.5880665031</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236">
+        <v>279.23</v>
+      </c>
+      <c r="P236">
+        <v>255.56820012032799</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -9641,8 +10524,14 @@
       <c r="N237" s="5">
         <v>27441.843127502299</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237">
+        <v>272.75</v>
+      </c>
+      <c r="P237">
+        <v>255.68820951995599</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -9685,8 +10574,14 @@
       <c r="N238" s="5">
         <v>25166.153349284799</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O238">
+        <v>261.05</v>
+      </c>
+      <c r="P238">
+        <v>260.78562574145099</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -9729,8 +10624,14 @@
       <c r="N239" s="5">
         <v>24827.181783948399</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239">
+        <v>256.93</v>
+      </c>
+      <c r="P239">
+        <v>273.69838253950297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -9773,8 +10674,14 @@
       <c r="N240" s="5">
         <v>23520.315437026598</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O240">
+        <v>254.4</v>
+      </c>
+      <c r="P240">
+        <v>283.85089249410299</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -9817,8 +10724,14 @@
       <c r="N241" s="5">
         <v>24981.090699764802</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O241">
+        <v>266.14999999999998</v>
+      </c>
+      <c r="P241">
+        <v>283.64262698205602</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -9861,8 +10774,14 @@
       <c r="N242" s="5">
         <v>25530.3004826373</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O242">
+        <v>268.48</v>
+      </c>
+      <c r="P242">
+        <v>278.72450429445598</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -9905,8 +10824,14 @@
       <c r="N243" s="5">
         <v>22806.340120103501</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243">
+        <v>246.79</v>
+      </c>
+      <c r="P243">
+        <v>282.13916514437602</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -9949,8 +10874,14 @@
       <c r="N244" s="5">
         <v>22302.037274638398</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244">
+        <v>243.47</v>
+      </c>
+      <c r="P244">
+        <v>288.849844378981</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -9993,8 +10924,14 @@
       <c r="N245" s="5">
         <v>23318.066122870099</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O245">
+        <v>243.18</v>
+      </c>
+      <c r="P245">
+        <v>284.66989869777899</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -10037,8 +10974,14 @@
       <c r="N246" s="5">
         <v>20750.8014170514</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O246">
+        <v>217.75</v>
+      </c>
+      <c r="P246">
+        <v>271.66238082568702</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -10081,8 +11024,14 @@
       <c r="N247" s="5">
         <v>18110.147830993901</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O247">
+        <v>179.66</v>
+      </c>
+      <c r="P247">
+        <v>280.54789804668297</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -10125,8 +11074,14 @@
       <c r="N248" s="5">
         <v>17285.681771672102</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O248">
+        <v>172.24</v>
+      </c>
+      <c r="P248">
+        <v>314.39528927537901</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -10169,8 +11124,14 @@
       <c r="N249" s="5">
         <v>16766.060622049499</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249">
+        <v>177.77</v>
+      </c>
+      <c r="P249">
+        <v>329.61201752197201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -10213,8 +11174,14 @@
       <c r="N250" s="5">
         <v>16663.906416793801</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O250">
+        <v>164.24</v>
+      </c>
+      <c r="P250">
+        <v>333.896089509668</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -10257,8 +11224,14 @@
       <c r="N251" s="5">
         <v>15100.370436908201</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O251">
+        <v>148.44999999999999</v>
+      </c>
+      <c r="P251">
+        <v>338.801532624912</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -10301,8 +11274,14 @@
       <c r="N252" s="5">
         <v>15661.186673456399</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O252">
+        <v>160.38999999999999</v>
+      </c>
+      <c r="P252">
+        <v>347.94260092325601</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -10345,8 +11324,14 @@
       <c r="N253" s="5">
         <v>18327.093799860399</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253">
+        <v>177.03</v>
+      </c>
+      <c r="P253">
+        <v>335.36171224072501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -10389,8 +11374,14 @@
       <c r="N254" s="5">
         <v>19074.565071052199</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O254">
+        <v>191.16</v>
+      </c>
+      <c r="P254">
+        <v>335.04811983233901</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -10433,8 +11424,14 @@
       <c r="N255" s="5">
         <v>19072.637833688201</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255">
+        <v>190.23</v>
+      </c>
+      <c r="P255">
+        <v>321.89691228504199</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -10477,8 +11474,14 @@
       <c r="N256" s="5">
         <v>20696.630268569301</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O256">
+        <v>206.42</v>
+      </c>
+      <c r="P256">
+        <v>319.377048233724</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -10521,8 +11524,14 @@
       <c r="N257" s="5">
         <v>21542.083348147298</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O257">
+        <v>214.2</v>
+      </c>
+      <c r="P257">
+        <v>312.17898547837501</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -10565,8 +11574,14 @@
       <c r="N258" s="5">
         <v>21976.503746091701</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O258">
+        <v>222.67</v>
+      </c>
+      <c r="P258">
+        <v>310.05430279876401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -10609,8 +11624,14 @@
       <c r="N259" s="5">
         <v>21089.584311844901</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O259">
+        <v>219.79</v>
+      </c>
+      <c r="P259">
+        <v>307.08997193321602</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -10653,8 +11674,14 @@
       <c r="N260" s="5">
         <v>21379.812182460199</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O260">
+        <v>232.13</v>
+      </c>
+      <c r="P260">
+        <v>306.27890474687501</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -10697,8 +11724,14 @@
       <c r="N261" s="5">
         <v>22894.547876424</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O261">
+        <v>231.42</v>
+      </c>
+      <c r="P261">
+        <v>319.19272655123802</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -10741,8 +11774,14 @@
       <c r="N262" s="5">
         <v>22944.904036618798</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O262">
+        <v>227.02</v>
+      </c>
+      <c r="P262">
+        <v>319.60470587639099</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -10785,8 +11824,14 @@
       <c r="N263" s="5">
         <v>24007.692178168101</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O263">
+        <v>231.81</v>
+      </c>
+      <c r="P263">
+        <v>309.68497757346103</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -10829,8 +11874,14 @@
       <c r="N264" s="5">
         <v>25753.0712735776</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O264">
+        <v>244.08</v>
+      </c>
+      <c r="P264">
+        <v>312.54436312189</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -10873,8 +11924,14 @@
       <c r="N265" s="5">
         <v>26340.469772495799</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O265">
+        <v>247.31</v>
+      </c>
+      <c r="P265">
+        <v>319.53972087102699</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -10917,8 +11974,14 @@
       <c r="N266" s="5">
         <v>25773.6709530224</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O266">
+        <v>228.63</v>
+      </c>
+      <c r="P266">
+        <v>320.150811013549</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -10961,8 +12024,14 @@
       <c r="N267" s="5">
         <v>25122.137190506499</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O267">
+        <v>221.74</v>
+      </c>
+      <c r="P267">
+        <v>304.484616867434</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -11005,8 +12074,14 @@
       <c r="N268" s="5">
         <v>25561.152005743799</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O268">
+        <v>239.22</v>
+      </c>
+      <c r="P268">
+        <v>315.02145628183899</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -11049,8 +12124,14 @@
       <c r="N269" s="5">
         <v>25331.3594770046</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O269">
+        <v>232.21</v>
+      </c>
+      <c r="P269">
+        <v>300.77063298065502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -11093,8 +12174,14 @@
       <c r="N270" s="5">
         <v>25892.1212601152</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O270">
+        <v>250.91</v>
+      </c>
+      <c r="P270">
+        <v>314.97106536259997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -11137,8 +12224,14 @@
       <c r="N271" s="5">
         <v>26383.980731631498</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O271">
+        <v>260.63</v>
+      </c>
+      <c r="P271">
+        <v>315.97447539858899</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -11181,8 +12274,14 @@
       <c r="N272" s="5">
         <v>27673.210971987501</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O272">
+        <v>256.57</v>
+      </c>
+      <c r="P272">
+        <v>321.32822011626598</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -11225,8 +12324,14 @@
       <c r="N273" s="5">
         <v>29051.9587922465</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O273">
+        <v>268.77</v>
+      </c>
+      <c r="P273">
+        <v>319.15137881305401</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -11269,8 +12374,14 @@
       <c r="N274" s="5">
         <v>28854.1616251587</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O274">
+        <v>276.64</v>
+      </c>
+      <c r="P274">
+        <v>335.80281019305102</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -11313,8 +12424,14 @@
       <c r="N275" s="5">
         <v>29514.244088916101</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O275">
+        <v>284.89</v>
+      </c>
+      <c r="P275">
+        <v>339.11853397967002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -11357,8 +12474,14 @@
       <c r="N276" s="5">
         <v>28504.726678590901</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O276">
+        <v>283.67</v>
+      </c>
+      <c r="P276">
+        <v>339.82684062624401</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -11401,8 +12524,14 @@
       <c r="N277" s="5">
         <v>28293.581741557398</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O277">
+        <v>295.61</v>
+      </c>
+      <c r="P277">
+        <v>343.441133172413</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -11445,8 +12574,14 @@
       <c r="N278" s="5">
         <v>28698.123217956701</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O278">
+        <v>293.23</v>
+      </c>
+      <c r="P278">
+        <v>354.897053688862</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -11489,8 +12624,14 @@
       <c r="N279" s="5">
         <v>28124.422931470901</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O279">
+        <v>287.33</v>
+      </c>
+      <c r="P279">
+        <v>352.44017810032301</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -11533,8 +12674,14 @@
       <c r="N280" s="5">
         <v>28055.6923582913</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O280">
+        <v>285.76</v>
+      </c>
+      <c r="P280">
+        <v>345.74914443939502</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -11577,8 +12724,14 @@
       <c r="N281" s="5">
         <v>25653.359993686499</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O281">
+        <v>271.51</v>
+      </c>
+      <c r="P281">
+        <v>344.629789286419</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -11621,8 +12774,14 @@
       <c r="N282" s="5">
         <v>24811.8896465824</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O282">
+        <v>251.06</v>
+      </c>
+      <c r="P282">
+        <v>366.76536716696398</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -11665,8 +12824,14 @@
       <c r="N283" s="5">
         <v>26210.774210080901</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O283">
+        <v>276.31</v>
+      </c>
+      <c r="P283">
+        <v>382.46642708176603</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -11709,8 +12874,14 @@
       <c r="N284" s="5">
         <v>26355.6646193253</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O284">
+        <v>272.94</v>
+      </c>
+      <c r="P284">
+        <v>370.931442825462</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -11753,8 +12924,14 @@
       <c r="N285" s="5">
         <v>27076.953437468099</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O285">
+        <v>270.37</v>
+      </c>
+      <c r="P285">
+        <v>373.82721706624</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -11797,8 +12974,14 @@
       <c r="N286" s="5">
         <v>28271.918814905399</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O286">
+        <v>289.79000000000002</v>
+      </c>
+      <c r="P286">
+        <v>387.12092020799099</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -11841,8 +13024,14 @@
       <c r="N287" s="5">
         <v>29103.0125993002</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O287">
+        <v>301.58999999999997</v>
+      </c>
+      <c r="P287">
+        <v>381.79415133657898</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -11885,8 +13074,14 @@
       <c r="N288" s="5">
         <v>29532.706470530899</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O288">
+        <v>305.02999999999997</v>
+      </c>
+      <c r="P288">
+        <v>379.09915949189701</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -11929,8 +13124,14 @@
       <c r="N289" s="5">
         <v>29353.495372772799</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O289">
+        <v>305.23</v>
+      </c>
+      <c r="P289">
+        <v>380.82514061451002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -11973,8 +13174,14 @@
       <c r="N290" s="5">
         <v>28157.219041803401</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O290">
+        <v>286.02999999999997</v>
+      </c>
+      <c r="P290">
+        <v>377.06390567931902</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -12017,8 +13224,14 @@
       <c r="N291" s="5">
         <v>29103.541004852301</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O291">
+        <v>296.95</v>
+      </c>
+      <c r="P291">
+        <v>371.47531515088298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -12061,8 +13274,14 @@
       <c r="N292" s="5">
         <v>29915.570361423201</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O292">
+        <v>302.63</v>
+      </c>
+      <c r="P292">
+        <v>362.55422838125702</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -12105,8 +13324,14 @@
       <c r="N293" s="5">
         <v>29860.6794338205</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O293">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="P293">
+        <v>362.27613602585097</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -12149,8 +13374,14 @@
       <c r="N294" s="5">
         <v>30024.6228655017</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O294">
+        <v>315.19</v>
+      </c>
+      <c r="P294">
+        <v>351.70987303970497</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -12193,8 +13424,14 @@
       <c r="N295" s="5">
         <v>29876.790174868202</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O295">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="P295">
+        <v>350.04004530864199</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -12237,8 +13474,14 @@
       <c r="N296" s="5">
         <v>30394.613866773401</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O296">
+        <v>317.51</v>
+      </c>
+      <c r="P296">
+        <v>345.34213659802799</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -12281,8 +13524,14 @@
       <c r="N297" s="5">
         <v>30821.663022078999</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297">
+        <v>319</v>
+      </c>
+      <c r="P297">
+        <v>344.57050106110199</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -12325,8 +13574,14 @@
       <c r="N298" s="5">
         <v>31560.758760567202</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O298">
+        <v>335.25</v>
+      </c>
+      <c r="P298">
+        <v>350.506051494502</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -12369,8 +13624,14 @@
       <c r="N299" s="5">
         <v>32763.570407068401</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O299">
+        <v>337.73</v>
+      </c>
+      <c r="P299">
+        <v>348.82972181603901</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -12413,8 +13674,14 @@
       <c r="N300" s="5">
         <v>34448.951834059299</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O300">
+        <v>345.16</v>
+      </c>
+      <c r="P300">
+        <v>348.64183870038602</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -12457,8 +13724,14 @@
       <c r="N301" s="5">
         <v>34949.341032759403</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O301">
+        <v>355.99</v>
+      </c>
+      <c r="P301">
+        <v>352.35531534093798</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -12501,8 +13774,14 @@
       <c r="N302" s="5">
         <v>34795.472864266303</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O302">
+        <v>355.04</v>
+      </c>
+      <c r="P302">
+        <v>356.84127139647097</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -12545,8 +13824,14 @@
       <c r="N303" s="5">
         <v>33752.465573499401</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O303">
+        <v>342.84</v>
+      </c>
+      <c r="P303">
+        <v>359.684348091799</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -12589,8 +13874,14 @@
       <c r="N304" s="5">
         <v>34934.764175714299</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O304">
+        <v>360.94</v>
+      </c>
+      <c r="P304">
+        <v>371.54822499467599</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -12633,8 +13924,14 @@
       <c r="N305" s="5">
         <v>34426.823009876302</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O305">
+        <v>351.17</v>
+      </c>
+      <c r="P305">
+        <v>372.85309603379801</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -12677,8 +13974,14 @@
       <c r="N306" s="5">
         <v>35824.419958063801</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O306">
+        <v>365.19</v>
+      </c>
+      <c r="P306">
+        <v>366.14173921762801</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -12721,8 +14024,14 @@
       <c r="N307" s="5">
         <v>36573.288886791699</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O307">
+        <v>382.23</v>
+      </c>
+      <c r="P307">
+        <v>375.71901407819098</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -12765,8 +14074,14 @@
       <c r="N308" s="5">
         <v>36929.437810945303</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O308">
+        <v>388.66</v>
+      </c>
+      <c r="P308">
+        <v>379.55278995718999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -12809,8 +14124,14 @@
       <c r="N309" s="5">
         <v>37140.758235198802</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O309">
+        <v>392.39</v>
+      </c>
+      <c r="P309">
+        <v>390.01365751547399</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -12853,8 +14174,14 @@
       <c r="N310" s="5">
         <v>36791.8035683997</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O310">
+        <v>384.29</v>
+      </c>
+      <c r="P310">
+        <v>398.03431611256502</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -12897,8 +14224,14 @@
       <c r="N311" s="5">
         <v>37812.498744215802</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O311">
+        <v>401.82</v>
+      </c>
+      <c r="P311">
+        <v>387.06875229657402</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -12941,8 +14274,14 @@
       <c r="N312" s="5">
         <v>37888.056065708101</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O312">
+        <v>401.97</v>
+      </c>
+      <c r="P312">
+        <v>382.56259635421901</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -12985,8 +14324,14 @@
       <c r="N313" s="5">
         <v>37925.481039901802</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O313">
+        <v>408.68</v>
+      </c>
+      <c r="P313">
+        <v>385.425005248226</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -13029,8 +14374,14 @@
       <c r="N314" s="5">
         <v>39398.925253780297</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O314">
+        <v>418.93</v>
+      </c>
+      <c r="P314">
+        <v>384.10069799701</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -13073,8 +14424,14 @@
       <c r="N315" s="5">
         <v>40170.290245760101</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O315">
+        <v>423.97</v>
+      </c>
+      <c r="P315">
+        <v>385.05733513759901</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -13117,8 +14474,14 @@
       <c r="N316" s="5">
         <v>40297.348310408197</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O316">
+        <v>420.31</v>
+      </c>
+      <c r="P316">
+        <v>381.84253753957898</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -13161,8 +14524,14 @@
       <c r="N317" s="5">
         <v>41489.677953526298</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O317">
+        <v>434.41</v>
+      </c>
+      <c r="P317">
+        <v>374.96888376550299</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -13205,8 +14574,14 @@
       <c r="N318" s="5">
         <v>41729.258811360203</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O318">
+        <v>421.13</v>
+      </c>
+      <c r="P318">
+        <v>383.27737181107199</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -13249,8 +14624,14 @@
       <c r="N319" s="5">
         <v>42032.511010454997</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O319">
+        <v>430.88</v>
+      </c>
+      <c r="P319">
+        <v>387.16303001293102</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -13293,8 +14674,14 @@
       <c r="N320" s="5">
         <v>42790.123133841102</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O320">
+        <v>439.45</v>
+      </c>
+      <c r="P320">
+        <v>397.91028536284</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -13337,8 +14724,14 @@
       <c r="N321" s="5">
         <v>43427.968574493403</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O321">
+        <v>431.44</v>
+      </c>
+      <c r="P321">
+        <v>410.62689388388401</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -13381,8 +14774,14 @@
       <c r="N322" s="5">
         <v>46389.798177301796</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O322">
+        <v>432.46</v>
+      </c>
+      <c r="P322">
+        <v>420.48060498274498</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -13425,8 +14824,14 @@
       <c r="N323" s="5">
         <v>49364.416038112096</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O323">
+        <v>451.59</v>
+      </c>
+      <c r="P323">
+        <v>427.63148154036003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -13469,8 +14874,14 @@
       <c r="N324" s="5">
         <v>50987.449190558596</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O324">
+        <v>444.41</v>
+      </c>
+      <c r="P324">
+        <v>407.97355547874002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -13513,8 +14924,14 @@
       <c r="N325" s="5">
         <v>50319.754828970203</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O325">
+        <v>454.04</v>
+      </c>
+      <c r="P325">
+        <v>415.24145426655201</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -13557,8 +14974,14 @@
       <c r="N326" s="5">
         <v>51361.418885197701</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O326">
+        <v>455.31</v>
+      </c>
+      <c r="P326">
+        <v>406.618490162201</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -13601,8 +15024,14 @@
       <c r="N327" s="5">
         <v>49082.020931214902</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O327">
+        <v>440.98</v>
+      </c>
+      <c r="P327">
+        <v>411.06600792255801</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -13645,8 +15074,14 @@
       <c r="N328" s="5">
         <v>50462.042276393702</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O328">
+        <v>450.57</v>
+      </c>
+      <c r="P328">
+        <v>412.95821470374699</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -13689,8 +15124,14 @@
       <c r="N329" s="5">
         <v>46295.134218226704</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O329">
+        <v>423.41</v>
+      </c>
+      <c r="P329">
+        <v>423.489512785307</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -13733,8 +15174,14 @@
       <c r="N330" s="5">
         <v>44211.844973229898</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O330">
+        <v>411.89</v>
+      </c>
+      <c r="P330">
+        <v>414.48150523968002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -13777,8 +15224,14 @@
       <c r="N331" s="5">
         <v>48436.293140456801</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O331">
+        <v>442.86</v>
+      </c>
+      <c r="P331">
+        <v>419.22551198767798</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -13821,8 +15274,14 @@
       <c r="N332" s="5">
         <v>50066.0703448528</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O332">
+        <v>441.5</v>
+      </c>
+      <c r="P332">
+        <v>408.74743577170699</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -13865,8 +15324,14 @@
       <c r="N333" s="5">
         <v>47698.183600410703</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O333">
+        <v>430.47</v>
+      </c>
+      <c r="P333">
+        <v>415.66168408393202</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -13909,8 +15374,14 @@
       <c r="N334" s="5">
         <v>44370.094138336899</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O334">
+        <v>416.3</v>
+      </c>
+      <c r="P334">
+        <v>417.15720649102798</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -13953,8 +15424,14 @@
       <c r="N335" s="5">
         <v>44707.079030449197</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O335">
+        <v>414.87</v>
+      </c>
+      <c r="P335">
+        <v>405.47556360148502</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -13997,8 +15474,14 @@
       <c r="N336" s="5">
         <v>46125.274898279698</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O336">
+        <v>441.77</v>
+      </c>
+      <c r="P336">
+        <v>393.430987828583</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -14041,8 +15524,14 @@
       <c r="N337" s="5">
         <v>47334.9846613396</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O337">
+        <v>448.09</v>
+      </c>
+      <c r="P337">
+        <v>386.33366407532299</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -14085,8 +15574,14 @@
       <c r="N338" s="5">
         <v>48183.912271799702</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O338">
+        <v>451.5</v>
+      </c>
+      <c r="P338">
+        <v>385.92784298472998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -14129,8 +15624,14 @@
       <c r="N339" s="5">
         <v>47427.227461511902</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339">
+        <v>453</v>
+      </c>
+      <c r="P339">
+        <v>381.87749071936202</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -14173,8 +15674,14 @@
       <c r="N340" s="5">
         <v>49860.118262798402</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O340">
+        <v>473.25</v>
+      </c>
+      <c r="P340">
+        <v>366.80351042083998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -14217,8 +15724,14 @@
       <c r="N341" s="5">
         <v>49765.505430698999</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O341">
+        <v>473.92</v>
+      </c>
+      <c r="P341">
+        <v>378.27879567687597</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -14261,8 +15774,14 @@
       <c r="N342" s="5">
         <v>50177.758821294097</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O342">
+        <v>473.06</v>
+      </c>
+      <c r="P342">
+        <v>374.73955392749502</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -14305,8 +15824,14 @@
       <c r="N343" s="5">
         <v>50183.603975770799</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O343">
+        <v>465.64</v>
+      </c>
+      <c r="P343">
+        <v>372.29009727939399</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -14349,8 +15874,14 @@
       <c r="N344" s="5">
         <v>52104.607161956301</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O344">
+        <v>466.88</v>
+      </c>
+      <c r="P344">
+        <v>376.00095977702699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -14393,8 +15924,14 @@
       <c r="N345" s="5">
         <v>53616.819393569902</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O345">
+        <v>472.8</v>
+      </c>
+      <c r="P345">
+        <v>387.99063839259099</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -14437,8 +15974,14 @@
       <c r="N346" s="5">
         <v>54198.749242046899</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O346">
+        <v>486.72</v>
+      </c>
+      <c r="P346">
+        <v>395.33367904126101</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -14481,8 +16024,14 @@
       <c r="N347" s="5">
         <v>56090.4666681171</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O347">
+        <v>502.26</v>
+      </c>
+      <c r="P347">
+        <v>390.61632080437801</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -14525,8 +16074,14 @@
       <c r="N348" s="5">
         <v>56317.363491395998</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O348">
+        <v>504.14</v>
+      </c>
+      <c r="P348">
+        <v>390.01050814589399</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -14569,8 +16124,14 @@
       <c r="N349" s="5">
         <v>56095.975888807901</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O349">
+        <v>513.89</v>
+      </c>
+      <c r="P349">
+        <v>389.46679128842499</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -14613,8 +16174,14 @@
       <c r="N350" s="5">
         <v>55926.821707121097</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O350">
+        <v>524.12</v>
+      </c>
+      <c r="P350">
+        <v>393.24474324805101</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -14657,8 +16224,14 @@
       <c r="N351" s="5">
         <v>55423.3514045052</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O351">
+        <v>523.54</v>
+      </c>
+      <c r="P351">
+        <v>395.41470366828997</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -14701,8 +16274,14 @@
       <c r="N352" s="5">
         <v>55201.835112649103</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O352">
+        <v>539.07000000000005</v>
+      </c>
+      <c r="P352">
+        <v>395.48366028363603</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -14745,8 +16324,14 @@
       <c r="N353" s="5">
         <v>54614.500183607597</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O353">
+        <v>543.1</v>
+      </c>
+      <c r="P353">
+        <v>396.12156736207402</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -14789,8 +16374,14 @@
       <c r="N354" s="5">
         <v>55928.751948426703</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O354">
+        <v>548.16999999999996</v>
+      </c>
+      <c r="P354">
+        <v>390.62188143140997</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -14833,8 +16424,14 @@
       <c r="N355" s="5">
         <v>57580.094224627697</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O355">
+        <v>561.65</v>
+      </c>
+      <c r="P355">
+        <v>393.59332317673699</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -14877,8 +16474,14 @@
       <c r="N356" s="5">
         <v>57845.129414917501</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O356">
+        <v>572.61</v>
+      </c>
+      <c r="P356">
+        <v>398.47504533902202</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -14921,8 +16524,14 @@
       <c r="N357" s="5">
         <v>58122.503659832502</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O357">
+        <v>577.57000000000005</v>
+      </c>
+      <c r="P357">
+        <v>402.58509480467097</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -14965,8 +16574,14 @@
       <c r="N358" s="5">
         <v>58503.928548119802</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O358">
+        <v>606.71</v>
+      </c>
+      <c r="P358">
+        <v>402.89758862122</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -15009,8 +16624,14 @@
       <c r="N359" s="5">
         <v>57188.528203941198</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O359">
+        <v>580.47</v>
+      </c>
+      <c r="P359">
+        <v>412.23391493606601</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -15053,8 +16674,14 @@
       <c r="N360" s="5">
         <v>55990.062922523699</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O360">
+        <v>568.91</v>
+      </c>
+      <c r="P360">
+        <v>407.53243809773397</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -15097,8 +16724,14 @@
       <c r="N361" s="5">
         <v>57855.002157408802</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O361">
+        <v>570.9</v>
+      </c>
+      <c r="P361">
+        <v>404.54153544535302</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -15141,8 +16774,14 @@
       <c r="N362" s="5">
         <v>59643.266272427303</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O362">
+        <v>577.95000000000005</v>
+      </c>
+      <c r="P362">
+        <v>406.68507197822601</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -15185,8 +16824,14 @@
       <c r="N363" s="5">
         <v>59409.184800112002</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O363">
+        <v>573</v>
+      </c>
+      <c r="P363">
+        <v>403.78150456747699</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -15229,8 +16874,14 @@
       <c r="N364" s="5">
         <v>60300.090836849202</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O364">
+        <v>593.04</v>
+      </c>
+      <c r="P364">
+        <v>405.60222046346303</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -15273,8 +16924,14 @@
       <c r="N365" s="5">
         <v>60752.345955883902</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O365">
+        <v>602.44000000000005</v>
+      </c>
+      <c r="P365">
+        <v>411.84378699918301</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -15317,8 +16974,14 @@
       <c r="N366" s="5">
         <v>61367.571518704797</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O366">
+        <v>600.24</v>
+      </c>
+      <c r="P366">
+        <v>416.19490695238301</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -15361,8 +17024,14 @@
       <c r="N367" s="5">
         <v>57602.0893055755</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O367">
+        <v>559.72</v>
+      </c>
+      <c r="P367">
+        <v>419.00490940899402</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -15405,8 +17074,14 @@
       <c r="N368" s="5">
         <v>57993.179202962303</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O368">
+        <v>569.04999999999995</v>
+      </c>
+      <c r="P368">
+        <v>411.531663937063</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -15449,8 +17124,14 @@
       <c r="N369" s="5">
         <v>53429.2890837015</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O369">
+        <v>531.41999999999996</v>
+      </c>
+      <c r="P369">
+        <v>414.42328966811198</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -15493,8 +17174,14 @@
       <c r="N370" s="5">
         <v>57764.897039255302</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O370">
+        <v>575.03</v>
+      </c>
+      <c r="P370">
+        <v>416.00577649320201</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -15537,8 +17224,14 @@
       <c r="N371" s="5">
         <v>59655.936399936101</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O371">
+        <v>588.55999999999995</v>
+      </c>
+      <c r="P371">
+        <v>400.90730952285298</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -15581,8 +17274,14 @@
       <c r="N372" s="5">
         <v>60773.811562393901</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O372">
+        <v>599.73</v>
+      </c>
+      <c r="P372">
+        <v>395.05494983199497</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -15625,8 +17324,14 @@
       <c r="N373" s="5">
         <v>62657.8508238918</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O373">
+        <v>621.25</v>
+      </c>
+      <c r="P373">
+        <v>403.504642955397</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -15669,8 +17374,14 @@
       <c r="N374" s="5">
         <v>59276.354804000097</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O374">
+        <v>592.37</v>
+      </c>
+      <c r="P374">
+        <v>406.40737657085799</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -15713,8 +17424,14 @@
       <c r="N375" s="5">
         <v>61714.077487629802</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O375">
+        <v>626.86</v>
+      </c>
+      <c r="P375">
+        <v>411.851666094471</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -15757,8 +17474,14 @@
       <c r="N376" s="5">
         <v>62740.252226336503</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O376">
+        <v>633.55999999999995</v>
+      </c>
+      <c r="P376">
+        <v>420.86107498209202</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -15801,8 +17524,14 @@
       <c r="N377" s="5">
         <v>61610.949304082598</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O377">
+        <v>631.74</v>
+      </c>
+      <c r="P377">
+        <v>452.36167664760899</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -15845,8 +17574,14 @@
       <c r="N378" s="5">
         <v>64348.5889008386</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O378">
+        <v>638.64</v>
+      </c>
+      <c r="P378">
+        <v>445.449369987701</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -15889,8 +17624,14 @@
       <c r="N379" s="5">
         <v>64671.7613299312</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O379">
+        <v>656.38</v>
+      </c>
+      <c r="P379">
+        <v>440.41962256083502</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -15933,8 +17674,14 @@
       <c r="N380" s="5">
         <v>67167.463213448704</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O380">
+        <v>672.52</v>
+      </c>
+      <c r="P380">
+        <v>443.62355964206301</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -15977,8 +17724,14 @@
       <c r="N381" s="5">
         <v>67447.761476072599</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O381">
+        <v>687.18</v>
+      </c>
+      <c r="P381">
+        <v>443.73968328595902</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -16021,8 +17774,14 @@
       <c r="N382" s="5">
         <v>67201.284126793893</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O382">
+        <v>692.25</v>
+      </c>
+      <c r="P382">
+        <v>448.19375382140299</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -16065,8 +17824,14 @@
       <c r="N383" s="5">
         <v>61448.346627090301</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O383">
+        <v>651.08000000000004</v>
+      </c>
+      <c r="P383">
+        <v>438.71851692255001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -16109,8 +17874,14 @@
       <c r="N384" s="5">
         <v>51256.234922512202</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O384">
+        <v>566.78</v>
+      </c>
+      <c r="P384">
+        <v>444.43500348401699</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -16153,8 +17924,14 @@
       <c r="N385" s="5">
         <v>56903.014685509799</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O385">
+        <v>632.32000000000005</v>
+      </c>
+      <c r="P385">
+        <v>454.29254868727998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -16197,8 +17974,14 @@
       <c r="N386" s="5">
         <v>58639.3008221536</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O386">
+        <v>661.13</v>
+      </c>
+      <c r="P386">
+        <v>440.269592828177</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -16241,8 +18024,14 @@
       <c r="N387" s="5">
         <v>59438.121017945399</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O387">
+        <v>675.64</v>
+      </c>
+      <c r="P387">
+        <v>432.03230075149702</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -16285,8 +18074,14 @@
       <c r="N388" s="5">
         <v>57899.953972065399</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O388">
+        <v>716.59</v>
+      </c>
+      <c r="P388">
+        <v>447.430718064909</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -16329,8 +18124,14 @@
       <c r="N389" s="5">
         <v>60747.458686327402</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O389">
+        <v>752.25</v>
+      </c>
+      <c r="P389">
+        <v>444.57635516647599</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -16373,8 +18174,14 @@
       <c r="N390" s="5">
         <v>60461.866208817897</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O390">
+        <v>727.6</v>
+      </c>
+      <c r="P390">
+        <v>431.219157905587</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -16417,8 +18224,14 @@
       <c r="N391" s="5">
         <v>59227.393234908603</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O391">
+        <v>712.16</v>
+      </c>
+      <c r="P391">
+        <v>431.18759652859598</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -16461,8 +18274,14 @@
       <c r="N392" s="5">
         <v>66494.697286041701</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O392">
+        <v>789.91</v>
+      </c>
+      <c r="P392">
+        <v>434.32986936387601</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -16505,8 +18324,14 @@
       <c r="N393" s="5">
         <v>67676.057842672395</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O393">
+        <v>816.09</v>
+      </c>
+      <c r="P393">
+        <v>451.77716790852298</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -16549,8 +18374,14 @@
       <c r="N394" s="5">
         <v>67973.624616932095</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O394">
+        <v>812.64</v>
+      </c>
+      <c r="P394">
+        <v>451.25072796176499</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -16593,8 +18424,14 @@
       <c r="N395" s="5">
         <v>70298.889282638804</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O395">
+        <v>825.16</v>
+      </c>
+      <c r="P395">
+        <v>471.29829239702201</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -16637,8 +18474,14 @@
       <c r="N396" s="5">
         <v>75173.931058221206</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O396">
+        <v>843.54</v>
+      </c>
+      <c r="P396">
+        <v>485.05363951619</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -16681,8 +18524,14 @@
       <c r="N397" s="5">
         <v>75433.183883445396</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O397">
+        <v>885.07</v>
+      </c>
+      <c r="P397">
+        <v>495.94591174738099</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -16725,8 +18574,14 @@
       <c r="N398" s="5">
         <v>76309.924068787004</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O398">
+        <v>897.1</v>
+      </c>
+      <c r="P398">
+        <v>510.28506341483899</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -16769,8 +18624,14 @@
       <c r="N399" s="5">
         <v>78333.9730159756</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O399">
+        <v>908.42</v>
+      </c>
+      <c r="P399">
+        <v>503.64314838210902</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -16813,8 +18674,14 @@
       <c r="N400" s="5">
         <v>78846.462751267303</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O400">
+        <v>928.68</v>
+      </c>
+      <c r="P400">
+        <v>507.37703781952001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -16857,8 +18724,14 @@
       <c r="N401" s="5">
         <v>80853.584794209994</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O401">
+        <v>949.14</v>
+      </c>
+      <c r="P401">
+        <v>493.96501919915102</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -16901,8 +18774,14 @@
       <c r="N402" s="5">
         <v>79989.829688733094</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O402">
+        <v>904.48</v>
+      </c>
+      <c r="P402">
+        <v>493.29742479660399</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -16945,8 +18824,14 @@
       <c r="N403" s="5">
         <v>82062.606970177701</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O403">
+        <v>953.63</v>
+      </c>
+      <c r="P403">
+        <v>513.85930273266194</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -16989,8 +18874,14 @@
       <c r="N404" s="5">
         <v>80562.810548454901</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O404">
+        <v>938.85</v>
+      </c>
+      <c r="P404">
+        <v>501.66670524576602</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -17033,8 +18924,14 @@
       <c r="N405" s="5">
         <v>84230.157584970497</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O405">
+        <v>967.4</v>
+      </c>
+      <c r="P405">
+        <v>503.74699832590602</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -17077,8 +18974,14 @@
       <c r="N406" s="5">
         <v>81024.054205175096</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O406">
+        <v>923.48</v>
+      </c>
+      <c r="P406">
+        <v>505.76256630279801</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -17121,8 +19024,14 @@
       <c r="N407" s="5">
         <v>79888.188852289895</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O407">
+        <v>892.91</v>
+      </c>
+      <c r="P407">
+        <v>521.48634921304802</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -17165,8 +19074,14 @@
       <c r="N408" s="5">
         <v>81446.410960109701</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O408">
+        <v>896.39</v>
+      </c>
+      <c r="P408">
+        <v>558.35896399216995</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -17209,8 +19124,14 @@
       <c r="N409" s="5">
         <v>79425.441721751995</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O409">
+        <v>815.12</v>
+      </c>
+      <c r="P409">
+        <v>617.47434014025498</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -17253,8 +19174,14 @@
       <c r="N410" s="5">
         <v>78380.326369282004</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O410">
+        <v>821.3</v>
+      </c>
+      <c r="P410">
+        <v>611.42575312793099</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -17297,8 +19224,14 @@
       <c r="N411" s="5">
         <v>73322.174148194899</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O411">
+        <v>748.41</v>
+      </c>
+      <c r="P411">
+        <v>632.71655830149996</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -17341,8 +19274,14 @@
       <c r="N412" s="5">
         <v>79749.561881069603</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O412">
+        <v>812.19</v>
+      </c>
+      <c r="P412">
+        <v>610.06894869743098</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -17385,8 +19324,14 @@
       <c r="N413" s="5">
         <v>78087.478417100298</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O413">
+        <v>768.94</v>
+      </c>
+      <c r="P413">
+        <v>626.67331277672804</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -17429,8 +19374,14 @@
       <c r="N414" s="5">
         <v>72151.826640469793</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O414">
+        <v>682</v>
+      </c>
+      <c r="P414">
+        <v>662.806453193121</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -17473,8 +19424,14 @@
       <c r="N415" s="5">
         <v>75337.889128965093</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O415">
+        <v>719.68</v>
+      </c>
+      <c r="P415">
+        <v>669.25649570629002</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -17517,8 +19474,14 @@
       <c r="N416" s="5">
         <v>78227.986244670596</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O416">
+        <v>783.73</v>
+      </c>
+      <c r="P416">
+        <v>610.08930879893296</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -17561,8 +19524,14 @@
       <c r="N417" s="5">
         <v>74411.819849145395</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O417">
+        <v>741.92</v>
+      </c>
+      <c r="P417">
+        <v>612.63255810951603</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -17605,8 +19574,14 @@
       <c r="N418" s="5">
         <v>79226.889119606596</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O418">
+        <v>804.17</v>
+      </c>
+      <c r="P418">
+        <v>592.85499488625499</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -17649,8 +19624,14 @@
       <c r="N419" s="5">
         <v>78633.865639975804</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O419">
+        <v>769.56</v>
+      </c>
+      <c r="P419">
+        <v>597.27939735035397</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -17693,8 +19674,14 @@
       <c r="N420" s="5">
         <v>77325.758796128401</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O420">
+        <v>799.55</v>
+      </c>
+      <c r="P420">
+        <v>553.50917577011705</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -17737,8 +19724,14 @@
       <c r="N421" s="5">
         <v>77570.209052655395</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O421">
+        <v>814.14</v>
+      </c>
+      <c r="P421">
+        <v>558.98579086803295</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -17781,8 +19774,14 @@
       <c r="N422" s="5">
         <v>76828.648814259606</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O422">
+        <v>802.23</v>
+      </c>
+      <c r="P422">
+        <v>562.147243269451</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -17825,8 +19824,14 @@
       <c r="N423" s="5">
         <v>79643.835914836105</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O423">
+        <v>836.5</v>
+      </c>
+      <c r="P423">
+        <v>581.514678587101</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -17869,8 +19874,14 @@
       <c r="N424" s="5">
         <v>81884.428469317703</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O424">
+        <v>864.69</v>
+      </c>
+      <c r="P424">
+        <v>579.41485379936</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -17913,8 +19924,14 @@
       <c r="N425" s="5">
         <v>79973.561518051501</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O425">
+        <v>840.61</v>
+      </c>
+      <c r="P425">
+        <v>581.313875858497</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -17957,8 +19974,14 @@
       <c r="N426" s="5">
         <v>78560.444813323105</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O426">
+        <v>791.65</v>
+      </c>
+      <c r="P426">
+        <v>608.25866108175501</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -18001,8 +20024,14 @@
       <c r="N427" s="5">
         <v>74624.185880284</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O427">
+        <v>767.25</v>
+      </c>
+      <c r="P427">
+        <v>605.94860186457197</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -18045,8 +20074,14 @@
       <c r="N428" s="5">
         <v>79468.376219316997</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O428">
+        <v>845.86</v>
+      </c>
+      <c r="P428">
+        <v>574.38279823596099</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -18089,8 +20124,14 @@
       <c r="N429" s="5">
         <v>83823.9310863094</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O429">
+        <v>890.36</v>
+      </c>
+      <c r="P429">
+        <v>557.94620754622099</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -18133,8 +20174,14 @@
       <c r="N430" s="5">
         <v>84669.927534761693</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O430">
+        <v>897.88</v>
+      </c>
+      <c r="P430">
+        <v>571.59625970511297</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -18177,8 +20224,14 @@
       <c r="N431" s="5">
         <v>86644.003722218797</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O431">
+        <v>925.93</v>
+      </c>
+      <c r="P431">
+        <v>592.39424884804498</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -18221,8 +20274,14 @@
       <c r="N432" s="5">
         <v>89943.550625075397</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O432">
+        <v>951.65</v>
+      </c>
+      <c r="P432">
+        <v>624.65128288307903</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -18265,8 +20324,14 @@
       <c r="N433" s="5">
         <v>87379.916445772396</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O433">
+        <v>909.43</v>
+      </c>
+      <c r="P433">
+        <v>651.88153298576901</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -18309,8 +20374,14 @@
       <c r="N434" s="5">
         <v>89053.968564742594</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O434">
+        <v>954.35</v>
+      </c>
+      <c r="P434">
+        <v>645.57070260586204</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -18353,8 +20424,14 @@
       <c r="N435" s="5">
         <v>88842.019970612499</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O435">
+        <v>971.71</v>
+      </c>
+      <c r="P435">
+        <v>660.28080203299601</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -18395,8 +20472,14 @@
       <c r="N436" s="5">
         <v>91576.195592293501</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O436">
+        <v>1000.23</v>
+      </c>
+      <c r="P436">
+        <v>635.68504831596704</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -18437,8 +20520,14 @@
       <c r="N437" s="5">
         <v>92164.458021053797</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O437">
+        <v>1026.3800000000001</v>
+      </c>
+      <c r="P437">
+        <v>616.14093677900496</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -18479,8 +20568,14 @@
       <c r="N438" s="5">
         <v>93438.498920533093</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O438">
+        <v>1048.73</v>
+      </c>
+      <c r="P438">
+        <v>623.387691519138</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -18521,8 +20616,14 @@
       <c r="N439" s="5">
         <v>92603.707319861307</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O439">
+        <v>1016.09</v>
+      </c>
+      <c r="P439">
+        <v>596.79980009069197</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -18563,8 +20664,14 @@
       <c r="N440" s="5">
         <v>98744.851772163296</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O440">
+        <v>1057.31</v>
+      </c>
+      <c r="P440">
+        <v>603.00984729365496</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -18605,8 +20712,14 @@
       <c r="N441" s="5">
         <v>96004.067891533006</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O441">
+        <v>1014.41</v>
+      </c>
+      <c r="P441">
+        <v>598.41244328066</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -18647,8 +20760,14 @@
       <c r="N442" s="5">
         <v>99791.447199758695</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O442">
+        <v>1031.28</v>
+      </c>
+      <c r="P442">
+        <v>605.50870563291699</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -18689,8 +20808,14 @@
       <c r="N443" s="5">
         <v>100017.302932127</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O443">
+        <v>1036.42</v>
+      </c>
+      <c r="P443">
+        <v>591.55987340955596</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -18731,8 +20856,14 @@
       <c r="N444" s="5">
         <v>94675.454203551897</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O444">
+        <v>996.13</v>
+      </c>
+      <c r="P444">
+        <v>581.91950426181904</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -18773,8 +20904,14 @@
       <c r="N445" s="5">
         <v>92238.862346578695</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O445">
+        <v>1000.37</v>
+      </c>
+      <c r="P445">
+        <v>581.92435165128995</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -18815,8 +20952,14 @@
       <c r="N446" s="5">
         <v>96628.345208116501</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O446">
+        <v>1046.42</v>
+      </c>
+      <c r="P446">
+        <v>581.00767909871797</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -18855,8 +20998,14 @@
       <c r="N447" s="5">
         <v>96431.244693721397</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O447">
+        <v>1092.81</v>
+      </c>
+      <c r="P447">
+        <v>596.702765766835</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -18895,8 +21044,14 @@
       <c r="N448" s="5">
         <v>98721.377781248797</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O448">
+        <v>1105.92</v>
+      </c>
+      <c r="P448">
+        <v>593.92485667087897</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -18935,8 +21090,14 @@
       <c r="N449" s="5">
         <v>100205.60932617</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O449">
+        <v>1136.69</v>
+      </c>
+      <c r="P449">
+        <v>601.81480682943197</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -18969,8 +21130,14 @@
       <c r="L450" s="5"/>
       <c r="M450" s="5"/>
       <c r="N450" s="5"/>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O450">
+        <v>1173.02</v>
+      </c>
+      <c r="P450">
+        <v>636.64692089722701</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -19001,8 +21168,14 @@
       <c r="L451" s="5"/>
       <c r="M451" s="5"/>
       <c r="N451" s="5"/>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O451">
+        <v>1201.05</v>
+      </c>
+      <c r="P451">
+        <v>661.36282920633596</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>
@@ -19033,8 +21206,14 @@
       <c r="L452" s="5"/>
       <c r="M452" s="5"/>
       <c r="N452" s="5"/>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O452">
+        <v>1204.77</v>
+      </c>
+      <c r="P452">
+        <v>673.95682130734599</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DC352-4EF9-344C-BDBC-906CDB06B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEDC7D7-C501-B04E-87C4-A1BB999CDB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11120" yWindow="-28080" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>WisdomTree Global Efficient Core</t>
+  </si>
+  <si>
+    <t>Bloomberg Euro Government Bond 10y</t>
   </si>
 </sst>
 </file>
@@ -485,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:P453"/>
+  <dimension ref="A1:Q453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="Q456" sqref="Q456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +515,7 @@
     <col min="14" max="14" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,8 +564,11 @@
       <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -592,7 +598,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -622,7 +628,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -652,7 +658,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -682,7 +688,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -712,7 +718,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -742,7 +748,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -772,7 +778,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -802,7 +808,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -832,7 +838,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -862,7 +868,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -892,7 +898,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -922,7 +928,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -952,7 +958,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -982,7 +988,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>9606.2492312224604</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34669</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>9853.8695656764903</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34700</v>
       </c>
@@ -3127,8 +3133,11 @@
       <c r="N82" s="5">
         <v>9410.2884278588699</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34731</v>
       </c>
@@ -3170,8 +3179,11 @@
       <c r="P83">
         <v>101.50821705641999</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>101.92231060605999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34759</v>
       </c>
@@ -3213,8 +3225,11 @@
       <c r="P84">
         <v>103.258503936897</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>103.673572243862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34790</v>
       </c>
@@ -3256,8 +3271,11 @@
       <c r="P85">
         <v>104.63746332700499</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>105.772323512696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34820</v>
       </c>
@@ -3299,8 +3317,11 @@
       <c r="P86">
         <v>106.090551551983</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>108.189577876687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34851</v>
       </c>
@@ -3342,8 +3363,11 @@
       <c r="P87">
         <v>107.883661877148</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>109.452390671792</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34881</v>
       </c>
@@ -3385,8 +3409,11 @@
       <c r="P88">
         <v>109.077827571708</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>109.419437684172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34912</v>
       </c>
@@ -3428,8 +3455,11 @@
       <c r="P89">
         <v>110.67577335694099</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>110.99953101079799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34943</v>
       </c>
@@ -3471,8 +3501,11 @@
       <c r="P90">
         <v>111.376965231024</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>112.96260253019901</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34973</v>
       </c>
@@ -3514,8 +3547,11 @@
       <c r="P91">
         <v>113.34978040690299</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>113.75195112859301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35004</v>
       </c>
@@ -3557,8 +3593,11 @@
       <c r="P92">
         <v>113.816581978195</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>116.28037549482799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35034</v>
       </c>
@@ -3600,8 +3639,11 @@
       <c r="P93">
         <v>115.90442690616899</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <v>119.224123546291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35065</v>
       </c>
@@ -3643,8 +3685,11 @@
       <c r="P94">
         <v>117.03102356132101</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <v>121.503937885149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35096</v>
       </c>
@@ -3686,8 +3731,11 @@
       <c r="P95">
         <v>118.865290474825</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95">
+        <v>119.211169097078</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35125</v>
       </c>
@@ -3729,8 +3777,11 @@
       <c r="P96">
         <v>119.573372748314</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96">
+        <v>117.673203097667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -3772,8 +3823,11 @@
       <c r="P97">
         <v>120.788899513172</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q97">
+        <v>118.907464250158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -3815,8 +3869,11 @@
       <c r="P98">
         <v>121.786701393019</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q98">
+        <v>118.92401220559999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -3858,8 +3915,11 @@
       <c r="P99">
         <v>123.225036409564</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q99">
+        <v>118.555420791279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -3904,8 +3964,11 @@
       <c r="P100">
         <v>124.167283696163</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <v>119.916990461456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -3950,8 +4013,11 @@
       <c r="P101">
         <v>123.11425037471</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q101">
+        <v>122.15111983058399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -3996,8 +4062,11 @@
       <c r="P102">
         <v>124.441120011804</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <v>123.485296929188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -4042,8 +4111,11 @@
       <c r="P103">
         <v>127.149166793294</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q103">
+        <v>126.14531366756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -4088,8 +4160,11 @@
       <c r="P104">
         <v>129.01820245205101</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q104">
+        <v>128.18768684317001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -4134,8 +4209,11 @@
       <c r="P105">
         <v>132.48896127456899</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q105">
+        <v>129.482026403378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -4180,8 +4258,11 @@
       <c r="P106">
         <v>132.20552935443899</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q106">
+        <v>129.96993822105301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -4226,8 +4307,11 @@
       <c r="P107">
         <v>135.31708074399</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q107">
+        <v>133.128995416419</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -4272,8 +4356,11 @@
       <c r="P108">
         <v>136.38197333963001</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q108">
+        <v>132.039092270808</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -4318,8 +4405,11 @@
       <c r="P109">
         <v>135.25864189327501</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q109">
+        <v>131.16711831959501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -4364,8 +4454,11 @@
       <c r="P110">
         <v>138.475195115254</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q110">
+        <v>132.84829323723901</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -4410,8 +4503,11 @@
       <c r="P111">
         <v>141.79338346764101</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q111">
+        <v>133.90993736897499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -4456,8 +4552,11 @@
       <c r="P112">
         <v>144.250768462347</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>136.17558676945299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -4502,8 +4601,11 @@
       <c r="P113">
         <v>148.40218196781899</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q113">
+        <v>135.749297976088</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -4548,8 +4650,11 @@
       <c r="P114">
         <v>146.83788413650601</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>137.07449907739101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -4594,8 +4699,11 @@
       <c r="P115">
         <v>149.69054008374599</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q115">
+        <v>137.862885135721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -4640,8 +4748,11 @@
       <c r="P116">
         <v>149.338584206853</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>138.727922519157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -4686,8 +4797,11 @@
       <c r="P117">
         <v>151.81895294317499</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q117">
+        <v>141.75431169853999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -4732,8 +4846,11 @@
       <c r="P118">
         <v>153.44670694013899</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q118">
+        <v>144.66928128335101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -4778,8 +4895,11 @@
       <c r="P119">
         <v>154.806763165289</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q119">
+        <v>146.62432587625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -4824,8 +4944,11 @@
       <c r="P120">
         <v>158.79895570321099</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q120">
+        <v>148.21763244286799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -4870,8 +4993,11 @@
       <c r="P121">
         <v>161.916997177426</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q121">
+        <v>148.79551278026801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -4916,8 +5042,11 @@
       <c r="P122">
         <v>163.347914758439</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q122">
+        <v>148.70322040562999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -4962,8 +5091,11 @@
       <c r="P123">
         <v>163.14690368067301</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q123">
+        <v>151.172443902537</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -5008,8 +5140,11 @@
       <c r="P124">
         <v>166.04635133209601</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q124">
+        <v>153.06626490942</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -5054,8 +5189,11 @@
       <c r="P125">
         <v>166.203427843182</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q125">
+        <v>156.64339658322501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -5100,8 +5238,11 @@
       <c r="P126">
         <v>174.073834557331</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q126">
+        <v>161.50128014155601</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -5146,8 +5287,11 @@
       <c r="P127">
         <v>171.62079317936701</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q127">
+        <v>162.00376935181501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -5194,8 +5338,11 @@
       <c r="P128">
         <v>176.653439342464</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q128">
+        <v>161.87292150217499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -5242,8 +5389,11 @@
       <c r="P129">
         <v>180.48763260435999</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q129">
+        <v>165.548560937784</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -5290,8 +5440,11 @@
       <c r="P130">
         <v>184.93244282383699</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q130">
+        <v>166.78163269385499</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -5338,8 +5491,11 @@
       <c r="P131">
         <v>187.81141551924699</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q131">
+        <v>165.47922962078599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -5386,8 +5542,11 @@
       <c r="P132">
         <v>186.943608203982</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q132">
+        <v>163.471253011253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -5434,8 +5593,11 @@
       <c r="P133">
         <v>190.20398822092</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q133">
+        <v>166.082926756999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -5482,8 +5644,11 @@
       <c r="P134">
         <v>193.32187303111201</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q134">
+        <v>164.47975886704199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -5530,8 +5695,11 @@
       <c r="P135">
         <v>192.96231638944801</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q135">
+        <v>160.93802845509299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -5578,8 +5746,11 @@
       <c r="P136">
         <v>197.13293473099299</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q136">
+        <v>157.664480679577</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -5626,8 +5797,11 @@
       <c r="P137">
         <v>196.28398940775099</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q137">
+        <v>155.824749395423</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -5674,8 +5848,11 @@
       <c r="P138">
         <v>196.960433428713</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q138">
+        <v>154.600588098315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -5722,8 +5899,11 @@
       <c r="P139">
         <v>199.265104233773</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q139">
+        <v>152.43192989644399</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -5770,8 +5950,11 @@
       <c r="P140">
         <v>204.09197456066599</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q140">
+        <v>156.25563116028499</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -5818,8 +6001,11 @@
       <c r="P141">
         <v>206.131956689807</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q141">
+        <v>155.57018632488499</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -5866,8 +6052,11 @@
       <c r="P142">
         <v>210.589937859815</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q142">
+        <v>151.77187910890399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -5914,8 +6103,11 @@
       <c r="P143">
         <v>213.51819601952201</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q143">
+        <v>152.83708913902601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -5962,8 +6154,11 @@
       <c r="P144">
         <v>213.016817447758</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q144">
+        <v>155.54991120012301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -6010,8 +6205,11 @@
       <c r="P145">
         <v>208.16636929746301</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q145">
+        <v>157.478550878454</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -6058,8 +6256,11 @@
       <c r="P146">
         <v>206.64221150236301</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q146">
+        <v>156.140914546407</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -6106,8 +6307,11 @@
       <c r="P147">
         <v>206.13131901676601</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q147">
+        <v>158.903616588484</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -6154,8 +6358,11 @@
       <c r="P148">
         <v>207.446166214329</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q148">
+        <v>158.6754952702</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -6202,8 +6409,11 @@
       <c r="P149">
         <v>208.56301301114999</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q149">
+        <v>159.87826657832301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -6250,8 +6460,11 @@
       <c r="P150">
         <v>205.46025761877999</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q150">
+        <v>159.87770126247901</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -6298,8 +6511,11 @@
       <c r="P151">
         <v>202.941894338412</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q151">
+        <v>161.29920626060499</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -6346,8 +6562,11 @@
       <c r="P152">
         <v>203.47519879925301</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q152">
+        <v>162.651488705383</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -6394,8 +6613,11 @@
       <c r="P153">
         <v>199.97442822093899</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q153">
+        <v>166.45822532874101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -6442,8 +6664,11 @@
       <c r="P154">
         <v>200.52734664152601</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q154">
+        <v>168.46107877078799</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -6490,8 +6715,11 @@
       <c r="P155">
         <v>198.59095438550199</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q155">
+        <v>169.21680888952201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -6538,8 +6766,11 @@
       <c r="P156">
         <v>203.616336520494</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q156">
+        <v>170.99478095730399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -6586,8 +6817,11 @@
       <c r="P157">
         <v>206.76581137278501</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q157">
+        <v>169.705922113583</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -6634,8 +6868,11 @@
       <c r="P158">
         <v>202.6508259629</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q158">
+        <v>167.89968754736199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -6682,8 +6919,11 @@
       <c r="P159">
         <v>203.23030797474601</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>169.26346729623501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -6730,8 +6970,11 @@
       <c r="P160">
         <v>204.73741940457799</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>169.840972447567</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -6778,8 +7021,11 @@
       <c r="P161">
         <v>205.55788183785401</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q161">
+        <v>173.08287420306601</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -6826,8 +7072,11 @@
       <c r="P162">
         <v>208.90670202480001</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q162">
+        <v>173.98224652468801</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -6874,8 +7123,11 @@
       <c r="P163">
         <v>213.47465721369599</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q163">
+        <v>177.60927886060301</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -6922,8 +7174,11 @@
       <c r="P164">
         <v>213.09101779299601</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q164">
+        <v>180.364284787511</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -6970,8 +7225,11 @@
       <c r="P165">
         <v>209.24770471097901</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q165">
+        <v>177.416314465455</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -7018,8 +7276,11 @@
       <c r="P166">
         <v>209.25785962100099</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q166">
+        <v>176.922442605274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -7066,8 +7327,11 @@
       <c r="P167">
         <v>210.07565367695199</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q167">
+        <v>176.88108296335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -7114,8 +7378,11 @@
       <c r="P168">
         <v>211.32397765935099</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q168">
+        <v>174.50720506366301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -7162,8 +7429,11 @@
       <c r="P169">
         <v>209.87445969322599</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q169">
+        <v>175.320861838626</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -7210,8 +7480,11 @@
       <c r="P170">
         <v>213.23186288743099</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q170">
+        <v>175.90529260337701</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -7258,8 +7531,11 @@
       <c r="P171">
         <v>213.85915341318901</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q171">
+        <v>178.62403183437399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -7306,8 +7582,11 @@
       <c r="P172">
         <v>218.11710453522301</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q172">
+        <v>181.40960465289399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -7354,8 +7633,11 @@
       <c r="P173">
         <v>222.73321051904</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q173">
+        <v>186.031277931055</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -7402,8 +7684,11 @@
       <c r="P174">
         <v>219.60939251063101</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q174">
+        <v>189.649087485417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -7450,8 +7735,11 @@
       <c r="P175">
         <v>223.347916854018</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q175">
+        <v>189.04072447737801</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -7498,8 +7786,11 @@
       <c r="P176">
         <v>221.14189400177301</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q176">
+        <v>189.91641698388901</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -7546,8 +7837,11 @@
       <c r="P177">
         <v>218.560825057074</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q177">
+        <v>192.93226511307401</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -7594,8 +7888,11 @@
       <c r="P178">
         <v>219.49788105093899</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q178">
+        <v>196.041783072291</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -7642,8 +7939,11 @@
       <c r="P179">
         <v>221.48359948874599</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q179">
+        <v>199.96042291725001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -7690,8 +7990,11 @@
       <c r="P180">
         <v>220.83787383725999</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q180">
+        <v>199.86242832469301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -7738,8 +8041,11 @@
       <c r="P181">
         <v>221.795253705569</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q181">
+        <v>198.523408348126</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -7786,8 +8092,11 @@
       <c r="P182">
         <v>216.84586320854601</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q182">
+        <v>203.90419200741599</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -7834,8 +8143,11 @@
       <c r="P183">
         <v>210.76331942798799</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q183">
+        <v>207.64257510482699</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -7882,8 +8194,11 @@
       <c r="P184">
         <v>211.46143345300999</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q184">
+        <v>203.11662111688599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -7930,8 +8245,11 @@
       <c r="P185">
         <v>217.99916710376201</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q185">
+        <v>201.41521337337301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -7980,8 +8298,11 @@
       <c r="P186">
         <v>218.72971022527599</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q186">
+        <v>201.49440006968601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -8030,8 +8351,11 @@
       <c r="P187">
         <v>215.20727525889299</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q187">
+        <v>201.35949210239599</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -8080,8 +8404,11 @@
       <c r="P188">
         <v>220.031854611678</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q188">
+        <v>200.11223547731799</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -8130,8 +8457,11 @@
       <c r="P189">
         <v>221.14022087554</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q189">
+        <v>201.77082293197401</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -8180,8 +8510,11 @@
       <c r="P190">
         <v>224.986885458686</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q190">
+        <v>204.55647407394301</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -8230,8 +8563,11 @@
       <c r="P191">
         <v>225.380358722495</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q191">
+        <v>205.83259537586</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -8280,8 +8616,11 @@
       <c r="P192">
         <v>227.75947348312499</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q192">
+        <v>209.18872897430799</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -8330,8 +8669,11 @@
       <c r="P193">
         <v>228.14085478477099</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q193">
+        <v>206.92821415748401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -8380,8 +8722,11 @@
       <c r="P194">
         <v>223.838067979448</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q194">
+        <v>205.31378431066699</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -8430,8 +8775,11 @@
       <c r="P195">
         <v>223.350750135846</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q195">
+        <v>205.22771661674301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -8480,8 +8828,11 @@
       <c r="P196">
         <v>222.05515569485999</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q196">
+        <v>207.536886799808</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -8530,8 +8881,11 @@
       <c r="P197">
         <v>219.74015382379901</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q197">
+        <v>210.697346951009</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -8580,8 +8934,11 @@
       <c r="P198">
         <v>222.482847687462</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q198">
+        <v>212.08989759324899</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -8630,8 +8987,11 @@
       <c r="P199">
         <v>222.77715401015999</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q199">
+        <v>214.68536975036099</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -8680,8 +9040,11 @@
       <c r="P200">
         <v>223.36728412052099</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q200">
+        <v>217.326879683025</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -8730,8 +9093,11 @@
       <c r="P201">
         <v>224.84107868565599</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q201">
+        <v>221.440942571856</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -8780,8 +9146,11 @@
       <c r="P202">
         <v>229.672145419694</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q202">
+        <v>222.95574057277801</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -8830,8 +9199,11 @@
       <c r="P203">
         <v>232.425789467025</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q203">
+        <v>223.794049512421</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -8880,8 +9252,11 @@
       <c r="P204">
         <v>231.68165001916799</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q204">
+        <v>221.89192018105101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -8930,8 +9305,11 @@
       <c r="P205">
         <v>231.45241287643</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q205">
+        <v>225.97693326137599</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -8980,8 +9358,11 @@
       <c r="P206">
         <v>234.537572250224</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q206">
+        <v>229.22023723694599</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -9030,8 +9411,11 @@
       <c r="P207">
         <v>236.66932298758701</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q207">
+        <v>232.79965406992</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -9080,8 +9464,11 @@
       <c r="P208">
         <v>236.17140258983</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q208">
+        <v>232.41012148186601</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -9130,8 +9517,11 @@
       <c r="P209">
         <v>237.452867877279</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q209">
+        <v>232.67010967466501</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -9180,8 +9570,11 @@
       <c r="P210">
         <v>238.66323808407901</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q210">
+        <v>236.14516045858699</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -9230,8 +9623,11 @@
       <c r="P211">
         <v>233.70490715942199</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q211">
+        <v>233.82166292712</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -9280,8 +9676,11 @@
       <c r="P212">
         <v>234.27336044813799</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q212">
+        <v>230.79728954248401</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -9330,8 +9729,11 @@
       <c r="P213">
         <v>228.91003395950801</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q213">
+        <v>233.39340342468401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -9380,8 +9782,11 @@
       <c r="P214">
         <v>229.74038095175899</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q214">
+        <v>234.49092706363001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -9430,8 +9835,11 @@
       <c r="P215">
         <v>235.24685001975399</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q215">
+        <v>232.383370131123</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -9480,8 +9888,11 @@
       <c r="P216">
         <v>236.05545589018001</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q216">
+        <v>229.84713680865801</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -9530,8 +9941,11 @@
       <c r="P217">
         <v>235.397811988303</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q217">
+        <v>225.89734700731799</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -9580,8 +9994,11 @@
       <c r="P218">
         <v>241.290545275152</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q218">
+        <v>225.61316843000699</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -9630,8 +10047,11 @@
       <c r="P219">
         <v>239.44420679360601</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q219">
+        <v>226.28986137219701</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -9680,8 +10100,11 @@
       <c r="P220">
         <v>237.00476585058399</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q220">
+        <v>226.56435599454099</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -9730,8 +10153,11 @@
       <c r="P221">
         <v>236.51048055521099</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q221">
+        <v>229.55066629372101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -9780,8 +10206,11 @@
       <c r="P222">
         <v>235.58945729960101</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q222">
+        <v>232.566842877331</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -9830,8 +10259,11 @@
       <c r="P223">
         <v>240.012795079412</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q223">
+        <v>232.64435370613501</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -9880,8 +10312,11 @@
       <c r="P224">
         <v>241.77966919049999</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q224">
+        <v>234.754963206502</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -9930,8 +10365,11 @@
       <c r="P225">
         <v>239.014201672654</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q225">
+        <v>234.34648343956201</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -9980,8 +10418,11 @@
       <c r="P226">
         <v>238.50677095256401</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q226">
+        <v>230.765890484267</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -10030,8 +10471,11 @@
       <c r="P227">
         <v>241.23927657457901</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q227">
+        <v>231.05888449499199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -10080,8 +10524,11 @@
       <c r="P228">
         <v>237.751791312617</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q228">
+        <v>233.652206618463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -10130,8 +10577,11 @@
       <c r="P229">
         <v>239.509248705419</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q229">
+        <v>230.846342599569</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -10180,8 +10630,11 @@
       <c r="P230">
         <v>244.740183369645</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q230">
+        <v>229.47532476406599</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -10230,8 +10683,11 @@
       <c r="P231">
         <v>243.89524027795801</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q231">
+        <v>225.463538789973</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -10280,8 +10736,11 @@
       <c r="P232">
         <v>245.25381416196399</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q232">
+        <v>226.93146271472099</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -10330,8 +10789,11 @@
       <c r="P233">
         <v>241.53818040640999</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q233">
+        <v>231.09152385272199</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -10380,8 +10842,11 @@
       <c r="P234">
         <v>238.60247789828401</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q234">
+        <v>232.62183578638599</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -10430,8 +10895,11 @@
       <c r="P235">
         <v>246.23158191535799</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q235">
+        <v>232.82591677715399</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -10480,8 +10948,11 @@
       <c r="P236">
         <v>255.56820012032799</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q236">
+        <v>236.547406537673</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -10530,8 +11001,11 @@
       <c r="P237">
         <v>255.68820951995599</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q237">
+        <v>235.463510348635</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -10580,8 +11054,11 @@
       <c r="P238">
         <v>260.78562574145099</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q238">
+        <v>239.37187477213999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -10630,8 +11107,11 @@
       <c r="P239">
         <v>273.69838253950297</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q239">
+        <v>241.29203680858899</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -10680,8 +11160,11 @@
       <c r="P240">
         <v>283.85089249410299</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q240">
+        <v>243.24672031621</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -10730,8 +11213,11 @@
       <c r="P241">
         <v>283.64262698205602</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q241">
+        <v>240.15046743813701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -10780,8 +11266,11 @@
       <c r="P242">
         <v>278.72450429445598</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q242">
+        <v>238.30196307995001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -10830,8 +11319,11 @@
       <c r="P243">
         <v>282.13916514437602</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q243">
+        <v>232.965167424887</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -10880,8 +11372,11 @@
       <c r="P244">
         <v>288.849844378981</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q244">
+        <v>234.29009891862901</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -10930,8 +11425,11 @@
       <c r="P245">
         <v>284.66989869777899</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q245">
+        <v>240.12794128706699</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -10980,8 +11478,11 @@
       <c r="P246">
         <v>271.66238082568702</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q246">
+        <v>241.84335553515899</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -11030,8 +11531,11 @@
       <c r="P247">
         <v>280.54789804668297</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q247">
+        <v>245.247405316162</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -11080,8 +11584,11 @@
       <c r="P248">
         <v>314.39528927537901</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q248">
+        <v>250.08165197212699</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -11130,8 +11637,11 @@
       <c r="P249">
         <v>329.61201752197201</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q249">
+        <v>258.36403946373503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -11180,8 +11690,11 @@
       <c r="P250">
         <v>333.896089509668</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q250">
+        <v>257.09941260530701</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -11230,8 +11743,11 @@
       <c r="P251">
         <v>338.801532624912</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q251">
+        <v>257.27511214500498</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -11280,8 +11796,11 @@
       <c r="P252">
         <v>347.94260092325601</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q252">
+        <v>259.772973592835</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -11330,8 +11849,11 @@
       <c r="P253">
         <v>335.36171224072501</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q253">
+        <v>260.50933600206503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -11380,8 +11902,11 @@
       <c r="P254">
         <v>335.04811983233901</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q254">
+        <v>258.67263935133298</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -11430,8 +11955,11 @@
       <c r="P255">
         <v>321.89691228504199</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q255">
+        <v>256.87352092883799</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -11480,8 +12008,11 @@
       <c r="P256">
         <v>319.377048233724</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q256">
+        <v>261.26390163867097</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -11530,8 +12061,11 @@
       <c r="P257">
         <v>312.17898547837501</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q257">
+        <v>265.05463124531502</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -11580,8 +12114,11 @@
       <c r="P258">
         <v>310.05430279876401</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q258">
+        <v>266.17988152646899</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -11630,8 +12167,11 @@
       <c r="P259">
         <v>307.08997193321602</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q259">
+        <v>267.52414185342002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -11680,8 +12220,11 @@
       <c r="P260">
         <v>306.27890474687501</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q260">
+        <v>268.44830269857499</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -11730,8 +12273,11 @@
       <c r="P261">
         <v>319.19272655123802</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q261">
+        <v>270.42275115026899</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -11780,8 +12326,11 @@
       <c r="P262">
         <v>319.60470587639099</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q262">
+        <v>269.335957043002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -11830,8 +12379,11 @@
       <c r="P263">
         <v>309.68497757346103</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q263">
+        <v>270.99539703605097</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -11880,8 +12432,11 @@
       <c r="P264">
         <v>312.54436312189</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q264">
+        <v>273.55825985970398</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -11930,8 +12485,11 @@
       <c r="P265">
         <v>319.53972087102699</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q265">
+        <v>274.35965832833199</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -11980,8 +12538,11 @@
       <c r="P266">
         <v>320.150811013549</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q266">
+        <v>278.67170151979099</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -12030,8 +12591,11 @@
       <c r="P267">
         <v>304.484616867434</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q267">
+        <v>278.622270015585</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -12080,8 +12644,11 @@
       <c r="P268">
         <v>315.02145628183899</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q268">
+        <v>280.23634412890198</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -12130,8 +12697,11 @@
       <c r="P269">
         <v>300.77063298065502</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q269">
+        <v>287.07587514081399</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -12180,8 +12750,11 @@
       <c r="P270">
         <v>314.97106536259997</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q270">
+        <v>287.62064184801301</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -12230,8 +12803,11 @@
       <c r="P271">
         <v>315.97447539858899</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q271">
+        <v>288.328030030945</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -12280,8 +12856,11 @@
       <c r="P272">
         <v>321.32822011626598</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q272">
+        <v>281.854873382042</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -12330,8 +12909,11 @@
       <c r="P273">
         <v>319.15137881305401</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q273">
+        <v>273.67916550183099</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -12380,8 +12962,11 @@
       <c r="P274">
         <v>335.80281019305102</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q274">
+        <v>272.648318715073</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -12430,8 +13015,11 @@
       <c r="P275">
         <v>339.11853397967002</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q275">
+        <v>271.77728685920403</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -12480,8 +13068,11 @@
       <c r="P276">
         <v>339.82684062624401</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q276">
+        <v>271.86422024025802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -12530,8 +13121,11 @@
       <c r="P277">
         <v>343.441133172413</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q277">
+        <v>271.43600127681799</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -12580,8 +13174,11 @@
       <c r="P278">
         <v>354.897053688862</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q278">
+        <v>275.749430655151</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -12630,8 +13227,11 @@
       <c r="P279">
         <v>352.44017810032301</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q279">
+        <v>277.28533096027599</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -12680,8 +13280,11 @@
       <c r="P280">
         <v>345.74914443939502</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q280">
+        <v>274.85654905918199</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -12730,8 +13333,11 @@
       <c r="P281">
         <v>344.629789286419</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q281">
+        <v>284.42852945966001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -12780,8 +13386,11 @@
       <c r="P282">
         <v>366.76536716696398</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q282">
+        <v>287.56630508672703</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -12830,8 +13439,11 @@
       <c r="P283">
         <v>382.46642708176603</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q283">
+        <v>283.64905252595298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -12880,8 +13492,11 @@
       <c r="P284">
         <v>370.931442825462</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q284">
+        <v>273.90795742439798</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -12930,8 +13545,11 @@
       <c r="P285">
         <v>373.82721706624</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q285">
+        <v>279.472326138114</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -12980,8 +13598,11 @@
       <c r="P286">
         <v>387.12092020799099</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q286">
+        <v>282.73384909198899</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -13030,8 +13651,11 @@
       <c r="P287">
         <v>381.79415133657898</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q287">
+        <v>290.65407332456999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -13080,8 +13704,11 @@
       <c r="P288">
         <v>379.09915949189701</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q288">
+        <v>294.64447740975402</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -13130,8 +13757,11 @@
       <c r="P289">
         <v>380.82514061451002</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q289">
+        <v>291.07909560896599</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -13180,8 +13810,11 @@
       <c r="P290">
         <v>377.06390567931902</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q290">
+        <v>293.74101219740601</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -13230,8 +13863,11 @@
       <c r="P291">
         <v>371.47531515088298</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q291">
+        <v>293.85057314433499</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -13280,8 +13916,11 @@
       <c r="P292">
         <v>362.55422838125702</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q292">
+        <v>295.85394506262998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -13330,8 +13969,11 @@
       <c r="P293">
         <v>362.27613602585097</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q293">
+        <v>298.81482220072598</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -13380,8 +14022,11 @@
       <c r="P294">
         <v>351.70987303970497</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q294">
+        <v>303.278437897743</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -13430,8 +14075,11 @@
       <c r="P295">
         <v>350.04004530864199</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q295">
+        <v>307.26570817299302</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -13480,8 +14128,11 @@
       <c r="P296">
         <v>345.34213659802799</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q296">
+        <v>309.76950279827099</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -13530,8 +14181,11 @@
       <c r="P297">
         <v>344.57050106110199</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q297">
+        <v>314.74748359248201</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -13580,8 +14234,11 @@
       <c r="P298">
         <v>350.506051494502</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q298">
+        <v>315.872086157995</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -13630,8 +14287,11 @@
       <c r="P299">
         <v>348.82972181603901</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q299">
+        <v>313.63471631233102</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -13680,8 +14340,11 @@
       <c r="P300">
         <v>348.64183870038602</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q300">
+        <v>317.14621502774901</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -13730,8 +14393,11 @@
       <c r="P301">
         <v>352.35531534093798</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q301">
+        <v>324.30667591535098</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -13780,8 +14446,11 @@
       <c r="P302">
         <v>356.84127139647097</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q302">
+        <v>326.96685547565897</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -13830,8 +14499,11 @@
       <c r="P303">
         <v>359.684348091799</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q303">
+        <v>319.32331723615698</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -13880,8 +14552,11 @@
       <c r="P304">
         <v>371.54822499467599</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q304">
+        <v>319.36403055416599</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -13930,8 +14605,11 @@
       <c r="P305">
         <v>372.85309603379801</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q305">
+        <v>318.68504232308101</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -13980,8 +14658,11 @@
       <c r="P306">
         <v>366.14173921762801</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q306">
+        <v>317.048991952363</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -14030,8 +14711,11 @@
       <c r="P307">
         <v>375.71901407819098</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q307">
+        <v>321.93976557892699</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -14080,8 +14764,11 @@
       <c r="P308">
         <v>379.55278995718999</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q308">
+        <v>325.53567541488297</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -14130,8 +14817,11 @@
       <c r="P309">
         <v>390.01365751547399</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q309">
+        <v>324.74476004168901</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -14180,8 +14870,11 @@
       <c r="P310">
         <v>398.03431611256502</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q310">
+        <v>328.268510058179</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -14230,8 +14923,11 @@
       <c r="P311">
         <v>387.06875229657402</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q311">
+        <v>333.59554015140498</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -14280,8 +14976,11 @@
       <c r="P312">
         <v>382.56259635421901</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q312">
+        <v>337.952418536312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -14330,8 +15029,11 @@
       <c r="P313">
         <v>385.425005248226</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q313">
+        <v>341.822966463782</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -14380,8 +15082,11 @@
       <c r="P314">
         <v>384.10069799701</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q314">
+        <v>346.26907335372999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -14430,8 +15135,11 @@
       <c r="P315">
         <v>385.05733513759901</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q315">
+        <v>350.57677811040003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -14480,8 +15188,11 @@
       <c r="P316">
         <v>381.84253753957898</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q316">
+        <v>354.52731350441098</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -14530,8 +15241,11 @@
       <c r="P317">
         <v>374.96888376550299</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q317">
+        <v>359.62092641906298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -14580,8 +15294,11 @@
       <c r="P318">
         <v>383.27737181107199</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q318">
+        <v>363.38170067114402</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -14630,8 +15347,11 @@
       <c r="P319">
         <v>387.16303001293102</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q319">
+        <v>365.85484429912498</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -14680,8 +15400,11 @@
       <c r="P320">
         <v>397.91028536284</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q320">
+        <v>368.99043297693498</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -14730,8 +15453,11 @@
       <c r="P321">
         <v>410.62689388388401</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q321">
+        <v>375.59909925235701</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -14780,8 +15506,11 @@
       <c r="P322">
         <v>420.48060498274498</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q322">
+        <v>382.83055766052098</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -14830,8 +15559,11 @@
       <c r="P323">
         <v>427.63148154036003</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q323">
+        <v>385.66820941281298</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -14880,8 +15612,11 @@
       <c r="P324">
         <v>407.97355547874002</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q324">
+        <v>390.53092499982699</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -14930,8 +15665,11 @@
       <c r="P325">
         <v>415.24145426655201</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q325">
+        <v>391.464892280877</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -14980,8 +15718,11 @@
       <c r="P326">
         <v>406.618490162201</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q326">
+        <v>378.55423183178698</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -15030,8 +15771,11 @@
       <c r="P327">
         <v>411.06600792255801</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q327">
+        <v>369.53916815279899</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -15080,8 +15824,11 @@
       <c r="P328">
         <v>412.95821470374699</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q328">
+        <v>373.07374648494601</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -15130,8 +15877,11 @@
       <c r="P329">
         <v>423.489512785307</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q329">
+        <v>377.24448755122501</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -15180,8 +15930,11 @@
       <c r="P330">
         <v>414.48150523968002</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q330">
+        <v>376.41537132853699</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -15230,8 +15983,11 @@
       <c r="P331">
         <v>419.22551198767798</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q331">
+        <v>381.93153969405301</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -15280,8 +16036,11 @@
       <c r="P332">
         <v>408.74743577170699</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q332">
+        <v>383.11724698572499</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -15330,8 +16089,11 @@
       <c r="P333">
         <v>415.66168408393202</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q333">
+        <v>382.89193983759998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -15380,8 +16142,11 @@
       <c r="P334">
         <v>417.15720649102798</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q334">
+        <v>385.14662295608002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -15430,8 +16195,11 @@
       <c r="P335">
         <v>405.47556360148502</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q335">
+        <v>389.72022408754998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -15480,8 +16248,11 @@
       <c r="P336">
         <v>393.430987828583</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q336">
+        <v>392.81370723819498</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -15530,8 +16301,11 @@
       <c r="P337">
         <v>386.33366407532299</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q337">
+        <v>393.06866437778399</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -15580,8 +16354,11 @@
       <c r="P338">
         <v>385.92784298472998</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q338">
+        <v>392.483715033441</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -15630,8 +16407,11 @@
       <c r="P339">
         <v>381.87749071936202</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q339">
+        <v>396.04924300608701</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -15680,8 +16460,11 @@
       <c r="P340">
         <v>366.80351042083998</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q340">
+        <v>402.52808773547298</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -15730,8 +16513,11 @@
       <c r="P341">
         <v>378.27879567687597</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q341">
+        <v>403.75420433350098</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -15780,8 +16566,11 @@
       <c r="P342">
         <v>374.73955392749502</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q342">
+        <v>402.39858542913697</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -15830,8 +16619,11 @@
       <c r="P343">
         <v>372.29009727939399</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q343">
+        <v>398.89733885411903</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -15880,8 +16672,11 @@
       <c r="P344">
         <v>376.00095977702699</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q344">
+        <v>389.110342783166</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -15930,8 +16725,11 @@
       <c r="P345">
         <v>387.99063839259099</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q345">
+        <v>388.52995922944098</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -15980,8 +16778,11 @@
       <c r="P346">
         <v>395.33367904126101</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q346">
+        <v>387.00227856190799</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -16030,8 +16831,11 @@
       <c r="P347">
         <v>390.61632080437801</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q347">
+        <v>382.14920915315702</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -16080,8 +16884,11 @@
       <c r="P348">
         <v>390.01050814589399</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q348">
+        <v>381.43722156164898</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -16130,8 +16937,11 @@
       <c r="P349">
         <v>389.46679128842499</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q349">
+        <v>385.55291121605302</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -16180,8 +16990,11 @@
       <c r="P350">
         <v>393.24474324805101</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q350">
+        <v>386.23429322905798</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -16230,8 +17043,11 @@
       <c r="P351">
         <v>395.41470366828997</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q351">
+        <v>390.172711045536</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -16280,8 +17096,11 @@
       <c r="P352">
         <v>395.48366028363603</v>
       </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q352">
+        <v>385.17644507561698</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -16330,8 +17149,11 @@
       <c r="P353">
         <v>396.12156736207402</v>
       </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q353">
+        <v>388.997184553306</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -16380,8 +17202,11 @@
       <c r="P354">
         <v>390.62188143140997</v>
       </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q354">
+        <v>389.18174694631199</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -16430,8 +17255,11 @@
       <c r="P355">
         <v>393.59332317673699</v>
       </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q355">
+        <v>388.27838977385102</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -16480,8 +17308,11 @@
       <c r="P356">
         <v>398.47504533902202</v>
       </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q356">
+        <v>392.61232595160499</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -16530,8 +17361,11 @@
       <c r="P357">
         <v>402.58509480467097</v>
       </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q357">
+        <v>393.63854854921499</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -16580,8 +17414,11 @@
       <c r="P358">
         <v>402.89758862122</v>
       </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q358">
+        <v>389.24600951851397</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -16630,8 +17467,11 @@
       <c r="P359">
         <v>412.23391493606601</v>
       </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q359">
+        <v>385.953160047533</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -16680,8 +17520,11 @@
       <c r="P360">
         <v>407.53243809773397</v>
       </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q360">
+        <v>390.34849755499698</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -16730,8 +17573,11 @@
       <c r="P361">
         <v>404.54153544535302</v>
       </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q361">
+        <v>393.562854787155</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -16780,8 +17626,11 @@
       <c r="P362">
         <v>406.68507197822601</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q362">
+        <v>390.32416031222601</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -16830,8 +17679,11 @@
       <c r="P363">
         <v>403.78150456747699</v>
       </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q363">
+        <v>388.04933378634797</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -16880,8 +17732,11 @@
       <c r="P364">
         <v>405.60222046346303</v>
       </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q364">
+        <v>390.57652418112099</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -16930,8 +17785,11 @@
       <c r="P365">
         <v>411.84378699918301</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q365">
+        <v>386.50657863077902</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -16980,8 +17838,11 @@
       <c r="P366">
         <v>416.19490695238301</v>
       </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q366">
+        <v>386.784003530294</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -17030,8 +17891,11 @@
       <c r="P367">
         <v>419.00490940899402</v>
       </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q367">
+        <v>382.24650662844903</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -17080,8 +17944,11 @@
       <c r="P368">
         <v>411.531663937063</v>
       </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q368">
+        <v>384.48969469395502</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -17130,8 +17997,11 @@
       <c r="P369">
         <v>414.42328966811198</v>
       </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q369">
+        <v>390.22600396796298</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -17180,8 +18050,11 @@
       <c r="P370">
         <v>416.00577649320201</v>
       </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q370">
+        <v>393.24819425496298</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -17230,8 +18103,11 @@
       <c r="P371">
         <v>400.90730952285298</v>
       </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q371">
+        <v>395.31106852209399</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -17280,8 +18156,11 @@
       <c r="P372">
         <v>395.05494983199497</v>
       </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q372">
+        <v>398.62997895408699</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -17330,8 +18209,11 @@
       <c r="P373">
         <v>403.504642955397</v>
       </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q373">
+        <v>400.86248954163699</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -17380,8 +18262,11 @@
       <c r="P374">
         <v>406.40737657085799</v>
       </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q374">
+        <v>403.28422268101599</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -17430,8 +18315,11 @@
       <c r="P375">
         <v>411.851666094471</v>
       </c>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q375">
+        <v>411.65094911872001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -17480,8 +18368,11 @@
       <c r="P376">
         <v>420.86107498209202</v>
       </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q376">
+        <v>419.44449928959301</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -17530,8 +18421,11 @@
       <c r="P377">
         <v>452.36167664760899</v>
       </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q377">
+        <v>427.54223586893897</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -17580,8 +18474,11 @@
       <c r="P378">
         <v>445.449369987701</v>
       </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q378">
+        <v>430.19725337291601</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -17630,8 +18527,11 @@
       <c r="P379">
         <v>440.41962256083502</v>
       </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q379">
+        <v>427.002799933463</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -17680,8 +18580,11 @@
       <c r="P380">
         <v>443.62355964206301</v>
       </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q380">
+        <v>421.59098758426802</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -17730,8 +18633,11 @@
       <c r="P381">
         <v>443.73968328595902</v>
       </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q381">
+        <v>419.54534028105297</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -17780,8 +18686,11 @@
       <c r="P382">
         <v>448.19375382140299</v>
       </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q382">
+        <v>421.09727848928901</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -17830,8 +18739,11 @@
       <c r="P383">
         <v>438.71851692255001</v>
       </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q383">
+        <v>427.46330990818001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -17880,8 +18792,11 @@
       <c r="P384">
         <v>444.43500348401699</v>
       </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q384">
+        <v>421.06090791165298</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -17930,8 +18845,11 @@
       <c r="P385">
         <v>454.29254868727998</v>
       </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q385">
+        <v>415.811424345533</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -17980,8 +18898,11 @@
       <c r="P386">
         <v>440.269592828177</v>
       </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q386">
+        <v>418.07246009959198</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -18030,8 +18951,11 @@
       <c r="P387">
         <v>432.03230075149702</v>
       </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q387">
+        <v>421.02026707147502</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -18080,8 +19004,11 @@
       <c r="P388">
         <v>447.430718064909</v>
       </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q388">
+        <v>425.71797522504198</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -18130,8 +19057,11 @@
       <c r="P389">
         <v>444.57635516647599</v>
       </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q389">
+        <v>427.63800648208701</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -18180,8 +19110,11 @@
       <c r="P390">
         <v>431.219157905587</v>
       </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q390">
+        <v>428.57075624722597</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -18230,8 +19163,11 @@
       <c r="P391">
         <v>431.18759652859598</v>
       </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q391">
+        <v>432.49299441236099</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -18280,8 +19216,11 @@
       <c r="P392">
         <v>434.32986936387601</v>
       </c>
-    </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q392">
+        <v>433.97075884922498</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -18330,8 +19269,11 @@
       <c r="P393">
         <v>451.77716790852298</v>
       </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q393">
+        <v>435.11949588618501</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -18380,8 +19322,11 @@
       <c r="P394">
         <v>451.25072796176499</v>
       </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q394">
+        <v>433.946978226895</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -18430,8 +19375,11 @@
       <c r="P395">
         <v>471.29829239702201</v>
       </c>
-    </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q395">
+        <v>430.49281000330001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -18480,8 +19428,11 @@
       <c r="P396">
         <v>485.05363951619</v>
       </c>
-    </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q396">
+        <v>427.60977115015697</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -18530,8 +19481,11 @@
       <c r="P397">
         <v>495.94591174738099</v>
       </c>
-    </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q397">
+        <v>425.65959210510198</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -18580,8 +19534,11 @@
       <c r="P398">
         <v>510.28506341483899</v>
       </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q398">
+        <v>420.42752565205501</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -18630,8 +19587,11 @@
       <c r="P399">
         <v>503.64314838210902</v>
       </c>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q399">
+        <v>422.91858740705601</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -18680,8 +19640,11 @@
       <c r="P400">
         <v>507.37703781952001</v>
       </c>
-    </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q400">
+        <v>427.618953447411</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -18730,8 +19693,11 @@
       <c r="P401">
         <v>493.96501919915102</v>
       </c>
-    </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q401">
+        <v>431.06528928116001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -18780,8 +19746,11 @@
       <c r="P402">
         <v>493.29742479660399</v>
       </c>
-    </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q402">
+        <v>426.05684373644402</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -18830,8 +19799,11 @@
       <c r="P403">
         <v>513.85930273266194</v>
       </c>
-    </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q403">
+        <v>420.95986623286302</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -18880,8 +19852,11 @@
       <c r="P404">
         <v>501.66670524576602</v>
       </c>
-    </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q404">
+        <v>422.58981486219199</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -18930,8 +19905,11 @@
       <c r="P405">
         <v>503.74699832590602</v>
       </c>
-    </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q405">
+        <v>423.836579100432</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -18980,8 +19958,11 @@
       <c r="P406">
         <v>505.76256630279801</v>
       </c>
-    </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q406">
+        <v>415.29187231888801</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -19030,8 +20011,11 @@
       <c r="P407">
         <v>521.48634921304802</v>
       </c>
-    </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q407">
+        <v>403.95205953588601</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -19080,8 +20064,11 @@
       <c r="P408">
         <v>558.35896399216995</v>
       </c>
-    </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q408">
+        <v>401.16788571751403</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -19130,8 +20117,11 @@
       <c r="P409">
         <v>617.47434014025498</v>
       </c>
-    </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q409">
+        <v>386.311821541303</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -19180,8 +20170,11 @@
       <c r="P410">
         <v>611.42575312793099</v>
       </c>
-    </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q410">
+        <v>377.31934876484701</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -19230,8 +20223,11 @@
       <c r="P411">
         <v>632.71655830149996</v>
       </c>
-    </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q411">
+        <v>362.02276519632198</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -19280,8 +20276,11 @@
       <c r="P412">
         <v>610.06894869743098</v>
       </c>
-    </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q412">
+        <v>371.699975261259</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -19330,8 +20329,11 @@
       <c r="P413">
         <v>626.67331277672804</v>
       </c>
-    </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q413">
+        <v>373.98308646963102</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -19380,8 +20382,11 @@
       <c r="P414">
         <v>662.806453193121</v>
       </c>
-    </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q414">
+        <v>352.97059084399598</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -19430,8 +20435,11 @@
       <c r="P415">
         <v>669.25649570629002</v>
       </c>
-    </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q415">
+        <v>343.76460547352298</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -19480,8 +20488,11 @@
       <c r="P416">
         <v>610.08930879893296</v>
       </c>
-    </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q416">
+        <v>349.72946046389302</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -19530,8 +20541,11 @@
       <c r="P417">
         <v>612.63255810951603</v>
       </c>
-    </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q417">
+        <v>350.00189933509898</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -19580,8 +20594,11 @@
       <c r="P418">
         <v>592.85499488625499</v>
       </c>
-    </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q418">
+        <v>349.11469489934598</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -19630,8 +20647,11 @@
       <c r="P419">
         <v>597.27939735035397</v>
       </c>
-    </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q419">
+        <v>346.34922383822902</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -19680,8 +20700,11 @@
       <c r="P420">
         <v>553.50917577011705</v>
       </c>
-    </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q420">
+        <v>346.75150212453099</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -19730,8 +20753,11 @@
       <c r="P421">
         <v>558.98579086803295</v>
       </c>
-    </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q421">
+        <v>348.18556331694401</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -19780,8 +20806,11 @@
       <c r="P422">
         <v>562.147243269451</v>
       </c>
-    </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q422">
+        <v>348.38246994649398</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -19830,8 +20859,11 @@
       <c r="P423">
         <v>581.514678587101</v>
       </c>
-    </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q423">
+        <v>350.71381244461099</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -19880,8 +20912,11 @@
       <c r="P424">
         <v>579.41485379936</v>
       </c>
-    </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q424">
+        <v>349.21094141549003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -19930,8 +20965,11 @@
       <c r="P425">
         <v>581.313875858497</v>
       </c>
-    </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q425">
+        <v>348.12473723055899</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -19980,8 +21018,11 @@
       <c r="P426">
         <v>608.25866108175501</v>
       </c>
-    </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q426">
+        <v>344.72451183659598</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -20030,8 +21071,11 @@
       <c r="P427">
         <v>605.94860186457197</v>
       </c>
-    </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q427">
+        <v>339.53644318937103</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -20080,8 +21124,11 @@
       <c r="P428">
         <v>574.38279823596099</v>
       </c>
-    </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q428">
+        <v>348.28715324514502</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -20130,8 +21177,11 @@
       <c r="P429">
         <v>557.94620754622099</v>
       </c>
-    </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q429">
+        <v>363.41132529684597</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -20180,8 +21230,11 @@
       <c r="P430">
         <v>571.59625970511297</v>
       </c>
-    </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q430">
+        <v>362.83115730106601</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -20230,8 +21283,11 @@
       <c r="P431">
         <v>592.39424884804498</v>
       </c>
-    </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q431">
+        <v>360.758520735535</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -20280,8 +21336,11 @@
       <c r="P432">
         <v>624.65128288307903</v>
       </c>
-    </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q432">
+        <v>363.29220298468601</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -20330,8 +21389,11 @@
       <c r="P433">
         <v>651.88153298576901</v>
       </c>
-    </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q433">
+        <v>360.70814576649298</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -20380,8 +21442,11 @@
       <c r="P434">
         <v>645.57070260586204</v>
       </c>
-    </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q434">
+        <v>360.55867631870302</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -20430,8 +21495,11 @@
       <c r="P435">
         <v>660.28080203299601</v>
       </c>
-    </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q435">
+        <v>359.912849312275</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -20478,8 +21546,11 @@
       <c r="P436">
         <v>635.68504831596704</v>
       </c>
-    </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q436">
+        <v>362.22202208417298</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -20526,8 +21597,11 @@
       <c r="P437">
         <v>616.14093677900496</v>
       </c>
-    </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q437">
+        <v>368.69662392544899</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -20574,8 +21648,11 @@
       <c r="P438">
         <v>623.387691519138</v>
       </c>
-    </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q438">
+        <v>371.38545707849801</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -20622,8 +21699,11 @@
       <c r="P439">
         <v>596.79980009069197</v>
       </c>
-    </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q439">
+        <v>371.56004592010999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -20670,8 +21750,11 @@
       <c r="P440">
         <v>603.00984729365496</v>
       </c>
-    </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q440">
+        <v>370.13947782063298</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -20718,8 +21801,11 @@
       <c r="P441">
         <v>598.41244328066</v>
       </c>
-    </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q441">
+        <v>375.18592090504399</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -20766,8 +21852,11 @@
       <c r="P442">
         <v>605.50870563291699</v>
       </c>
-    </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q442">
+        <v>367.18841179317297</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -20814,8 +21903,11 @@
       <c r="P443">
         <v>591.55987340955596</v>
       </c>
-    </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q443">
+        <v>371.19634354658803</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -20862,8 +21954,11 @@
       <c r="P444">
         <v>581.91950426181904</v>
       </c>
-    </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q444">
+        <v>363.60822714252203</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -20910,8 +22005,11 @@
       <c r="P445">
         <v>581.92435165128995</v>
       </c>
-    </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q445">
+        <v>369.745737062231</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -20958,8 +22056,11 @@
       <c r="P446">
         <v>581.00767909871797</v>
       </c>
-    </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q446">
+        <v>370.93815147811398</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -21004,8 +22105,11 @@
       <c r="P447">
         <v>596.702765766835</v>
       </c>
-    </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q447">
+        <v>373.50327771636501</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -21050,8 +22154,11 @@
       <c r="P448">
         <v>593.92485667087897</v>
       </c>
-    </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q448">
+        <v>371.93946888702197</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -21096,8 +22203,11 @@
       <c r="P449">
         <v>601.81480682943197</v>
       </c>
-    </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q449">
+        <v>371.99700746082198</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -21136,8 +22246,11 @@
       <c r="P450">
         <v>636.64692089722701</v>
       </c>
-    </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q450">
+        <v>371.89025136507797</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -21174,8 +22287,11 @@
       <c r="P451">
         <v>661.36282920633596</v>
       </c>
-    </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q451">
+        <v>375.407102481469</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>
@@ -21212,8 +22328,11 @@
       <c r="P452">
         <v>673.95682130734599</v>
       </c>
-    </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q452">
+        <v>375.82219120282002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEDC7D7-C501-B04E-87C4-A1BB999CDB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC07883-2694-A446-9E8E-D4209FF88C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11120" yWindow="-28080" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,18 @@
   <si>
     <t>Bloomberg Euro Government Bond 10y</t>
   </si>
+  <si>
+    <t>MSCI Pacific ex-Japan</t>
+  </si>
+  <si>
+    <t>MSCI UK</t>
+  </si>
+  <si>
+    <t>MSCI Japan Small Cap</t>
+  </si>
+  <si>
+    <t>MSCI Switzerland</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +110,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +131,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -154,6 +178,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:Q453"/>
+  <dimension ref="A1:U453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P446" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q456" sqref="Q456"/>
+      <selection pane="bottomRight" activeCell="U129" sqref="U129:U452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +541,7 @@
     <col min="14" max="14" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,8 +593,20 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -597,8 +635,11 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>43882.050631717699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -627,8 +668,11 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>46295.067418052597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -657,8 +701,11 @@
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>50574.710335387601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -687,8 +734,11 @@
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>48894.977021351697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -717,8 +767,11 @@
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>47694.135103446803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -747,8 +800,11 @@
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>49555.644802220697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -777,8 +833,11 @@
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>47370.027265386401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -807,8 +866,11 @@
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>47646.147347513099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -837,8 +899,11 @@
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>54687.585201072099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -867,8 +932,11 @@
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>51058.369608144101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -897,8 +965,11 @@
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>52248.1018121792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -927,8 +998,11 @@
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <v>54263.017510707301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -957,8 +1031,11 @@
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>54008.004016034502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -987,8 +1064,11 @@
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>52704.227357630203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -1017,8 +1097,11 @@
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>54915.198564085898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>32721</v>
       </c>
@@ -1047,8 +1130,11 @@
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>58152.625628290203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>32752</v>
       </c>
@@ -1077,8 +1163,11 @@
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>60656.765194767802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>32782</v>
       </c>
@@ -1107,8 +1196,11 @@
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>56376.369594427801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32813</v>
       </c>
@@ -1137,8 +1229,11 @@
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>55594.438907922799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>32843</v>
       </c>
@@ -1167,8 +1262,11 @@
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>55635.299987544298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32874</v>
       </c>
@@ -1197,8 +1295,11 @@
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>53639.263950717199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>32905</v>
       </c>
@@ -1227,8 +1328,11 @@
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>52224.133223136698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32933</v>
       </c>
@@ -1257,8 +1361,11 @@
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>52417.462511390302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>32964</v>
       </c>
@@ -1287,8 +1394,11 @@
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>49045.092986602402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>32994</v>
       </c>
@@ -1317,8 +1427,11 @@
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>52782.1205410982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>33025</v>
       </c>
@@ -1347,8 +1460,11 @@
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>54785.078131250397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>33055</v>
       </c>
@@ -1377,8 +1493,11 @@
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>55942.061638346298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>33086</v>
       </c>
@@ -1407,8 +1526,11 @@
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>49363.165020589397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>33117</v>
       </c>
@@ -1437,8 +1559,11 @@
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>44886.282785564697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>33147</v>
       </c>
@@ -1467,8 +1592,11 @@
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>42997.779105396003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33178</v>
       </c>
@@ -1497,8 +1625,11 @@
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>41741.0906861888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33208</v>
       </c>
@@ -1527,8 +1658,11 @@
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>42201.817748668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33239</v>
       </c>
@@ -1557,8 +1691,11 @@
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>44813.183639551702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33270</v>
       </c>
@@ -1587,8 +1724,11 @@
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>48242.211732268101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33298</v>
       </c>
@@ -1617,8 +1757,11 @@
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>53765.369821288303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>33329</v>
       </c>
@@ -1647,8 +1790,11 @@
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>58505.485213942004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>33359</v>
       </c>
@@ -1677,8 +1823,11 @@
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>59467.6429188619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>33390</v>
       </c>
@@ -1707,8 +1856,11 @@
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>61411.389843825702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>33420</v>
       </c>
@@ -1737,8 +1889,11 @@
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>65036.917411957103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>33451</v>
       </c>
@@ -1767,8 +1922,11 @@
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>62777.073290173503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>33482</v>
       </c>
@@ -1797,8 +1955,11 @@
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>61646.482727572802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>33512</v>
       </c>
@@ -1827,8 +1988,11 @@
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>63836.493051998397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>33543</v>
       </c>
@@ -1857,8 +2021,11 @@
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>60825.202648333201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>33573</v>
       </c>
@@ -1887,8 +2054,11 @@
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>60261.361403989104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>33604</v>
       </c>
@@ -1917,8 +2087,11 @@
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>62042.665086560097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>33635</v>
       </c>
@@ -1949,8 +2122,11 @@
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>65389.900393031101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>33664</v>
       </c>
@@ -1981,8 +2157,11 @@
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>66639.961330119797</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>33695</v>
       </c>
@@ -2013,8 +2192,11 @@
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>69141.242348436805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>33725</v>
       </c>
@@ -2045,8 +2227,11 @@
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>72395.789198357801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>33756</v>
       </c>
@@ -2077,8 +2262,11 @@
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>69590.686018301494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>33786</v>
       </c>
@@ -2109,8 +2297,11 @@
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <v>64580.4690279317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>33817</v>
       </c>
@@ -2141,8 +2332,11 @@
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>59339.643585563397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>33848</v>
       </c>
@@ -2173,8 +2367,11 @@
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>59704.012124599903</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>33878</v>
       </c>
@@ -2205,8 +2402,11 @@
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>64109.548625490897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>33909</v>
       </c>
@@ -2237,8 +2437,11 @@
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>66965.414300815493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>33939</v>
       </c>
@@ -2269,8 +2472,11 @@
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <v>67441.689368878302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>33970</v>
       </c>
@@ -2301,8 +2507,11 @@
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>69245.080304790099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>34001</v>
       </c>
@@ -2333,8 +2542,11 @@
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>76402.583642613303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>34029</v>
       </c>
@@ -2365,8 +2577,11 @@
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>78056.991654955593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>34060</v>
       </c>
@@ -2397,8 +2612,11 @@
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R61">
+        <v>79237.631544936099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>34090</v>
       </c>
@@ -2429,8 +2647,11 @@
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R62">
+        <v>82451.489360858104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>34121</v>
       </c>
@@ -2461,8 +2682,11 @@
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>82258.985138067699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>34151</v>
       </c>
@@ -2493,8 +2717,11 @@
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R64">
+        <v>88751.311549534294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>34182</v>
       </c>
@@ -2525,8 +2752,11 @@
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <v>96162.118115715202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>34213</v>
       </c>
@@ -2557,8 +2787,11 @@
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R66">
+        <v>94098.473581672501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>34243</v>
       </c>
@@ -2589,8 +2822,11 @@
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <v>110573.014277435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>34274</v>
       </c>
@@ -2621,8 +2857,11 @@
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <v>110126.755670482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>34304</v>
       </c>
@@ -2653,8 +2892,11 @@
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R69">
+        <v>132908.35504318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>34335</v>
       </c>
@@ -2687,8 +2929,11 @@
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R70">
+        <v>130985.33895341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>34366</v>
       </c>
@@ -2721,8 +2966,11 @@
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R71">
+        <v>124103.001339011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>34394</v>
       </c>
@@ -2755,8 +3003,11 @@
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R72">
+        <v>108604.852303626</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>34425</v>
       </c>
@@ -2789,8 +3040,11 @@
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R73">
+        <v>113948.147241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>34455</v>
       </c>
@@ -2823,8 +3077,11 @@
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R74">
+        <v>115151.47305394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>34486</v>
       </c>
@@ -2861,8 +3118,11 @@
       <c r="N75" s="5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R75">
+        <v>108232.975997851</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>34516</v>
       </c>
@@ -2899,8 +3159,11 @@
       <c r="N76" s="5">
         <v>9983.1633051644694</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <v>110395.60732895799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>34547</v>
       </c>
@@ -2937,8 +3200,11 @@
       <c r="N77" s="5">
         <v>10330.234708622</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R77">
+        <v>117919.587339604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>34578</v>
       </c>
@@ -2975,8 +3241,11 @@
       <c r="N78" s="5">
         <v>10010.773088362401</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <v>113563.801766569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>34608</v>
       </c>
@@ -3013,8 +3282,11 @@
       <c r="N79" s="5">
         <v>9977.2002131408808</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R79">
+        <v>113159.84560734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>34639</v>
       </c>
@@ -3053,8 +3325,11 @@
       <c r="N80" s="5">
         <v>9606.2492312224604</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80">
+        <v>105607.57907793899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34669</v>
       </c>
@@ -3093,8 +3368,11 @@
       <c r="N81" s="5">
         <v>9853.8695656764903</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <v>106072.008637962</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34700</v>
       </c>
@@ -3136,8 +3414,11 @@
       <c r="Q82">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <v>94905.647651905805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34731</v>
       </c>
@@ -3182,8 +3463,11 @@
       <c r="Q83">
         <v>101.92231060605999</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83">
+        <v>102603.143874642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34759</v>
       </c>
@@ -3228,8 +3512,11 @@
       <c r="Q84">
         <v>103.673572243862</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84">
+        <v>99626.465300008902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34790</v>
       </c>
@@ -3274,8 +3561,11 @@
       <c r="Q85">
         <v>105.772323512696</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85">
+        <v>98986.345001678899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34820</v>
       </c>
@@ -3320,8 +3610,11 @@
       <c r="Q86">
         <v>108.189577876687</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86">
+        <v>107307.90520713299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34851</v>
       </c>
@@ -3366,8 +3659,11 @@
       <c r="Q87">
         <v>109.452390671792</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87">
+        <v>104370.730978502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34881</v>
       </c>
@@ -3412,8 +3708,11 @@
       <c r="Q88">
         <v>109.419437684172</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88">
+        <v>107386.048694257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34912</v>
       </c>
@@ -3458,8 +3757,11 @@
       <c r="Q89">
         <v>110.99953101079799</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89">
+        <v>107677.986028081</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34943</v>
       </c>
@@ -3504,8 +3806,11 @@
       <c r="Q90">
         <v>112.96260253019901</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90">
+        <v>110427.590478499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34973</v>
       </c>
@@ -3550,8 +3855,11 @@
       <c r="Q91">
         <v>113.75195112859301</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91">
+        <v>106765.066693574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35004</v>
       </c>
@@ -3596,8 +3904,11 @@
       <c r="Q92">
         <v>116.28037549482799</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92">
+        <v>107912.483981411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35034</v>
       </c>
@@ -3642,8 +3953,11 @@
       <c r="Q93">
         <v>119.224123546291</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93">
+        <v>113899.183023024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35065</v>
       </c>
@@ -3688,8 +4002,11 @@
       <c r="Q94">
         <v>121.503937885149</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94">
+        <v>122908.62842797401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35096</v>
       </c>
@@ -3734,8 +4051,11 @@
       <c r="Q95">
         <v>119.211169097078</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95">
+        <v>125456.996461027</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35125</v>
       </c>
@@ -3780,8 +4100,11 @@
       <c r="Q96">
         <v>117.673203097667</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96">
+        <v>126973.846361594</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -3826,8 +4149,11 @@
       <c r="Q97">
         <v>118.907464250158</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97">
+        <v>131549.66096081099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -3872,8 +4198,11 @@
       <c r="Q98">
         <v>118.92401220559999</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98">
+        <v>131772.71268178499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -3918,8 +4247,11 @@
       <c r="Q99">
         <v>118.555420791279</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <v>128281.45524466901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -3967,8 +4299,11 @@
       <c r="Q100">
         <v>119.916990461456</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100">
+        <v>119961.11865133799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -4016,8 +4351,11 @@
       <c r="Q101">
         <v>122.15111983058399</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101">
+        <v>124187.280055499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -4065,8 +4403,11 @@
       <c r="Q102">
         <v>123.485296929188</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102">
+        <v>128459.3288556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -4114,8 +4455,11 @@
       <c r="Q103">
         <v>126.14531366756</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103">
+        <v>132358.097257043</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -4163,8 +4507,11 @@
       <c r="Q104">
         <v>128.18768684317001</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104">
+        <v>137626.91188116401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -4212,8 +4559,11 @@
       <c r="Q105">
         <v>129.482026403378</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105">
+        <v>140940.84784256501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -4261,8 +4611,11 @@
       <c r="Q106">
         <v>129.96993822105301</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106">
+        <v>143032.72842707401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -4310,8 +4663,11 @@
       <c r="Q107">
         <v>133.128995416419</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107">
+        <v>151377.57495149699</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -4359,8 +4715,11 @@
       <c r="Q108">
         <v>132.039092270808</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108">
+        <v>146022.13090643799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -4408,8 +4767,11 @@
       <c r="Q109">
         <v>131.16711831959501</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109">
+        <v>143801.51455235001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -4457,8 +4819,11 @@
       <c r="Q110">
         <v>132.84829323723901</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110">
+        <v>152272.997181174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -4506,8 +4871,11 @@
       <c r="Q111">
         <v>133.90993736897499</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111">
+        <v>157346.43927541401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -4555,8 +4923,11 @@
       <c r="Q112">
         <v>136.17558676945299</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R112">
+        <v>161290.34268258401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -4604,8 +4975,11 @@
       <c r="Q113">
         <v>135.749297976088</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113">
+        <v>142868.834901519</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -4653,8 +5027,11 @@
       <c r="Q114">
         <v>137.07449907739101</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114">
+        <v>143860.581513438</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -4702,8 +5079,11 @@
       <c r="Q115">
         <v>137.862885135721</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115">
+        <v>111283.667118916</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -4751,8 +5131,11 @@
       <c r="Q116">
         <v>138.727922519157</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R116">
+        <v>105544.55652738101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -4800,8 +5183,11 @@
       <c r="Q117">
         <v>141.75431169853999</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117">
+        <v>108674.316741241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -4849,8 +5235,11 @@
       <c r="Q118">
         <v>144.66928128335101</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118">
+        <v>104298.876984088</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -4898,8 +5287,11 @@
       <c r="Q119">
         <v>146.62432587625</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R119">
+        <v>120079.68184462799</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -4947,8 +5339,11 @@
       <c r="Q120">
         <v>148.21763244286799</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120">
+        <v>119098.150493169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -4996,8 +5391,11 @@
       <c r="Q121">
         <v>148.79551278026801</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121">
+        <v>110022.109788362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -5045,8 +5443,11 @@
       <c r="Q122">
         <v>148.70322040562999</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122">
+        <v>96189.661204000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -5094,8 +5495,11 @@
       <c r="Q123">
         <v>151.172443902537</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123">
+        <v>91050.244165575597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -5143,8 +5547,11 @@
       <c r="Q124">
         <v>153.06626490942</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124">
+        <v>88135.724322284805</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -5192,8 +5599,11 @@
       <c r="Q125">
         <v>156.64339658322501</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125">
+        <v>75906.219908336803</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -5241,8 +5651,11 @@
       <c r="Q126">
         <v>161.50128014155601</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126">
+        <v>78974.518810581299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -5290,8 +5703,11 @@
       <c r="Q127">
         <v>162.00376935181501</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127">
+        <v>90744.1394339213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -5341,8 +5757,11 @@
       <c r="Q128">
         <v>161.87292150217499</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128">
+        <v>97712.482022092896</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -5392,8 +5811,20 @@
       <c r="Q129">
         <v>165.548560937784</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129">
+        <v>95959.922731065206</v>
+      </c>
+      <c r="S129" s="12">
+        <v>100</v>
+      </c>
+      <c r="T129">
+        <v>100</v>
+      </c>
+      <c r="U129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -5443,8 +5874,20 @@
       <c r="Q130">
         <v>166.78163269385499</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130">
+        <v>99774.566130812906</v>
+      </c>
+      <c r="S130" s="12">
+        <v>98.798880019999999</v>
+      </c>
+      <c r="T130">
+        <v>102.05965397355494</v>
+      </c>
+      <c r="U130">
+        <v>97.589224997773243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -5494,8 +5937,20 @@
       <c r="Q131">
         <v>165.47922962078599</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131">
+        <v>102012.67438891099</v>
+      </c>
+      <c r="S131" s="12">
+        <v>100.97244499999999</v>
+      </c>
+      <c r="T131">
+        <v>100.95028103713972</v>
+      </c>
+      <c r="U131">
+        <v>94.34479000878946</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -5545,8 +6000,20 @@
       <c r="Q132">
         <v>163.471253011253</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132">
+        <v>112898.432503769</v>
+      </c>
+      <c r="S132" s="12">
+        <v>104.583096</v>
+      </c>
+      <c r="T132">
+        <v>114.43824366547372</v>
+      </c>
+      <c r="U132">
+        <v>93.229655997390012</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -5596,8 +6063,20 @@
       <c r="Q133">
         <v>166.082926756999</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R133">
+        <v>133342.39577102399</v>
+      </c>
+      <c r="S133" s="12">
+        <v>108.601887</v>
+      </c>
+      <c r="T133">
+        <v>122.80573588549251</v>
+      </c>
+      <c r="U133">
+        <v>93.28631800530367</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -5647,8 +6126,20 @@
       <c r="Q134">
         <v>164.47975886704199</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134">
+        <v>125541.192618524</v>
+      </c>
+      <c r="S134" s="12">
+        <v>102.52912999999999</v>
+      </c>
+      <c r="T134">
+        <v>114.59881096565273</v>
+      </c>
+      <c r="U134">
+        <v>88.526885009139264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -5698,8 +6189,20 @@
       <c r="Q135">
         <v>160.93802845509299</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R135">
+        <v>137573.42139323699</v>
+      </c>
+      <c r="S135" s="12">
+        <v>102.78849200000001</v>
+      </c>
+      <c r="T135">
+        <v>129.14671548116442</v>
+      </c>
+      <c r="U135">
+        <v>87.321304998692952</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -5749,8 +6252,20 @@
       <c r="Q136">
         <v>157.664480679577</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136">
+        <v>131628.75587848699</v>
+      </c>
+      <c r="S136" s="12">
+        <v>104.21079400000001</v>
+      </c>
+      <c r="T136">
+        <v>136.44522116282295</v>
+      </c>
+      <c r="U136">
+        <v>90.742244998808459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -5800,8 +6315,20 @@
       <c r="Q137">
         <v>155.824749395423</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137">
+        <v>130077.270194943</v>
+      </c>
+      <c r="S137" s="12">
+        <v>104.093932</v>
+      </c>
+      <c r="T137">
+        <v>143.25131378364571</v>
+      </c>
+      <c r="U137">
+        <v>90.570001002665876</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -5851,8 +6378,20 @@
       <c r="Q138">
         <v>154.600588098315</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138">
+        <v>126573.267485063</v>
+      </c>
+      <c r="S138" s="12">
+        <v>102.33280000000001</v>
+      </c>
+      <c r="T138">
+        <v>146.43957437015908</v>
+      </c>
+      <c r="U138">
+        <v>90.287038997713225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -5902,8 +6441,20 @@
       <c r="Q139">
         <v>152.43192989644399</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R139">
+        <v>131515.679620524</v>
+      </c>
+      <c r="S139" s="12">
+        <v>105.17316</v>
+      </c>
+      <c r="T139">
+        <v>145.76716353664403</v>
+      </c>
+      <c r="U139">
+        <v>91.864993992217009</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -5953,8 +6504,20 @@
       <c r="Q140">
         <v>156.25563116028499</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140">
+        <v>147451.75340731299</v>
+      </c>
+      <c r="S140" s="12">
+        <v>106.41892900000001</v>
+      </c>
+      <c r="T140">
+        <v>144.78536670765254</v>
+      </c>
+      <c r="U140">
+        <v>91.095468013008784</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -6004,8 +6567,20 @@
       <c r="Q141">
         <v>155.57018632488499</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141">
+        <v>160108.16255848299</v>
+      </c>
+      <c r="S141" s="12">
+        <v>112.440004</v>
+      </c>
+      <c r="T141">
+        <v>134.26385514634509</v>
+      </c>
+      <c r="U141">
+        <v>92.959723009613967</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -6055,8 +6630,20 @@
       <c r="Q142">
         <v>151.77187910890399</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R142">
+        <v>152618.86840216001</v>
+      </c>
+      <c r="S142" s="12">
+        <v>101.967662</v>
+      </c>
+      <c r="T142">
+        <v>136.29222538802077</v>
+      </c>
+      <c r="U142">
+        <v>82.683458006351714</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -6106,8 +6693,20 @@
       <c r="Q143">
         <v>152.83708913902601</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143">
+        <v>153332.46810994201</v>
+      </c>
+      <c r="S143" s="12">
+        <v>98.855682000000002</v>
+      </c>
+      <c r="T143">
+        <v>134.39636707837974</v>
+      </c>
+      <c r="U143">
+        <v>80.781171010247363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -6157,8 +6756,20 @@
       <c r="Q144">
         <v>155.54991120012301</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R144">
+        <v>157250.57819525499</v>
+      </c>
+      <c r="S144" s="12">
+        <v>106.32347900000001</v>
+      </c>
+      <c r="T144">
+        <v>146.12623994250373</v>
+      </c>
+      <c r="U144">
+        <v>87.305190991463405</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -6208,8 +6819,20 @@
       <c r="Q145">
         <v>157.478550878454</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R145">
+        <v>158521.33008238499</v>
+      </c>
+      <c r="S145" s="12">
+        <v>101.79971999999999</v>
+      </c>
+      <c r="T145">
+        <v>130.51340311285702</v>
+      </c>
+      <c r="U145">
+        <v>84.535069999735597</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -6259,8 +6882,20 @@
       <c r="Q146">
         <v>156.140914546407</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146">
+        <v>140407.085809215</v>
+      </c>
+      <c r="S146" s="12">
+        <v>98.277264020000004</v>
+      </c>
+      <c r="T146">
+        <v>135.47627294848462</v>
+      </c>
+      <c r="U146">
+        <v>89.365742012728788</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -6310,8 +6945,20 @@
       <c r="Q147">
         <v>158.903616588484</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147">
+        <v>152638.59054484099</v>
+      </c>
+      <c r="S147" s="12">
+        <v>99.123204999999999</v>
+      </c>
+      <c r="T147">
+        <v>155.34173276678848</v>
+      </c>
+      <c r="U147">
+        <v>92.927395013808137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -6361,8 +7008,20 @@
       <c r="Q148">
         <v>158.6754952702</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R148">
+        <v>157036.37471309499</v>
+      </c>
+      <c r="S148" s="12">
+        <v>99.695327059999997</v>
+      </c>
+      <c r="T148">
+        <v>133.01807189786723</v>
+      </c>
+      <c r="U148">
+        <v>93.197838494578221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -6412,8 +7071,20 @@
       <c r="Q149">
         <v>159.87826657832301</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R149">
+        <v>164942.310291289</v>
+      </c>
+      <c r="S149" s="12">
+        <v>101.0079284</v>
+      </c>
+      <c r="T149">
+        <v>147.84501260461042</v>
+      </c>
+      <c r="U149">
+        <v>91.03119611263422</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -6463,8 +7134,20 @@
       <c r="Q150">
         <v>159.87770126247901</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R150">
+        <v>156551.43730576101</v>
+      </c>
+      <c r="S150" s="12">
+        <v>98.145202209999994</v>
+      </c>
+      <c r="T150">
+        <v>137.61593869794561</v>
+      </c>
+      <c r="U150">
+        <v>85.948116620460553</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -6514,8 +7197,20 @@
       <c r="Q151">
         <v>161.29920626060499</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R151">
+        <v>154082.003120368</v>
+      </c>
+      <c r="S151" s="12">
+        <v>98.748771129999994</v>
+      </c>
+      <c r="T151">
+        <v>123.93530827745408</v>
+      </c>
+      <c r="U151">
+        <v>86.74005744494329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -6565,8 +7260,20 @@
       <c r="Q152">
         <v>162.651488705383</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R152">
+        <v>148649.371340849</v>
+      </c>
+      <c r="S152" s="12">
+        <v>92.924396799999997</v>
+      </c>
+      <c r="T152">
+        <v>126.20510848178061</v>
+      </c>
+      <c r="U152">
+        <v>90.303188790121624</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -6616,8 +7323,20 @@
       <c r="Q153">
         <v>166.45822532874101</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R153">
+        <v>145953.948223513</v>
+      </c>
+      <c r="S153" s="12">
+        <v>99.319711580000003</v>
+      </c>
+      <c r="T153">
+        <v>113.75488847413857</v>
+      </c>
+      <c r="U153">
+        <v>98.563644741476878</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -6667,8 +7386,20 @@
       <c r="Q154">
         <v>168.46107877078799</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R154">
+        <v>150685.65005610199</v>
+      </c>
+      <c r="S154" s="12">
+        <v>97.683994029999994</v>
+      </c>
+      <c r="T154">
+        <v>112.58803064238182</v>
+      </c>
+      <c r="U154">
+        <v>96.476552133539315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -6718,8 +7449,20 @@
       <c r="Q155">
         <v>169.21680888952201</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R155">
+        <v>146255.67571304701</v>
+      </c>
+      <c r="S155" s="12">
+        <v>91.219935919999998</v>
+      </c>
+      <c r="T155">
+        <v>114.60490822767495</v>
+      </c>
+      <c r="U155">
+        <v>90.105064825951985</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -6769,8 +7512,20 @@
       <c r="Q156">
         <v>170.99478095730399</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R156">
+        <v>135713.25579591701</v>
+      </c>
+      <c r="S156" s="12">
+        <v>87.102074779999995</v>
+      </c>
+      <c r="T156">
+        <v>110.66923365947997</v>
+      </c>
+      <c r="U156">
+        <v>81.235956999205342</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -6820,8 +7575,20 @@
       <c r="Q157">
         <v>169.705922113583</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R157">
+        <v>142790.312395335</v>
+      </c>
+      <c r="S157" s="12">
+        <v>92.567043799999993</v>
+      </c>
+      <c r="T157">
+        <v>125.58203769359234</v>
+      </c>
+      <c r="U157">
+        <v>83.230608324241942</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -6871,8 +7638,20 @@
       <c r="Q158">
         <v>167.89968754736199</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R158">
+        <v>148089.79186620301</v>
+      </c>
+      <c r="S158" s="12">
+        <v>89.487698600000002</v>
+      </c>
+      <c r="T158">
+        <v>124.66295052196999</v>
+      </c>
+      <c r="U158">
+        <v>82.20292951240836</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -6922,8 +7701,20 @@
       <c r="Q159">
         <v>169.26346729623501</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R159">
+        <v>148066.17890463801</v>
+      </c>
+      <c r="S159" s="12">
+        <v>86.437284899999995</v>
+      </c>
+      <c r="T159">
+        <v>121.31095911182913</v>
+      </c>
+      <c r="U159">
+        <v>78.82991276595601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -6973,8 +7764,20 @@
       <c r="Q160">
         <v>169.840972447567</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R160">
+        <v>139393.61938717499</v>
+      </c>
+      <c r="S160" s="12">
+        <v>86.522831280000005</v>
+      </c>
+      <c r="T160">
+        <v>110.93311883711563</v>
+      </c>
+      <c r="U160">
+        <v>78.069663743754745</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -7024,8 +7827,20 @@
       <c r="Q161">
         <v>173.08287420306601</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161">
+        <v>130792.52438601499</v>
+      </c>
+      <c r="S161" s="12">
+        <v>85.702416170000006</v>
+      </c>
+      <c r="T161">
+        <v>112.44172479257081</v>
+      </c>
+      <c r="U161">
+        <v>77.919531482016424</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -7075,8 +7890,20 @@
       <c r="Q162">
         <v>173.98224652468801</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R162">
+        <v>111804.285858</v>
+      </c>
+      <c r="S162" s="12">
+        <v>80.064079149999998</v>
+      </c>
+      <c r="T162">
+        <v>102.67196354929358</v>
+      </c>
+      <c r="U162">
+        <v>74.323328230047878</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -7126,8 +7953,20 @@
       <c r="Q163">
         <v>177.60927886060301</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R163">
+        <v>119640.877716538</v>
+      </c>
+      <c r="S163" s="12">
+        <v>81.609361019999994</v>
+      </c>
+      <c r="T163">
+        <v>105.03651475042575</v>
+      </c>
+      <c r="U163">
+        <v>74.339226734496748</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -7177,8 +8016,20 @@
       <c r="Q164">
         <v>180.364284787511</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R164">
+        <v>133031.56330272701</v>
+      </c>
+      <c r="S164" s="12">
+        <v>83.3883352</v>
+      </c>
+      <c r="T164">
+        <v>100.96351414331592</v>
+      </c>
+      <c r="U164">
+        <v>75.957987125102036</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -7228,8 +8079,20 @@
       <c r="Q165">
         <v>177.416314465455</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R165">
+        <v>138880.12107239899</v>
+      </c>
+      <c r="S165" s="12">
+        <v>85.367199940000006</v>
+      </c>
+      <c r="T165">
+        <v>88.763333068284439</v>
+      </c>
+      <c r="U165">
+        <v>77.491238152207302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -7279,8 +8142,20 @@
       <c r="Q166">
         <v>176.922442605274</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R166">
+        <v>143587.375698032</v>
+      </c>
+      <c r="S166" s="12">
+        <v>81.768512729999998</v>
+      </c>
+      <c r="T166">
+        <v>82.743966981051045</v>
+      </c>
+      <c r="U166">
+        <v>73.190313052424997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -7330,8 +8205,20 @@
       <c r="Q167">
         <v>176.88108296335</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R167">
+        <v>141334.255629675</v>
+      </c>
+      <c r="S167" s="12">
+        <v>81.374058529999999</v>
+      </c>
+      <c r="T167">
+        <v>87.069674072906196</v>
+      </c>
+      <c r="U167">
+        <v>75.303666620657381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -7381,8 +8268,20 @@
       <c r="Q168">
         <v>174.50720506366301</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R168">
+        <v>146300.636968037</v>
+      </c>
+      <c r="S168" s="12">
+        <v>85.139854170000007</v>
+      </c>
+      <c r="T168">
+        <v>93.230494363957177</v>
+      </c>
+      <c r="U168">
+        <v>80.10068337415639</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -7432,8 +8331,20 @@
       <c r="Q169">
         <v>175.320861838626</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R169">
+        <v>142386.791278271</v>
+      </c>
+      <c r="S169" s="12">
+        <v>85.411401720000001</v>
+      </c>
+      <c r="T169">
+        <v>99.386972630915096</v>
+      </c>
+      <c r="U169">
+        <v>82.272274742284182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -7483,8 +8394,20 @@
       <c r="Q170">
         <v>175.90529260337701</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R170">
+        <v>139626.21731517499</v>
+      </c>
+      <c r="S170" s="12">
+        <v>84.014981270000007</v>
+      </c>
+      <c r="T170">
+        <v>109.8002179771173</v>
+      </c>
+      <c r="U170">
+        <v>85.390787115699808</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -7534,8 +8457,20 @@
       <c r="Q171">
         <v>178.62403183437399</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R171">
+        <v>124441.39349160899</v>
+      </c>
+      <c r="S171" s="12">
+        <v>80.466687559999997</v>
+      </c>
+      <c r="T171">
+        <v>104.96830276910113</v>
+      </c>
+      <c r="U171">
+        <v>82.000244476108236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -7585,8 +8520,20 @@
       <c r="Q172">
         <v>181.40960465289399</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R172">
+        <v>119198.238824253</v>
+      </c>
+      <c r="S172" s="12">
+        <v>75.049859729999994</v>
+      </c>
+      <c r="T172">
+        <v>101.64860068405365</v>
+      </c>
+      <c r="U172">
+        <v>72.142459565609911</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -7636,8 +8583,20 @@
       <c r="Q173">
         <v>186.031277931055</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R173">
+        <v>119050.693201371</v>
+      </c>
+      <c r="S173" s="12">
+        <v>74.267067990000001</v>
+      </c>
+      <c r="T173">
+        <v>99.280752866253479</v>
+      </c>
+      <c r="U173">
+        <v>72.045831054858539</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -7687,8 +8646,20 @@
       <c r="Q174">
         <v>189.649087485417</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R174">
+        <v>110935.49022299499</v>
+      </c>
+      <c r="S174" s="12">
+        <v>66.579563210000003</v>
+      </c>
+      <c r="T174">
+        <v>95.310945006222966</v>
+      </c>
+      <c r="U174">
+        <v>67.325089279095707</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -7738,8 +8709,20 @@
       <c r="Q175">
         <v>189.04072447737801</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R175">
+        <v>116988.338421472</v>
+      </c>
+      <c r="S175" s="12">
+        <v>71.796934010000001</v>
+      </c>
+      <c r="T175">
+        <v>85.450252655295046</v>
+      </c>
+      <c r="U175">
+        <v>69.609924248189358</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -7789,8 +8772,20 @@
       <c r="Q176">
         <v>189.91641698388901</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R176">
+        <v>119022.99180413601</v>
+      </c>
+      <c r="S176" s="12">
+        <v>73.957836760000006</v>
+      </c>
+      <c r="T176">
+        <v>86.09225453202319</v>
+      </c>
+      <c r="U176">
+        <v>71.351177622726354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -7840,8 +8835,20 @@
       <c r="Q177">
         <v>192.93226511307401</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R177">
+        <v>109217.565678135</v>
+      </c>
+      <c r="S177" s="12">
+        <v>72.361730170000001</v>
+      </c>
+      <c r="T177">
+        <v>84.16887777731138</v>
+      </c>
+      <c r="U177">
+        <v>69.505521192437925</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -7891,8 +8898,20 @@
       <c r="Q178">
         <v>196.041783072291</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R178">
+        <v>106840.604029088</v>
+      </c>
+      <c r="S178" s="12">
+        <v>67.258410609999999</v>
+      </c>
+      <c r="T178">
+        <v>83.679863712543224</v>
+      </c>
+      <c r="U178">
+        <v>67.130931973067845</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -7942,8 +8961,20 @@
       <c r="Q179">
         <v>199.96042291725001</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R179">
+        <v>105781.00821677</v>
+      </c>
+      <c r="S179" s="12">
+        <v>66.174771489999998</v>
+      </c>
+      <c r="T179">
+        <v>87.92394712172262</v>
+      </c>
+      <c r="U179">
+        <v>63.576184448359029</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -7993,8 +9024,20 @@
       <c r="Q180">
         <v>199.86242832469301</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R180">
+        <v>105770.291336582</v>
+      </c>
+      <c r="S180" s="12">
+        <v>66.110752739999995</v>
+      </c>
+      <c r="T180">
+        <v>86.499654014506703</v>
+      </c>
+      <c r="U180">
+        <v>63.207401373354685</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -8044,8 +9087,20 @@
       <c r="Q181">
         <v>198.523408348126</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R181">
+        <v>109167.02609014801</v>
+      </c>
+      <c r="S181" s="12">
+        <v>72.987527540000002</v>
+      </c>
+      <c r="T181">
+        <v>89.196958740305661</v>
+      </c>
+      <c r="U181">
+        <v>70.383112259114725</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -8095,8 +9150,20 @@
       <c r="Q182">
         <v>203.90419200741599</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R182">
+        <v>107997.774431212</v>
+      </c>
+      <c r="S182" s="12">
+        <v>77.467746919999996</v>
+      </c>
+      <c r="T182">
+        <v>93.272839621191665</v>
+      </c>
+      <c r="U182">
+        <v>74.709884595474136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -8146,8 +9213,20 @@
       <c r="Q183">
         <v>207.64257510482699</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183">
+        <v>115779.317548259</v>
+      </c>
+      <c r="S183" s="12">
+        <v>78.131544120000001</v>
+      </c>
+      <c r="T183">
+        <v>103.74259384579229</v>
+      </c>
+      <c r="U183">
+        <v>74.626904126681154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -8197,8 +9276,20 @@
       <c r="Q184">
         <v>203.11662111688599</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R184">
+        <v>118900.737855414</v>
+      </c>
+      <c r="S184" s="12">
+        <v>78.618536759999998</v>
+      </c>
+      <c r="T184">
+        <v>104.96040704229213</v>
+      </c>
+      <c r="U184">
+        <v>77.566714432800325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -8248,8 +9339,20 @@
       <c r="Q185">
         <v>201.41521337337301</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185">
+        <v>128799.985607158</v>
+      </c>
+      <c r="S185" s="12">
+        <v>78.081763940000002</v>
+      </c>
+      <c r="T185">
+        <v>118.19239500793498</v>
+      </c>
+      <c r="U185">
+        <v>76.858646625522425</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -8301,8 +9404,20 @@
       <c r="Q186">
         <v>201.49440006968601</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R186">
+        <v>125888.68894032799</v>
+      </c>
+      <c r="S186" s="12">
+        <v>80.842259299999995</v>
+      </c>
+      <c r="T186">
+        <v>126.79103943643098</v>
+      </c>
+      <c r="U186">
+        <v>80.194960671983239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -8354,8 +9469,20 @@
       <c r="Q187">
         <v>201.35949210239599</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R187">
+        <v>135134.99776226401</v>
+      </c>
+      <c r="S187" s="12">
+        <v>86.334146439999998</v>
+      </c>
+      <c r="T187">
+        <v>136.18811236389371</v>
+      </c>
+      <c r="U187">
+        <v>81.97575743825135</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -8407,8 +9534,20 @@
       <c r="Q188">
         <v>200.11223547731799</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188">
+        <v>130571.125803125</v>
+      </c>
+      <c r="S188" s="12">
+        <v>88.898224209999995</v>
+      </c>
+      <c r="T188">
+        <v>126.83070576604192</v>
+      </c>
+      <c r="U188">
+        <v>86.348149770203491</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -8460,8 +9599,20 @@
       <c r="Q189">
         <v>201.77082293197401</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R189">
+        <v>132189.235365336</v>
+      </c>
+      <c r="S189" s="12">
+        <v>95.55943259</v>
+      </c>
+      <c r="T189">
+        <v>135.89817162905305</v>
+      </c>
+      <c r="U189">
+        <v>93.193353313266371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -8513,8 +9664,20 @@
       <c r="Q190">
         <v>204.55647407394301</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R190">
+        <v>138282.524437174</v>
+      </c>
+      <c r="S190" s="12">
+        <v>95.268035310000002</v>
+      </c>
+      <c r="T190">
+        <v>140.8471781564223</v>
+      </c>
+      <c r="U190">
+        <v>95.627883250117449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -8566,8 +9729,20 @@
       <c r="Q191">
         <v>205.83259537586</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R191">
+        <v>143197.37155076399</v>
+      </c>
+      <c r="S191" s="12">
+        <v>99.62426585</v>
+      </c>
+      <c r="T191">
+        <v>140.4832262160426</v>
+      </c>
+      <c r="U191">
+        <v>96.141972745122416</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -8619,8 +9794,20 @@
       <c r="Q192">
         <v>209.18872897430799</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R192">
+        <v>144854.08938356399</v>
+      </c>
+      <c r="S192" s="12">
+        <v>97.288346340000004</v>
+      </c>
+      <c r="T192">
+        <v>166.23731135315876</v>
+      </c>
+      <c r="U192">
+        <v>93.7547441417653</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -8672,8 +9859,20 @@
       <c r="Q193">
         <v>206.92821415748401</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R193">
+        <v>140454.241199854</v>
+      </c>
+      <c r="S193" s="12">
+        <v>96.602702230000006</v>
+      </c>
+      <c r="T193">
+        <v>160.94858950194811</v>
+      </c>
+      <c r="U193">
+        <v>94.957978277657659</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -8725,8 +9924,20 @@
       <c r="Q194">
         <v>205.31378431066699</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R194">
+        <v>137879.97999047401</v>
+      </c>
+      <c r="S194" s="12">
+        <v>98.710041309999994</v>
+      </c>
+      <c r="T194">
+        <v>152.95480142889789</v>
+      </c>
+      <c r="U194">
+        <v>95.720271081452239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -8778,8 +9989,20 @@
       <c r="Q195">
         <v>205.22771661674301</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R195">
+        <v>138630.867001387</v>
+      </c>
+      <c r="S195" s="12">
+        <v>98.728001590000005</v>
+      </c>
+      <c r="T195">
+        <v>169.04335778949681</v>
+      </c>
+      <c r="U195">
+        <v>95.752928653778966</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -8831,8 +10054,20 @@
       <c r="Q196">
         <v>207.536886799808</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R196">
+        <v>141170.61056430801</v>
+      </c>
+      <c r="S196" s="12">
+        <v>97.746014259999995</v>
+      </c>
+      <c r="T196">
+        <v>155.19022263082979</v>
+      </c>
+      <c r="U196">
+        <v>92.494735507634061</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -8884,8 +10119,20 @@
       <c r="Q197">
         <v>210.697346951009</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R197">
+        <v>144480.80941863501</v>
+      </c>
+      <c r="S197" s="12">
+        <v>98.306509640000002</v>
+      </c>
+      <c r="T197">
+        <v>156.80980444283367</v>
+      </c>
+      <c r="U197">
+        <v>91.38760498042258</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -8937,8 +10184,20 @@
       <c r="Q198">
         <v>212.08989759324899</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R198">
+        <v>148482.63194858501</v>
+      </c>
+      <c r="S198" s="12">
+        <v>101.4686672</v>
+      </c>
+      <c r="T198">
+        <v>152.07644419509373</v>
+      </c>
+      <c r="U198">
+        <v>93.682438581837005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -8990,8 +10249,20 @@
       <c r="Q199">
         <v>214.68536975036099</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199">
+        <v>150304.46038311801</v>
+      </c>
+      <c r="S199" s="12">
+        <v>103.9407063</v>
+      </c>
+      <c r="T199">
+        <v>154.88903836281236</v>
+      </c>
+      <c r="U199">
+        <v>95.439704421461997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -9043,8 +10314,20 @@
       <c r="Q200">
         <v>217.326879683025</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200">
+        <v>155577.609476057</v>
+      </c>
+      <c r="S200" s="12">
+        <v>110.6629298</v>
+      </c>
+      <c r="T200">
+        <v>161.62850247035803</v>
+      </c>
+      <c r="U200">
+        <v>102.45682742845433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -9096,8 +10379,20 @@
       <c r="Q201">
         <v>221.440942571856</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R201">
+        <v>157455.57952982699</v>
+      </c>
+      <c r="S201" s="12">
+        <v>114.2611465</v>
+      </c>
+      <c r="T201">
+        <v>169.45222015984609</v>
+      </c>
+      <c r="U201">
+        <v>107.13346659521312</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -9149,8 +10444,20 @@
       <c r="Q202">
         <v>222.95574057277801</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R202">
+        <v>164048.88196009901</v>
+      </c>
+      <c r="S202" s="12">
+        <v>113.44304289999999</v>
+      </c>
+      <c r="T202">
+        <v>175.21650342271397</v>
+      </c>
+      <c r="U202">
+        <v>103.8195700632121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -9202,8 +10509,20 @@
       <c r="Q203">
         <v>223.794049512421</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R203">
+        <v>168580.11520490199</v>
+      </c>
+      <c r="S203" s="12">
+        <v>118.94889499999999</v>
+      </c>
+      <c r="T203">
+        <v>178.56654166141973</v>
+      </c>
+      <c r="U203">
+        <v>109.69017525336004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -9255,8 +10574,20 @@
       <c r="Q204">
         <v>221.89192018105101</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R204">
+        <v>166070.02875406799</v>
+      </c>
+      <c r="S204" s="12">
+        <v>115.8077419</v>
+      </c>
+      <c r="T204">
+        <v>178.15051614574321</v>
+      </c>
+      <c r="U204">
+        <v>106.86375693681187</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -9308,8 +10639,20 @@
       <c r="Q205">
         <v>225.97693326137599</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R205">
+        <v>165958.845402854</v>
+      </c>
+      <c r="S205" s="12">
+        <v>114.58985920000001</v>
+      </c>
+      <c r="T205">
+        <v>176.70274857974178</v>
+      </c>
+      <c r="U205">
+        <v>106.45092911531141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -9361,8 +10704,20 @@
       <c r="Q206">
         <v>229.22023723694599</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R206">
+        <v>174262.63804041399</v>
+      </c>
+      <c r="S206" s="12">
+        <v>113.5048807</v>
+      </c>
+      <c r="T206">
+        <v>173.44816548060132</v>
+      </c>
+      <c r="U206">
+        <v>106.47063279219287</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -9414,8 +10769,20 @@
       <c r="Q207">
         <v>232.79965406992</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R207">
+        <v>186154.41527588599</v>
+      </c>
+      <c r="S207" s="12">
+        <v>115.3103622</v>
+      </c>
+      <c r="T207">
+        <v>175.79486853973191</v>
+      </c>
+      <c r="U207">
+        <v>105.75013664752642</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -9467,8 +10834,20 @@
       <c r="Q208">
         <v>232.41012148186601</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R208">
+        <v>192910.30615949299</v>
+      </c>
+      <c r="S208" s="12">
+        <v>116.8253931</v>
+      </c>
+      <c r="T208">
+        <v>180.77375165101</v>
+      </c>
+      <c r="U208">
+        <v>111.45920306148349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -9520,8 +10899,20 @@
       <c r="Q209">
         <v>232.67010967466501</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R209">
+        <v>190981.56714183299</v>
+      </c>
+      <c r="S209" s="12">
+        <v>120.3098158</v>
+      </c>
+      <c r="T209">
+        <v>186.97754740137765</v>
+      </c>
+      <c r="U209">
+        <v>112.38653023365001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -9573,8 +10964,20 @@
       <c r="Q210">
         <v>236.14516045858699</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R210">
+        <v>204232.66740610899</v>
+      </c>
+      <c r="S210" s="12">
+        <v>122.43587100000001</v>
+      </c>
+      <c r="T210">
+        <v>198.66393859693127</v>
+      </c>
+      <c r="U210">
+        <v>116.16884926025816</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -9626,8 +11029,20 @@
       <c r="Q211">
         <v>233.82166292712</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R211">
+        <v>192329.32732756401</v>
+      </c>
+      <c r="S211" s="12">
+        <v>118.7073754</v>
+      </c>
+      <c r="T211">
+        <v>202.63229039438934</v>
+      </c>
+      <c r="U211">
+        <v>117.8882356058681</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -9679,8 +11094,20 @@
       <c r="Q212">
         <v>230.79728954248401</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R212">
+        <v>203143.65300756</v>
+      </c>
+      <c r="S212" s="12">
+        <v>119.2285839</v>
+      </c>
+      <c r="T212">
+        <v>211.29266277556695</v>
+      </c>
+      <c r="U212">
+        <v>121.99239888553942</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -9732,8 +11159,20 @@
       <c r="Q213">
         <v>233.39340342468401</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R213">
+        <v>206915.847770472</v>
+      </c>
+      <c r="S213" s="12">
+        <v>122.6629508</v>
+      </c>
+      <c r="T213">
+        <v>239.86671339717486</v>
+      </c>
+      <c r="U213">
+        <v>124.63188352574295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -9785,8 +11224,20 @@
       <c r="Q214">
         <v>234.49092706363001</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R214">
+        <v>214316.44505923</v>
+      </c>
+      <c r="S214" s="12">
+        <v>129.97393170000001</v>
+      </c>
+      <c r="T214">
+        <v>247.51220561514606</v>
+      </c>
+      <c r="U214">
+        <v>132.16667802913958</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -9838,8 +11289,20 @@
       <c r="Q215">
         <v>232.383370131123</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R215">
+        <v>217001.56039709301</v>
+      </c>
+      <c r="S215" s="12">
+        <v>129.11970489999999</v>
+      </c>
+      <c r="T215">
+        <v>231.39567351482472</v>
+      </c>
+      <c r="U215">
+        <v>130.41314276048072</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -9891,8 +11354,20 @@
       <c r="Q216">
         <v>229.84713680865801</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R216">
+        <v>214598.34644333599</v>
+      </c>
+      <c r="S216" s="12">
+        <v>132.82249289999999</v>
+      </c>
+      <c r="T216">
+        <v>241.77537254441589</v>
+      </c>
+      <c r="U216">
+        <v>133.47668518586545</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -9944,8 +11419,20 @@
       <c r="Q217">
         <v>225.89734700731799</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R217">
+        <v>223910.66974487301</v>
+      </c>
+      <c r="S217" s="12">
+        <v>140.7026626</v>
+      </c>
+      <c r="T217">
+        <v>242.97594049982305</v>
+      </c>
+      <c r="U217">
+        <v>141.65656517457688</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -9997,8 +11484,20 @@
       <c r="Q218">
         <v>225.61316843000699</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R218">
+        <v>205252.60221784801</v>
+      </c>
+      <c r="S218" s="12">
+        <v>137.98282019999999</v>
+      </c>
+      <c r="T218">
+        <v>223.48524274895058</v>
+      </c>
+      <c r="U218">
+        <v>137.25516400132921</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -10050,8 +11549,20 @@
       <c r="Q219">
         <v>226.28986137219701</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R219">
+        <v>209018.97069196199</v>
+      </c>
+      <c r="S219" s="12">
+        <v>139.36189580000001</v>
+      </c>
+      <c r="T219">
+        <v>216.48588057261026</v>
+      </c>
+      <c r="U219">
+        <v>137.02948576611792</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -10103,8 +11614,20 @@
       <c r="Q220">
         <v>226.56435599454099</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R220">
+        <v>210640.08542099499</v>
+      </c>
+      <c r="S220" s="12">
+        <v>142.55415980000001</v>
+      </c>
+      <c r="T220">
+        <v>202.17400948784024</v>
+      </c>
+      <c r="U220">
+        <v>141.31913867027959</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -10156,8 +11679,20 @@
       <c r="Q221">
         <v>229.55066629372101</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R221">
+        <v>215733.57465767299</v>
+      </c>
+      <c r="S221" s="12">
+        <v>146.00622720000001</v>
+      </c>
+      <c r="T221">
+        <v>207.55192768465233</v>
+      </c>
+      <c r="U221">
+        <v>145.10160703554189</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -10209,8 +11744,20 @@
       <c r="Q222">
         <v>232.566842877331</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R222">
+        <v>218124.39760172699</v>
+      </c>
+      <c r="S222" s="12">
+        <v>145.27396870000001</v>
+      </c>
+      <c r="T222">
+        <v>203.00974048983537</v>
+      </c>
+      <c r="U222">
+        <v>147.2304300706204</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -10262,8 +11809,20 @@
       <c r="Q223">
         <v>232.64435370613501</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R223">
+        <v>232426.103633744</v>
+      </c>
+      <c r="S223" s="12">
+        <v>152.52714649999999</v>
+      </c>
+      <c r="T223">
+        <v>201.70654856179127</v>
+      </c>
+      <c r="U223">
+        <v>151.16672362855076</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -10315,8 +11874,20 @@
       <c r="Q224">
         <v>234.754963206502</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R224">
+        <v>234013.10519184</v>
+      </c>
+      <c r="S224" s="12">
+        <v>156.23952310000001</v>
+      </c>
+      <c r="T224">
+        <v>200.00791734023781</v>
+      </c>
+      <c r="U224">
+        <v>155.99799713565974</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -10368,8 +11939,20 @@
       <c r="Q225">
         <v>234.34648343956201</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R225">
+        <v>244692.48160031499</v>
+      </c>
+      <c r="S225" s="12">
+        <v>160.2072938</v>
+      </c>
+      <c r="T225">
+        <v>201.17369336300516</v>
+      </c>
+      <c r="U225">
+        <v>158.78119286001706</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -10421,8 +12004,20 @@
       <c r="Q226">
         <v>230.765890484267</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R226">
+        <v>251073.52365650301</v>
+      </c>
+      <c r="S226" s="12">
+        <v>159.95726780000001</v>
+      </c>
+      <c r="T226">
+        <v>205.08370710345812</v>
+      </c>
+      <c r="U226">
+        <v>161.75176989213782</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -10474,8 +12069,20 @@
       <c r="Q227">
         <v>231.05888449499199</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R227">
+        <v>250385.253081009</v>
+      </c>
+      <c r="S227" s="12">
+        <v>159.7306529</v>
+      </c>
+      <c r="T227">
+        <v>213.17609222609329</v>
+      </c>
+      <c r="U227">
+        <v>158.58745583756902</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -10527,8 +12134,20 @@
       <c r="Q228">
         <v>233.652206618463</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R228">
+        <v>259768.89466801001</v>
+      </c>
+      <c r="S228" s="12">
+        <v>165.03012910000001</v>
+      </c>
+      <c r="T228">
+        <v>211.2120617493386</v>
+      </c>
+      <c r="U228">
+        <v>162.68029132113318</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -10580,8 +12199,20 @@
       <c r="Q229">
         <v>230.846342599569</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R229">
+        <v>267181.68387742899</v>
+      </c>
+      <c r="S229" s="12">
+        <v>172.34361380000001</v>
+      </c>
+      <c r="T229">
+        <v>207.59618629911097</v>
+      </c>
+      <c r="U229">
+        <v>174.20632564712682</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -10633,8 +12264,20 @@
       <c r="Q230">
         <v>229.47532476406599</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R230">
+        <v>275542.310221333</v>
+      </c>
+      <c r="S230" s="12">
+        <v>175.27525660000001</v>
+      </c>
+      <c r="T230">
+        <v>202.64807502271401</v>
+      </c>
+      <c r="U230">
+        <v>172.1898248464494</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -10686,8 +12329,20 @@
       <c r="Q231">
         <v>225.463538789973</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R231">
+        <v>280496.037546454</v>
+      </c>
+      <c r="S231" s="12">
+        <v>177.55026230000001</v>
+      </c>
+      <c r="T231">
+        <v>203.97862272633839</v>
+      </c>
+      <c r="U231">
+        <v>167.86156783233102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -10739,8 +12394,20 @@
       <c r="Q232">
         <v>226.93146271472099</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R232">
+        <v>277737.81489727698</v>
+      </c>
+      <c r="S232" s="12">
+        <v>173.10383859999999</v>
+      </c>
+      <c r="T232">
+        <v>203.92646269732634</v>
+      </c>
+      <c r="U232">
+        <v>165.09060722349255</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -10792,8 +12459,20 @@
       <c r="Q233">
         <v>231.09152385272199</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R233">
+        <v>272865.43791703001</v>
+      </c>
+      <c r="S233" s="12">
+        <v>171.64750319999999</v>
+      </c>
+      <c r="T233">
+        <v>191.50319463541047</v>
+      </c>
+      <c r="U233">
+        <v>164.19647460491765</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -10845,8 +12524,20 @@
       <c r="Q234">
         <v>232.62183578638599</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R234">
+        <v>302134.74375862698</v>
+      </c>
+      <c r="S234" s="12">
+        <v>177.84724209999999</v>
+      </c>
+      <c r="T234">
+        <v>190.3406913407845</v>
+      </c>
+      <c r="U234">
+        <v>170.46876467284935</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -10898,8 +12589,20 @@
       <c r="Q235">
         <v>232.82591677715399</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R235">
+        <v>319610.91775283701</v>
+      </c>
+      <c r="S235" s="12">
+        <v>188.54833300000001</v>
+      </c>
+      <c r="T235">
+        <v>197.2235832994628</v>
+      </c>
+      <c r="U235">
+        <v>173.74423025263337</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -10951,8 +12654,20 @@
       <c r="Q236">
         <v>236.547406537673</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R236">
+        <v>292005.37878420099</v>
+      </c>
+      <c r="S236" s="12">
+        <v>178.41033820000001</v>
+      </c>
+      <c r="T236">
+        <v>188.93199175368062</v>
+      </c>
+      <c r="U236">
+        <v>173.97265417468458</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -11004,8 +12719,20 @@
       <c r="Q237">
         <v>235.463510348635</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R237">
+        <v>286175.75641683501</v>
+      </c>
+      <c r="S237" s="12">
+        <v>173.6034942</v>
+      </c>
+      <c r="T237">
+        <v>177.62858141625063</v>
+      </c>
+      <c r="U237">
+        <v>167.18155732441815</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -11057,8 +12784,20 @@
       <c r="Q238">
         <v>239.37187477213999</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R238">
+        <v>254565.201542072</v>
+      </c>
+      <c r="S238" s="12">
+        <v>158.09974439999999</v>
+      </c>
+      <c r="T238">
+        <v>168.90414341943327</v>
+      </c>
+      <c r="U238">
+        <v>157.7947749249181</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -11110,8 +12849,20 @@
       <c r="Q239">
         <v>241.29203680858899</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R239">
+        <v>254053.51378232401</v>
+      </c>
+      <c r="S239" s="12">
+        <v>158.74786879999999</v>
+      </c>
+      <c r="T239">
+        <v>170.75562935972721</v>
+      </c>
+      <c r="U239">
+        <v>161.40127777115734</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -11163,8 +12914,20 @@
       <c r="Q240">
         <v>243.24672031621</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R240">
+        <v>231742.57480575499</v>
+      </c>
+      <c r="S240" s="12">
+        <v>155.33563570000001</v>
+      </c>
+      <c r="T240">
+        <v>170.81092902366112</v>
+      </c>
+      <c r="U240">
+        <v>163.67059120167175</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -11216,8 +12979,20 @@
       <c r="Q241">
         <v>240.15046743813701</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R241">
+        <v>254842.178358884</v>
+      </c>
+      <c r="S241" s="12">
+        <v>165.3888977</v>
+      </c>
+      <c r="T241">
+        <v>172.93186844338152</v>
+      </c>
+      <c r="U241">
+        <v>163.80027544576018</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -11269,8 +13044,20 @@
       <c r="Q242">
         <v>238.30196307995001</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R242">
+        <v>259099.33364067701</v>
+      </c>
+      <c r="S242" s="12">
+        <v>164.3985083</v>
+      </c>
+      <c r="T242">
+        <v>178.26055807465755</v>
+      </c>
+      <c r="U242">
+        <v>163.319778755838</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -11322,8 +13109,20 @@
       <c r="Q243">
         <v>232.965167424887</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R243">
+        <v>235892.05756873</v>
+      </c>
+      <c r="S243" s="12">
+        <v>154.09643149999999</v>
+      </c>
+      <c r="T243">
+        <v>167.31481585756796</v>
+      </c>
+      <c r="U243">
+        <v>154.51665977158427</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -11375,8 +13174,20 @@
       <c r="Q244">
         <v>234.29009891862901</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R244">
+        <v>226222.44973872701</v>
+      </c>
+      <c r="S244" s="12">
+        <v>147.77840449999999</v>
+      </c>
+      <c r="T244">
+        <v>161.83862822524969</v>
+      </c>
+      <c r="U244">
+        <v>153.69339694008178</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -11428,8 +13239,20 @@
       <c r="Q245">
         <v>240.12794128706699</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R245">
+        <v>227702.530086382</v>
+      </c>
+      <c r="S245" s="12">
+        <v>143.01281220000001</v>
+      </c>
+      <c r="T245">
+        <v>154.68826212220438</v>
+      </c>
+      <c r="U245">
+        <v>149.21234714249161</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -11481,8 +13304,20 @@
       <c r="Q246">
         <v>241.84335553515899</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R246">
+        <v>194478.53626881301</v>
+      </c>
+      <c r="S246" s="12">
+        <v>121.77907020000001</v>
+      </c>
+      <c r="T246">
+        <v>139.58347965055864</v>
+      </c>
+      <c r="U246">
+        <v>134.0698295698306</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -11534,8 +13369,20 @@
       <c r="Q247">
         <v>245.247405316162</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R247">
+        <v>163506.77230679401</v>
+      </c>
+      <c r="S247" s="12">
+        <v>98.689029820000002</v>
+      </c>
+      <c r="T247">
+        <v>124.85021381937612</v>
+      </c>
+      <c r="U247">
+        <v>117.62373248740953</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -11587,8 +13434,20 @@
       <c r="Q248">
         <v>250.08165197212699</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R248">
+        <v>154908.83349081501</v>
+      </c>
+      <c r="S248" s="12">
+        <v>92.335069930000003</v>
+      </c>
+      <c r="T248">
+        <v>129.94917431582977</v>
+      </c>
+      <c r="U248">
+        <v>106.93211357284633</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -11640,8 +13499,20 @@
       <c r="Q249">
         <v>258.36403946373503</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R249">
+        <v>149839.14076645701</v>
+      </c>
+      <c r="S249" s="12">
+        <v>89.681044900000003</v>
+      </c>
+      <c r="T249">
+        <v>140.06852821991458</v>
+      </c>
+      <c r="U249">
+        <v>116.2102286895354</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -11693,8 +13564,20 @@
       <c r="Q250">
         <v>257.09941260530701</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R250">
+        <v>147658.80083593601</v>
+      </c>
+      <c r="S250" s="12">
+        <v>84.103015170000006</v>
+      </c>
+      <c r="T250">
+        <v>132.72718813500111</v>
+      </c>
+      <c r="U250">
+        <v>102.08509883963782</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -11746,8 +13629,20 @@
       <c r="Q251">
         <v>257.27511214500498</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R251">
+        <v>142210.851929278</v>
+      </c>
+      <c r="S251" s="12">
+        <v>77.217540749999998</v>
+      </c>
+      <c r="T251">
+        <v>115.27743281607847</v>
+      </c>
+      <c r="U251">
+        <v>90.985458356206351</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -11799,8 +13694,20 @@
       <c r="Q252">
         <v>259.772973592835</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R252">
+        <v>153219.22098262401</v>
+      </c>
+      <c r="S252" s="12">
+        <v>80.091915970000002</v>
+      </c>
+      <c r="T252">
+        <v>119.34560111552594</v>
+      </c>
+      <c r="U252">
+        <v>98.32755890047207</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -11852,8 +13759,20 @@
       <c r="Q253">
         <v>260.50933600206503</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R253">
+        <v>173820.19764415699</v>
+      </c>
+      <c r="S253" s="12">
+        <v>90.188807569999994</v>
+      </c>
+      <c r="T253">
+        <v>125.45148007054168</v>
+      </c>
+      <c r="U253">
+        <v>105.46177705230197</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -11905,8 +13824,20 @@
       <c r="Q254">
         <v>258.67263935133298</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R254">
+        <v>185647.42347506899</v>
+      </c>
+      <c r="S254" s="12">
+        <v>102.68466069999999</v>
+      </c>
+      <c r="T254">
+        <v>140.80348490375937</v>
+      </c>
+      <c r="U254">
+        <v>115.44988145036407</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -11958,8 +13889,20 @@
       <c r="Q255">
         <v>256.87352092883799</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R255">
+        <v>190332.32464631301</v>
+      </c>
+      <c r="S255" s="12">
+        <v>101.3774458</v>
+      </c>
+      <c r="T255">
+        <v>149.76072227983909</v>
+      </c>
+      <c r="U255">
+        <v>114.35359200011079</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -12011,8 +13954,20 @@
       <c r="Q256">
         <v>261.26390163867097</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R256">
+        <v>212411.95928041599</v>
+      </c>
+      <c r="S256" s="12">
+        <v>110.77228150000001</v>
+      </c>
+      <c r="T256">
+        <v>153.50957150694856</v>
+      </c>
+      <c r="U256">
+        <v>127.06359740426771</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -12064,8 +14019,20 @@
       <c r="Q257">
         <v>265.05463124531502</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R257">
+        <v>217795.76058985799</v>
+      </c>
+      <c r="S257" s="12">
+        <v>116.8894655</v>
+      </c>
+      <c r="T257">
+        <v>162.11492178612011</v>
+      </c>
+      <c r="U257">
+        <v>135.33645020567337</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -12117,8 +14084,20 @@
       <c r="Q258">
         <v>266.17988152646899</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R258">
+        <v>234017.944269739</v>
+      </c>
+      <c r="S258" s="12">
+        <v>120.1472399</v>
+      </c>
+      <c r="T258">
+        <v>161.47488104366926</v>
+      </c>
+      <c r="U258">
+        <v>140.25600581689847</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -12170,8 +14149,20 @@
       <c r="Q259">
         <v>267.52414185342002</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R259">
+        <v>232687.62122556899</v>
+      </c>
+      <c r="S259" s="12">
+        <v>121.69332420000001</v>
+      </c>
+      <c r="T259">
+        <v>155.56460703203143</v>
+      </c>
+      <c r="U259">
+        <v>140.91966953295747</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -12223,8 +14214,20 @@
       <c r="Q260">
         <v>268.44830269857499</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R260">
+        <v>234664.09991775799</v>
+      </c>
+      <c r="S260" s="12">
+        <v>125.2186904</v>
+      </c>
+      <c r="T260">
+        <v>150.0038471903282</v>
+      </c>
+      <c r="U260">
+        <v>143.2732992463942</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -12276,8 +14279,20 @@
       <c r="Q261">
         <v>270.42275115026899</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R261">
+        <v>250142.937945285</v>
+      </c>
+      <c r="S261" s="12">
+        <v>128.5151577</v>
+      </c>
+      <c r="T261">
+        <v>147.20286853427169</v>
+      </c>
+      <c r="U261">
+        <v>145.62437156365397</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -12329,8 +14344,20 @@
       <c r="Q262">
         <v>269.335957043002</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R262">
+        <v>240501.37717946499</v>
+      </c>
+      <c r="S262" s="12">
+        <v>122.3308955</v>
+      </c>
+      <c r="T262">
+        <v>150.37797791812855</v>
+      </c>
+      <c r="U262">
+        <v>140.75915077008551</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -12382,8 +14409,20 @@
       <c r="Q263">
         <v>270.99539703605097</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R263">
+        <v>255252.83242674</v>
+      </c>
+      <c r="S263" s="12">
+        <v>120.550084</v>
+      </c>
+      <c r="T263">
+        <v>153.23313916511421</v>
+      </c>
+      <c r="U263">
+        <v>143.40932714859309</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -12435,8 +14474,20 @@
       <c r="Q264">
         <v>273.55825985970398</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R264">
+        <v>275630.16070779198</v>
+      </c>
+      <c r="S264" s="12">
+        <v>127.7419822</v>
+      </c>
+      <c r="T264">
+        <v>160.20543791593764</v>
+      </c>
+      <c r="U264">
+        <v>151.4641975866825</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -12488,8 +14539,20 @@
       <c r="Q265">
         <v>274.35965832833199</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R265">
+        <v>278633.58622426598</v>
+      </c>
+      <c r="S265" s="12">
+        <v>126.305969</v>
+      </c>
+      <c r="T265">
+        <v>164.5443007606448</v>
+      </c>
+      <c r="U265">
+        <v>143.72361125104635</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -12541,8 +14604,20 @@
       <c r="Q266">
         <v>278.67170151979099</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R266">
+        <v>259806.32482141501</v>
+      </c>
+      <c r="S266" s="12">
+        <v>112.5572501</v>
+      </c>
+      <c r="T266">
+        <v>153.13005789782559</v>
+      </c>
+      <c r="U266">
+        <v>128.17698135755521</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -12594,8 +14669,20 @@
       <c r="Q267">
         <v>278.622270015585</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R267">
+        <v>259630.094379883</v>
+      </c>
+      <c r="S267" s="12">
+        <v>110.04801740000001</v>
+      </c>
+      <c r="T267">
+        <v>153.80648086625712</v>
+      </c>
+      <c r="U267">
+        <v>133.64791844297696</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -12647,8 +14734,20 @@
       <c r="Q268">
         <v>280.23634412890198</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R268">
+        <v>269629.09715440997</v>
+      </c>
+      <c r="S268" s="12">
+        <v>123.4035423</v>
+      </c>
+      <c r="T268">
+        <v>155.67106681950773</v>
+      </c>
+      <c r="U268">
+        <v>140.07662688493252</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -12700,8 +14799,20 @@
       <c r="Q269">
         <v>287.07587514081399</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R269">
+        <v>271619.41862554901</v>
+      </c>
+      <c r="S269" s="12">
+        <v>120.95393869999999</v>
+      </c>
+      <c r="T269">
+        <v>152.37589256351305</v>
+      </c>
+      <c r="U269">
+        <v>143.56860010316802</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -12753,8 +14864,20 @@
       <c r="Q270">
         <v>287.62064184801301</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R270">
+        <v>285058.30648714799</v>
+      </c>
+      <c r="S270" s="12">
+        <v>131.80312280000001</v>
+      </c>
+      <c r="T270">
+        <v>158.60690758359476</v>
+      </c>
+      <c r="U270">
+        <v>151.42474994631812</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -12806,8 +14929,20 @@
       <c r="Q271">
         <v>288.328030030945</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R271">
+        <v>288687.30227962701</v>
+      </c>
+      <c r="S271" s="12">
+        <v>137.00247060000001</v>
+      </c>
+      <c r="T271">
+        <v>157.30390107601886</v>
+      </c>
+      <c r="U271">
+        <v>154.87758148520646</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -12859,8 +14994,20 @@
       <c r="Q272">
         <v>281.854873382042</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R272">
+        <v>301339.28206866299</v>
+      </c>
+      <c r="S272" s="12">
+        <v>130.26109460000001</v>
+      </c>
+      <c r="T272">
+        <v>160.36799023892053</v>
+      </c>
+      <c r="U272">
+        <v>149.29004366496892</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -12912,8 +15059,20 @@
       <c r="Q273">
         <v>273.67916550183099</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R273">
+        <v>315298.86919954303</v>
+      </c>
+      <c r="S273" s="12">
+        <v>139.7685218</v>
+      </c>
+      <c r="T273">
+        <v>176.54881432710968</v>
+      </c>
+      <c r="U273">
+        <v>162.79832282973754</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -12965,8 +15124,20 @@
       <c r="Q274">
         <v>272.648318715073</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R274">
+        <v>304162.71232518501</v>
+      </c>
+      <c r="S274" s="12">
+        <v>142.5268489</v>
+      </c>
+      <c r="T274">
+        <v>178.64837692818801</v>
+      </c>
+      <c r="U274">
+        <v>162.27885218935648</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -13018,8 +15189,20 @@
       <c r="Q275">
         <v>271.77728685920403</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R275">
+        <v>305809.29800658202</v>
+      </c>
+      <c r="S275" s="12">
+        <v>148.66726499999999</v>
+      </c>
+      <c r="T275">
+        <v>185.83451780610957</v>
+      </c>
+      <c r="U275">
+        <v>168.02927317297539</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -13071,8 +15254,20 @@
       <c r="Q276">
         <v>271.86422024025802</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R276">
+        <v>304736.250980107</v>
+      </c>
+      <c r="S276" s="12">
+        <v>145.04699289999999</v>
+      </c>
+      <c r="T276">
+        <v>174.36742669720303</v>
+      </c>
+      <c r="U276">
+        <v>165.21436664535665</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -13124,8 +15319,20 @@
       <c r="Q277">
         <v>271.43600127681799</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R277">
+        <v>306194.80332702497</v>
+      </c>
+      <c r="S277" s="12">
+        <v>155.3153532</v>
+      </c>
+      <c r="T277">
+        <v>174.52551982855772</v>
+      </c>
+      <c r="U277">
+        <v>180.91891832016796</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -13177,8 +15384,20 @@
       <c r="Q278">
         <v>275.749430655151</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R278">
+        <v>305544.76975660201</v>
+      </c>
+      <c r="S278" s="12">
+        <v>151.9276399</v>
+      </c>
+      <c r="T278">
+        <v>171.93141467513141</v>
+      </c>
+      <c r="U278">
+        <v>184.70763941027965</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -13230,8 +15449,20 @@
       <c r="Q279">
         <v>277.28533096027599</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R279">
+        <v>298830.94284080598</v>
+      </c>
+      <c r="S279" s="12">
+        <v>147.5534979</v>
+      </c>
+      <c r="T279">
+        <v>178.33554643468861</v>
+      </c>
+      <c r="U279">
+        <v>176.65512054703817</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -13283,8 +15514,20 @@
       <c r="Q280">
         <v>274.85654905918199</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R280">
+        <v>301824.51520497899</v>
+      </c>
+      <c r="S280" s="12">
+        <v>147.65319919999999</v>
+      </c>
+      <c r="T280">
+        <v>185.7432044820336</v>
+      </c>
+      <c r="U280">
+        <v>176.20207176791047</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -13336,8 +15579,20 @@
       <c r="Q281">
         <v>284.42852945966001</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R281">
+        <v>281634.24086012499</v>
+      </c>
+      <c r="S281" s="12">
+        <v>136.8571537</v>
+      </c>
+      <c r="T281">
+        <v>178.15095296451497</v>
+      </c>
+      <c r="U281">
+        <v>164.51413199205379</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -13389,8 +15644,20 @@
       <c r="Q282">
         <v>287.56630508672703</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R282">
+        <v>256699.94425423001</v>
+      </c>
+      <c r="S282" s="12">
+        <v>124.8305865</v>
+      </c>
+      <c r="T282">
+        <v>178.31259069819453</v>
+      </c>
+      <c r="U282">
+        <v>145.75467856485952</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -13442,8 +15709,20 @@
       <c r="Q283">
         <v>283.64905252595298</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R283">
+        <v>284880.17397983902</v>
+      </c>
+      <c r="S283" s="12">
+        <v>139.8795284</v>
+      </c>
+      <c r="T283">
+        <v>171.73537746317726</v>
+      </c>
+      <c r="U283">
+        <v>158.02664214121515</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -13495,8 +15774,20 @@
       <c r="Q284">
         <v>273.90795742439798</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R284">
+        <v>276400.02473869402</v>
+      </c>
+      <c r="S284" s="12">
+        <v>136.09002079999999</v>
+      </c>
+      <c r="T284">
+        <v>167.08299363279764</v>
+      </c>
+      <c r="U284">
+        <v>149.21098330191691</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -13548,8 +15839,20 @@
       <c r="Q285">
         <v>279.472326138114</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R285">
+        <v>283974.501409569</v>
+      </c>
+      <c r="S285" s="12">
+        <v>136.19016110000001</v>
+      </c>
+      <c r="T285">
+        <v>169.68779970858273</v>
+      </c>
+      <c r="U285">
+        <v>151.76962390731813</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -13601,8 +15904,20 @@
       <c r="Q286">
         <v>282.73384909198899</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R286">
+        <v>305787.942044091</v>
+      </c>
+      <c r="S286" s="12">
+        <v>140.9985543</v>
+      </c>
+      <c r="T286">
+        <v>176.65345517391927</v>
+      </c>
+      <c r="U286">
+        <v>155.63464671225918</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -13654,8 +15969,20 @@
       <c r="Q287">
         <v>290.65407332456999</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R287">
+        <v>313003.07543554</v>
+      </c>
+      <c r="S287" s="12">
+        <v>148.3458832</v>
+      </c>
+      <c r="T287">
+        <v>178.57298132565623</v>
+      </c>
+      <c r="U287">
+        <v>163.65022862057089</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -13707,8 +16034,20 @@
       <c r="Q288">
         <v>294.64447740975402</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R288">
+        <v>306097.33234100603</v>
+      </c>
+      <c r="S288" s="12">
+        <v>146.57705730000001</v>
+      </c>
+      <c r="T288">
+        <v>183.34141675570831</v>
+      </c>
+      <c r="U288">
+        <v>167.02216427912603</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -13760,8 +16099,20 @@
       <c r="Q289">
         <v>291.07909560896599</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R289">
+        <v>314161.18395177199</v>
+      </c>
+      <c r="S289" s="12">
+        <v>148.45856269999999</v>
+      </c>
+      <c r="T289">
+        <v>180.68539481648548</v>
+      </c>
+      <c r="U289">
+        <v>164.88891745399698</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -13813,8 +16164,20 @@
       <c r="Q290">
         <v>293.74101219740601</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R290">
+        <v>295067.34538340301</v>
+      </c>
+      <c r="S290" s="12">
+        <v>131.42873230000001</v>
+      </c>
+      <c r="T290">
+        <v>165.68194974968804</v>
+      </c>
+      <c r="U290">
+        <v>147.56768852934641</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -13866,8 +16229,20 @@
       <c r="Q291">
         <v>293.85057314433499</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R291">
+        <v>308839.851873543</v>
+      </c>
+      <c r="S291" s="12">
+        <v>140.75756390000001</v>
+      </c>
+      <c r="T291">
+        <v>172.7501222580664</v>
+      </c>
+      <c r="U291">
+        <v>156.87545899567303</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -13919,8 +16294,20 @@
       <c r="Q292">
         <v>295.85394506262998</v>
       </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R292">
+        <v>337549.98643192003</v>
+      </c>
+      <c r="S292" s="12">
+        <v>142.4049885</v>
+      </c>
+      <c r="T292">
+        <v>170.04660879045451</v>
+      </c>
+      <c r="U292">
+        <v>160.31675960893077</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -13972,8 +16359,20 @@
       <c r="Q293">
         <v>298.81482220072598</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R293">
+        <v>329541.81452791102</v>
+      </c>
+      <c r="S293" s="12">
+        <v>147.20793850000001</v>
+      </c>
+      <c r="T293">
+        <v>169.07735002527065</v>
+      </c>
+      <c r="U293">
+        <v>163.9515562714947</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -14025,8 +16424,20 @@
       <c r="Q294">
         <v>303.278437897743</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R294">
+        <v>333773.05923651502</v>
+      </c>
+      <c r="S294" s="12">
+        <v>150.67900839999999</v>
+      </c>
+      <c r="T294">
+        <v>173.7539010817066</v>
+      </c>
+      <c r="U294">
+        <v>169.06192071843975</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -14078,8 +16489,20 @@
       <c r="Q295">
         <v>307.26570817299302</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R295">
+        <v>338152.443350969</v>
+      </c>
+      <c r="S295" s="12">
+        <v>151.63773660000001</v>
+      </c>
+      <c r="T295">
+        <v>169.995548771214</v>
+      </c>
+      <c r="U295">
+        <v>173.50247714316311</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -14131,8 +16554,20 @@
       <c r="Q296">
         <v>309.76950279827099</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R296">
+        <v>344014.22169356002</v>
+      </c>
+      <c r="S296" s="12">
+        <v>153.78845670000001</v>
+      </c>
+      <c r="T296">
+        <v>171.16388086632537</v>
+      </c>
+      <c r="U296">
+        <v>180.33688050661505</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -14184,8 +16619,20 @@
       <c r="Q297">
         <v>314.74748359248201</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R297">
+        <v>346919.74102001003</v>
+      </c>
+      <c r="S297" s="12">
+        <v>156.96567089999999</v>
+      </c>
+      <c r="T297">
+        <v>176.49319159929249</v>
+      </c>
+      <c r="U297">
+        <v>182.65487037606479</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -14237,8 +16684,20 @@
       <c r="Q298">
         <v>315.872086157995</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R298">
+        <v>354973.06212897401</v>
+      </c>
+      <c r="S298" s="12">
+        <v>163.04311419999999</v>
+      </c>
+      <c r="T298">
+        <v>183.09827478198591</v>
+      </c>
+      <c r="U298">
+        <v>198.4308138220114</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -14290,8 +16749,20 @@
       <c r="Q299">
         <v>313.63471631233102</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R299">
+        <v>374967.42821828398</v>
+      </c>
+      <c r="S299" s="12">
+        <v>158.97072689999999</v>
+      </c>
+      <c r="T299">
+        <v>189.30782880480811</v>
+      </c>
+      <c r="U299">
+        <v>200.05198009859893</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -14343,8 +16814,20 @@
       <c r="Q300">
         <v>317.14621502774901</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R300">
+        <v>382551.77014629199</v>
+      </c>
+      <c r="S300" s="12">
+        <v>160.8612019</v>
+      </c>
+      <c r="T300">
+        <v>204.59857549303359</v>
+      </c>
+      <c r="U300">
+        <v>203.17659047459881</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -14396,8 +16879,20 @@
       <c r="Q301">
         <v>324.30667591535098</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R301">
+        <v>389988.09854415001</v>
+      </c>
+      <c r="S301" s="12">
+        <v>165.8174229</v>
+      </c>
+      <c r="T301">
+        <v>218.05681396900931</v>
+      </c>
+      <c r="U301">
+        <v>211.94100973325038</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -14449,8 +16944,20 @@
       <c r="Q302">
         <v>326.96685547565897</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R302">
+        <v>356798.05705378798</v>
+      </c>
+      <c r="S302" s="12">
+        <v>166.02059070000001</v>
+      </c>
+      <c r="T302">
+        <v>200.77708239414454</v>
+      </c>
+      <c r="U302">
+        <v>206.54386539635968</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -14502,8 +17009,20 @@
       <c r="Q303">
         <v>319.32331723615698</v>
       </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R303">
+        <v>333669.55192178302</v>
+      </c>
+      <c r="S303" s="12">
+        <v>157.39141119999999</v>
+      </c>
+      <c r="T303">
+        <v>200.23053451943281</v>
+      </c>
+      <c r="U303">
+        <v>202.59283178301024</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -14555,8 +17074,20 @@
       <c r="Q304">
         <v>319.36403055416599</v>
       </c>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R304">
+        <v>339469.326619812</v>
+      </c>
+      <c r="S304" s="12">
+        <v>167.76214970000001</v>
+      </c>
+      <c r="T304">
+        <v>203.48943120394421</v>
+      </c>
+      <c r="U304">
+        <v>210.39395781939939</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -14608,8 +17139,20 @@
       <c r="Q305">
         <v>318.68504232308101</v>
       </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R305">
+        <v>340245.80707806302</v>
+      </c>
+      <c r="S305" s="12">
+        <v>167.03963189999999</v>
+      </c>
+      <c r="T305">
+        <v>200.73661978031427</v>
+      </c>
+      <c r="U305">
+        <v>207.6310082272802</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -14661,8 +17204,20 @@
       <c r="Q306">
         <v>317.048991952363</v>
       </c>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R306">
+        <v>356550.305944219</v>
+      </c>
+      <c r="S306" s="12">
+        <v>176.34570110000001</v>
+      </c>
+      <c r="T306">
+        <v>223.59662129780449</v>
+      </c>
+      <c r="U306">
+        <v>221.78335700354395</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -14714,8 +17269,20 @@
       <c r="Q307">
         <v>321.93976557892699</v>
       </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R307">
+        <v>368757.39910866698</v>
+      </c>
+      <c r="S307" s="12">
+        <v>182.52208669999999</v>
+      </c>
+      <c r="T307">
+        <v>222.67602232371434</v>
+      </c>
+      <c r="U307">
+        <v>227.45880466703255</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -14767,8 +17334,20 @@
       <c r="Q308">
         <v>325.53567541488297</v>
       </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R308">
+        <v>359265.81866141199</v>
+      </c>
+      <c r="S308" s="12">
+        <v>184.36304580000001</v>
+      </c>
+      <c r="T308">
+        <v>221.20456643973705</v>
+      </c>
+      <c r="U308">
+        <v>228.85049943420884</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -14820,8 +17399,20 @@
       <c r="Q309">
         <v>324.74476004168901</v>
       </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R309">
+        <v>350138.274773654</v>
+      </c>
+      <c r="S309" s="12">
+        <v>189.40586070000001</v>
+      </c>
+      <c r="T309">
+        <v>222.98242907866162</v>
+      </c>
+      <c r="U309">
+        <v>231.25373324156521</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -14873,8 +17464,20 @@
       <c r="Q310">
         <v>328.268510058179</v>
       </c>
-    </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R310">
+        <v>337478.04443073203</v>
+      </c>
+      <c r="S310" s="12">
+        <v>181.27002039999999</v>
+      </c>
+      <c r="T310">
+        <v>222.33862873714671</v>
+      </c>
+      <c r="U310">
+        <v>226.72501582135254</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -14926,8 +17529,20 @@
       <c r="Q311">
         <v>333.59554015140498</v>
       </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R311">
+        <v>351591.806179195</v>
+      </c>
+      <c r="S311" s="12">
+        <v>193.9905421</v>
+      </c>
+      <c r="T311">
+        <v>217.40305779965513</v>
+      </c>
+      <c r="U311">
+        <v>242.29945973380501</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -14979,8 +17594,20 @@
       <c r="Q312">
         <v>337.952418536312</v>
       </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R312">
+        <v>360574.99167909299</v>
+      </c>
+      <c r="S312" s="12">
+        <v>187.8370299</v>
+      </c>
+      <c r="T312">
+        <v>217.95875042985128</v>
+      </c>
+      <c r="U312">
+        <v>242.20641186724009</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -15032,8 +17659,20 @@
       <c r="Q313">
         <v>341.822966463782</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R313">
+        <v>367250.75148702698</v>
+      </c>
+      <c r="S313" s="12">
+        <v>196.3530035</v>
+      </c>
+      <c r="T313">
+        <v>213.91153805595854</v>
+      </c>
+      <c r="U313">
+        <v>245.95328929341852</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -15085,8 +17724,20 @@
       <c r="Q314">
         <v>346.26907335372999</v>
       </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R314">
+        <v>381070.36172121199</v>
+      </c>
+      <c r="S314" s="12">
+        <v>197.94393099999999</v>
+      </c>
+      <c r="T314">
+        <v>220.92105968138847</v>
+      </c>
+      <c r="U314">
+        <v>248.63972103456163</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -15138,8 +17789,20 @@
       <c r="Q315">
         <v>350.57677811040003</v>
       </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R315">
+        <v>379711.95145987201</v>
+      </c>
+      <c r="S315" s="12">
+        <v>199.20597230000001</v>
+      </c>
+      <c r="T315">
+        <v>236.56368095348438</v>
+      </c>
+      <c r="U315">
+        <v>247.27255653247155</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -15191,8 +17854,20 @@
       <c r="Q316">
         <v>354.52731350441098</v>
       </c>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R316">
+        <v>402079.21077394299</v>
+      </c>
+      <c r="S316" s="12">
+        <v>196.68887549999999</v>
+      </c>
+      <c r="T316">
+        <v>237.83563920180015</v>
+      </c>
+      <c r="U316">
+        <v>237.43431066893575</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -15244,8 +17919,20 @@
       <c r="Q317">
         <v>359.62092641906298</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R317">
+        <v>409062.362789954</v>
+      </c>
+      <c r="S317" s="12">
+        <v>197.42312000000001</v>
+      </c>
+      <c r="T317">
+        <v>236.13537901024375</v>
+      </c>
+      <c r="U317">
+        <v>242.64650080180618</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -15297,8 +17984,20 @@
       <c r="Q318">
         <v>363.38170067114402</v>
       </c>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R318">
+        <v>387848.04982311098</v>
+      </c>
+      <c r="S318" s="12">
+        <v>187.13775720000001</v>
+      </c>
+      <c r="T318">
+        <v>228.23998436552813</v>
+      </c>
+      <c r="U318">
+        <v>236.32356828164222</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -15350,8 +18049,20 @@
       <c r="Q319">
         <v>365.85484429912498</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R319">
+        <v>408322.88827918301</v>
+      </c>
+      <c r="S319" s="12">
+        <v>182.74997690000001</v>
+      </c>
+      <c r="T319">
+        <v>222.13776263017684</v>
+      </c>
+      <c r="U319">
+        <v>234.57024297381159</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -15403,8 +18114,20 @@
       <c r="Q320">
         <v>368.99043297693498</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R320">
+        <v>394867.60264564899</v>
+      </c>
+      <c r="S320" s="12">
+        <v>184.1600957</v>
+      </c>
+      <c r="T320">
+        <v>219.62305156361214</v>
+      </c>
+      <c r="U320">
+        <v>242.3748450358965</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -15456,8 +18179,20 @@
       <c r="Q321">
         <v>375.59909925235701</v>
       </c>
-    </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R321">
+        <v>395852.399268915</v>
+      </c>
+      <c r="S321" s="12">
+        <v>179.20338079999999</v>
+      </c>
+      <c r="T321">
+        <v>221.93140784983808</v>
+      </c>
+      <c r="U321">
+        <v>231.05046991948907</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -15509,8 +18244,20 @@
       <c r="Q322">
         <v>382.83055766052098</v>
       </c>
-    </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R322">
+        <v>425195.70505534601</v>
+      </c>
+      <c r="S322" s="12">
+        <v>177.3909979</v>
+      </c>
+      <c r="T322">
+        <v>229.37573478548273</v>
+      </c>
+      <c r="U322">
+        <v>232.60931056155195</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -15562,8 +18309,20 @@
       <c r="Q323">
         <v>385.66820941281298</v>
       </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R323">
+        <v>446850.481513548</v>
+      </c>
+      <c r="S323" s="12">
+        <v>188.51170189999999</v>
+      </c>
+      <c r="T323">
+        <v>237.64433874340207</v>
+      </c>
+      <c r="U323">
+        <v>243.26372505977267</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -15615,8 +18374,20 @@
       <c r="Q324">
         <v>390.53092499982699</v>
       </c>
-    </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R324">
+        <v>460701.58837163902</v>
+      </c>
+      <c r="S324" s="12">
+        <v>177.48402730000001</v>
+      </c>
+      <c r="T324">
+        <v>242.23032953312378</v>
+      </c>
+      <c r="U324">
+        <v>242.00799888459363</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -15668,8 +18439,20 @@
       <c r="Q325">
         <v>391.464892280877</v>
       </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R325">
+        <v>459392.91903697199</v>
+      </c>
+      <c r="S325" s="12">
+        <v>189.76881710000001</v>
+      </c>
+      <c r="T325">
+        <v>246.7590185728744</v>
+      </c>
+      <c r="U325">
+        <v>251.64066604354807</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -15721,8 +18504,20 @@
       <c r="Q326">
         <v>378.55423183178698</v>
       </c>
-    </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R326">
+        <v>457884.96049754397</v>
+      </c>
+      <c r="S326" s="12">
+        <v>189.54380750000001</v>
+      </c>
+      <c r="T326">
+        <v>249.68036355152319</v>
+      </c>
+      <c r="U326">
+        <v>254.91616116533183</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -15774,8 +18569,20 @@
       <c r="Q327">
         <v>369.53916815279899</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R327">
+        <v>432024.65226021199</v>
+      </c>
+      <c r="S327" s="12">
+        <v>182.78536130000001</v>
+      </c>
+      <c r="T327">
+        <v>253.32311245660392</v>
+      </c>
+      <c r="U327">
+        <v>244.4405728741431</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -15827,8 +18634,20 @@
       <c r="Q328">
         <v>373.07374648494601</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R328">
+        <v>435697.04636886797</v>
+      </c>
+      <c r="S328" s="12">
+        <v>185.94969510000001</v>
+      </c>
+      <c r="T328">
+        <v>252.34656314061777</v>
+      </c>
+      <c r="U328">
+        <v>255.30281712756121</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -15880,8 +18699,20 @@
       <c r="Q329">
         <v>377.24448755122501</v>
       </c>
-    </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R329">
+        <v>375928.43081216799</v>
+      </c>
+      <c r="S329" s="12">
+        <v>172.12527710000001</v>
+      </c>
+      <c r="T329">
+        <v>243.70676333102071</v>
+      </c>
+      <c r="U329">
+        <v>237.94414982569268</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -15933,8 +18764,20 @@
       <c r="Q330">
         <v>376.41537132853699</v>
       </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R330">
+        <v>362577.28652928001</v>
+      </c>
+      <c r="S330" s="12">
+        <v>164.46118559999999</v>
+      </c>
+      <c r="T330">
+        <v>234.95340542890656</v>
+      </c>
+      <c r="U330">
+        <v>227.41308645446975</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -15986,8 +18829,20 @@
       <c r="Q331">
         <v>381.93153969405301</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R331">
+        <v>395016.76608411397</v>
+      </c>
+      <c r="S331" s="12">
+        <v>176.4425616</v>
+      </c>
+      <c r="T331">
+        <v>250.6354746212275</v>
+      </c>
+      <c r="U331">
+        <v>237.49576899920757</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -16039,8 +18894,20 @@
       <c r="Q332">
         <v>383.11724698572499</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R332">
+        <v>406896.001718699</v>
+      </c>
+      <c r="S332" s="12">
+        <v>172.41485119999999</v>
+      </c>
+      <c r="T332">
+        <v>253.833702411069</v>
+      </c>
+      <c r="U332">
+        <v>229.84737634560776</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -16092,8 +18959,20 @@
       <c r="Q333">
         <v>382.89193983759998</v>
       </c>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R333">
+        <v>404037.93496730702</v>
+      </c>
+      <c r="S333" s="12">
+        <v>165.6542991</v>
+      </c>
+      <c r="T333">
+        <v>255.92773993721411</v>
+      </c>
+      <c r="U333">
+        <v>232.0578334717099</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -16145,8 +19024,20 @@
       <c r="Q334">
         <v>385.14662295608002</v>
       </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R334">
+        <v>367417.31011114997</v>
+      </c>
+      <c r="S334" s="12">
+        <v>155.66680529999999</v>
+      </c>
+      <c r="T334">
+        <v>239.63811271084612</v>
+      </c>
+      <c r="U334">
+        <v>214.63104295179724</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -16198,8 +19089,20 @@
       <c r="Q335">
         <v>389.72022408754998</v>
       </c>
-    </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R335">
+        <v>367952.99686039903</v>
+      </c>
+      <c r="S335" s="12">
+        <v>154.31463539999999</v>
+      </c>
+      <c r="T335">
+        <v>237.16326021965386</v>
+      </c>
+      <c r="U335">
+        <v>210.34737390861898</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -16251,8 +19154,20 @@
       <c r="Q336">
         <v>392.81370723819498</v>
       </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R336">
+        <v>393347.56255728198</v>
+      </c>
+      <c r="S336" s="12">
+        <v>161.78286869999999</v>
+      </c>
+      <c r="T336">
+        <v>251.95929031055198</v>
+      </c>
+      <c r="U336">
+        <v>219.2769392342602</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -16304,8 +19219,20 @@
       <c r="Q337">
         <v>393.06866437778399</v>
       </c>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R337">
+        <v>400833.26661209197</v>
+      </c>
+      <c r="S337" s="12">
+        <v>167.38414349999999</v>
+      </c>
+      <c r="T337">
+        <v>262.92680748839331</v>
+      </c>
+      <c r="U337">
+        <v>225.28015900414499</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -16357,8 +19284,20 @@
       <c r="Q338">
         <v>392.483715033441</v>
       </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R338">
+        <v>400890.824050622</v>
+      </c>
+      <c r="S338" s="12">
+        <v>166.57447379999999</v>
+      </c>
+      <c r="T338">
+        <v>262.98810999779204</v>
+      </c>
+      <c r="U338">
+        <v>225.10469567649736</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -16410,8 +19349,20 @@
       <c r="Q339">
         <v>396.04924300608701</v>
       </c>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R339">
+        <v>406014.71205450897</v>
+      </c>
+      <c r="S339" s="12">
+        <v>160.5947085</v>
+      </c>
+      <c r="T339">
+        <v>261.42191107985127</v>
+      </c>
+      <c r="U339">
+        <v>223.73647996781304</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -16463,8 +19414,20 @@
       <c r="Q340">
         <v>402.52808773547298</v>
       </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R340">
+        <v>433785.693472518</v>
+      </c>
+      <c r="S340" s="12">
+        <v>165.03766150000001</v>
+      </c>
+      <c r="T340">
+        <v>275.44263676551168</v>
+      </c>
+      <c r="U340">
+        <v>229.2424221740113</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -16516,8 +19479,20 @@
       <c r="Q341">
         <v>403.75420433350098</v>
       </c>
-    </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R341">
+        <v>426714.770911926</v>
+      </c>
+      <c r="S341" s="12">
+        <v>165.30543990000001</v>
+      </c>
+      <c r="T341">
+        <v>265.69607924438543</v>
+      </c>
+      <c r="U341">
+        <v>227.7846500740641</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -16569,8 +19544,20 @@
       <c r="Q342">
         <v>402.39858542913697</v>
       </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R342">
+        <v>436922.34545563703</v>
+      </c>
+      <c r="S342" s="12">
+        <v>166.9826904</v>
+      </c>
+      <c r="T342">
+        <v>280.02029842229933</v>
+      </c>
+      <c r="U342">
+        <v>229.60859609778862</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -16622,8 +19609,20 @@
       <c r="Q343">
         <v>398.89733885411903</v>
       </c>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R343">
+        <v>436143.220482793</v>
+      </c>
+      <c r="S343" s="12">
+        <v>158.38300079999999</v>
+      </c>
+      <c r="T343">
+        <v>283.75187055694732</v>
+      </c>
+      <c r="U343">
+        <v>217.15315467093285</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -16675,8 +19674,20 @@
       <c r="Q344">
         <v>389.110342783166</v>
       </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R344">
+        <v>448556.98187128699</v>
+      </c>
+      <c r="S344" s="12">
+        <v>158.91297610000001</v>
+      </c>
+      <c r="T344">
+        <v>270.40624942056104</v>
+      </c>
+      <c r="U344">
+        <v>211.8201407449769</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -16728,8 +19739,20 @@
       <c r="Q345">
         <v>388.52995922944098</v>
       </c>
-    </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R345">
+        <v>450051.57180919399</v>
+      </c>
+      <c r="S345" s="12">
+        <v>165.48753350000001</v>
+      </c>
+      <c r="T345">
+        <v>275.29724778010177</v>
+      </c>
+      <c r="U345">
+        <v>220.74504795776872</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -16781,8 +19804,20 @@
       <c r="Q346">
         <v>387.00227856190799</v>
       </c>
-    </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R346">
+        <v>466161.95849721902</v>
+      </c>
+      <c r="S346" s="12">
+        <v>167.62215169999999</v>
+      </c>
+      <c r="T346">
+        <v>285.70092292753668</v>
+      </c>
+      <c r="U346">
+        <v>229.60228026254163</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -16834,8 +19869,20 @@
       <c r="Q347">
         <v>382.14920915315702</v>
       </c>
-    </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R347">
+        <v>487700.40081623598</v>
+      </c>
+      <c r="S347" s="12">
+        <v>170.97437640000001</v>
+      </c>
+      <c r="T347">
+        <v>294.47090496905241</v>
+      </c>
+      <c r="U347">
+        <v>233.15985850347553</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -16887,8 +19934,20 @@
       <c r="Q348">
         <v>381.43722156164898</v>
       </c>
-    </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R348">
+        <v>495906.43933093501</v>
+      </c>
+      <c r="S348" s="12">
+        <v>173.82226109999999</v>
+      </c>
+      <c r="T348">
+        <v>293.9350477787595</v>
+      </c>
+      <c r="U348">
+        <v>239.1514044558366</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -16940,8 +19999,20 @@
       <c r="Q349">
         <v>385.55291121605302</v>
       </c>
-    </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R349">
+        <v>487374.40183134697</v>
+      </c>
+      <c r="S349" s="12">
+        <v>177.43329840000001</v>
+      </c>
+      <c r="T349">
+        <v>298.96383060941565</v>
+      </c>
+      <c r="U349">
+        <v>247.40439413047091</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -16993,8 +20064,20 @@
       <c r="Q350">
         <v>386.23429322905798</v>
       </c>
-    </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R350">
+        <v>470120.15458872297</v>
+      </c>
+      <c r="S350" s="12">
+        <v>185.633239</v>
+      </c>
+      <c r="T350">
+        <v>309.95837367366067</v>
+      </c>
+      <c r="U350">
+        <v>261.04441147739743</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -17046,8 +20129,20 @@
       <c r="Q351">
         <v>390.172711045536</v>
       </c>
-    </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R351">
+        <v>471738.97743915202</v>
+      </c>
+      <c r="S351" s="12">
+        <v>182.0324938</v>
+      </c>
+      <c r="T351">
+        <v>312.87090492355048</v>
+      </c>
+      <c r="U351">
+        <v>260.58636903716291</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -17099,8 +20194,20 @@
       <c r="Q352">
         <v>385.17644507561698</v>
       </c>
-    </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R352">
+        <v>478799.33228982298</v>
+      </c>
+      <c r="S352" s="12">
+        <v>186.72865759999999</v>
+      </c>
+      <c r="T352">
+        <v>321.21650046508688</v>
+      </c>
+      <c r="U352">
+        <v>262.85374961561439</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -17152,8 +20259,20 @@
       <c r="Q353">
         <v>388.997184553306</v>
       </c>
-    </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R353">
+        <v>476060.92269029899</v>
+      </c>
+      <c r="S353" s="12">
+        <v>185.290459</v>
+      </c>
+      <c r="T353">
+        <v>327.19484085179204</v>
+      </c>
+      <c r="U353">
+        <v>260.59676463162265</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -17205,8 +20324,20 @@
       <c r="Q354">
         <v>389.18174694631199</v>
       </c>
-    </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R354">
+        <v>472695.55860681698</v>
+      </c>
+      <c r="S354" s="12">
+        <v>191.4346754</v>
+      </c>
+      <c r="T354">
+        <v>332.37913799048124</v>
+      </c>
+      <c r="U354">
+        <v>265.709301162016</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -17258,8 +20389,20 @@
       <c r="Q355">
         <v>388.27838977385102</v>
       </c>
-    </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R355">
+        <v>486222.06042223697</v>
+      </c>
+      <c r="S355" s="12">
+        <v>192.5970954</v>
+      </c>
+      <c r="T355">
+        <v>343.76329951059233</v>
+      </c>
+      <c r="U355">
+        <v>261.23630323325199</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -17311,8 +20454,20 @@
       <c r="Q356">
         <v>392.61232595160499</v>
       </c>
-    </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R356">
+        <v>485816.72384722601</v>
+      </c>
+      <c r="S356" s="12">
+        <v>192.81607099999999</v>
+      </c>
+      <c r="T356">
+        <v>355.85597425317354</v>
+      </c>
+      <c r="U356">
+        <v>266.80986300522613</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -17364,8 +20519,20 @@
       <c r="Q357">
         <v>393.63854854921499</v>
       </c>
-    </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R357">
+        <v>497944.21929554403</v>
+      </c>
+      <c r="S357" s="12">
+        <v>202.38527719999999</v>
+      </c>
+      <c r="T357">
+        <v>361.35309278497107</v>
+      </c>
+      <c r="U357">
+        <v>270.4377567022633</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -17417,8 +20584,20 @@
       <c r="Q358">
         <v>389.24600951851397</v>
       </c>
-    </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R358">
+        <v>497874.993725801</v>
+      </c>
+      <c r="S358" s="12">
+        <v>208.54369729999999</v>
+      </c>
+      <c r="T358">
+        <v>376.67878725003357</v>
+      </c>
+      <c r="U358">
+        <v>282.00303185200295</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -17470,8 +20649,20 @@
       <c r="Q359">
         <v>385.953160047533</v>
       </c>
-    </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R359">
+        <v>491119.59042384801</v>
+      </c>
+      <c r="S359" s="12">
+        <v>195.2034639</v>
+      </c>
+      <c r="T359">
+        <v>372.12414730757536</v>
+      </c>
+      <c r="U359">
+        <v>264.09683932481403</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -17523,8 +20714,20 @@
       <c r="Q360">
         <v>390.34849755499698</v>
       </c>
-    </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R360">
+        <v>466593.676641219</v>
+      </c>
+      <c r="S360" s="12">
+        <v>194.53338120000001</v>
+      </c>
+      <c r="T360">
+        <v>368.9217708769512</v>
+      </c>
+      <c r="U360">
+        <v>258.76622976928599</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -17576,8 +20779,20 @@
       <c r="Q361">
         <v>393.562854787155</v>
       </c>
-    </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R361">
+        <v>490763.01719968702</v>
+      </c>
+      <c r="S361" s="12">
+        <v>203.93026850000001</v>
+      </c>
+      <c r="T361">
+        <v>369.42141533604729</v>
+      </c>
+      <c r="U361">
+        <v>257.79241461866746</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -17629,8 +20844,20 @@
       <c r="Q362">
         <v>390.32416031222601</v>
       </c>
-    </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R362">
+        <v>508414.712909144</v>
+      </c>
+      <c r="S362" s="12">
+        <v>202.21574000000001</v>
+      </c>
+      <c r="T362">
+        <v>368.58813802699655</v>
+      </c>
+      <c r="U362">
+        <v>249.37725092436696</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -17682,8 +20909,20 @@
       <c r="Q363">
         <v>388.04933378634797</v>
       </c>
-    </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R363">
+        <v>501880.17670642299</v>
+      </c>
+      <c r="S363" s="12">
+        <v>200.26590959999999</v>
+      </c>
+      <c r="T363">
+        <v>357.29369612497385</v>
+      </c>
+      <c r="U363">
+        <v>251.73267245283105</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -17735,8 +20974,20 @@
       <c r="Q364">
         <v>390.57652418112099</v>
       </c>
-    </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R364">
+        <v>508221.43375211698</v>
+      </c>
+      <c r="S364" s="12">
+        <v>202.0179962</v>
+      </c>
+      <c r="T364">
+        <v>354.20181891791572</v>
+      </c>
+      <c r="U364">
+        <v>268.15321550189145</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -17788,8 +21039,20 @@
       <c r="Q365">
         <v>386.50657863077902</v>
       </c>
-    </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R365">
+        <v>502738.81982744002</v>
+      </c>
+      <c r="S365" s="12">
+        <v>193.54667269999999</v>
+      </c>
+      <c r="T365">
+        <v>351.94032282044782</v>
+      </c>
+      <c r="U365">
+        <v>269.8457655872989</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -17841,8 +21104,20 @@
       <c r="Q366">
         <v>386.784003530294</v>
       </c>
-    </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R366">
+        <v>502655.55287781497</v>
+      </c>
+      <c r="S366" s="12">
+        <v>196.93623439999999</v>
+      </c>
+      <c r="T366">
+        <v>356.84139872555846</v>
+      </c>
+      <c r="U366">
+        <v>270.00881869634952</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -17894,8 +21169,20 @@
       <c r="Q367">
         <v>382.24650662844903</v>
       </c>
-    </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R367">
+        <v>469101.39404857601</v>
+      </c>
+      <c r="S367" s="12">
+        <v>183.6363633</v>
+      </c>
+      <c r="T367">
+        <v>323.09192953430681</v>
+      </c>
+      <c r="U367">
+        <v>259.36033064900857</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -17947,8 +21234,20 @@
       <c r="Q368">
         <v>384.48969469395502</v>
       </c>
-    </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R368">
+        <v>480991.235185661</v>
+      </c>
+      <c r="S368" s="12">
+        <v>180.572924</v>
+      </c>
+      <c r="T368">
+        <v>331.86637076745075</v>
+      </c>
+      <c r="U368">
+        <v>259.98029758532647</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -18000,8 +21299,20 @@
       <c r="Q369">
         <v>390.22600396796298</v>
       </c>
-    </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R369">
+        <v>467837.66681408999</v>
+      </c>
+      <c r="S369" s="12">
+        <v>173.73822240000001</v>
+      </c>
+      <c r="T369">
+        <v>303.5614096096262</v>
+      </c>
+      <c r="U369">
+        <v>245.87477760628209</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -18053,8 +21364,20 @@
       <c r="Q370">
         <v>393.24819425496298</v>
       </c>
-    </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R370">
+        <v>499857.016140664</v>
+      </c>
+      <c r="S370" s="12">
+        <v>186.0510649</v>
+      </c>
+      <c r="T370">
+        <v>320.18259138413651</v>
+      </c>
+      <c r="U370">
+        <v>261.05481695689082</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -18106,8 +21429,20 @@
       <c r="Q371">
         <v>395.31106852209399</v>
       </c>
-    </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R371">
+        <v>521953.641366878</v>
+      </c>
+      <c r="S371" s="12">
+        <v>192.3602324</v>
+      </c>
+      <c r="T371">
+        <v>323.79881719942063</v>
+      </c>
+      <c r="U371">
+        <v>272.02178117526125</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -18159,8 +21494,20 @@
       <c r="Q372">
         <v>398.62997895408699</v>
       </c>
-    </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R372">
+        <v>535161.97432876995</v>
+      </c>
+      <c r="S372" s="12">
+        <v>194.3928568</v>
+      </c>
+      <c r="T372">
+        <v>325.14689225626108</v>
+      </c>
+      <c r="U372">
+        <v>278.11227936773798</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -18212,8 +21559,20 @@
       <c r="Q373">
         <v>400.86248954163699</v>
       </c>
-    </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R373">
+        <v>545143.12768785399</v>
+      </c>
+      <c r="S373" s="12">
+        <v>198.77558629999999</v>
+      </c>
+      <c r="T373">
+        <v>327.98757591859061</v>
+      </c>
+      <c r="U373">
+        <v>282.35793790062053</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -18265,8 +21624,20 @@
       <c r="Q374">
         <v>403.28422268101599</v>
       </c>
-    </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R374">
+        <v>533263.75785453897</v>
+      </c>
+      <c r="S374" s="12">
+        <v>186.8394572</v>
+      </c>
+      <c r="T374">
+        <v>314.6312049452435</v>
+      </c>
+      <c r="U374">
+        <v>281.70549491919485</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -18318,8 +21689,20 @@
       <c r="Q375">
         <v>411.65094911872001</v>
       </c>
-    </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R375">
+        <v>555586.78692986199</v>
+      </c>
+      <c r="S375" s="12">
+        <v>196.16438729999999</v>
+      </c>
+      <c r="T375">
+        <v>322.30490837555629</v>
+      </c>
+      <c r="U375">
+        <v>301.49960513237977</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -18371,8 +21754,20 @@
       <c r="Q376">
         <v>419.44449928959301</v>
       </c>
-    </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R376">
+        <v>562919.99118406605</v>
+      </c>
+      <c r="S376" s="12">
+        <v>192.62854609999999</v>
+      </c>
+      <c r="T376">
+        <v>326.45799697434745</v>
+      </c>
+      <c r="U376">
+        <v>299.46816689229416</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -18424,8 +21819,20 @@
       <c r="Q377">
         <v>427.54223586893897</v>
       </c>
-    </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R377">
+        <v>535990.29726557096</v>
+      </c>
+      <c r="S377" s="12">
+        <v>183.6188257</v>
+      </c>
+      <c r="T377">
+        <v>323.29262387139511</v>
+      </c>
+      <c r="U377">
+        <v>300.29473722889662</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -18477,8 +21884,20 @@
       <c r="Q378">
         <v>430.19725337291601</v>
       </c>
-    </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R378">
+        <v>550447.98886628402</v>
+      </c>
+      <c r="S378" s="12">
+        <v>191.27312319999999</v>
+      </c>
+      <c r="T378">
+        <v>335.02869523939205</v>
+      </c>
+      <c r="U378">
+        <v>302.2695037569967</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -18530,8 +21949,20 @@
       <c r="Q379">
         <v>427.002799933463</v>
       </c>
-    </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R379">
+        <v>553536.08182689501</v>
+      </c>
+      <c r="S379" s="12">
+        <v>196.6406221</v>
+      </c>
+      <c r="T379">
+        <v>353.16151681223312</v>
+      </c>
+      <c r="U379">
+        <v>307.82242884931344</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -18583,8 +22014,20 @@
       <c r="Q380">
         <v>421.59098758426802</v>
       </c>
-    </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R380">
+        <v>563353.31931167096</v>
+      </c>
+      <c r="S380" s="12">
+        <v>200.0028059</v>
+      </c>
+      <c r="T380">
+        <v>356.12263277499022</v>
+      </c>
+      <c r="U380">
+        <v>311.61166651725677</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -18636,8 +22079,20 @@
       <c r="Q381">
         <v>419.54534028105297</v>
       </c>
-    </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R381">
+        <v>564377.37352160295</v>
+      </c>
+      <c r="S381" s="12">
+        <v>210.30557379999999</v>
+      </c>
+      <c r="T381">
+        <v>362.30076997271362</v>
+      </c>
+      <c r="U381">
+        <v>325.34539857466279</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -18689,8 +22144,20 @@
       <c r="Q382">
         <v>421.09727848928901</v>
       </c>
-    </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R382">
+        <v>564184.11105577799</v>
+      </c>
+      <c r="S382" s="12">
+        <v>202.3374498</v>
+      </c>
+      <c r="T382">
+        <v>350.11188589565648</v>
+      </c>
+      <c r="U382">
+        <v>327.91501274361678</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -18742,8 +22209,20 @@
       <c r="Q383">
         <v>427.46330990818001</v>
       </c>
-    </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R383">
+        <v>524345.58879170299</v>
+      </c>
+      <c r="S383" s="12">
+        <v>178.18118240000001</v>
+      </c>
+      <c r="T383">
+        <v>308.53988320330581</v>
+      </c>
+      <c r="U383">
+        <v>301.88660849585881</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -18795,8 +22274,20 @@
       <c r="Q384">
         <v>421.06090791165298</v>
       </c>
-    </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R384">
+        <v>418998.858344673</v>
+      </c>
+      <c r="S384" s="12">
+        <v>149.72490500000001</v>
+      </c>
+      <c r="T384">
+        <v>288.99967477477384</v>
+      </c>
+      <c r="U384">
+        <v>287.85048991268206</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -18848,8 +22339,20 @@
       <c r="Q385">
         <v>415.811424345533</v>
       </c>
-    </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R385">
+        <v>471563.83907180303</v>
+      </c>
+      <c r="S385" s="12">
+        <v>157.42475200000001</v>
+      </c>
+      <c r="T385">
+        <v>306.57563317961637</v>
+      </c>
+      <c r="U385">
+        <v>301.37457169481155</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -18901,8 +22404,20 @@
       <c r="Q386">
         <v>418.07246009959198</v>
       </c>
-    </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R386">
+        <v>458706.63999578101</v>
+      </c>
+      <c r="S386" s="12">
+        <v>159.08548390000001</v>
+      </c>
+      <c r="T386">
+        <v>330.04888275067509</v>
+      </c>
+      <c r="U386">
+        <v>309.89147201925414</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -18954,8 +22469,20 @@
       <c r="Q387">
         <v>421.02026707147502</v>
       </c>
-    </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R387">
+        <v>492710.76387775398</v>
+      </c>
+      <c r="S387" s="12">
+        <v>161.38397610000001</v>
+      </c>
+      <c r="T387">
+        <v>325.97072222182408</v>
+      </c>
+      <c r="U387">
+        <v>319.36795612227303</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -19007,8 +22534,20 @@
       <c r="Q388">
         <v>425.71797522504198</v>
       </c>
-    </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R388">
+        <v>477589.00724750297</v>
+      </c>
+      <c r="S388" s="12">
+        <v>163.65435170000001</v>
+      </c>
+      <c r="T388">
+        <v>317.18837274883339</v>
+      </c>
+      <c r="U388">
+        <v>332.37465583363888</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -19060,8 +22599,20 @@
       <c r="Q389">
         <v>427.63800648208701</v>
       </c>
-    </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R389">
+        <v>501272.88701380702</v>
+      </c>
+      <c r="S389" s="12">
+        <v>169.45427749999999</v>
+      </c>
+      <c r="T389">
+        <v>342.44353235774867</v>
+      </c>
+      <c r="U389">
+        <v>340.70030749491661</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -19113,8 +22664,20 @@
       <c r="Q390">
         <v>428.57075624722597</v>
       </c>
-    </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R390">
+        <v>480569.01178678899</v>
+      </c>
+      <c r="S390" s="12">
+        <v>161.01185749999999</v>
+      </c>
+      <c r="T390">
+        <v>357.00565282167292</v>
+      </c>
+      <c r="U390">
+        <v>335.56712189840954</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -19166,8 +22729,20 @@
       <c r="Q391">
         <v>432.49299441236099</v>
       </c>
-    </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R391">
+        <v>478256.65785001201</v>
+      </c>
+      <c r="S391" s="12">
+        <v>152.88425129999999</v>
+      </c>
+      <c r="T391">
+        <v>348.0168382261017</v>
+      </c>
+      <c r="U391">
+        <v>316.90707583004058</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -19219,8 +22794,20 @@
       <c r="Q392">
         <v>433.97075884922498</v>
       </c>
-    </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R392">
+        <v>535637.43550500204</v>
+      </c>
+      <c r="S392" s="12">
+        <v>178.53907380000001</v>
+      </c>
+      <c r="T392">
+        <v>369.81972352784396</v>
+      </c>
+      <c r="U392">
+        <v>346.31028483908233</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -19272,8 +22859,20 @@
       <c r="Q393">
         <v>435.11949588618501</v>
       </c>
-    </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R393">
+        <v>550532.679512606</v>
+      </c>
+      <c r="S393" s="12">
+        <v>188.29486059999999</v>
+      </c>
+      <c r="T393">
+        <v>385.65166364818072</v>
+      </c>
+      <c r="U393">
+        <v>363.22776816181539</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -19325,8 +22924,20 @@
       <c r="Q394">
         <v>433.946978226895</v>
       </c>
-    </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R394">
+        <v>560555.96742851997</v>
+      </c>
+      <c r="S394" s="12">
+        <v>187.84296259999999</v>
+      </c>
+      <c r="T394">
+        <v>382.75049878674724</v>
+      </c>
+      <c r="U394">
+        <v>355.78323304069852</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -19378,8 +22989,20 @@
       <c r="Q395">
         <v>430.49281000330001</v>
       </c>
-    </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R395">
+        <v>577393.949465313</v>
+      </c>
+      <c r="S395" s="12">
+        <v>194.59508919999999</v>
+      </c>
+      <c r="T395">
+        <v>384.51567775560693</v>
+      </c>
+      <c r="U395">
+        <v>347.53383977653993</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -19431,8 +23054,20 @@
       <c r="Q396">
         <v>427.60977115015697</v>
       </c>
-    </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R396">
+        <v>602762.04803817801</v>
+      </c>
+      <c r="S396" s="12">
+        <v>199.94953989999999</v>
+      </c>
+      <c r="T396">
+        <v>398.79701816585941</v>
+      </c>
+      <c r="U396">
+        <v>355.99299940291434</v>
+      </c>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -19484,8 +23119,20 @@
       <c r="Q397">
         <v>425.65959210510198</v>
       </c>
-    </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R397">
+        <v>609632.46995733399</v>
+      </c>
+      <c r="S397" s="12">
+        <v>208.71463370000001</v>
+      </c>
+      <c r="T397">
+        <v>394.08998421195901</v>
+      </c>
+      <c r="U397">
+        <v>370.65966283579519</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -19537,8 +23184,20 @@
       <c r="Q398">
         <v>420.42752565205501</v>
       </c>
-    </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R398">
+        <v>616606.07473865699</v>
+      </c>
+      <c r="S398" s="12">
+        <v>217.0878175</v>
+      </c>
+      <c r="T398">
+        <v>391.27999161853984</v>
+      </c>
+      <c r="U398">
+        <v>389.14848365460847</v>
+      </c>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -19590,8 +23249,20 @@
       <c r="Q399">
         <v>422.91858740705601</v>
       </c>
-    </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R399">
+        <v>623007.191020119</v>
+      </c>
+      <c r="S399" s="12">
+        <v>211.87861939999999</v>
+      </c>
+      <c r="T399">
+        <v>395.11911558759346</v>
+      </c>
+      <c r="U399">
+        <v>397.05449600500515</v>
+      </c>
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -19643,8 +23314,20 @@
       <c r="Q400">
         <v>427.618953447411</v>
       </c>
-    </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R400">
+        <v>613352.45853889396</v>
+      </c>
+      <c r="S400" s="12">
+        <v>213.80675539999999</v>
+      </c>
+      <c r="T400">
+        <v>393.29940707539481</v>
+      </c>
+      <c r="U400">
+        <v>410.42140308362883</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -19696,8 +23379,20 @@
       <c r="Q401">
         <v>431.06528928116001</v>
       </c>
-    </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R401">
+        <v>620505.816830136</v>
+      </c>
+      <c r="S401" s="12">
+        <v>215.62162430000001</v>
+      </c>
+      <c r="T401">
+        <v>404.31070623471203</v>
+      </c>
+      <c r="U401">
+        <v>415.44211541056455</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -19749,8 +23444,20 @@
       <c r="Q402">
         <v>426.05684373644402</v>
       </c>
-    </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R402">
+        <v>611308.57216084795</v>
+      </c>
+      <c r="S402" s="12">
+        <v>211.2507066</v>
+      </c>
+      <c r="T402">
+        <v>408.64434090474498</v>
+      </c>
+      <c r="U402">
+        <v>384.04387155075449</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -19802,8 +23509,20 @@
       <c r="Q403">
         <v>420.95986623286302</v>
       </c>
-    </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R403">
+        <v>627478.52774318901</v>
+      </c>
+      <c r="S403" s="12">
+        <v>219.72638939999999</v>
+      </c>
+      <c r="T403">
+        <v>393.89255464016998</v>
+      </c>
+      <c r="U403">
+        <v>408.02638179385985</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -19855,8 +23574,20 @@
       <c r="Q404">
         <v>422.58981486219199</v>
       </c>
-    </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R404">
+        <v>602517.02492035099</v>
+      </c>
+      <c r="S404" s="12">
+        <v>207.9425847</v>
+      </c>
+      <c r="T404">
+        <v>370.26524227345516</v>
+      </c>
+      <c r="U404">
+        <v>402.05845157132489</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -19908,8 +23639,20 @@
       <c r="Q405">
         <v>423.836579100432</v>
       </c>
-    </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R405">
+        <v>624386.82839627902</v>
+      </c>
+      <c r="S405" s="12">
+        <v>223.1206856</v>
+      </c>
+      <c r="T405">
+        <v>376.87285650241711</v>
+      </c>
+      <c r="U405">
+        <v>433.31232157470515</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -19961,8 +23704,20 @@
       <c r="Q406">
         <v>415.29187231888801</v>
       </c>
-    </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R406">
+        <v>598376.35946699104</v>
+      </c>
+      <c r="S406" s="12">
+        <v>225.12057300000001</v>
+      </c>
+      <c r="T406">
+        <v>356.8192540614192</v>
+      </c>
+      <c r="U406">
+        <v>399.50494570930647</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -20014,8 +23769,20 @@
       <c r="Q407">
         <v>403.95205953588601</v>
       </c>
-    </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R407">
+        <v>612849.48731085297</v>
+      </c>
+      <c r="S407" s="12">
+        <v>226.89201489999999</v>
+      </c>
+      <c r="T407">
+        <v>362.41066857046849</v>
+      </c>
+      <c r="U407">
+        <v>397.60689609006738</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -20067,8 +23834,20 @@
       <c r="Q408">
         <v>401.16788571751403</v>
       </c>
-    </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R408">
+        <v>661048.41813969298</v>
+      </c>
+      <c r="S408" s="12">
+        <v>227.1991779</v>
+      </c>
+      <c r="T408">
+        <v>349.88278923801403</v>
+      </c>
+      <c r="U408">
+        <v>405.44222454631199</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -20120,8 +23899,20 @@
       <c r="Q409">
         <v>386.311821541303</v>
       </c>
-    </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R409">
+        <v>655065.593092183</v>
+      </c>
+      <c r="S409" s="12">
+        <v>218.80875710000001</v>
+      </c>
+      <c r="T409">
+        <v>323.47383768383219</v>
+      </c>
+      <c r="U409">
+        <v>385.66697965962993</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -20173,8 +23964,20 @@
       <c r="Q410">
         <v>377.31934876484701</v>
       </c>
-    </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R410">
+        <v>641912.97720801597</v>
+      </c>
+      <c r="S410" s="12">
+        <v>222.57448350000001</v>
+      </c>
+      <c r="T410">
+        <v>326.10738734483692</v>
+      </c>
+      <c r="U410">
+        <v>373.03021950433953</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -20226,8 +24029,20 @@
       <c r="Q411">
         <v>362.02276519632198</v>
       </c>
-    </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R411">
+        <v>606944.05644993705</v>
+      </c>
+      <c r="S411" s="12">
+        <v>203.3988167</v>
+      </c>
+      <c r="T411">
+        <v>310.14164986222579</v>
+      </c>
+      <c r="U411">
+        <v>346.70033053089031</v>
+      </c>
+    </row>
+    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -20279,8 +24094,20 @@
       <c r="Q412">
         <v>371.699975261259</v>
       </c>
-    </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R412">
+        <v>641913.14822569001</v>
+      </c>
+      <c r="S412" s="12">
+        <v>210.9952959</v>
+      </c>
+      <c r="T412">
+        <v>325.92018092487501</v>
+      </c>
+      <c r="U412">
+        <v>362.99091802901324</v>
+      </c>
+    </row>
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -20332,8 +24159,20 @@
       <c r="Q413">
         <v>373.98308646963102</v>
       </c>
-    </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R413">
+        <v>643197.77131851402</v>
+      </c>
+      <c r="S413" s="12">
+        <v>199.10067470000001</v>
+      </c>
+      <c r="T413">
+        <v>319.59340135193133</v>
+      </c>
+      <c r="U413">
+        <v>343.19721402963495</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -20385,8 +24224,20 @@
       <c r="Q414">
         <v>352.97059084399598</v>
       </c>
-    </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R414">
+        <v>589660.33814064402</v>
+      </c>
+      <c r="S414" s="12">
+        <v>181.5033048</v>
+      </c>
+      <c r="T414">
+        <v>296.03095088507558</v>
+      </c>
+      <c r="U414">
+        <v>320.56438263684146</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -20438,8 +24289,20 @@
       <c r="Q415">
         <v>343.76460547352298</v>
       </c>
-    </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R415">
+        <v>582620.66095522698</v>
+      </c>
+      <c r="S415" s="12">
+        <v>192.44721229999999</v>
+      </c>
+      <c r="T415">
+        <v>295.81203528995155</v>
+      </c>
+      <c r="U415">
+        <v>330.45435181430463</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -20491,8 +24354,20 @@
       <c r="Q416">
         <v>349.72946046389302</v>
       </c>
-    </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R416">
+        <v>638292.79926289199</v>
+      </c>
+      <c r="S416" s="12">
+        <v>213.1608334</v>
+      </c>
+      <c r="T416">
+        <v>322.59471487962855</v>
+      </c>
+      <c r="U416">
+        <v>356.45622300321122</v>
+      </c>
+    </row>
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -20544,8 +24419,20 @@
       <c r="Q417">
         <v>350.00189933509898</v>
       </c>
-    </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R417">
+        <v>623613.08652106801</v>
+      </c>
+      <c r="S417" s="12">
+        <v>212.32005340000001</v>
+      </c>
+      <c r="T417">
+        <v>331.4635385437395</v>
+      </c>
+      <c r="U417">
+        <v>353.95038272799599</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -20597,8 +24484,20 @@
       <c r="Q418">
         <v>349.11469489934598</v>
       </c>
-    </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R418">
+        <v>666953.12917842704</v>
+      </c>
+      <c r="S418" s="12">
+        <v>226.1433657</v>
+      </c>
+      <c r="T418">
+        <v>344.57058837782228</v>
+      </c>
+      <c r="U418">
+        <v>375.58866148163992</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -20650,8 +24549,20 @@
       <c r="Q419">
         <v>346.34922383822902</v>
       </c>
-    </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R419">
+        <v>636373.01355223299</v>
+      </c>
+      <c r="S419" s="12">
+        <v>226.7057164</v>
+      </c>
+      <c r="T419">
+        <v>334.19625516632044</v>
+      </c>
+      <c r="U419">
+        <v>362.8436855882544</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -20703,8 +24614,20 @@
       <c r="Q420">
         <v>346.75150212453099</v>
       </c>
-    </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R420">
+        <v>624828.84872246301</v>
+      </c>
+      <c r="S420" s="12">
+        <v>225.29276659999999</v>
+      </c>
+      <c r="T420">
+        <v>344.89594328454274</v>
+      </c>
+      <c r="U420">
+        <v>377.73960654332012</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -20756,8 +24679,20 @@
       <c r="Q421">
         <v>348.18556331694401</v>
       </c>
-    </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R421">
+        <v>619933.88388238498</v>
+      </c>
+      <c r="S421" s="12">
+        <v>237.26652060000001</v>
+      </c>
+      <c r="T421">
+        <v>347.34104545975231</v>
+      </c>
+      <c r="U421">
+        <v>401.2255766643421</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -20809,8 +24744,20 @@
       <c r="Q422">
         <v>348.38246994649398</v>
       </c>
-    </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R422">
+        <v>599259.36122673505</v>
+      </c>
+      <c r="S422" s="12">
+        <v>221.68286040000001</v>
+      </c>
+      <c r="T422">
+        <v>341.36323517082741</v>
+      </c>
+      <c r="U422">
+        <v>382.96578555953653</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -20862,8 +24809,20 @@
       <c r="Q423">
         <v>350.71381244461099</v>
       </c>
-    </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R423">
+        <v>614105.42407168995</v>
+      </c>
+      <c r="S423" s="12">
+        <v>230.22896729999999</v>
+      </c>
+      <c r="T423">
+        <v>349.06469934412343</v>
+      </c>
+      <c r="U423">
+        <v>392.93551958400269</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -20915,8 +24874,20 @@
       <c r="Q424">
         <v>349.21094141549003</v>
       </c>
-    </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R424">
+        <v>631803.00080187502</v>
+      </c>
+      <c r="S424" s="12">
+        <v>238.14862020000001</v>
+      </c>
+      <c r="T424">
+        <v>363.27165657035152</v>
+      </c>
+      <c r="U424">
+        <v>407.07395733569774</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -20968,8 +24939,20 @@
       <c r="Q425">
         <v>348.12473723055899</v>
       </c>
-    </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R425">
+        <v>603289.21757787198</v>
+      </c>
+      <c r="S425" s="12">
+        <v>228.60030750000001</v>
+      </c>
+      <c r="T425">
+        <v>360.74908731609105</v>
+      </c>
+      <c r="U425">
+        <v>392.6702954009761</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -21021,8 +25004,20 @@
       <c r="Q426">
         <v>344.72451183659598</v>
       </c>
-    </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R426">
+        <v>599953.10671958595</v>
+      </c>
+      <c r="S426" s="12">
+        <v>226.6888482</v>
+      </c>
+      <c r="T426">
+        <v>349.62563834977601</v>
+      </c>
+      <c r="U426">
+        <v>371.88157197170807</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -21074,8 +25069,20 @@
       <c r="Q427">
         <v>339.53644318937103</v>
       </c>
-    </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R427">
+        <v>571837.28476368904</v>
+      </c>
+      <c r="S427" s="12">
+        <v>217.24400349999999</v>
+      </c>
+      <c r="T427">
+        <v>335.29926237917664</v>
+      </c>
+      <c r="U427">
+        <v>354.76632615582832</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -21127,8 +25134,20 @@
       <c r="Q428">
         <v>348.28715324514502</v>
       </c>
-    </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R428">
+        <v>594088.66170444898</v>
+      </c>
+      <c r="S428" s="12">
+        <v>231.772479</v>
+      </c>
+      <c r="T428">
+        <v>357.10277674545216</v>
+      </c>
+      <c r="U428">
+        <v>387.47296984780394</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -21180,8 +25199,20 @@
       <c r="Q429">
         <v>363.41132529684597</v>
       </c>
-    </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R429">
+        <v>640706.538411738</v>
+      </c>
+      <c r="S429" s="12">
+        <v>242.2441647</v>
+      </c>
+      <c r="T429">
+        <v>375.65631849821705</v>
+      </c>
+      <c r="U429">
+        <v>409.53401635581326</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -21233,8 +25264,20 @@
       <c r="Q430">
         <v>362.83115730106601</v>
       </c>
-    </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R430">
+        <v>630543.44257717906</v>
+      </c>
+      <c r="S430" s="12">
+        <v>239.00730799999999</v>
+      </c>
+      <c r="T430">
+        <v>377.46518616954415</v>
+      </c>
+      <c r="U430">
+        <v>408.27145263276691</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -21286,8 +25329,20 @@
       <c r="Q431">
         <v>360.758520735535</v>
       </c>
-    </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R431">
+        <v>634455.92805307906</v>
+      </c>
+      <c r="S431" s="12">
+        <v>239.07091550000001</v>
+      </c>
+      <c r="T431">
+        <v>380.71005005101335</v>
+      </c>
+      <c r="U431">
+        <v>399.28988696343509</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -21339,8 +25394,20 @@
       <c r="Q432">
         <v>363.29220298468601</v>
       </c>
-    </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R432">
+        <v>643555.43341974204</v>
+      </c>
+      <c r="S432" s="12">
+        <v>249.76214680000001</v>
+      </c>
+      <c r="T432">
+        <v>394.52778582593612</v>
+      </c>
+      <c r="U432">
+        <v>404.29921250074506</v>
+      </c>
+    </row>
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -21392,8 +25459,20 @@
       <c r="Q433">
         <v>360.70814576649298</v>
       </c>
-    </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R433">
+        <v>641300.98436080304</v>
+      </c>
+      <c r="S433" s="12">
+        <v>254.4831136</v>
+      </c>
+      <c r="T433">
+        <v>375.72458508188816</v>
+      </c>
+      <c r="U433">
+        <v>385.43220140272712</v>
+      </c>
+    </row>
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -21445,8 +25524,20 @@
       <c r="Q434">
         <v>360.55867631870302</v>
       </c>
-    </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R434">
+        <v>655054.10276662896</v>
+      </c>
+      <c r="S434" s="12">
+        <v>263.6059419</v>
+      </c>
+      <c r="T434">
+        <v>377.34917552163159</v>
+      </c>
+      <c r="U434">
+        <v>416.60520466061001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -21498,8 +25589,20 @@
       <c r="Q435">
         <v>359.912849312275</v>
       </c>
-    </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R435">
+        <v>665988.71321602794</v>
+      </c>
+      <c r="S435" s="12">
+        <v>258.99003909999999</v>
+      </c>
+      <c r="T435">
+        <v>371.75553937961041</v>
+      </c>
+      <c r="U435">
+        <v>416.75020760781695</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -21549,8 +25652,20 @@
       <c r="Q436">
         <v>362.22202208417298</v>
       </c>
-    </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R436">
+        <v>669112.35322262498</v>
+      </c>
+      <c r="S436" s="12">
+        <v>269.86663379999999</v>
+      </c>
+      <c r="T436">
+        <v>402.61692552160315</v>
+      </c>
+      <c r="U436">
+        <v>436.80107939735291</v>
+      </c>
+    </row>
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -21600,8 +25715,20 @@
       <c r="Q437">
         <v>368.69662392544899</v>
       </c>
-    </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R437">
+        <v>684245.04743324697</v>
+      </c>
+      <c r="S437" s="12">
+        <v>278.84635279999998</v>
+      </c>
+      <c r="T437">
+        <v>406.27631676686764</v>
+      </c>
+      <c r="U437">
+        <v>457.62947680484859</v>
+      </c>
+    </row>
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -21651,8 +25778,20 @@
       <c r="Q438">
         <v>371.38545707849801</v>
       </c>
-    </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R438">
+        <v>727780.87288708705</v>
+      </c>
+      <c r="S438" s="12">
+        <v>279.56266740000001</v>
+      </c>
+      <c r="T438">
+        <v>416.85507888844637</v>
+      </c>
+      <c r="U438">
+        <v>452.20335086140028</v>
+      </c>
+    </row>
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -21702,8 +25841,20 @@
       <c r="Q439">
         <v>371.56004592010999</v>
       </c>
-    </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R439">
+        <v>701578.36310447601</v>
+      </c>
+      <c r="S439" s="12">
+        <v>264.21906860000001</v>
+      </c>
+      <c r="T439">
+        <v>392.95392892890328</v>
+      </c>
+      <c r="U439">
+        <v>427.37669114056894</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -21753,8 +25904,20 @@
       <c r="Q440">
         <v>370.13947782063298</v>
       </c>
-    </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R440">
+        <v>743062.82916299999</v>
+      </c>
+      <c r="S440" s="12">
+        <v>267.88465910000002</v>
+      </c>
+      <c r="T440">
+        <v>397.89593725553362</v>
+      </c>
+      <c r="U440">
+        <v>418.05434285099949</v>
+      </c>
+    </row>
+    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -21804,8 +25967,20 @@
       <c r="Q441">
         <v>375.18592090504399</v>
       </c>
-    </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R441">
+        <v>712740.44815119996</v>
+      </c>
+      <c r="S441" s="12">
+        <v>260.50430369999998</v>
+      </c>
+      <c r="T441">
+        <v>392.06237157784057</v>
+      </c>
+      <c r="U441">
+        <v>401.34331438160439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -21855,8 +26030,20 @@
       <c r="Q442">
         <v>367.18841179317297</v>
       </c>
-    </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R442">
+        <v>737982.15125460096</v>
+      </c>
+      <c r="S442" s="12">
+        <v>274.08569660000001</v>
+      </c>
+      <c r="T442">
+        <v>399.3401181299015</v>
+      </c>
+      <c r="U442">
+        <v>434.0519146768678</v>
+      </c>
+    </row>
+    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -21906,8 +26093,20 @@
       <c r="Q443">
         <v>371.19634354658803</v>
       </c>
-    </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R443">
+        <v>726762.15713735495</v>
+      </c>
+      <c r="S443" s="12">
+        <v>283.78361969999997</v>
+      </c>
+      <c r="T443">
+        <v>397.55756310182733</v>
+      </c>
+      <c r="U443">
+        <v>449.10579559617531</v>
+      </c>
+    </row>
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -21957,8 +26156,20 @@
       <c r="Q444">
         <v>363.60822714252203</v>
       </c>
-    </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R444">
+        <v>687016.22175932699</v>
+      </c>
+      <c r="S444" s="12">
+        <v>285.77053009999997</v>
+      </c>
+      <c r="T444">
+        <v>406.79713897355094</v>
+      </c>
+      <c r="U444">
+        <v>447.1826045136624</v>
+      </c>
+    </row>
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -22008,8 +26219,20 @@
       <c r="Q445">
         <v>369.745737062231</v>
       </c>
-    </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R445">
+        <v>682804.62123048201</v>
+      </c>
+      <c r="S445" s="12">
+        <v>293.35690899999997</v>
+      </c>
+      <c r="T445">
+        <v>427.23413861556435</v>
+      </c>
+      <c r="U445">
+        <v>468.32169271210495</v>
+      </c>
+    </row>
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -22059,8 +26282,20 @@
       <c r="Q446">
         <v>370.93815147811398</v>
       </c>
-    </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R446">
+        <v>722376.28949011699</v>
+      </c>
+      <c r="S446" s="12">
+        <v>306.35211759999999</v>
+      </c>
+      <c r="T446">
+        <v>442.03669596196312</v>
+      </c>
+      <c r="U446">
+        <v>476.59478309362032</v>
+      </c>
+    </row>
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -22108,8 +26343,20 @@
       <c r="Q447">
         <v>373.50327771636501</v>
       </c>
-    </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R447">
+        <v>724198.39317468298</v>
+      </c>
+      <c r="S447" s="12">
+        <v>310.67783659999998</v>
+      </c>
+      <c r="T447">
+        <v>457.05214899478784</v>
+      </c>
+      <c r="U447">
+        <v>480.8610032654887</v>
+      </c>
+    </row>
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -22157,8 +26404,20 @@
       <c r="Q448">
         <v>371.93946888702197</v>
       </c>
-    </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R448">
+        <v>750654.04494165001</v>
+      </c>
+      <c r="S448" s="12">
+        <v>313.34600380000001</v>
+      </c>
+      <c r="T448">
+        <v>457.72017571490113</v>
+      </c>
+      <c r="U448">
+        <v>468.9255326798106</v>
+      </c>
+    </row>
+    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -22206,8 +26465,20 @@
       <c r="Q449">
         <v>371.99700746082198</v>
       </c>
-    </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R449">
+        <v>766047.03612244001</v>
+      </c>
+      <c r="S449" s="12">
+        <v>324.82664030000001</v>
+      </c>
+      <c r="T449">
+        <v>491.3450082250472</v>
+      </c>
+      <c r="U449">
+        <v>489.79586855255724</v>
+      </c>
+    </row>
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -22249,8 +26520,20 @@
       <c r="Q450">
         <v>371.89025136507797</v>
       </c>
-    </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R450">
+        <v>761077.47241435503</v>
+      </c>
+      <c r="S450" s="12">
+        <v>328.96202039999997</v>
+      </c>
+      <c r="T450">
+        <v>499.27488880175264</v>
+      </c>
+      <c r="U450">
+        <v>487.76348033133593</v>
+      </c>
+    </row>
+    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -22290,8 +26573,20 @@
       <c r="Q451">
         <v>375.407102481469</v>
       </c>
-    </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R451">
+        <v>768245.54832333897</v>
+      </c>
+      <c r="S451" s="12">
+        <v>334.4734679</v>
+      </c>
+      <c r="T451">
+        <v>489.15799086570996</v>
+      </c>
+      <c r="U451">
+        <v>490.69421617660566</v>
+      </c>
+    </row>
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>
@@ -22331,8 +26626,20 @@
       <c r="Q452">
         <v>375.82219120282002</v>
       </c>
-    </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R452">
+        <v>754934.67759813496</v>
+      </c>
+      <c r="S452" s="12">
+        <v>339.12191439999998</v>
+      </c>
+      <c r="T452">
+        <v>502.64476361791054</v>
+      </c>
+      <c r="U452">
+        <v>512.08481039345247</v>
+      </c>
+    </row>
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC07883-2694-A446-9E8E-D4209FF88C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F19E8-A2B3-9043-97FE-0FEECC9A85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11120" yWindow="-28080" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
+    <workbookView xWindow="-6900" yWindow="-28140" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,10 +517,10 @@
   <dimension ref="A1:U453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U129" sqref="U129:U452"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F19E8-A2B3-9043-97FE-0FEECC9A85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE783C-30EE-8A4E-AB04-7CF84A46FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6900" yWindow="-28140" windowWidth="30720" windowHeight="23080" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25060" windowHeight="20880" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>MSCI Switzerland</t>
+  </si>
+  <si>
+    <t>Avantis International Small Cap Value</t>
   </si>
 </sst>
 </file>
@@ -514,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:U453"/>
+  <dimension ref="A1:V453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="V82" sqref="V82:V452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +544,7 @@
     <col min="14" max="14" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,8 +608,11 @@
       <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -639,7 +645,7 @@
         <v>43882.050631717699</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -672,7 +678,7 @@
         <v>46295.067418052597</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -705,7 +711,7 @@
         <v>50574.710335387601</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -738,7 +744,7 @@
         <v>48894.977021351697</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -771,7 +777,7 @@
         <v>47694.135103446803</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -804,7 +810,7 @@
         <v>49555.644802220697</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -837,7 +843,7 @@
         <v>47370.027265386401</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -870,7 +876,7 @@
         <v>47646.147347513099</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -903,7 +909,7 @@
         <v>54687.585201072099</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -936,7 +942,7 @@
         <v>51058.369608144101</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -969,7 +975,7 @@
         <v>52248.1018121792</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>54263.017510707301</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>54008.004016034502</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>52704.227357630203</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>105607.57907793899</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34669</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>106072.008637962</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34700</v>
       </c>
@@ -3417,8 +3423,11 @@
       <c r="R82">
         <v>94905.647651905805</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V82">
+        <v>101.253882331825</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34731</v>
       </c>
@@ -3466,8 +3475,11 @@
       <c r="R83">
         <v>102603.143874642</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V83">
+        <v>99.182670883795396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34759</v>
       </c>
@@ -3515,8 +3527,11 @@
       <c r="R84">
         <v>99626.465300008902</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V84">
+        <v>101.204378955278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34790</v>
       </c>
@@ -3564,8 +3579,11 @@
       <c r="R85">
         <v>98986.345001678899</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V85">
+        <v>107.87048384963499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34820</v>
       </c>
@@ -3613,8 +3631,11 @@
       <c r="R86">
         <v>107307.90520713299</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V86">
+        <v>105.12645642061599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34851</v>
       </c>
@@ -3662,8 +3683,11 @@
       <c r="R87">
         <v>104370.730978502</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V87">
+        <v>102.45232170337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34881</v>
       </c>
@@ -3711,8 +3735,11 @@
       <c r="R88">
         <v>107386.048694257</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V88">
+        <v>109.499720190451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34912</v>
       </c>
@@ -3760,8 +3787,11 @@
       <c r="R89">
         <v>107677.986028081</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V89">
+        <v>112.413056287689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34943</v>
       </c>
@@ -3809,8 +3839,11 @@
       <c r="R90">
         <v>110427.590478499</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V90">
+        <v>108.178927933865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34973</v>
       </c>
@@ -3858,8 +3891,11 @@
       <c r="R91">
         <v>106765.066693574</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V91">
+        <v>109.793070658321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35004</v>
       </c>
@@ -3907,8 +3943,11 @@
       <c r="R92">
         <v>107912.483981411</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V92">
+        <v>105.692179701496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35034</v>
       </c>
@@ -3956,8 +3995,11 @@
       <c r="R93">
         <v>113899.183023024</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V93">
+        <v>101.731763827026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35065</v>
       </c>
@@ -4005,8 +4047,11 @@
       <c r="R94">
         <v>122908.62842797401</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V94">
+        <v>107.418970127459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35096</v>
       </c>
@@ -4054,8 +4099,11 @@
       <c r="R95">
         <v>125456.996461027</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V95">
+        <v>101.394296902074</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35125</v>
       </c>
@@ -4103,8 +4151,11 @@
       <c r="R96">
         <v>126973.846361594</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V96">
+        <v>96.699928599264496</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -4152,8 +4203,11 @@
       <c r="R97">
         <v>131549.66096081099</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V97">
+        <v>98.064741074098293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -4201,8 +4255,11 @@
       <c r="R98">
         <v>131772.71268178499</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V98">
+        <v>97.153029408770294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -4250,8 +4307,11 @@
       <c r="R99">
         <v>128281.45524466901</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V99">
+        <v>102.94917727446099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -4302,8 +4362,11 @@
       <c r="R100">
         <v>119961.11865133799</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V100">
+        <v>102.552709222141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -4354,8 +4417,11 @@
       <c r="R101">
         <v>124187.280055499</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V101">
+        <v>99.470565218368407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -4406,8 +4472,11 @@
       <c r="R102">
         <v>128459.3288556</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V102">
+        <v>111.35615926094</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -4458,8 +4527,11 @@
       <c r="R103">
         <v>132358.097257043</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V103">
+        <v>114.87496151949</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -4510,8 +4582,11 @@
       <c r="R104">
         <v>137626.91188116401</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V104">
+        <v>120.255713771732</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -4562,8 +4637,11 @@
       <c r="R105">
         <v>140940.84784256501</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V105">
+        <v>116.563757892593</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -4614,8 +4692,11 @@
       <c r="R106">
         <v>143032.72842707401</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V106">
+        <v>113.924007211888</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -4666,8 +4747,11 @@
       <c r="R107">
         <v>151377.57495149699</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V107">
+        <v>115.223225380862</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -4718,8 +4802,11 @@
       <c r="R108">
         <v>146022.13090643799</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V108">
+        <v>108.981947969732</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -4770,8 +4857,11 @@
       <c r="R109">
         <v>143801.51455235001</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V109">
+        <v>111.724193982518</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -4822,8 +4912,11 @@
       <c r="R110">
         <v>152272.997181174</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V110">
+        <v>108.86745595331899</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -4874,8 +4967,11 @@
       <c r="R111">
         <v>157346.43927541401</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V111">
+        <v>107.831439933317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -4926,8 +5022,11 @@
       <c r="R112">
         <v>161290.34268258401</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V112">
+        <v>105.06825423606</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -4978,8 +5077,11 @@
       <c r="R113">
         <v>142868.834901519</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V113">
+        <v>115.773421588977</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -5030,8 +5132,11 @@
       <c r="R114">
         <v>143860.581513438</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V114">
+        <v>116.345250774585</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -5082,8 +5187,11 @@
       <c r="R115">
         <v>111283.667118916</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V115">
+        <v>110.607134864739</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -5134,8 +5242,11 @@
       <c r="R116">
         <v>105544.55652738101</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V116">
+        <v>115.95844445732401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -5186,8 +5297,11 @@
       <c r="R117">
         <v>108674.316741241</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V117">
+        <v>109.256469498982</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -5238,8 +5352,11 @@
       <c r="R118">
         <v>104298.876984088</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V118">
+        <v>111.592723259938</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -5290,8 +5407,11 @@
       <c r="R119">
         <v>120079.68184462799</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V119">
+        <v>101.40463014667201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -5342,8 +5462,11 @@
       <c r="R120">
         <v>119098.150493169</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V120">
+        <v>95.474057949095993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -5394,8 +5517,11 @@
       <c r="R121">
         <v>110022.109788362</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V121">
+        <v>97.456056109137805</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -5446,8 +5572,11 @@
       <c r="R122">
         <v>96189.661204000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V122">
+        <v>102.221870278387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -5498,8 +5627,11 @@
       <c r="R123">
         <v>91050.244165575597</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V123">
+        <v>104.20854147841401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -5550,8 +5682,11 @@
       <c r="R124">
         <v>88135.724322284805</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V124">
+        <v>104.679676188005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -5602,8 +5737,11 @@
       <c r="R125">
         <v>75906.219908336803</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V125">
+        <v>104.144190424098</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -5654,8 +5792,11 @@
       <c r="R126">
         <v>78974.518810581299</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V126">
+        <v>97.239855564786794</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -5706,8 +5847,11 @@
       <c r="R127">
         <v>90744.1394339213</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V127">
+        <v>94.626644765168805</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -5760,8 +5904,11 @@
       <c r="R128">
         <v>97712.482022092896</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V128">
+        <v>93.358159841480102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -5823,8 +5970,11 @@
       <c r="U129">
         <v>100</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V129">
+        <v>99.469386753240698</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -5886,8 +6036,11 @@
       <c r="U130">
         <v>97.589224997773243</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V130">
+        <v>102.917668149908</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -5949,8 +6102,11 @@
       <c r="U131">
         <v>94.34479000878946</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V131">
+        <v>95.2195888286968</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -6012,8 +6168,11 @@
       <c r="U132">
         <v>93.229655997390012</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V132">
+        <v>98.423892469250006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -6075,8 +6234,11 @@
       <c r="U133">
         <v>93.28631800530367</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V133">
+        <v>98.109169087817094</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -6138,8 +6300,11 @@
       <c r="U134">
         <v>88.526885009139264</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V134">
+        <v>96.3076817940035</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -6201,8 +6366,11 @@
       <c r="U135">
         <v>87.321304998692952</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V135">
+        <v>100.987798143966</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -6264,8 +6432,11 @@
       <c r="U136">
         <v>90.742244998808459</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V136">
+        <v>108.095737161589</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -6327,8 +6498,11 @@
       <c r="U137">
         <v>90.570001002665876</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V137">
+        <v>115.143856466622</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -6390,8 +6564,11 @@
       <c r="U138">
         <v>90.287038997713225</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V138">
+        <v>112.05855479942301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -6453,8 +6630,11 @@
       <c r="U139">
         <v>91.864993992217009</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V139">
+        <v>112.142003006883</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -6516,8 +6696,11 @@
       <c r="U140">
         <v>91.095468013008784</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V140">
+        <v>115.95761033869501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -6579,8 +6762,11 @@
       <c r="U141">
         <v>92.959723009613967</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V141">
+        <v>123.785055404543</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -6642,8 +6828,11 @@
       <c r="U142">
         <v>82.683458006351714</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V142">
+        <v>120.05213740128499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -6705,8 +6894,11 @@
       <c r="U143">
         <v>80.781171010247363</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V143">
+        <v>118.26276617443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -6768,8 +6960,11 @@
       <c r="U144">
         <v>87.305190991463405</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V144">
+        <v>110.842406855045</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -6831,8 +7026,11 @@
       <c r="U145">
         <v>84.535069999735597</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V145">
+        <v>103.370016200112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -6894,8 +7092,11 @@
       <c r="U146">
         <v>89.365742012728788</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V146">
+        <v>107.190804850923</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -6957,8 +7158,11 @@
       <c r="U147">
         <v>92.927395013808137</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V147">
+        <v>114.181196539382</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -7020,8 +7224,11 @@
       <c r="U148">
         <v>93.197838494578221</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V148">
+        <v>113.153613352661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -7083,8 +7290,11 @@
       <c r="U149">
         <v>91.03119611263422</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V149">
+        <v>118.459077530499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -7146,8 +7356,11 @@
       <c r="U150">
         <v>85.948116620460553</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V150">
+        <v>120.06222349338699</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -7209,8 +7422,11 @@
       <c r="U151">
         <v>86.74005744494329</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V151">
+        <v>115.406302511248</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -7272,8 +7488,11 @@
       <c r="U152">
         <v>90.303188790121624</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V152">
+        <v>116.966692537052</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -7335,8 +7554,11 @@
       <c r="U153">
         <v>98.563644741476878</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V153">
+        <v>125.699530687352</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -7398,8 +7620,11 @@
       <c r="U154">
         <v>96.476552133539315</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V154">
+        <v>126.919711044369</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -7461,8 +7686,11 @@
       <c r="U155">
         <v>90.105064825951985</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V155">
+        <v>138.706740072972</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -7524,8 +7752,11 @@
       <c r="U156">
         <v>81.235956999205342</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V156">
+        <v>121.42980946493201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -7587,8 +7818,11 @@
       <c r="U157">
         <v>83.230608324241942</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V157">
+        <v>128.020534037234</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -7650,8 +7884,11 @@
       <c r="U158">
         <v>82.20292951240836</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V158">
+        <v>130.080614018977</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -7713,8 +7950,11 @@
       <c r="U159">
         <v>78.82991276595601</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V159">
+        <v>129.56443038288</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -7776,8 +8016,11 @@
       <c r="U160">
         <v>78.069663743754745</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V160">
+        <v>131.681088831734</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -7839,8 +8082,11 @@
       <c r="U161">
         <v>77.919531482016424</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V161">
+        <v>119.60482485300901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -7902,8 +8148,11 @@
       <c r="U162">
         <v>74.323328230047878</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V162">
+        <v>119.62326898268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -7965,8 +8214,11 @@
       <c r="U163">
         <v>74.339226734496748</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V163">
+        <v>123.22689706109399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -8028,8 +8280,11 @@
       <c r="U164">
         <v>75.957987125102036</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V164">
+        <v>134.115511848181</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -8091,8 +8346,11 @@
       <c r="U165">
         <v>77.491238152207302</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V165">
+        <v>132.05530774955901</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -8154,8 +8412,11 @@
       <c r="U166">
         <v>73.190313052424997</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V166">
+        <v>127.385538989431</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -8217,8 +8478,11 @@
       <c r="U167">
         <v>75.303666620657381</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V167">
+        <v>124.911237922457</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -8280,8 +8544,11 @@
       <c r="U168">
         <v>80.10068337415639</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V168">
+        <v>131.683179509018</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -8343,8 +8610,11 @@
       <c r="U169">
         <v>82.272274742284182</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V169">
+        <v>134.80812003222101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -8406,8 +8676,11 @@
       <c r="U170">
         <v>85.390787115699808</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V170">
+        <v>131.99348730028299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -8469,8 +8742,11 @@
       <c r="U171">
         <v>82.000244476108236</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V171">
+        <v>136.39131214007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -8532,8 +8808,11 @@
       <c r="U172">
         <v>72.142459565609911</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V172">
+        <v>137.98608638032599</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -8595,8 +8874,11 @@
       <c r="U173">
         <v>72.045831054858539</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V173">
+        <v>145.84861785292</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -8658,8 +8940,11 @@
       <c r="U174">
         <v>67.325089279095707</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V174">
+        <v>141.49774818801899</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -8721,8 +9006,11 @@
       <c r="U175">
         <v>69.609924248189358</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V175">
+        <v>140.02935757110501</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -8784,8 +9072,11 @@
       <c r="U176">
         <v>71.351177622726354</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V176">
+        <v>138.10728706206001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -8847,8 +9138,11 @@
       <c r="U177">
         <v>69.505521192437925</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V177">
+        <v>128.52290003442499</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -8910,8 +9204,11 @@
       <c r="U178">
         <v>67.130931973067845</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V178">
+        <v>135.708807034193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -8973,8 +9270,11 @@
       <c r="U179">
         <v>63.576184448359029</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V179">
+        <v>143.04922314317599</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -9036,8 +9336,11 @@
       <c r="U180">
         <v>63.207401373354685</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V180">
+        <v>148.884248632512</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -9099,8 +9402,11 @@
       <c r="U181">
         <v>70.383112259114725</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V181">
+        <v>153.10290246939101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -9162,8 +9468,11 @@
       <c r="U182">
         <v>74.709884595474136</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V182">
+        <v>148.04741541607299</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -9225,8 +9534,11 @@
       <c r="U183">
         <v>74.626904126681154</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V183">
+        <v>150.811054739871</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -9288,8 +9600,11 @@
       <c r="U184">
         <v>77.566714432800325</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V184">
+        <v>154.236978441736</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -9351,8 +9666,11 @@
       <c r="U185">
         <v>76.858646625522425</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V185">
+        <v>154.05761325658199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -9416,8 +9734,11 @@
       <c r="U186">
         <v>80.194960671983239</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V186">
+        <v>159.00963792305399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -9481,8 +9802,11 @@
       <c r="U187">
         <v>81.97575743825135</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V187">
+        <v>168.79186770515099</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -9546,8 +9870,11 @@
       <c r="U188">
         <v>86.348149770203491</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V188">
+        <v>192.17523383647699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -9611,8 +9938,11 @@
       <c r="U189">
         <v>93.193353313266371</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V189">
+        <v>201.70634895897899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -9676,8 +10006,11 @@
       <c r="U190">
         <v>95.627883250117449</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V190">
+        <v>207.45206525689801</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -9741,8 +10074,11 @@
       <c r="U191">
         <v>96.141972745122416</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V191">
+        <v>209.78268878735599</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -9806,8 +10142,11 @@
       <c r="U192">
         <v>93.7547441417653</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V192">
+        <v>192.03519125347901</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -9871,8 +10210,11 @@
       <c r="U193">
         <v>94.957978277657659</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V193">
+        <v>194.67090071540599</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -9936,8 +10278,11 @@
       <c r="U194">
         <v>95.720271081452239</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V194">
+        <v>198.22023649005999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -10001,8 +10346,11 @@
       <c r="U195">
         <v>95.752928653778966</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V195">
+        <v>226.58488906389499</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -10066,8 +10414,11 @@
       <c r="U196">
         <v>92.494735507634061</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V196">
+        <v>227.74216464325599</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -10131,8 +10482,11 @@
       <c r="U197">
         <v>91.38760498042258</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V197">
+        <v>234.75017791797401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -10196,8 +10550,11 @@
       <c r="U198">
         <v>93.682438581837005</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V198">
+        <v>237.872158731837</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -10261,8 +10618,11 @@
       <c r="U199">
         <v>95.439704421461997</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V199">
+        <v>227.01960948116599</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -10326,8 +10686,11 @@
       <c r="U200">
         <v>102.45682742845433</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V200">
+        <v>243.92931368739701</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -10391,8 +10754,11 @@
       <c r="U201">
         <v>107.13346659521312</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V201">
+        <v>257.14404416149199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -10456,8 +10822,11 @@
       <c r="U202">
         <v>103.8195700632121</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V202">
+        <v>272.340138438601</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -10521,8 +10890,11 @@
       <c r="U203">
         <v>109.69017525336004</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V203">
+        <v>264.37126593979002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -10586,8 +10958,11 @@
       <c r="U204">
         <v>106.86375693681187</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V204">
+        <v>288.39831911348199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -10651,8 +11026,11 @@
       <c r="U205">
         <v>106.45092911531141</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V205">
+        <v>272.57970180814601</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -10716,8 +11094,11 @@
       <c r="U206">
         <v>106.47063279219287</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V206">
+        <v>285.79611375338402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -10781,8 +11162,11 @@
       <c r="U207">
         <v>105.75013664752642</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V207">
+        <v>323.46742445196497</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -10846,8 +11230,11 @@
       <c r="U208">
         <v>111.45920306148349</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V208">
+        <v>312.638591123509</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -10911,8 +11298,11 @@
       <c r="U209">
         <v>112.38653023365001</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V209">
+        <v>309.06410985985798</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -10976,8 +11366,11 @@
       <c r="U210">
         <v>116.16884926025816</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V210">
+        <v>316.22526761952901</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -11041,8 +11434,11 @@
       <c r="U211">
         <v>117.8882356058681</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V211">
+        <v>313.64204279694798</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -11106,8 +11502,11 @@
       <c r="U212">
         <v>121.99239888553942</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V212">
+        <v>294.01356733890299</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -11171,8 +11570,11 @@
       <c r="U213">
         <v>124.63188352574295</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V213">
+        <v>300.35104753783997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -11236,8 +11638,11 @@
       <c r="U214">
         <v>132.16667802913958</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V214">
+        <v>292.84843196734602</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -11301,8 +11706,11 @@
       <c r="U215">
         <v>130.41314276048072</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V215">
+        <v>308.90473051218498</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -11366,8 +11774,11 @@
       <c r="U216">
         <v>133.47668518586545</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V216">
+        <v>303.48182979252999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -11431,8 +11842,11 @@
       <c r="U217">
         <v>141.65656517457688</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V217">
+        <v>337.09438038158999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -11496,8 +11910,11 @@
       <c r="U218">
         <v>137.25516400132921</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V218">
+        <v>333.56176497464799</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -11561,8 +11978,11 @@
       <c r="U219">
         <v>137.02948576611792</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V219">
+        <v>338.059720046819</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -11626,8 +12046,11 @@
       <c r="U220">
         <v>141.31913867027959</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V220">
+        <v>362.56601605244202</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -11691,8 +12114,11 @@
       <c r="U221">
         <v>145.10160703554189</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V221">
+        <v>350.33370780463798</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -11756,8 +12182,11 @@
       <c r="U222">
         <v>147.2304300706204</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V222">
+        <v>365.06124517039302</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -11821,8 +12250,11 @@
       <c r="U223">
         <v>151.16672362855076</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V223">
+        <v>400.88856073277202</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -11886,8 +12318,11 @@
       <c r="U224">
         <v>155.99799713565974</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V224">
+        <v>379.51805447739201</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -11951,8 +12386,11 @@
       <c r="U225">
         <v>158.78119286001706</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V225">
+        <v>394.62791618098697</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -12016,8 +12454,11 @@
       <c r="U226">
         <v>161.75176989213782</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V226">
+        <v>402.499233192784</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -12081,8 +12522,11 @@
       <c r="U227">
         <v>158.58745583756902</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V227">
+        <v>421.44365486389</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -12146,8 +12590,11 @@
       <c r="U228">
         <v>162.68029132113318</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V228">
+        <v>397.07090384792298</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -12211,8 +12658,11 @@
       <c r="U229">
         <v>174.20632564712682</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V229">
+        <v>372.38473948888799</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -12276,8 +12726,11 @@
       <c r="U230">
         <v>172.1898248464494</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V230">
+        <v>384.883143248728</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -12341,8 +12794,11 @@
       <c r="U231">
         <v>167.86156783233102</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V231">
+        <v>393.302094061839</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -12406,8 +12862,11 @@
       <c r="U232">
         <v>165.09060722349255</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V232">
+        <v>400.95506769027401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -12471,8 +12930,11 @@
       <c r="U233">
         <v>164.19647460491765</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V233">
+        <v>410.75611149675501</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -12536,8 +12998,11 @@
       <c r="U234">
         <v>170.46876467284935</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V234">
+        <v>398.88819541237501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -12601,8 +13066,11 @@
       <c r="U235">
         <v>173.74423025263337</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V235">
+        <v>406.271824857441</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -12666,8 +13134,11 @@
       <c r="U236">
         <v>173.97265417468458</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V236">
+        <v>415.07604412380903</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -12731,8 +13202,11 @@
       <c r="U237">
         <v>167.18155732441815</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V237">
+        <v>402.34295522252398</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -12796,8 +13270,11 @@
       <c r="U238">
         <v>157.7947749249181</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V238">
+        <v>414.63285891954803</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -12861,8 +13338,11 @@
       <c r="U239">
         <v>161.40127777115734</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V239">
+        <v>397.30884865031101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -12926,8 +13406,11 @@
       <c r="U240">
         <v>163.67059120167175</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V240">
+        <v>346.33229869065798</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -12991,8 +13474,11 @@
       <c r="U241">
         <v>163.80027544576018</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V241">
+        <v>335.15022591900703</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -13056,8 +13542,11 @@
       <c r="U242">
         <v>163.319778755838</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V242">
+        <v>295.92136377203798</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -13121,8 +13610,11 @@
       <c r="U243">
         <v>154.51665977158427</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V243">
+        <v>288.374028071054</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -13186,8 +13678,11 @@
       <c r="U244">
         <v>153.69339694008178</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V244">
+        <v>286.586035615475</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -13251,8 +13746,11 @@
       <c r="U245">
         <v>149.21234714249161</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V245">
+        <v>255.33481680120801</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -13316,8 +13814,11 @@
       <c r="U246">
         <v>134.0698295698306</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V246">
+        <v>251.16158498316901</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -13381,8 +13882,11 @@
       <c r="U247">
         <v>117.62373248740953</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V247">
+        <v>239.87088695224099</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -13446,8 +13950,11 @@
       <c r="U248">
         <v>106.93211357284633</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V248">
+        <v>234.18902971814401</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -13511,8 +14018,11 @@
       <c r="U249">
         <v>116.2102286895354</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V249">
+        <v>241.71998860740601</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -13576,8 +14086,11 @@
       <c r="U250">
         <v>102.08509883963782</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V250">
+        <v>242.43096304177999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -13641,8 +14154,11 @@
       <c r="U251">
         <v>90.985458356206351</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V251">
+        <v>236.740326442943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -13706,8 +14222,11 @@
       <c r="U252">
         <v>98.32755890047207</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V252">
+        <v>229.513006287439</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -13771,8 +14290,11 @@
       <c r="U253">
         <v>105.46177705230197</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V253">
+        <v>223.385309416643</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -13836,8 +14358,11 @@
       <c r="U254">
         <v>115.44988145036407</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V254">
+        <v>225.99573036252301</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -13901,8 +14426,11 @@
       <c r="U255">
         <v>114.35359200011079</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V255">
+        <v>233.548243558396</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -13966,8 +14494,11 @@
       <c r="U256">
         <v>127.06359740426771</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V256">
+        <v>240.570882859524</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -14031,8 +14562,11 @@
       <c r="U257">
         <v>135.33645020567337</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V257">
+        <v>254.68608042199099</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -14096,8 +14630,11 @@
       <c r="U258">
         <v>140.25600581689847</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V258">
+        <v>258.85469377264798</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -14161,8 +14698,11 @@
       <c r="U259">
         <v>140.91966953295747</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V259">
+        <v>282.46739328545499</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -14226,8 +14766,11 @@
       <c r="U260">
         <v>143.2732992463942</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V260">
+        <v>283.01540326993802</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -14291,8 +14834,11 @@
       <c r="U261">
         <v>145.62437156365397</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V261">
+        <v>327.45906413262998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -14356,8 +14902,11 @@
       <c r="U262">
         <v>140.75915077008551</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V262">
+        <v>346.41023130101303</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -14421,8 +14970,11 @@
       <c r="U263">
         <v>143.40932714859309</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V263">
+        <v>339.76731316576303</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -14486,8 +15038,11 @@
       <c r="U264">
         <v>151.4641975866825</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V264">
+        <v>329.478329091337</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -14551,8 +15106,11 @@
       <c r="U265">
         <v>143.72361125104635</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V265">
+        <v>346.09483263794101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -14616,8 +15174,11 @@
       <c r="U266">
         <v>128.17698135755521</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V266">
+        <v>350.85408553950401</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -14681,8 +15242,11 @@
       <c r="U267">
         <v>133.64791844297696</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V267">
+        <v>372.76959589171298</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -14746,8 +15310,11 @@
       <c r="U268">
         <v>140.07662688493252</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V268">
+        <v>391.39052286957502</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -14811,8 +15378,11 @@
       <c r="U269">
         <v>143.56860010316802</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V269">
+        <v>399.83612871541101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -14876,8 +15446,11 @@
       <c r="U270">
         <v>151.42474994631812</v>
       </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V270">
+        <v>392.38401166972199</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -14941,8 +15514,11 @@
       <c r="U271">
         <v>154.87758148520646</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V271">
+        <v>371.44992965912098</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -15006,8 +15582,11 @@
       <c r="U272">
         <v>149.29004366496892</v>
       </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V272">
+        <v>372.25269485176398</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -15071,8 +15650,11 @@
       <c r="U273">
         <v>162.79832282973754</v>
       </c>
-    </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V273">
+        <v>398.25921766696803</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -15136,8 +15718,11 @@
       <c r="U274">
         <v>162.27885218935648</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V274">
+        <v>396.43952432729702</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -15201,8 +15786,11 @@
       <c r="U275">
         <v>168.02927317297539</v>
       </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V275">
+        <v>364.55617649997799</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -15266,8 +15854,11 @@
       <c r="U276">
         <v>165.21436664535665</v>
       </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V276">
+        <v>362.11546912628899</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -15331,8 +15922,11 @@
       <c r="U277">
         <v>180.91891832016796</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V277">
+        <v>363.682677044733</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -15396,8 +15990,11 @@
       <c r="U278">
         <v>184.70763941027965</v>
       </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V278">
+        <v>341.27242872223701</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -15461,8 +16058,11 @@
       <c r="U279">
         <v>176.65512054703817</v>
       </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V279">
+        <v>338.64259553434403</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -15526,8 +16126,11 @@
       <c r="U280">
         <v>176.20207176791047</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V280">
+        <v>334.35228457785502</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -15591,8 +16194,11 @@
       <c r="U281">
         <v>164.51413199205379</v>
       </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V281">
+        <v>309.24769938989499</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -15656,8 +16262,11 @@
       <c r="U282">
         <v>145.75467856485952</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V282">
+        <v>310.14372028325801</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -15721,8 +16330,11 @@
       <c r="U283">
         <v>158.02664214121515</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V283">
+        <v>314.31374636396799</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -15786,8 +16398,11 @@
       <c r="U284">
         <v>149.21098330191691</v>
       </c>
-    </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V284">
+        <v>327.06961599912199</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -15851,8 +16466,11 @@
       <c r="U285">
         <v>151.76962390731813</v>
       </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V285">
+        <v>339.846069080164</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -15916,8 +16534,11 @@
       <c r="U286">
         <v>155.63464671225918</v>
       </c>
-    </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V286">
+        <v>307.75213897811801</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -15981,8 +16602,11 @@
       <c r="U287">
         <v>163.65022862057089</v>
       </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V287">
+        <v>285.72272217694302</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -16046,8 +16670,11 @@
       <c r="U288">
         <v>167.02216427912603</v>
       </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V288">
+        <v>286.840226779575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -16111,8 +16738,11 @@
       <c r="U289">
         <v>164.88891745399698</v>
       </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V289">
+        <v>287.94348148215403</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -16176,8 +16806,11 @@
       <c r="U290">
         <v>147.56768852934641</v>
       </c>
-    </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V290">
+        <v>289.06985762323899</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -16241,8 +16874,11 @@
       <c r="U291">
         <v>156.87545899567303</v>
       </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V291">
+        <v>340.33435424712599</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -16306,8 +16942,11 @@
       <c r="U292">
         <v>160.31675960893077</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V292">
+        <v>342.65321359248998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -16371,8 +17010,11 @@
       <c r="U293">
         <v>163.9515562714947</v>
       </c>
-    </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V293">
+        <v>355.04179071879099</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -16436,8 +17078,11 @@
       <c r="U294">
         <v>169.06192071843975</v>
       </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V294">
+        <v>364.528691581582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -16501,8 +17146,11 @@
       <c r="U295">
         <v>173.50247714316311</v>
       </c>
-    </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V295">
+        <v>368.53720049703099</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -16566,8 +17214,11 @@
       <c r="U296">
         <v>180.33688050661505</v>
       </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V296">
+        <v>354.07847729294502</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -16631,8 +17282,11 @@
       <c r="U297">
         <v>182.65487037606479</v>
       </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V297">
+        <v>359.951339991834</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -16696,8 +17350,11 @@
       <c r="U298">
         <v>198.4308138220114</v>
       </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V298">
+        <v>357.04559679720398</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -16761,8 +17418,11 @@
       <c r="U299">
         <v>200.05198009859893</v>
       </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V299">
+        <v>364.10764461468</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -16826,8 +17486,11 @@
       <c r="U300">
         <v>203.17659047459881</v>
       </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V300">
+        <v>366.60700559178701</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -16891,8 +17554,11 @@
       <c r="U301">
         <v>211.94100973325038</v>
       </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V301">
+        <v>379.92909400231099</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -16956,8 +17622,11 @@
       <c r="U302">
         <v>206.54386539635968</v>
       </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V302">
+        <v>437.81424096854403</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -17021,8 +17690,11 @@
       <c r="U303">
         <v>202.59283178301024</v>
       </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V303">
+        <v>409.38198459300497</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -17086,8 +17758,11 @@
       <c r="U304">
         <v>210.39395781939939</v>
       </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V304">
+        <v>437.11503559609599</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -17151,8 +17826,11 @@
       <c r="U305">
         <v>207.6310082272802</v>
       </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V305">
+        <v>414.50980693388402</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -17216,8 +17894,11 @@
       <c r="U306">
         <v>221.78335700354395</v>
       </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V306">
+        <v>417.64444491734201</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -17281,8 +17962,11 @@
       <c r="U307">
         <v>227.45880466703255</v>
       </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V307">
+        <v>454.67618804672099</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -17346,8 +18030,11 @@
       <c r="U308">
         <v>228.85049943420884</v>
       </c>
-    </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V308">
+        <v>470.78293917225699</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -17411,8 +18098,11 @@
       <c r="U309">
         <v>231.25373324156521</v>
       </c>
-    </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V309">
+        <v>459.52337177095899</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -17476,8 +18166,11 @@
       <c r="U310">
         <v>226.72501582135254</v>
       </c>
-    </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V310">
+        <v>440.72613145269099</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -17541,8 +18234,11 @@
       <c r="U311">
         <v>242.29945973380501</v>
       </c>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V311">
+        <v>454.642171602855</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -17606,8 +18302,11 @@
       <c r="U312">
         <v>242.20641186724009</v>
       </c>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V312">
+        <v>435.68875644018101</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -17671,8 +18370,11 @@
       <c r="U313">
         <v>245.95328929341852</v>
       </c>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V313">
+        <v>438.96070873480699</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -17736,8 +18438,11 @@
       <c r="U314">
         <v>248.63972103456163</v>
       </c>
-    </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V314">
+        <v>438.35946545492999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -17801,8 +18506,11 @@
       <c r="U315">
         <v>247.27255653247155</v>
       </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V315">
+        <v>421.87897892806802</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -17866,8 +18574,11 @@
       <c r="U316">
         <v>237.43431066893575</v>
       </c>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V316">
+        <v>467.30054680080502</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -17931,8 +18642,11 @@
       <c r="U317">
         <v>242.64650080180618</v>
       </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V317">
+        <v>480.94652610993802</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -17996,8 +18710,11 @@
       <c r="U318">
         <v>236.32356828164222</v>
       </c>
-    </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V318">
+        <v>428.53914178422201</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -18061,8 +18778,11 @@
       <c r="U319">
         <v>234.57024297381159</v>
       </c>
-    </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V319">
+        <v>431.08928002631302</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -18126,8 +18846,11 @@
       <c r="U320">
         <v>242.3748450358965</v>
       </c>
-    </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V320">
+        <v>414.65395253586399</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -18191,8 +18914,11 @@
       <c r="U321">
         <v>231.05046991948907</v>
       </c>
-    </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V321">
+        <v>431.47068139541398</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -18256,8 +18982,11 @@
       <c r="U322">
         <v>232.60931056155195</v>
       </c>
-    </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V322">
+        <v>416.64865249729598</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -18321,8 +19050,11 @@
       <c r="U323">
         <v>243.26372505977267</v>
       </c>
-    </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V323">
+        <v>417.00962107252201</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -18386,8 +19118,11 @@
       <c r="U324">
         <v>242.00799888459363</v>
       </c>
-    </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V324">
+        <v>430.79935825355199</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -18451,8 +19186,11 @@
       <c r="U325">
         <v>251.64066604354807</v>
       </c>
-    </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V325">
+        <v>453.12088318757202</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -18516,8 +19254,11 @@
       <c r="U326">
         <v>254.91616116533183</v>
       </c>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V326">
+        <v>427.95410146384103</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -18581,8 +19322,11 @@
       <c r="U327">
         <v>244.4405728741431</v>
       </c>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V327">
+        <v>423.43792252255503</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -18646,8 +19390,11 @@
       <c r="U328">
         <v>255.30281712756121</v>
       </c>
-    </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V328">
+        <v>415.879284659218</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -18711,8 +19458,11 @@
       <c r="U329">
         <v>237.94414982569268</v>
       </c>
-    </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V329">
+        <v>404.600746451975</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -18776,8 +19526,11 @@
       <c r="U330">
         <v>227.41308645446975</v>
       </c>
-    </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V330">
+        <v>444.47978840862999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -18841,8 +19594,11 @@
       <c r="U331">
         <v>237.49576899920757</v>
       </c>
-    </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V331">
+        <v>456.86819990776098</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -18906,8 +19662,11 @@
       <c r="U332">
         <v>229.84737634560776</v>
       </c>
-    </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V332">
+        <v>430.05496630858897</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -18971,8 +19730,11 @@
       <c r="U333">
         <v>232.0578334717099</v>
       </c>
-    </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V333">
+        <v>453.50231490192999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -19036,8 +19798,11 @@
       <c r="U334">
         <v>214.63104295179724</v>
       </c>
-    </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V334">
+        <v>511.400318720874</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -19101,8 +19866,11 @@
       <c r="U335">
         <v>210.34737390861898</v>
       </c>
-    </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V335">
+        <v>547.73356953081304</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -19166,8 +19934,11 @@
       <c r="U336">
         <v>219.2769392342602</v>
       </c>
-    </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V336">
+        <v>514.02021013217495</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -19231,8 +20002,11 @@
       <c r="U337">
         <v>225.28015900414499</v>
       </c>
-    </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V337">
+        <v>510.02965783531403</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -19296,8 +20070,11 @@
       <c r="U338">
         <v>225.10469567649736</v>
       </c>
-    </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V338">
+        <v>552.47879367284304</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -19361,8 +20138,11 @@
       <c r="U339">
         <v>223.73647996781304</v>
       </c>
-    </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V339">
+        <v>541.77536855703397</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -19426,8 +20206,11 @@
       <c r="U340">
         <v>229.2424221740113</v>
       </c>
-    </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V340">
+        <v>563.69541538988301</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -19491,8 +20274,11 @@
       <c r="U341">
         <v>227.7846500740641</v>
       </c>
-    </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V341">
+        <v>596.19205669397797</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -19556,8 +20342,11 @@
       <c r="U342">
         <v>229.60859609778862</v>
       </c>
-    </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V342">
+        <v>577.849257252813</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -19621,8 +20410,11 @@
       <c r="U343">
         <v>217.15315467093285</v>
       </c>
-    </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V343">
+        <v>586.11544699160299</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -19686,8 +20478,11 @@
       <c r="U344">
         <v>211.8201407449769</v>
       </c>
-    </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V344">
+        <v>497.598495111099</v>
+      </c>
+    </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -19751,8 +20546,11 @@
       <c r="U345">
         <v>220.74504795776872</v>
       </c>
-    </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V345">
+        <v>479.76923356318503</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -19816,8 +20614,11 @@
       <c r="U346">
         <v>229.60228026254163</v>
       </c>
-    </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V346">
+        <v>485.99699138245802</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -19881,8 +20682,11 @@
       <c r="U347">
         <v>233.15985850347553</v>
       </c>
-    </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V347">
+        <v>467.17328116472299</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -19946,8 +20750,11 @@
       <c r="U348">
         <v>239.1514044558366</v>
       </c>
-    </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V348">
+        <v>518.99547794870603</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -20011,8 +20818,11 @@
       <c r="U349">
         <v>247.40439413047091</v>
       </c>
-    </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V349">
+        <v>493.97586662704902</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -20076,8 +20886,11 @@
       <c r="U350">
         <v>261.04441147739743</v>
       </c>
-    </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V350">
+        <v>495.57594336526898</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -20141,8 +20954,11 @@
       <c r="U351">
         <v>260.58636903716291</v>
       </c>
-    </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V351">
+        <v>511.879421520427</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -20206,8 +21022,11 @@
       <c r="U352">
         <v>262.85374961561439</v>
       </c>
-    </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V352">
+        <v>563.57684707088504</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -20271,8 +21090,11 @@
       <c r="U353">
         <v>260.59676463162265</v>
       </c>
-    </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V353">
+        <v>536.24053873687603</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -20336,8 +21158,11 @@
       <c r="U354">
         <v>265.709301162016</v>
       </c>
-    </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V354">
+        <v>582.64911351580304</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -20401,8 +21226,11 @@
       <c r="U355">
         <v>261.23630323325199</v>
       </c>
-    </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V355">
+        <v>598.16872292309199</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -20466,8 +21294,11 @@
       <c r="U356">
         <v>266.80986300522613</v>
       </c>
-    </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V356">
+        <v>583.27664063514601</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -20531,8 +21362,11 @@
       <c r="U357">
         <v>270.4377567022633</v>
       </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V357">
+        <v>612.50822789589097</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -20596,8 +21430,11 @@
       <c r="U358">
         <v>282.00303185200295</v>
       </c>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V358">
+        <v>607.304988906934</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -20661,8 +21498,11 @@
       <c r="U359">
         <v>264.09683932481403</v>
       </c>
-    </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V359">
+        <v>576.92358578880999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -20726,8 +21566,11 @@
       <c r="U360">
         <v>258.76622976928599</v>
       </c>
-    </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V360">
+        <v>568.147774733642</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -20791,8 +21634,11 @@
       <c r="U361">
         <v>257.79241461866746</v>
       </c>
-    </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V361">
+        <v>546.06961076043103</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -20856,8 +21702,11 @@
       <c r="U362">
         <v>249.37725092436696</v>
       </c>
-    </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V362">
+        <v>539.00353505765202</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -20921,8 +21770,11 @@
       <c r="U363">
         <v>251.73267245283105</v>
       </c>
-    </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V363">
+        <v>547.394151312997</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -20986,8 +21838,11 @@
       <c r="U364">
         <v>268.15321550189145</v>
       </c>
-    </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V364">
+        <v>582.19387839897797</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -21051,8 +21906,11 @@
       <c r="U365">
         <v>269.8457655872989</v>
       </c>
-    </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V365">
+        <v>533.78026842429301</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -21116,8 +21974,11 @@
       <c r="U366">
         <v>270.00881869634952</v>
       </c>
-    </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V366">
+        <v>582.886585347449</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -21181,8 +22042,11 @@
       <c r="U367">
         <v>259.36033064900857</v>
       </c>
-    </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V367">
+        <v>512.78172419648399</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -21246,8 +22110,11 @@
       <c r="U368">
         <v>259.98029758532647</v>
       </c>
-    </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V368">
+        <v>499.07742748654101</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -21311,8 +22178,11 @@
       <c r="U369">
         <v>245.87477760628209</v>
       </c>
-    </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V369">
+        <v>504.93232619692299</v>
+      </c>
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -21376,8 +22246,11 @@
       <c r="U370">
         <v>261.05481695689082</v>
       </c>
-    </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V370">
+        <v>516.22991672448097</v>
+      </c>
+    </row>
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -21441,8 +22314,11 @@
       <c r="U371">
         <v>272.02178117526125</v>
       </c>
-    </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V371">
+        <v>503.53958267647897</v>
+      </c>
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -21506,8 +22382,11 @@
       <c r="U372">
         <v>278.11227936773798</v>
       </c>
-    </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V372">
+        <v>502.00849486360499</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -21571,8 +22450,11 @@
       <c r="U373">
         <v>282.35793790062053</v>
       </c>
-    </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V373">
+        <v>493.05096601689399</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -21636,8 +22518,11 @@
       <c r="U374">
         <v>281.70549491919485</v>
       </c>
-    </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V374">
+        <v>481.78445950720197</v>
+      </c>
+    </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -21701,8 +22586,11 @@
       <c r="U375">
         <v>301.49960513237977</v>
       </c>
-    </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V375">
+        <v>506.798862306491</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -21766,8 +22654,11 @@
       <c r="U376">
         <v>299.46816689229416</v>
       </c>
-    </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V376">
+        <v>520.14022468737198</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -21831,8 +22722,11 @@
       <c r="U377">
         <v>300.29473722889662</v>
       </c>
-    </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V377">
+        <v>505.456177355026</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -21896,8 +22790,11 @@
       <c r="U378">
         <v>302.2695037569967</v>
       </c>
-    </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V378">
+        <v>533.01277861677704</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -21961,8 +22858,11 @@
       <c r="U379">
         <v>307.82242884931344</v>
       </c>
-    </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V379">
+        <v>545.66727511300405</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -22026,8 +22926,11 @@
       <c r="U380">
         <v>311.61166651725677</v>
       </c>
-    </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V380">
+        <v>572.95677963157402</v>
+      </c>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -22091,8 +22994,11 @@
       <c r="U381">
         <v>325.34539857466279</v>
       </c>
-    </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V381">
+        <v>596.15589894299796</v>
+      </c>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -22156,8 +23062,11 @@
       <c r="U382">
         <v>327.91501274361678</v>
       </c>
-    </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V382">
+        <v>566.83562210471996</v>
+      </c>
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -22221,8 +23130,11 @@
       <c r="U383">
         <v>301.88660849585881</v>
       </c>
-    </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V383">
+        <v>546.87493258351003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -22286,8 +23198,11 @@
       <c r="U384">
         <v>287.85048991268206</v>
       </c>
-    </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V384">
+        <v>564.77093820945197</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -22351,8 +23266,11 @@
       <c r="U385">
         <v>301.37457169481155</v>
       </c>
-    </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V385">
+        <v>579.23437357199498</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -22416,8 +23334,11 @@
       <c r="U386">
         <v>309.89147201925414</v>
       </c>
-    </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V386">
+        <v>575.06825070523496</v>
+      </c>
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -22481,8 +23402,11 @@
       <c r="U387">
         <v>319.36795612227303</v>
       </c>
-    </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V387">
+        <v>575.06257104952203</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -22546,8 +23470,11 @@
       <c r="U388">
         <v>332.37465583363888</v>
       </c>
-    </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V388">
+        <v>609.72908485591097</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -22611,8 +23538,11 @@
       <c r="U389">
         <v>340.70030749491661</v>
       </c>
-    </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V389">
+        <v>587.26341111574197</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -22676,8 +23606,11 @@
       <c r="U390">
         <v>335.56712189840954</v>
       </c>
-    </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V390">
+        <v>600.37208632061095</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -22741,8 +23674,11 @@
       <c r="U391">
         <v>316.90707583004058</v>
       </c>
-    </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V391">
+        <v>590.39833024941402</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -22806,8 +23742,11 @@
       <c r="U392">
         <v>346.31028483908233</v>
       </c>
-    </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V392">
+        <v>580.11510672640702</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -22871,8 +23810,11 @@
       <c r="U393">
         <v>363.22776816181539</v>
       </c>
-    </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V393">
+        <v>609.69386139319101</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -22936,8 +23878,11 @@
       <c r="U394">
         <v>355.78323304069852</v>
       </c>
-    </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V394">
+        <v>624.50771264396496</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -23001,8 +23946,11 @@
       <c r="U395">
         <v>347.53383977653993</v>
       </c>
-    </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V395">
+        <v>639.29512166874099</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -23066,8 +24014,11 @@
       <c r="U396">
         <v>355.99299940291434</v>
       </c>
-    </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V396">
+        <v>670.77527482180994</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -23131,8 +24082,11 @@
       <c r="U397">
         <v>370.65966283579519</v>
       </c>
-    </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V397">
+        <v>659.035832829073</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -23196,8 +24150,11 @@
       <c r="U398">
         <v>389.14848365460847</v>
       </c>
-    </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V398">
+        <v>670.13572307616903</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -23261,8 +24218,11 @@
       <c r="U399">
         <v>397.05449600500515</v>
       </c>
-    </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V399">
+        <v>646.872209933151</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -23326,8 +24286,11 @@
       <c r="U400">
         <v>410.42140308362883</v>
       </c>
-    </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V400">
+        <v>645.74114233640705</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -23391,8 +24354,11 @@
       <c r="U401">
         <v>415.44211541056455</v>
       </c>
-    </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V401">
+        <v>629.36829360713796</v>
+      </c>
+    </row>
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -23456,8 +24422,11 @@
       <c r="U402">
         <v>384.04387155075449</v>
       </c>
-    </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V402">
+        <v>620.838693314176</v>
+      </c>
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -23521,8 +24490,11 @@
       <c r="U403">
         <v>408.02638179385985</v>
       </c>
-    </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V403">
+        <v>628.49523031927504</v>
+      </c>
+    </row>
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -23586,8 +24558,11 @@
       <c r="U404">
         <v>402.05845157132489</v>
       </c>
-    </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V404">
+        <v>590.08871045666399</v>
+      </c>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -23651,8 +24626,11 @@
       <c r="U405">
         <v>433.31232157470515</v>
       </c>
-    </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V405">
+        <v>643.273958550212</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -23716,8 +24694,11 @@
       <c r="U406">
         <v>399.50494570930647</v>
       </c>
-    </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V406">
+        <v>601.97444383818595</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -23781,8 +24762,11 @@
       <c r="U407">
         <v>397.60689609006738</v>
       </c>
-    </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V407">
+        <v>556.81494910198001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -23846,8 +24830,11 @@
       <c r="U408">
         <v>405.44222454631199</v>
       </c>
-    </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V408">
+        <v>583.68090319428404</v>
+      </c>
+    </row>
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -23911,8 +24898,11 @@
       <c r="U409">
         <v>385.66697965962993</v>
       </c>
-    </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V409">
+        <v>600.72913356224501</v>
+      </c>
+    </row>
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -23976,8 +24966,11 @@
       <c r="U410">
         <v>373.03021950433953</v>
       </c>
-    </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V410">
+        <v>613.04549330365705</v>
+      </c>
+    </row>
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -24041,8 +25034,11 @@
       <c r="U411">
         <v>346.70033053089031</v>
       </c>
-    </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V411">
+        <v>625.748975867789</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -24106,8 +25102,11 @@
       <c r="U412">
         <v>362.99091802901324</v>
       </c>
-    </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V412">
+        <v>617.88692390059703</v>
+      </c>
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -24171,8 +25170,11 @@
       <c r="U413">
         <v>343.19721402963495</v>
       </c>
-    </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V413">
+        <v>581.70929203805099</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -24236,8 +25238,11 @@
       <c r="U414">
         <v>320.56438263684146</v>
       </c>
-    </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V414">
+        <v>577.06204832793503</v>
+      </c>
+    </row>
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -24301,8 +25306,11 @@
       <c r="U415">
         <v>330.45435181430463</v>
       </c>
-    </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V415">
+        <v>549.87421982289595</v>
+      </c>
+    </row>
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -24366,8 +25374,11 @@
       <c r="U416">
         <v>356.45622300321122</v>
       </c>
-    </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V416">
+        <v>571.17681007800797</v>
+      </c>
+    </row>
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -24431,8 +25442,11 @@
       <c r="U417">
         <v>353.95038272799599</v>
       </c>
-    </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V417">
+        <v>559.99934177485602</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -24496,8 +25510,11 @@
       <c r="U418">
         <v>375.58866148163992</v>
       </c>
-    </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V418">
+        <v>556.07395847062105</v>
+      </c>
+    </row>
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -24561,8 +25578,11 @@
       <c r="U419">
         <v>362.8436855882544</v>
       </c>
-    </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V419">
+        <v>566.74211119671497</v>
+      </c>
+    </row>
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -24626,8 +25646,11 @@
       <c r="U420">
         <v>377.73960654332012</v>
       </c>
-    </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V420">
+        <v>599.23968140464001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -24691,8 +25714,11 @@
       <c r="U421">
         <v>401.2255766643421</v>
       </c>
-    </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V421">
+        <v>603.19015959635203</v>
+      </c>
+    </row>
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -24756,8 +25782,11 @@
       <c r="U422">
         <v>382.96578555953653</v>
       </c>
-    </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V422">
+        <v>599.06472874886299</v>
+      </c>
+    </row>
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -24821,8 +25850,11 @@
       <c r="U423">
         <v>392.93551958400269</v>
       </c>
-    </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V423">
+        <v>628.14742244531703</v>
+      </c>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -24886,8 +25918,11 @@
       <c r="U424">
         <v>407.07395733569774</v>
       </c>
-    </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V424">
+        <v>658.68374639094702</v>
+      </c>
+    </row>
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -24951,8 +25986,11 @@
       <c r="U425">
         <v>392.6702954009761</v>
       </c>
-    </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V425">
+        <v>664.96952007803702</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -25016,8 +26054,11 @@
       <c r="U426">
         <v>371.88157197170807</v>
       </c>
-    </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V426">
+        <v>672.55589332564</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -25081,8 +26122,11 @@
       <c r="U427">
         <v>354.76632615582832</v>
       </c>
-    </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V427">
+        <v>704.79966195314796</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -25146,8 +26190,11 @@
       <c r="U428">
         <v>387.47296984780394</v>
       </c>
-    </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V428">
+        <v>677.05860750716101</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -25211,8 +26258,11 @@
       <c r="U429">
         <v>409.53401635581326</v>
       </c>
-    </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V429">
+        <v>651.83851852446105</v>
+      </c>
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -25276,8 +26326,11 @@
       <c r="U430">
         <v>408.27145263276691</v>
       </c>
-    </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V430">
+        <v>630.85799635104797</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -25341,8 +26394,11 @@
       <c r="U431">
         <v>399.28988696343509</v>
       </c>
-    </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V431">
+        <v>627.10674485604898</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -25406,8 +26462,11 @@
       <c r="U432">
         <v>404.29921250074506</v>
       </c>
-    </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V432">
+        <v>640.46411921922504</v>
+      </c>
+    </row>
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -25471,8 +26530,11 @@
       <c r="U433">
         <v>385.43220140272712</v>
       </c>
-    </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V433">
+        <v>692.85826507054196</v>
+      </c>
+    </row>
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -25536,8 +26598,11 @@
       <c r="U434">
         <v>416.60520466061001</v>
       </c>
-    </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V434">
+        <v>727.30029889729803</v>
+      </c>
+    </row>
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -25601,8 +26666,11 @@
       <c r="U435">
         <v>416.75020760781695</v>
       </c>
-    </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V435">
+        <v>724.99775365314497</v>
+      </c>
+    </row>
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -25664,8 +26732,11 @@
       <c r="U436">
         <v>436.80107939735291</v>
       </c>
-    </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V436">
+        <v>728.01132206387399</v>
+      </c>
+    </row>
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -25727,8 +26798,11 @@
       <c r="U437">
         <v>457.62947680484859</v>
       </c>
-    </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V437">
+        <v>693.83251273732606</v>
+      </c>
+    </row>
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -25790,8 +26864,11 @@
       <c r="U438">
         <v>452.20335086140028</v>
       </c>
-    </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V438">
+        <v>696.73467491787301</v>
+      </c>
+    </row>
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -25853,8 +26930,11 @@
       <c r="U439">
         <v>427.37669114056894</v>
       </c>
-    </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V439">
+        <v>689.86879172396698</v>
+      </c>
+    </row>
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -25916,8 +26996,11 @@
       <c r="U440">
         <v>418.05434285099949</v>
       </c>
-    </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V440">
+        <v>704.98638216011295</v>
+      </c>
+    </row>
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -25979,8 +27062,11 @@
       <c r="U441">
         <v>401.34331438160439</v>
       </c>
-    </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V441">
+        <v>678.31011297509303</v>
+      </c>
+    </row>
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -26042,8 +27128,11 @@
       <c r="U442">
         <v>434.0519146768678</v>
       </c>
-    </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V442">
+        <v>693.308368131017</v>
+      </c>
+    </row>
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -26105,8 +27194,11 @@
       <c r="U443">
         <v>449.10579559617531</v>
       </c>
-    </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V443">
+        <v>745.14607835606398</v>
+      </c>
+    </row>
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -26168,8 +27260,11 @@
       <c r="U444">
         <v>447.1826045136624</v>
       </c>
-    </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V444">
+        <v>737.30254196646104</v>
+      </c>
+    </row>
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -26231,8 +27326,11 @@
       <c r="U445">
         <v>468.32169271210495</v>
       </c>
-    </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V445">
+        <v>749.09844158841702</v>
+      </c>
+    </row>
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -26294,8 +27392,11 @@
       <c r="U446">
         <v>476.59478309362032</v>
       </c>
-    </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V446">
+        <v>772.31008382388904</v>
+      </c>
+    </row>
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -26355,8 +27456,11 @@
       <c r="U447">
         <v>480.8610032654887</v>
       </c>
-    </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V447">
+        <v>752.44406198460103</v>
+      </c>
+    </row>
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -26416,8 +27520,11 @@
       <c r="U448">
         <v>468.9255326798106</v>
       </c>
-    </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V448">
+        <v>757.53762461431995</v>
+      </c>
+    </row>
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -26477,8 +27584,11 @@
       <c r="U449">
         <v>489.79586855255724</v>
       </c>
-    </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V449">
+        <v>754.34042996173605</v>
+      </c>
+    </row>
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -26532,8 +27642,11 @@
       <c r="U450">
         <v>487.76348033133593</v>
       </c>
-    </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V450">
+        <v>754.49172744843895</v>
+      </c>
+    </row>
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -26585,8 +27698,11 @@
       <c r="U451">
         <v>490.69421617660566</v>
       </c>
-    </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V451">
+        <v>720.50821562429599</v>
+      </c>
+    </row>
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>
@@ -26638,8 +27754,11 @@
       <c r="U452">
         <v>512.08481039345247</v>
       </c>
-    </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V452">
+        <v>717.91348994648104</v>
+      </c>
+    </row>
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE783C-30EE-8A4E-AB04-7CF84A46FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA209B-0418-D345-95A5-13DE9D86C798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25060" windowHeight="20880" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Avantis International Small Cap Value</t>
+  </si>
+  <si>
+    <t>Berkshire Hatway</t>
   </si>
 </sst>
 </file>
@@ -517,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:V453"/>
+  <dimension ref="A1:W453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T438" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V82" sqref="V82:V452"/>
+      <selection pane="bottomRight" activeCell="W453" sqref="W453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +547,7 @@
     <col min="14" max="14" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,8 +614,11 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -645,7 +651,7 @@
         <v>43882.050631717699</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -678,7 +684,7 @@
         <v>46295.067418052597</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -711,7 +717,7 @@
         <v>50574.710335387601</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -744,7 +750,7 @@
         <v>48894.977021351697</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -777,7 +783,7 @@
         <v>47694.135103446803</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -810,7 +816,7 @@
         <v>49555.644802220697</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -843,7 +849,7 @@
         <v>47370.027265386401</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -876,7 +882,7 @@
         <v>47646.147347513099</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -909,7 +915,7 @@
         <v>54687.585201072099</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -942,7 +948,7 @@
         <v>51058.369608144101</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -975,7 +981,7 @@
         <v>52248.1018121792</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>54263.017510707301</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>54008.004016034502</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>52704.227357630203</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>96.699928599264496</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>98.064741074098293</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -4258,8 +4264,11 @@
       <c r="V98">
         <v>97.153029408770294</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -4310,8 +4319,11 @@
       <c r="V99">
         <v>102.94917727446099</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <v>101.274510949724</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -4365,8 +4377,11 @@
       <c r="V100">
         <v>102.552709222141</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <v>100.588239419006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -4420,8 +4435,11 @@
       <c r="V101">
         <v>99.470565218368407</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <v>102.0588239419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -4475,8 +4493,11 @@
       <c r="V102">
         <v>111.35615926094</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <v>105.19607591060699</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -4530,8 +4551,11 @@
       <c r="V103">
         <v>114.87496151949</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <v>105.78431532961299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -4585,8 +4609,11 @@
       <c r="V104">
         <v>120.255713771732</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <v>108.13725430614301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -4640,8 +4667,11 @@
       <c r="V105">
         <v>116.563757892593</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <v>109.019608759779</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -4695,8 +4725,11 @@
       <c r="V106">
         <v>113.924007211888</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <v>113.23529810503901</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -4750,8 +4783,11 @@
       <c r="V107">
         <v>115.223225380862</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <v>116.470591535205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -4805,8 +4841,11 @@
       <c r="V108">
         <v>108.981947969732</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <v>118.627456938565</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -4860,8 +4899,11 @@
       <c r="V109">
         <v>111.724193982518</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <v>124.607845841348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -4915,8 +4957,11 @@
       <c r="V110">
         <v>108.86745595331899</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W110">
+        <v>141.66666744581201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -4970,8 +5015,11 @@
       <c r="V111">
         <v>107.831439933317</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <v>154.901965550852</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -5025,8 +5073,11 @@
       <c r="V112">
         <v>105.06825423606</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W112">
+        <v>155.00000701231099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -5080,8 +5131,11 @@
       <c r="V113">
         <v>115.773421588977</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <v>136.47059153520499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -5135,8 +5189,11 @@
       <c r="V114">
         <v>116.345250774585</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W114">
+        <v>146.56862832178999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -5190,8 +5247,11 @@
       <c r="V115">
         <v>110.607134864739</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <v>144.01960642234201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -5245,8 +5305,11 @@
       <c r="V116">
         <v>115.95844445732401</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W116">
+        <v>147.84313927151399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -5300,8 +5363,11 @@
       <c r="V117">
         <v>109.256469498982</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <v>150.88235912850899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -5355,8 +5421,11 @@
       <c r="V118">
         <v>111.592723259938</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <v>164.411772268178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -5410,8 +5479,11 @@
       <c r="V119">
         <v>101.40463014667201</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W119">
+        <v>182.35294832627801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -5465,8 +5537,11 @@
       <c r="V120">
         <v>95.474057949095993</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <v>220.098050811207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -5520,8 +5595,11 @@
       <c r="V121">
         <v>97.456056109137805</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W121">
+        <v>225.00001168718501</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -5575,8 +5653,11 @@
       <c r="V122">
         <v>102.221870278387</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <v>230.19607824804399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -5630,8 +5711,11 @@
       <c r="V123">
         <v>104.20854147841401</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W123">
+        <v>256.17646715082702</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -5685,8 +5769,11 @@
       <c r="V124">
         <v>104.679676188005</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <v>229.60784817878499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -5740,8 +5827,11 @@
       <c r="V125">
         <v>104.144190424098</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W125">
+        <v>196.86274803129299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -5795,8 +5885,11 @@
       <c r="V126">
         <v>97.239855564786794</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <v>195.39216350839899</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -5850,8 +5943,11 @@
       <c r="V127">
         <v>94.626644765168805</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <v>210.588234744132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -5907,8 +6003,11 @@
       <c r="V128">
         <v>93.358159841480102</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <v>220.68628088046501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -5973,8 +6072,11 @@
       <c r="V129">
         <v>99.469386753240698</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <v>230.392161170962</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -6039,8 +6141,11 @@
       <c r="V130">
         <v>102.917668149908</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <v>210.78431766705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -6105,8 +6210,11 @@
       <c r="V131">
         <v>95.2195888286968</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W131">
+        <v>233.235307454788</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -6171,8 +6279,11 @@
       <c r="V132">
         <v>98.423892469250006</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <v>230.49020263242099</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -6237,8 +6348,11 @@
       <c r="V133">
         <v>98.109169087817094</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W133">
+        <v>242.15687475310801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -6303,8 +6417,11 @@
       <c r="V134">
         <v>96.3076817940035</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <v>227.25490920225599</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -6369,8 +6486,11 @@
       <c r="V135">
         <v>100.987798143966</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W135">
+        <v>219.607843503911</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -6435,8 +6555,11 @@
       <c r="V136">
         <v>108.095737161589</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <v>208.52942015197999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -6501,8 +6624,11 @@
       <c r="V137">
         <v>115.143856466622</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W137">
+        <v>196.37255942349401</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -6567,8 +6693,11 @@
       <c r="V138">
         <v>112.05855479942301</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <v>181.960782480441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -6633,8 +6762,11 @@
       <c r="V139">
         <v>112.142003006883</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W139">
+        <v>204.90196087597701</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -6699,8 +6831,11 @@
       <c r="V140">
         <v>115.95761033869501</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <v>182.84313693407699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -6765,8 +6900,11 @@
       <c r="V141">
         <v>123.785055404543</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <v>179.41176058099299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -6831,8 +6969,11 @@
       <c r="V142">
         <v>120.05213740128499</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <v>161.37254306143399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -6897,8 +7038,11 @@
       <c r="V143">
         <v>118.26276617443</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <v>141.17646948826399</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -6963,8 +7107,11 @@
       <c r="V144">
         <v>110.842406855045</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <v>178.43138336539499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -7029,8 +7176,11 @@
       <c r="V145">
         <v>103.370016200112</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <v>187.84313927151399</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -7095,8 +7245,11 @@
       <c r="V146">
         <v>107.190804850923</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W146">
+        <v>184.90197022572599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -7161,8 +7314,11 @@
       <c r="V147">
         <v>114.181196539382</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <v>172.549026574322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -7227,8 +7383,11 @@
       <c r="V148">
         <v>113.153613352661</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W148">
+        <v>178.92157197319401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -7293,8 +7452,11 @@
       <c r="V149">
         <v>118.459077530499</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <v>187.549014887136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -7359,8 +7521,11 @@
       <c r="V150">
         <v>120.06222349338699</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W150">
+        <v>202.941187745284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -7425,8 +7590,11 @@
       <c r="V151">
         <v>115.406302511248</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W151">
+        <v>206.17648117544999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -7491,8 +7659,11 @@
       <c r="V152">
         <v>116.966692537052</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W152">
+        <v>213.13725664358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -7557,8 +7728,11 @@
       <c r="V153">
         <v>125.699530687352</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W153">
+        <v>230.78432701679901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -7623,8 +7797,11 @@
       <c r="V154">
         <v>126.919711044369</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W154">
+        <v>220.58823941900599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -7689,8 +7866,11 @@
       <c r="V155">
         <v>138.706740072972</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W155">
+        <v>229.31372379440799</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -7755,8 +7935,11 @@
       <c r="V156">
         <v>121.42980946493201</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W156">
+        <v>213.33333956649801</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -7821,8 +8004,11 @@
       <c r="V157">
         <v>128.020534037234</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W157">
+        <v>223.039219856995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -7887,8 +8073,11 @@
       <c r="V158">
         <v>130.080614018977</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W158">
+        <v>222.745095472618</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -7953,8 +8142,11 @@
       <c r="V159">
         <v>129.56443038288</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W159">
+        <v>225.49020029498399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -8019,8 +8211,11 @@
       <c r="V160">
         <v>131.681088831734</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W160">
+        <v>225.09803444914701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -8085,8 +8280,11 @@
       <c r="V161">
         <v>119.60482485300901</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W161">
+        <v>226.66667913299699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -8151,8 +8349,11 @@
       <c r="V162">
         <v>119.62326898268</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W162">
+        <v>228.43136934077199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -8217,8 +8418,11 @@
       <c r="V163">
         <v>123.22689706109399</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W163">
+        <v>230.78432701679901</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -8283,8 +8487,11 @@
       <c r="V164">
         <v>134.115511848181</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W164">
+        <v>228.72549372514999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -8349,8 +8556,11 @@
       <c r="V165">
         <v>132.05530774955901</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W165">
+        <v>247.549024236885</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -8415,8 +8625,11 @@
       <c r="V166">
         <v>127.385538989431</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W166">
+        <v>240.49020730729501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -8481,8 +8694,11 @@
       <c r="V167">
         <v>124.911237922457</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W167">
+        <v>237.74510248492899</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -8547,8 +8763,11 @@
       <c r="V168">
         <v>131.683179509018</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W168">
+        <v>232.25491153969301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -8613,8 +8832,11 @@
       <c r="V169">
         <v>134.80812003222101</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W169">
+        <v>238.529415477105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -8679,8 +8901,11 @@
       <c r="V170">
         <v>131.99348730028299</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W170">
+        <v>242.352938976529</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -8745,8 +8970,11 @@
       <c r="V171">
         <v>136.39131214007</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W171">
+        <v>219.019613434653</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -8811,8 +9039,11 @@
       <c r="V172">
         <v>137.98608638032599</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W172">
+        <v>224.215698695008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -8877,8 +9108,11 @@
       <c r="V173">
         <v>145.84861785292</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W173">
+        <v>239.21568700782299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -8943,8 +9177,11 @@
       <c r="V174">
         <v>141.49774818801899</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W174">
+        <v>241.66666744581201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -9009,8 +9246,11 @@
       <c r="V175">
         <v>140.02935757110501</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W175">
+        <v>241.176478838013</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -9075,8 +9315,11 @@
       <c r="V176">
         <v>138.10728706206001</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W176">
+        <v>236.37255942349401</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -9141,8 +9384,11 @@
       <c r="V177">
         <v>128.52290003442499</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W177">
+        <v>237.54901956201101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -9207,8 +9453,11 @@
       <c r="V178">
         <v>135.708807034193</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W178">
+        <v>218.03921751955801</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -9273,8 +9522,11 @@
       <c r="V179">
         <v>143.04922314317599</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W179">
+        <v>202.45098043798799</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -9339,8 +9591,11 @@
       <c r="V180">
         <v>148.884248632512</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W180">
+        <v>209.50981606707501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -9405,8 +9660,11 @@
       <c r="V181">
         <v>153.10290246939101</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W181">
+        <v>228.62745226369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -9471,8 +9729,11 @@
       <c r="V182">
         <v>148.04741541607299</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W182">
+        <v>232.745100147492</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -9537,8 +9798,11 @@
       <c r="V183">
         <v>150.811054739871</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W183">
+        <v>238.235291092728</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -9603,8 +9867,11 @@
       <c r="V184">
         <v>154.236978441736</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W184">
+        <v>235.588246431317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -9669,8 +9936,11 @@
       <c r="V185">
         <v>154.05761325658199</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W185">
+        <v>248.03921284468399</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -9737,8 +10007,11 @@
       <c r="V186">
         <v>159.00963792305399</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W186">
+        <v>244.705877953059</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -9805,8 +10078,11 @@
       <c r="V187">
         <v>168.79186770515099</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W187">
+        <v>254.16666393965599</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -9873,8 +10149,11 @@
       <c r="V188">
         <v>192.17523383647699</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W188">
+        <v>274.60785051622298</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -9941,8 +10220,11 @@
       <c r="V189">
         <v>201.70634895897899</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W189">
+        <v>275.98039357765703</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -10009,8 +10291,11 @@
       <c r="V190">
         <v>207.45206525689801</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W190">
+        <v>292.254902189944</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -10077,8 +10362,11 @@
       <c r="V191">
         <v>209.78268878735599</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W191">
+        <v>307.15686774079597</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -10145,8 +10433,11 @@
       <c r="V192">
         <v>192.03519125347901</v>
       </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W192">
+        <v>305.00001168718501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -10213,8 +10504,11 @@
       <c r="V193">
         <v>194.67090071540599</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W193">
+        <v>305.78432467936199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -10281,8 +10575,11 @@
       <c r="V194">
         <v>198.22023649005999</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W194">
+        <v>291.372547736309</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -10349,8 +10646,11 @@
       <c r="V195">
         <v>226.58488906389499</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W195">
+        <v>289.705880290496</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -10417,8 +10717,11 @@
       <c r="V196">
         <v>227.74216464325599</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W196">
+        <v>283.725500737461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -10485,8 +10788,11 @@
       <c r="V197">
         <v>234.75017791797401</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W197">
+        <v>283.725500737461</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -10553,8 +10859,11 @@
       <c r="V198">
         <v>237.872158731837</v>
       </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W198">
+        <v>281.470584522894</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -10621,8 +10930,11 @@
       <c r="V199">
         <v>227.01960948116599</v>
       </c>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W199">
+        <v>274.90197490060001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -10689,8 +11001,11 @@
       <c r="V200">
         <v>243.92931368739701</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W200">
+        <v>272.54901722457299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -10757,8 +11072,11 @@
       <c r="V201">
         <v>257.14404416149199</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W201">
+        <v>287.843148621262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -10825,8 +11143,11 @@
       <c r="V202">
         <v>272.340138438601</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W202">
+        <v>293.52942248941702</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -10893,8 +11214,11 @@
       <c r="V203">
         <v>264.37126593979002</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W203">
+        <v>295.58823708156899</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -10961,8 +11285,11 @@
       <c r="V204">
         <v>288.39831911348199</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W204">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -11029,8 +11356,11 @@
       <c r="V205">
         <v>272.57970180814601</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W205">
+        <v>274.31372613184499</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -11097,8 +11427,11 @@
       <c r="V206">
         <v>285.79611375338402</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W206">
+        <v>275.49020496985798</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -11165,8 +11498,11 @@
       <c r="V207">
         <v>323.46742445196497</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W207">
+        <v>272.89215298993201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -11233,8 +11569,11 @@
       <c r="V208">
         <v>312.638591123509</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W208">
+        <v>272.745100147492</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -11301,8 +11640,11 @@
       <c r="V209">
         <v>309.06410985985798</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W209">
+        <v>272.15687007823402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -11369,8 +11711,11 @@
       <c r="V210">
         <v>316.22526761952901</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W210">
+        <v>267.74509781005497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -11437,8 +11782,11 @@
       <c r="V211">
         <v>313.64204279694798</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W211">
+        <v>275.98039357765703</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -11505,8 +11853,11 @@
       <c r="V212">
         <v>294.01356733890299</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W212">
+        <v>289.705880290496</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -11573,8 +11924,11 @@
       <c r="V213">
         <v>300.35104753783997</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W213">
+        <v>287.79411854078398</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -11641,8 +11995,11 @@
       <c r="V214">
         <v>292.84843196734602</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W214">
+        <v>287.45098277542598</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -11709,8 +12066,11 @@
       <c r="V215">
         <v>308.90473051218498</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W215">
+        <v>283.13725196870598</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -11777,8 +12137,11 @@
       <c r="V216">
         <v>303.48182979252999</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W216">
+        <v>295.29413139668799</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -11845,8 +12208,11 @@
       <c r="V217">
         <v>337.09438038158999</v>
       </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W217">
+        <v>289.41177460561499</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -11913,8 +12279,11 @@
       <c r="V218">
         <v>333.56176497464799</v>
       </c>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W218">
+        <v>300.88236380338401</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -11981,8 +12350,11 @@
       <c r="V219">
         <v>338.059720046819</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W219">
+        <v>298.333341903936</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -12049,8 +12421,11 @@
       <c r="V220">
         <v>362.56601605244202</v>
       </c>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W220">
+        <v>298.72548905027497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -12117,8 +12492,11 @@
       <c r="V221">
         <v>350.33370780463798</v>
       </c>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W221">
+        <v>314.06863182794501</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -12185,8 +12563,11 @@
       <c r="V222">
         <v>365.06124517039302</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W222">
+        <v>311.17647416313901</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -12253,8 +12634,11 @@
       <c r="V223">
         <v>400.88856073277202</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W223">
+        <v>344.60786454084501</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -12321,8 +12705,11 @@
       <c r="V224">
         <v>379.51805447739201</v>
       </c>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W224">
+        <v>348.52941080223098</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -12389,8 +12776,11 @@
       <c r="V225">
         <v>394.62791618098697</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W225">
+        <v>359.411769930741</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -12457,8 +12847,11 @@
       <c r="V226">
         <v>402.499233192784</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W226">
+        <v>359.55882277318199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -12525,8 +12918,11 @@
       <c r="V227">
         <v>421.44365486389</v>
       </c>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W227">
+        <v>345.392158833525</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -12593,8 +12989,11 @@
       <c r="V228">
         <v>397.07090384792298</v>
       </c>
-    </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W228">
+        <v>356.86276673078999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -12661,8 +13060,11 @@
       <c r="V229">
         <v>372.38473948888799</v>
       </c>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W229">
+        <v>355.68626919328</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -12729,8 +13131,11 @@
       <c r="V230">
         <v>384.883143248728</v>
       </c>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W230">
+        <v>355.39216350839899</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -12797,8 +13202,11 @@
       <c r="V231">
         <v>393.302094061839</v>
       </c>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W231">
+        <v>353.43137167820902</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -12865,8 +13273,11 @@
       <c r="V232">
         <v>400.95506769027401</v>
       </c>
-    </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W232">
+        <v>353.33334891624702</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -12933,8 +13344,11 @@
       <c r="V233">
         <v>410.75611149675501</v>
       </c>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W233">
+        <v>381.37257111067998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -13001,8 +13415,11 @@
       <c r="V234">
         <v>398.88819541237501</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W234">
+        <v>387.45099212517403</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -13069,8 +13486,11 @@
       <c r="V235">
         <v>406.271824857441</v>
       </c>
-    </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W235">
+        <v>432.745100147492</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -13137,8 +13557,11 @@
       <c r="V236">
         <v>415.07604412380903</v>
       </c>
-    </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W236">
+        <v>459.80394512632603</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -13205,8 +13628,11 @@
       <c r="V237">
         <v>402.34295522252398</v>
       </c>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W237">
+        <v>464.31374015646799</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -13273,8 +13699,11 @@
       <c r="V238">
         <v>414.63285891954803</v>
       </c>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W238">
+        <v>446.07843971399097</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -13341,8 +13770,11 @@
       <c r="V239">
         <v>397.30884865031101</v>
       </c>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W239">
+        <v>458.28431182345798</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -13409,8 +13841,11 @@
       <c r="V240">
         <v>346.33229869065798</v>
       </c>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W240">
+        <v>438.529415477106</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -13477,8 +13912,11 @@
       <c r="V241">
         <v>335.15022591900703</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W241">
+        <v>436.96078949275199</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -13545,8 +13983,11 @@
       <c r="V242">
         <v>295.92136377203798</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W242">
+        <v>440.98039591509399</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -13613,8 +14054,11 @@
       <c r="V243">
         <v>288.374028071054</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W243">
+        <v>393.33333021675003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -13681,8 +14125,11 @@
       <c r="V244">
         <v>286.586035615475</v>
       </c>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W244">
+        <v>375.39217285814698</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -13749,8 +14196,11 @@
       <c r="V245">
         <v>255.33481680120801</v>
       </c>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W245">
+        <v>382.54903124919599</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -13817,8 +14267,11 @@
       <c r="V246">
         <v>251.16158498316901</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W246">
+        <v>430.882368478258</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -13885,8 +14338,11 @@
       <c r="V247">
         <v>239.87088695224099</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W247">
+        <v>376.47061023470201</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -13953,8 +14409,11 @@
       <c r="V248">
         <v>234.18902971814401</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W248">
+        <v>343.03923855649202</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -14021,8 +14480,11 @@
       <c r="V249">
         <v>241.71998860740601</v>
       </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W249">
+        <v>315.09803912402202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -14089,8 +14551,11 @@
       <c r="V250">
         <v>242.43096304177999</v>
       </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W250">
+        <v>293.03921518212098</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -14157,8 +14622,11 @@
       <c r="V251">
         <v>236.740326442943</v>
       </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W251">
+        <v>251.372547736309</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -14225,8 +14693,11 @@
       <c r="V252">
         <v>229.513006287439</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W252">
+        <v>276.470600884953</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -14293,8 +14764,11 @@
       <c r="V253">
         <v>223.385309416643</v>
       </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W253">
+        <v>300.49019795754702</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -14361,8 +14835,11 @@
       <c r="V254">
         <v>225.99573036252301</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W254">
+        <v>291.372547736309</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -14429,8 +14906,11 @@
       <c r="V255">
         <v>233.548243558396</v>
       </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W255">
+        <v>283.92156496088302</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -14497,8 +14977,11 @@
       <c r="V256">
         <v>240.570882859524</v>
       </c>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W256">
+        <v>311.813734312875</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -14565,8 +15048,11 @@
       <c r="V257">
         <v>254.68608042199099</v>
       </c>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W257">
+        <v>322.15687475310801</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -14633,8 +15119,11 @@
       <c r="V258">
         <v>258.85469377264798</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W258">
+        <v>325.78431532961298</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -14701,8 +15190,11 @@
       <c r="V259">
         <v>282.46739328545499</v>
       </c>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W259">
+        <v>321.86276906822701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -14769,8 +15261,11 @@
       <c r="V260">
         <v>283.01540326993802</v>
       </c>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W260">
+        <v>328.72548437540098</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -14837,8 +15332,11 @@
       <c r="V261">
         <v>327.45906413262998</v>
       </c>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W261">
+        <v>322.15687475310801</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -14905,8 +15403,11 @@
       <c r="V262">
         <v>346.41023130101303</v>
       </c>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W262">
+        <v>374.65687124695199</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -14973,8 +15474,11 @@
       <c r="V263">
         <v>339.76731316576303</v>
       </c>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W263">
+        <v>392.79411152847302</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -15041,8 +15545,11 @@
       <c r="V264">
         <v>329.478329091337</v>
       </c>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W264">
+        <v>398.38234393516802</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -15109,8 +15616,11 @@
       <c r="V265">
         <v>346.09483263794101</v>
       </c>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W265">
+        <v>377.45098745029998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -15177,8 +15687,11 @@
       <c r="V266">
         <v>350.85408553950401</v>
       </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W266">
+        <v>345.83335475984001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -15245,8 +15758,11 @@
       <c r="V267">
         <v>372.76959589171298</v>
       </c>
-    </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W267">
+        <v>390.63727417435803</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -15313,8 +15829,11 @@
       <c r="V268">
         <v>391.39052286957502</v>
       </c>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W268">
+        <v>382.94119709503298</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -15381,8 +15900,11 @@
       <c r="V269">
         <v>399.83612871541101</v>
       </c>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W269">
+        <v>386.17647182570198</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -15449,8 +15971,11 @@
       <c r="V270">
         <v>392.38401166972199</v>
       </c>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W270">
+        <v>405.294126721814</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -15517,8 +16042,11 @@
       <c r="V271">
         <v>371.44992965912098</v>
       </c>
-    </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W271">
+        <v>389.99999532512498</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -15585,8 +16113,11 @@
       <c r="V272">
         <v>372.25269485176398</v>
       </c>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W272">
+        <v>390.58824409388001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -15653,8 +16184,11 @@
       <c r="V273">
         <v>398.25921766696803</v>
       </c>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W273">
+        <v>392.69608876651102</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -15721,8 +16255,11 @@
       <c r="V274">
         <v>396.43952432729702</v>
       </c>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W274">
+        <v>400.73530161119498</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -15789,8 +16326,11 @@
       <c r="V275">
         <v>364.55617649997799</v>
       </c>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W275">
+        <v>427.84313927151402</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -15857,8 +16397,11 @@
       <c r="V276">
         <v>362.11546912628899</v>
       </c>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W276">
+        <v>409.95097459439597</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -15925,8 +16468,11 @@
       <c r="V277">
         <v>363.682677044733</v>
       </c>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W277">
+        <v>408.33335592855798</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -15993,8 +16539,11 @@
       <c r="V278">
         <v>341.27242872223701</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W278">
+        <v>387.59804496761399</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -16061,8 +16610,11 @@
       <c r="V279">
         <v>338.64259553434403</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W279">
+        <v>379.36274920001199</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -16129,8 +16681,11 @@
       <c r="V280">
         <v>334.35228457785502</v>
       </c>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W280">
+        <v>363.578429195524</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -16197,8 +16752,11 @@
       <c r="V281">
         <v>309.24769938989499</v>
       </c>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W281">
+        <v>357.84314394638801</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -16265,8 +16823,11 @@
       <c r="V282">
         <v>310.14372028325801</v>
       </c>
-    </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W282">
+        <v>348.235305117351</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -16333,8 +16894,11 @@
       <c r="V283">
         <v>314.31374636396799</v>
       </c>
-    </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W283">
+        <v>381.66667679556002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -16401,8 +16965,11 @@
       <c r="V284">
         <v>327.06961599912199</v>
       </c>
-    </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W284">
+        <v>386.07844906373901</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -16469,8 +17036,11 @@
       <c r="V285">
         <v>339.846069080164</v>
       </c>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W285">
+        <v>374.01962979671299</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -16537,8 +17107,11 @@
       <c r="V286">
         <v>307.75213897811801</v>
       </c>
-    </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W286">
+        <v>384.166687314027</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -16605,8 +17178,11 @@
       <c r="V287">
         <v>285.72272217694302</v>
       </c>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W287">
+        <v>384.55881576087</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -16673,8 +17249,11 @@
       <c r="V288">
         <v>286.840226779575</v>
       </c>
-    </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W288">
+        <v>397.79413256540698</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -16741,8 +17320,11 @@
       <c r="V289">
         <v>287.94348148215403</v>
       </c>
-    </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W289">
+        <v>394.36273751282602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -16809,8 +17391,11 @@
       <c r="V290">
         <v>289.06985762323899</v>
       </c>
-    </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W290">
+        <v>389.01961810952702</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -16877,8 +17462,11 @@
       <c r="V291">
         <v>340.33435424712599</v>
       </c>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W291">
+        <v>408.480408770998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -16945,8 +17533,11 @@
       <c r="V292">
         <v>342.65321359248998</v>
       </c>
-    </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W292">
+        <v>415.88234276644999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -17013,8 +17604,11 @@
       <c r="V293">
         <v>355.04179071879099</v>
       </c>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W293">
+        <v>413.43136232846098</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -17081,8 +17675,11 @@
       <c r="V294">
         <v>364.528691581582</v>
       </c>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W294">
+        <v>432.35293430165501</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -17149,8 +17746,11 @@
       <c r="V295">
         <v>368.53720049703099</v>
       </c>
-    </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W295">
+        <v>423.28431416089501</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -17217,8 +17817,11 @@
       <c r="V296">
         <v>354.07847729294502</v>
       </c>
-    </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W296">
+        <v>431.76472293189403</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -17285,8 +17888,11 @@
       <c r="V297">
         <v>359.951339991834</v>
       </c>
-    </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W297">
+        <v>439.70587561562201</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -17353,8 +17959,11 @@
       <c r="V298">
         <v>357.04559679720398</v>
       </c>
-    </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W298">
+        <v>475.14706920449999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -17421,8 +18030,11 @@
       <c r="V299">
         <v>364.10764461468</v>
       </c>
-    </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W299">
+        <v>500.78434104142099</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -17489,8 +18101,11 @@
       <c r="V300">
         <v>366.60700559178701</v>
       </c>
-    </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W300">
+        <v>510.78430831730202</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -17557,8 +18172,11 @@
       <c r="V301">
         <v>379.92909400231099</v>
       </c>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W301">
+        <v>521.17647883801305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -17625,8 +18243,11 @@
       <c r="V302">
         <v>437.81424096854403</v>
       </c>
-    </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W302">
+        <v>559.16667562684199</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -17693,8 +18314,11 @@
       <c r="V303">
         <v>409.38198459300497</v>
       </c>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W303">
+        <v>548.627452263691</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -17761,8 +18385,11 @@
       <c r="V304">
         <v>437.11503559609599</v>
       </c>
-    </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W304">
+        <v>567.99022016319896</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -17829,8 +18456,11 @@
       <c r="V305">
         <v>414.50980693388402</v>
       </c>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W305">
+        <v>545.19609461010305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -17897,8 +18527,11 @@
       <c r="V306">
         <v>417.64444491734201</v>
       </c>
-    </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W306">
+        <v>556.42158950397197</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -17965,8 +18598,11 @@
       <c r="V307">
         <v>454.67618804672099</v>
       </c>
-    </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W307">
+        <v>564.16665926478197</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -18033,8 +18669,11 @@
       <c r="V308">
         <v>470.78293917225699</v>
       </c>
-    </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W308">
+        <v>571.22549489386802</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -18101,8 +18740,11 @@
       <c r="V309">
         <v>459.52337177095899</v>
       </c>
-    </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W309">
+        <v>581.17646948826496</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -18169,8 +18811,11 @@
       <c r="V310">
         <v>440.72613145269099</v>
       </c>
-    </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W310">
+        <v>547.05882627933704</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -18237,8 +18882,11 @@
       <c r="V311">
         <v>454.642171602855</v>
       </c>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W311">
+        <v>567.54902423688497</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -18305,8 +18953,11 @@
       <c r="V312">
         <v>435.68875644018101</v>
       </c>
-    </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W312">
+        <v>612.59805665479996</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -18373,8 +19024,11 @@
       <c r="V313">
         <v>438.96070873480699</v>
       </c>
-    </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W313">
+        <v>631.61768878894998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -18441,8 +19095,11 @@
       <c r="V314">
         <v>438.35946545492999</v>
       </c>
-    </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W314">
+        <v>629.11764087149004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -18509,8 +19166,11 @@
       <c r="V315">
         <v>421.87897892806802</v>
       </c>
-    </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W315">
+        <v>620.39215649608798</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -18577,8 +19237,11 @@
       <c r="V316">
         <v>467.30054680080502</v>
       </c>
-    </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W316">
+        <v>614.85295416987003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -18645,8 +19308,11 @@
       <c r="V317">
         <v>480.94652610993802</v>
       </c>
-    </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W317">
+        <v>672.79413022796996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -18713,8 +19379,11 @@
       <c r="V318">
         <v>428.53914178422201</v>
       </c>
-    </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W318">
+        <v>677.15687241567105</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -18781,8 +19450,11 @@
       <c r="V319">
         <v>431.08928002631302</v>
       </c>
-    </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W319">
+        <v>687.05885432858202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -18849,8 +19521,11 @@
       <c r="V320">
         <v>414.65395253586399</v>
       </c>
-    </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W320">
+        <v>728.87257461683498</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -18917,8 +19592,11 @@
       <c r="V321">
         <v>431.47068139541398</v>
       </c>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W321">
+        <v>736.02939560889001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -18985,8 +19663,11 @@
       <c r="V322">
         <v>416.64865249729598</v>
       </c>
-    </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W322">
+        <v>705.44120761349996</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -19053,8 +19734,11 @@
       <c r="V323">
         <v>417.00962107252201</v>
       </c>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W323">
+        <v>722.59807067942199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -19121,8 +19805,11 @@
       <c r="V324">
         <v>430.79935825355199</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W324">
+        <v>707.45102952416698</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -19189,8 +19876,11 @@
       <c r="V325">
         <v>453.12088318757202</v>
       </c>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W325">
+        <v>692.20592820795696</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -19257,8 +19947,11 @@
       <c r="V326">
         <v>427.95410146384103</v>
       </c>
-    </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W326">
+        <v>700.98040526484294</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -19325,8 +20018,11 @@
       <c r="V327">
         <v>423.43792252255503</v>
       </c>
-    </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W327">
+        <v>667.20589782127399</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -19393,8 +20089,11 @@
       <c r="V328">
         <v>415.879284659218</v>
       </c>
-    </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W328">
+        <v>699.70592236436403</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -19461,8 +20160,11 @@
       <c r="V329">
         <v>404.600746451975</v>
       </c>
-    </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W329">
+        <v>657.058802904966</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -19529,8 +20231,11 @@
       <c r="V330">
         <v>444.47978840862999</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W330">
+        <v>639.21566830832603</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -19597,8 +20302,11 @@
       <c r="V331">
         <v>456.86819990776098</v>
       </c>
-    </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W331">
+        <v>666.76473929395297</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -19665,8 +20373,11 @@
       <c r="V332">
         <v>430.05496630858897</v>
       </c>
-    </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W332">
+        <v>657.30391590836302</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -19733,8 +20444,11 @@
       <c r="V333">
         <v>453.50231490192999</v>
       </c>
-    </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W333">
+        <v>647.25488115301096</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -19801,8 +20515,11 @@
       <c r="V334">
         <v>511.400318720874</v>
       </c>
-    </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W334">
+        <v>636.12748381909103</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -19869,8 +20586,11 @@
       <c r="V335">
         <v>547.73356953081304</v>
       </c>
-    </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W335">
+        <v>657.69608175419899</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -19937,8 +20657,11 @@
       <c r="V336">
         <v>514.02021013217495</v>
       </c>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W336">
+        <v>695.49023301910302</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -20005,8 +20728,11 @@
       <c r="V337">
         <v>510.02965783531403</v>
       </c>
-    </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W337">
+        <v>713.13724729383205</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -20073,8 +20799,11 @@
       <c r="V338">
         <v>552.47879367284304</v>
       </c>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W338">
+        <v>688.92154859882305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -20141,8 +20870,11 @@
       <c r="V339">
         <v>541.77536855703397</v>
       </c>
-    </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W339">
+        <v>709.75488232172904</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -20209,8 +20941,11 @@
       <c r="V340">
         <v>563.69541538988301</v>
       </c>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W340">
+        <v>707.20591652077098</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -20277,8 +21012,11 @@
       <c r="V341">
         <v>596.19205669397797</v>
       </c>
-    </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W341">
+        <v>737.69611915319297</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -20345,8 +21083,11 @@
       <c r="V342">
         <v>577.849257252813</v>
       </c>
-    </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W342">
+        <v>708.18629373636895</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -20413,8 +21154,11 @@
       <c r="V343">
         <v>586.11544699160299</v>
       </c>
-    </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W343">
+        <v>707.35296936321197</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -20481,8 +21225,11 @@
       <c r="V344">
         <v>497.598495111099</v>
       </c>
-    </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W344">
+        <v>771.76473228164195</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -20549,8 +21296,11 @@
       <c r="V345">
         <v>479.76923356318503</v>
       </c>
-    </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W345">
+        <v>798.92156262344497</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -20617,8 +21367,11 @@
       <c r="V346">
         <v>485.99699138245802</v>
       </c>
-    </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W346">
+        <v>804.60785519109697</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -20685,8 +21438,11 @@
       <c r="V347">
         <v>467.17328116472299</v>
       </c>
-    </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W347">
+        <v>840.29412438437703</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -20753,8 +21509,11 @@
       <c r="V348">
         <v>518.99547794870603</v>
       </c>
-    </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W348">
+        <v>817.058802904966</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -20821,8 +21580,11 @@
       <c r="V349">
         <v>493.97586662704902</v>
       </c>
-    </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W349">
+        <v>809.85298923142705</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -20889,8 +21651,11 @@
       <c r="V350">
         <v>495.57594336526898</v>
       </c>
-    </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W350">
+        <v>810.19608759779203</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -20957,8 +21722,11 @@
       <c r="V351">
         <v>511.879421520427</v>
       </c>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W351">
+        <v>830.24508962902496</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -21025,8 +21793,11 @@
       <c r="V352">
         <v>563.57684707088504</v>
       </c>
-    </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W352">
+        <v>857.69610045369598</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -21093,8 +21864,11 @@
       <c r="V353">
         <v>536.24053873687603</v>
       </c>
-    </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W353">
+        <v>888.03925024367697</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -21161,8 +21935,11 @@
       <c r="V354">
         <v>582.64911351580304</v>
       </c>
-    </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W354">
+        <v>898.62750368730701</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -21229,8 +22006,11 @@
       <c r="V355">
         <v>598.16872292309199</v>
       </c>
-    </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W355">
+        <v>916.37257812299094</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -21297,8 +22077,11 @@
       <c r="V356">
         <v>583.27664063514601</v>
       </c>
-    </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W356">
+        <v>946.12744174522402</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -21365,8 +22148,11 @@
       <c r="V357">
         <v>612.50822789589097</v>
       </c>
-    </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W357">
+        <v>971.66669082018302</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -21433,8 +22219,11 @@
       <c r="V358">
         <v>607.304988906934</v>
       </c>
-    </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W358">
+        <v>1050.8823965275001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -21501,8 +22290,11 @@
       <c r="V359">
         <v>576.92358578880999</v>
       </c>
-    </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W359">
+        <v>1015.68627854302</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -21569,8 +22361,11 @@
       <c r="V360">
         <v>568.147774733642</v>
       </c>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W360">
+        <v>977.84313459663997</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -21637,8 +22432,11 @@
       <c r="V361">
         <v>546.06961076043103</v>
       </c>
-    </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W361">
+        <v>949.65685955976699</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -21705,8 +22503,11 @@
       <c r="V362">
         <v>539.00353505765202</v>
       </c>
-    </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W362">
+        <v>938.87256059221295</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -21773,8 +22574,11 @@
       <c r="V363">
         <v>547.394151312997</v>
       </c>
-    </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W363">
+        <v>914.95096758208501</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -21841,8 +22645,11 @@
       <c r="V364">
         <v>582.19387839897797</v>
       </c>
-    </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W364">
+        <v>969.95097459439603</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -21909,8 +22716,11 @@
       <c r="V365">
         <v>533.78026842429301</v>
       </c>
-    </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W365">
+        <v>1023.13728001795</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -21977,8 +22787,11 @@
       <c r="V366">
         <v>582.886585347449</v>
       </c>
-    </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W366">
+        <v>1049.55884614755</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -22045,8 +22858,11 @@
       <c r="V367">
         <v>512.78172419648399</v>
       </c>
-    </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W367">
+        <v>1006.2745226369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -22113,8 +22929,11 @@
       <c r="V368">
         <v>499.07742748654101</v>
       </c>
-    </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W368">
+        <v>1069.80396850069</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -22181,8 +23000,11 @@
       <c r="V369">
         <v>504.93232619692299</v>
       </c>
-    </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W369">
+        <v>1000.8823357541301</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -22249,8 +23071,11 @@
       <c r="V370">
         <v>516.22991672448097</v>
       </c>
-    </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W370">
+        <v>1007.54900553738</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -22317,8 +23142,11 @@
       <c r="V371">
         <v>503.53958267647897</v>
       </c>
-    </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W371">
+        <v>986.76473929395297</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -22385,8 +23213,11 @@
       <c r="V372">
         <v>502.00849486360499</v>
       </c>
-    </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W372">
+        <v>984.75491738328606</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -22453,8 +23284,11 @@
       <c r="V373">
         <v>493.05096601689399</v>
       </c>
-    </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W373">
+        <v>1062.3039743442901</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -22521,8 +23355,11 @@
       <c r="V374">
         <v>481.78445950720197</v>
       </c>
-    </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W374">
+        <v>967.74510715980296</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -22589,8 +23426,11 @@
       <c r="V375">
         <v>506.798862306491</v>
       </c>
-    </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W375">
+        <v>1044.9509909564499</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -22657,8 +23497,11 @@
       <c r="V376">
         <v>520.14022468737198</v>
       </c>
-    </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W376">
+        <v>1007.00978684911</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -22725,8 +23568,11 @@
       <c r="V377">
         <v>505.456177355026</v>
       </c>
-    </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W377">
+        <v>997.10787973418599</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -22793,8 +23639,11 @@
       <c r="V378">
         <v>533.01277861677704</v>
       </c>
-    </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W378">
+        <v>1019.70592236436</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -22861,8 +23710,11 @@
       <c r="V379">
         <v>545.66727511300405</v>
       </c>
-    </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W379">
+        <v>1042.05885199114</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -22929,8 +23781,11 @@
       <c r="V380">
         <v>572.95677963157402</v>
       </c>
-    </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W380">
+        <v>1079.90199593753</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -22997,8 +23852,11 @@
       <c r="V381">
         <v>596.15589894299796</v>
       </c>
-    </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W381">
+        <v>1110.294138409</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -23065,8 +23923,11 @@
       <c r="V382">
         <v>566.83562210471996</v>
       </c>
-    </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W382">
+        <v>1100.14704349269</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -23133,8 +23994,11 @@
       <c r="V383">
         <v>546.87493258351003</v>
       </c>
-    </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W383">
+        <v>1011.47058919776</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -23201,8 +24065,11 @@
       <c r="V384">
         <v>564.77093820945197</v>
       </c>
-    </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W384">
+        <v>896.22551593080198</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -23269,8 +24136,11 @@
       <c r="V385">
         <v>579.23437357199498</v>
       </c>
-    </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W385">
+        <v>918.43139271514303</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -23337,8 +24207,11 @@
       <c r="V386">
         <v>575.06825070523496</v>
       </c>
-    </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W386">
+        <v>909.70590833974097</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -23405,8 +24278,11 @@
       <c r="V387">
         <v>575.06257104952203</v>
       </c>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W387">
+        <v>875.04900904354395</v>
+      </c>
+    </row>
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -23473,8 +24349,11 @@
       <c r="V388">
         <v>609.72908485591097</v>
       </c>
-    </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W388">
+        <v>959.70589431511905</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -23541,8 +24420,11 @@
       <c r="V389">
         <v>587.26341111574197</v>
       </c>
-    </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W389">
+        <v>1068.8235164871101</v>
+      </c>
+    </row>
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -23609,8 +24491,11 @@
       <c r="V390">
         <v>600.37208632061095</v>
       </c>
-    </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W390">
+        <v>1043.8235608984101</v>
+      </c>
+    </row>
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -23677,8 +24562,11 @@
       <c r="V391">
         <v>590.39833024941402</v>
       </c>
-    </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W391">
+        <v>989.70587094074801</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -23745,8 +24633,11 @@
       <c r="V392">
         <v>580.11510672640702</v>
       </c>
-    </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W392">
+        <v>1122.10788207162</v>
+      </c>
+    </row>
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -23813,8 +24704,11 @@
       <c r="V393">
         <v>609.69386139319101</v>
       </c>
-    </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W393">
+        <v>1136.6176443776401</v>
+      </c>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -23881,8 +24775,11 @@
       <c r="V394">
         <v>624.50771264396496</v>
       </c>
-    </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W394">
+        <v>1117.00980087373</v>
+      </c>
+    </row>
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -23949,8 +24846,11 @@
       <c r="V395">
         <v>639.29512166874099</v>
       </c>
-    </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W395">
+        <v>1178.97058335417</v>
+      </c>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -24017,8 +24917,11 @@
       <c r="V396">
         <v>670.77527482180994</v>
       </c>
-    </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W396">
+        <v>1252.3039509699099</v>
+      </c>
+    </row>
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -24085,8 +24988,11 @@
       <c r="V397">
         <v>659.035832829073</v>
       </c>
-    </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W397">
+        <v>1347.79420268852</v>
+      </c>
+    </row>
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -24153,8 +25059,11 @@
       <c r="V398">
         <v>670.13572307616903</v>
       </c>
-    </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W398">
+        <v>1418.8235679107199</v>
+      </c>
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -24221,8 +25130,11 @@
       <c r="V399">
         <v>646.872209933151</v>
       </c>
-    </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W399">
+        <v>1362.35303247401</v>
+      </c>
+    </row>
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -24289,8 +25201,11 @@
       <c r="V400">
         <v>645.74114233640705</v>
       </c>
-    </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W400">
+        <v>1364.16673406276</v>
+      </c>
+    </row>
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -24357,8 +25272,11 @@
       <c r="V401">
         <v>629.36829360713796</v>
       </c>
-    </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W401">
+        <v>1400.8333056736601</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -24425,8 +25343,11 @@
       <c r="V402">
         <v>620.838693314176</v>
       </c>
-    </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W402">
+        <v>1337.94121345709</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -24493,8 +25414,11 @@
       <c r="V403">
         <v>628.49523031927504</v>
       </c>
-    </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W403">
+        <v>1406.91183888513</v>
+      </c>
+    </row>
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -24561,8 +25485,11 @@
       <c r="V404">
         <v>590.08871045666399</v>
       </c>
-    </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W404">
+        <v>1356.3235667420099</v>
+      </c>
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -24629,8 +25556,11 @@
       <c r="V405">
         <v>643.273958550212</v>
       </c>
-    </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W405">
+        <v>1465.68630191739</v>
+      </c>
+    </row>
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -24697,8 +25627,11 @@
       <c r="V406">
         <v>601.97444383818595</v>
       </c>
-    </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W406">
+        <v>1534.4117395440501</v>
+      </c>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -24765,8 +25698,11 @@
       <c r="V407">
         <v>556.81494910198001</v>
       </c>
-    </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W407">
+        <v>1575.73538342149</v>
+      </c>
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -24833,8 +25769,11 @@
       <c r="V408">
         <v>583.68090319428404</v>
       </c>
-    </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W408">
+        <v>1729.9510306928801</v>
+      </c>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -24901,8 +25840,11 @@
       <c r="V409">
         <v>600.72913356224501</v>
       </c>
-    </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W409">
+        <v>1582.4999637697199</v>
+      </c>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -24969,8 +25911,11 @@
       <c r="V410">
         <v>613.04549330365705</v>
       </c>
-    </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W410">
+        <v>1548.92165144605</v>
+      </c>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -25037,8 +25982,11 @@
       <c r="V411">
         <v>625.748975867789</v>
       </c>
-    </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W411">
+        <v>1338.3333045049401</v>
+      </c>
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -25105,8 +26053,11 @@
       <c r="V412">
         <v>617.88692390059703</v>
       </c>
-    </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W412">
+        <v>1473.5294692381501</v>
+      </c>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -25173,8 +26124,11 @@
       <c r="V413">
         <v>581.70929203805099</v>
       </c>
-    </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W413">
+        <v>1376.47055413621</v>
+      </c>
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -25241,8 +26195,11 @@
       <c r="V414">
         <v>577.06204832793503</v>
       </c>
-    </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W414">
+        <v>1308.9215392490701</v>
+      </c>
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -25309,8 +26266,11 @@
       <c r="V415">
         <v>549.87421982289595</v>
       </c>
-    </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W415">
+        <v>1446.5196169408</v>
+      </c>
+    </row>
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -25377,8 +26337,11 @@
       <c r="V416">
         <v>571.17681007800797</v>
       </c>
-    </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W416">
+        <v>1561.76476500576</v>
+      </c>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -25445,8 +26408,11 @@
       <c r="V417">
         <v>559.99934177485602</v>
       </c>
-    </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W417">
+        <v>1514.2156846703799</v>
+      </c>
+    </row>
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -25513,8 +26479,11 @@
       <c r="V418">
         <v>556.07395847062105</v>
       </c>
-    </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W418">
+        <v>1527.0587982300899</v>
+      </c>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -25581,8 +26550,11 @@
       <c r="V419">
         <v>566.74211119671497</v>
       </c>
-    </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W419">
+        <v>1495.9803842279</v>
+      </c>
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -25649,8 +26621,11 @@
       <c r="V420">
         <v>599.23968140464001</v>
       </c>
-    </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W420">
+        <v>1513.57840582115</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -25717,8 +26692,11 @@
       <c r="V421">
         <v>603.19015959635203</v>
       </c>
-    </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W421">
+        <v>1610.53918596415</v>
+      </c>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -25785,8 +26763,11 @@
       <c r="V422">
         <v>599.06472874886299</v>
       </c>
-    </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W422">
+        <v>1573.92153223676</v>
+      </c>
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -25853,8 +26834,11 @@
       <c r="V423">
         <v>628.14742244531703</v>
       </c>
-    </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W423">
+        <v>1671.5686587084699</v>
+      </c>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -25921,8 +26905,11 @@
       <c r="V424">
         <v>658.68374639094702</v>
       </c>
-    </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W424">
+        <v>1725.29410802231</v>
+      </c>
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -25989,8 +26976,11 @@
       <c r="V425">
         <v>664.96952007803702</v>
       </c>
-    </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W425">
+        <v>1765.6863673656301</v>
+      </c>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -26057,8 +27047,11 @@
       <c r="V426">
         <v>672.55589332564</v>
       </c>
-    </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W426">
+        <v>1717.1568350166699</v>
+      </c>
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -26125,8 +27118,11 @@
       <c r="V427">
         <v>704.79966195314796</v>
       </c>
-    </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W427">
+        <v>1673.1862399753099</v>
+      </c>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -26193,8 +27189,11 @@
       <c r="V428">
         <v>677.05860750716101</v>
       </c>
-    </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W428">
+        <v>1764.7059153520499</v>
+      </c>
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -26261,8 +27260,11 @@
       <c r="V429">
         <v>651.83851852446105</v>
       </c>
-    </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W429">
+        <v>1748.3333839777999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -26329,8 +27331,11 @@
       <c r="V430">
         <v>630.85799635104797</v>
       </c>
-    </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W430">
+        <v>1881.07841867705</v>
+      </c>
+    </row>
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -26397,8 +27402,11 @@
       <c r="V431">
         <v>627.10674485604898</v>
       </c>
-    </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W431">
+        <v>2006.8627527061601</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -26465,8 +27473,11 @@
       <c r="V432">
         <v>640.46411921922504</v>
       </c>
-    </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W432">
+        <v>2061.3725337116798</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -26533,8 +27544,11 @@
       <c r="V433">
         <v>692.85826507054196</v>
       </c>
-    </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W433">
+        <v>1944.7549921812699</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -26601,8 +27615,11 @@
       <c r="V434">
         <v>727.30029889729803</v>
       </c>
-    </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W434">
+        <v>2031.3725570860499</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -26669,8 +27686,11 @@
       <c r="V435">
         <v>724.99775365314497</v>
       </c>
-    </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W435">
+        <v>1994.11762450943</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -26735,8 +27755,11 @@
       <c r="V436">
         <v>728.01132206387399</v>
       </c>
-    </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W436">
+        <v>2149.50984411632</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -26801,8 +27824,11 @@
       <c r="V437">
         <v>693.83251273732606</v>
       </c>
-    </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W437">
+        <v>2332.94128591764</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -26867,8 +27893,11 @@
       <c r="V438">
         <v>696.73467491787301</v>
       </c>
-    </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W438">
+        <v>2256.17656064831</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -26933,8 +27962,11 @@
       <c r="V439">
         <v>689.86879172396698</v>
       </c>
-    </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W439">
+        <v>2210.39226401819</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -26999,8 +28031,11 @@
       <c r="V440">
         <v>704.98638216011295</v>
       </c>
-    </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W440">
+        <v>2367.7450884602999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -27065,8 +28100,11 @@
       <c r="V441">
         <v>678.31011297509303</v>
       </c>
-    </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W441">
+        <v>2221.9608198794299</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -27131,8 +28169,11 @@
       <c r="V442">
         <v>693.308368131017</v>
       </c>
-    </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W442">
+        <v>2297.4020695668</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -27197,8 +28238,11 @@
       <c r="V443">
         <v>745.14607835606398</v>
       </c>
-    </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W443">
+        <v>2518.77464067748</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -27263,8 +28307,11 @@
       <c r="V444">
         <v>737.30254196646104</v>
       </c>
-    </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W444">
+        <v>2610.68640710206</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -27329,8 +28376,11 @@
       <c r="V445">
         <v>749.09844158841702</v>
       </c>
-    </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W445">
+        <v>2613.9706371152201</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -27395,8 +28445,11 @@
       <c r="V446">
         <v>772.31008382388904</v>
       </c>
-    </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W446">
+        <v>2470.3921611709602</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -27459,8 +28512,11 @@
       <c r="V447">
         <v>752.44406198460103</v>
       </c>
-    </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W447">
+        <v>2381.2254808692401</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -27523,8 +28579,11 @@
       <c r="V448">
         <v>757.53762461431995</v>
       </c>
-    </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W448">
+        <v>2313.1373220918099</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -27587,8 +28646,11 @@
       <c r="V449">
         <v>754.34042996173605</v>
       </c>
-    </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W449">
+        <v>2465.5883352539199</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -27645,8 +28707,11 @@
       <c r="V450">
         <v>754.49172744843895</v>
       </c>
-    </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W450">
+        <v>2464.4117629184302</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -27701,8 +28766,11 @@
       <c r="V451">
         <v>720.50821562429599</v>
       </c>
-    </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W451">
+        <v>2340.8824386013698</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>
@@ -27757,8 +28825,11 @@
       <c r="V452">
         <v>717.91348994648104</v>
       </c>
-    </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W452">
+        <v>2518.6765057185398</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA209B-0418-D345-95A5-13DE9D86C798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F06F4-6EB1-044A-BA8C-095A54CD9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25060" windowHeight="20880" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Berkshire Hatway</t>
+  </si>
+  <si>
+    <t>Dimensional Global Core Equity</t>
   </si>
 </sst>
 </file>
@@ -520,13 +523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:W453"/>
+  <dimension ref="A1:X454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T438" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W453" sqref="W453"/>
+      <selection pane="bottomRight" activeCell="X454" sqref="X454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,7 +550,7 @@
     <col min="14" max="14" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +620,11 @@
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -651,7 +657,7 @@
         <v>43882.050631717699</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -684,7 +690,7 @@
         <v>46295.067418052597</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -717,7 +723,7 @@
         <v>50574.710335387601</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -750,7 +756,7 @@
         <v>48894.977021351697</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -783,7 +789,7 @@
         <v>47694.135103446803</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -816,7 +822,7 @@
         <v>49555.644802220697</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -849,7 +855,7 @@
         <v>47370.027265386401</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -882,7 +888,7 @@
         <v>47646.147347513099</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -915,7 +921,7 @@
         <v>54687.585201072099</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -948,7 +954,7 @@
         <v>51058.369608144101</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -981,7 +987,7 @@
         <v>52248.1018121792</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>54263.017510707301</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>54008.004016034502</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>52704.227357630203</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>236.37255942349401</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>237.54901956201101</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>218.03921751955801</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -9526,7 +9532,7 @@
         <v>202.45098043798799</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>209.50981606707501</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -9664,7 +9670,7 @@
         <v>228.62745226369</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -9733,7 +9739,7 @@
         <v>232.745100147492</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -9802,7 +9808,7 @@
         <v>238.235291092728</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -9871,7 +9877,7 @@
         <v>235.588246431317</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -9940,7 +9946,7 @@
         <v>248.03921284468399</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -10011,7 +10017,7 @@
         <v>244.705877953059</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -10082,7 +10088,7 @@
         <v>254.16666393965599</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -10153,7 +10159,7 @@
         <v>274.60785051622298</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -10223,8 +10229,11 @@
       <c r="W189">
         <v>275.98039357765703</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -10294,8 +10303,11 @@
       <c r="W190">
         <v>292.254902189944</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X190">
+        <v>103.491606950792</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -10365,8 +10377,11 @@
       <c r="W191">
         <v>307.15686774079597</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X191">
+        <v>105.01870776767799</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -10436,8 +10451,11 @@
       <c r="W192">
         <v>305.00001168718501</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X192">
+        <v>107.17148732559799</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -10507,8 +10525,11 @@
       <c r="W193">
         <v>305.78432467936199</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X193">
+        <v>107.02717879241099</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -10578,8 +10599,11 @@
       <c r="W194">
         <v>291.372547736309</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X194">
+        <v>105.841306749599</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -10649,8 +10673,11 @@
       <c r="W195">
         <v>289.705880290496</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X195">
+        <v>108.915372146659</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -10720,8 +10747,11 @@
       <c r="W196">
         <v>283.725500737461</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X196">
+        <v>106.217586312113</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -10791,8 +10821,11 @@
       <c r="W197">
         <v>283.725500737461</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X197">
+        <v>105.210922052771</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -10862,8 +10895,11 @@
       <c r="W198">
         <v>281.470584522894</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X198">
+        <v>105.73114264890999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -10933,8 +10969,11 @@
       <c r="W199">
         <v>274.90197490060001</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X199">
+        <v>104.667791212957</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -11004,8 +11043,11 @@
       <c r="W200">
         <v>272.54901722457299</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X200">
+        <v>107.695912286951</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -11075,8 +11117,11 @@
       <c r="W201">
         <v>287.843148621262</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X201">
+        <v>108.858497966862</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -11146,8 +11191,11 @@
       <c r="W202">
         <v>293.52942248941702</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X202">
+        <v>110.958515905011</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -11217,8 +11265,11 @@
       <c r="W203">
         <v>295.58823708156899</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X203">
+        <v>112.941147203489</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -11288,8 +11339,11 @@
       <c r="W204">
         <v>280</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X204">
+        <v>112.734653344511</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -11359,8 +11413,11 @@
       <c r="W205">
         <v>274.31372613184499</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X205">
+        <v>109.481048642115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -11430,8 +11487,11 @@
       <c r="W206">
         <v>275.49020496985798</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X206">
+        <v>118.469090479004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -11501,8 +11561,11 @@
       <c r="W207">
         <v>272.89215298993201</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X207">
+        <v>122.43617537677</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -11572,8 +11635,11 @@
       <c r="W208">
         <v>272.745100147492</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X208">
+        <v>128.019536593049</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -11643,8 +11709,11 @@
       <c r="W209">
         <v>272.15687007823402</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X209">
+        <v>126.06961490121</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -11714,8 +11783,11 @@
       <c r="W210">
         <v>267.74509781005497</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X210">
+        <v>131.30289673015801</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -11785,8 +11857,11 @@
       <c r="W211">
         <v>275.98039357765703</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X211">
+        <v>128.533032760352</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -11856,8 +11931,11 @@
       <c r="W212">
         <v>289.705880290496</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X212">
+        <v>135.355464584148</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -11927,8 +12005,11 @@
       <c r="W213">
         <v>287.79411854078398</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X213">
+        <v>132.29917289867299</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -11998,8 +12079,11 @@
       <c r="W214">
         <v>287.45098277542598</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X214">
+        <v>135.49885538826999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -12069,8 +12153,11 @@
       <c r="W215">
         <v>283.13725196870598</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X215">
+        <v>138.186861069228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -12140,8 +12227,11 @@
       <c r="W216">
         <v>295.29413139668799</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X216">
+        <v>139.85375976971301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -12211,8 +12301,11 @@
       <c r="W217">
         <v>289.41177460561499</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X217">
+        <v>137.437513074788</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -12282,8 +12375,11 @@
       <c r="W218">
         <v>300.88236380338401</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X218">
+        <v>129.88785520827099</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -12353,8 +12449,11 @@
       <c r="W219">
         <v>298.333341903936</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X219">
+        <v>129.256621894055</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -12424,8 +12523,11 @@
       <c r="W220">
         <v>298.72548905027497</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X220">
+        <v>128.572967589472</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -12495,8 +12597,11 @@
       <c r="W221">
         <v>314.06863182794501</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X221">
+        <v>131.407724525492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -12566,8 +12671,11 @@
       <c r="W222">
         <v>311.17647416313901</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X222">
+        <v>134.383831225238</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -12637,8 +12745,11 @@
       <c r="W223">
         <v>344.60786454084501</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X223">
+        <v>139.105566480557</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -12708,8 +12819,11 @@
       <c r="W224">
         <v>348.52941080223098</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X224">
+        <v>137.944487282225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -12779,8 +12893,11 @@
       <c r="W225">
         <v>359.411769930741</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X225">
+        <v>138.68575958372</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -12850,8 +12967,11 @@
       <c r="W226">
         <v>359.55882277318199</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X226">
+        <v>143.398051331218</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -12921,8 +13041,11 @@
       <c r="W227">
         <v>345.392158833525</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X227">
+        <v>140.23153143033301</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -12992,8 +13115,11 @@
       <c r="W228">
         <v>356.86276673078999</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X228">
+        <v>140.90287968205899</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -13063,8 +13189,11 @@
       <c r="W229">
         <v>355.68626919328</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X229">
+        <v>143.041618921853</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -13134,8 +13263,11 @@
       <c r="W230">
         <v>355.39216350839899</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X230">
+        <v>150.54793144779401</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -13205,8 +13337,11 @@
       <c r="W231">
         <v>353.43137167820902</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X231">
+        <v>146.917619977507</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -13276,8 +13411,11 @@
       <c r="W232">
         <v>353.33334891624702</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X232">
+        <v>140.39031083939901</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -13347,8 +13485,11 @@
       <c r="W233">
         <v>381.37257111067998</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X233">
+        <v>140.518027743917</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -13418,8 +13559,11 @@
       <c r="W234">
         <v>387.45099212517403</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X234">
+        <v>138.49396930026501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -13489,8 +13633,11 @@
       <c r="W235">
         <v>432.745100147492</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X235">
+        <v>140.406722441179</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -13560,8 +13707,11 @@
       <c r="W236">
         <v>459.80394512632603</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X236">
+        <v>130.27231026312</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -13631,8 +13781,11 @@
       <c r="W237">
         <v>464.31374015646799</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X237">
+        <v>126.20580717748</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -13702,8 +13855,11 @@
       <c r="W238">
         <v>446.07843971399097</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X238">
+        <v>116.227621253359</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -13773,8 +13929,11 @@
       <c r="W239">
         <v>458.28431182345798</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X239">
+        <v>111.772095217445</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -13844,8 +14003,11 @@
       <c r="W240">
         <v>438.529415477106</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X240">
+        <v>106.894595064125</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -13915,8 +14077,11 @@
       <c r="W241">
         <v>436.96078949275199</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X241">
+        <v>113.12855244620501</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -13986,8 +14151,11 @@
       <c r="W242">
         <v>440.98039591509399</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X242">
+        <v>116.138876208749</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -14057,8 +14225,11 @@
       <c r="W243">
         <v>393.33333021675003</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X243">
+        <v>103.336435873103</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -14128,8 +14299,11 @@
       <c r="W244">
         <v>375.39217285814698</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X244">
+        <v>103.107423424514</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -14199,8 +14373,11 @@
       <c r="W245">
         <v>382.54903124919599</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X245">
+        <v>109.071603949943</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -14270,8 +14447,11 @@
       <c r="W246">
         <v>430.882368478258</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X246">
+        <v>101.24546429226299</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -14341,8 +14521,11 @@
       <c r="W247">
         <v>376.47061023470201</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X247">
+        <v>88.992627504120804</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -14412,8 +14595,11 @@
       <c r="W248">
         <v>343.03923855649202</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X248">
+        <v>81.961018593514694</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -14483,8 +14669,11 @@
       <c r="W249">
         <v>315.09803912402202</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X249">
+        <v>77.230187584072297</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -14554,8 +14743,11 @@
       <c r="W250">
         <v>293.03921518212098</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X250">
+        <v>75.257308571052903</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -14625,8 +14817,11 @@
       <c r="W251">
         <v>251.372547736309</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X251">
+        <v>67.889900803931994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -14696,8 +14891,11 @@
       <c r="W252">
         <v>276.470600884953</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X252">
+        <v>70.860474644833204</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -14767,8 +14965,11 @@
       <c r="W253">
         <v>300.49019795754702</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X253">
+        <v>81.108668744578793</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -14838,8 +15039,11 @@
       <c r="W254">
         <v>291.372547736309</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X254">
+        <v>82.502482207984698</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -14909,8 +15113,11 @@
       <c r="W255">
         <v>283.92156496088302</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X255">
+        <v>82.191948700831304</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -14980,8 +15187,11 @@
       <c r="W256">
         <v>311.813734312875</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X256">
+        <v>88.462212820398506</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -15051,8 +15261,11 @@
       <c r="W257">
         <v>322.15687475310801</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X257">
+        <v>91.832843449325495</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -15122,8 +15335,11 @@
       <c r="W258">
         <v>325.78431532961298</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X258">
+        <v>94.095097107187499</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -15193,8 +15409,11 @@
       <c r="W259">
         <v>321.86276906822701</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X259">
+        <v>90.155595609716499</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -15264,8 +15483,11 @@
       <c r="W260">
         <v>328.72548437540098</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X260">
+        <v>91.939652958961403</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -15335,8 +15557,11 @@
       <c r="W261">
         <v>322.15687475310801</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X261">
+        <v>99.356638181431705</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -15406,8 +15631,11 @@
       <c r="W262">
         <v>374.65687124695199</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X262">
+        <v>98.836290041686397</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -15477,8 +15705,11 @@
       <c r="W263">
         <v>392.79411152847302</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X263">
+        <v>103.289079655583</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -15548,8 +15779,11 @@
       <c r="W264">
         <v>398.38234393516802</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X264">
+        <v>111.698195992862</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -15619,8 +15853,11 @@
       <c r="W265">
         <v>377.45098745029998</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X265">
+        <v>115.880058725788</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -15690,8 +15927,11 @@
       <c r="W266">
         <v>345.83335475984001</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X266">
+        <v>113.831962733315</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -15761,8 +16001,11 @@
       <c r="W267">
         <v>390.63727417435803</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X267">
+        <v>108.303077379795</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -15832,8 +16075,11 @@
       <c r="W268">
         <v>382.94119709503298</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X268">
+        <v>110.206312337209</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -15903,8 +16149,11 @@
       <c r="W269">
         <v>386.17647182570198</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X269">
+        <v>107.89567125971401</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -15974,8 +16223,11 @@
       <c r="W270">
         <v>405.294126721814</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X270">
+        <v>110.442200948711</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -16045,8 +16297,11 @@
       <c r="W271">
         <v>389.99999532512498</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X271">
+        <v>113.27887604032701</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -16116,8 +16371,11 @@
       <c r="W272">
         <v>390.58824409388001</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X272">
+        <v>118.35174157862799</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -16187,8 +16445,11 @@
       <c r="W273">
         <v>392.69608876651102</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X273">
+        <v>125.42919485857099</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -16258,8 +16519,11 @@
       <c r="W274">
         <v>400.73530161119498</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X274">
+        <v>124.195644064511</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -16329,8 +16593,11 @@
       <c r="W275">
         <v>427.84313927151402</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X275">
+        <v>127.86684709094401</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -16400,8 +16667,11 @@
       <c r="W276">
         <v>409.95097459439597</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X276">
+        <v>124.888772130238</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -16471,8 +16741,11 @@
       <c r="W277">
         <v>408.33335592855798</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X277">
+        <v>123.16534477627</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -16542,8 +16815,11 @@
       <c r="W278">
         <v>387.59804496761399</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X278">
+        <v>124.862764253432</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -16613,8 +16889,11 @@
       <c r="W279">
         <v>379.36274920001199</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X279">
+        <v>120.437578345631</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -16684,8 +16963,11 @@
       <c r="W280">
         <v>363.578429195524</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X280">
+        <v>118.479371305057</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -16755,8 +17037,11 @@
       <c r="W281">
         <v>357.84314394638801</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X281">
+        <v>108.223395994629</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -16826,8 +17111,11 @@
       <c r="W282">
         <v>348.235305117351</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X282">
+        <v>102.228398103204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -16897,8 +17185,11 @@
       <c r="W283">
         <v>381.66667679556002</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X283">
+        <v>110.029115060118</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -16968,8 +17259,11 @@
       <c r="W284">
         <v>386.07844906373901</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X284">
+        <v>115.003794236879</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -17039,8 +17333,11 @@
       <c r="W285">
         <v>374.01962979671299</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X285">
+        <v>116.838847395687</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -17110,8 +17407,11 @@
       <c r="W286">
         <v>384.166687314027</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X286">
+        <v>122.736878098845</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -17181,8 +17481,11 @@
       <c r="W287">
         <v>384.55881576087</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X287">
+        <v>125.160587191199</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -17252,8 +17555,11 @@
       <c r="W288">
         <v>397.79413256540698</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X288">
+        <v>127.89000165930101</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -17323,8 +17629,11 @@
       <c r="W289">
         <v>394.36273751282602</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X289">
+        <v>127.115554943315</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -17394,8 +17703,11 @@
       <c r="W290">
         <v>389.01961810952702</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X290">
+        <v>124.42654138462601</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -17465,8 +17777,11 @@
       <c r="W291">
         <v>408.480408770998</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X291">
+        <v>126.066865664647</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -17536,8 +17851,11 @@
       <c r="W292">
         <v>415.88234276644999</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X292">
+        <v>130.74167604989501</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -17607,8 +17925,11 @@
       <c r="W293">
         <v>413.43136232846098</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X293">
+        <v>131.86946418435201</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -17678,8 +17999,11 @@
       <c r="W294">
         <v>432.35293430165501</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X294">
+        <v>132.09819607692401</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -17749,8 +18073,11 @@
       <c r="W295">
         <v>423.28431416089501</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X295">
+        <v>130.04157453219801</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -17820,8 +18147,11 @@
       <c r="W296">
         <v>431.76472293189403</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X296">
+        <v>131.83856475449701</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -17891,8 +18221,11 @@
       <c r="W297">
         <v>439.70587561562201</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X297">
+        <v>132.39082902493499</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -17962,8 +18295,11 @@
       <c r="W298">
         <v>475.14706920449999</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X298">
+        <v>135.81202508621701</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -18033,8 +18369,11 @@
       <c r="W299">
         <v>500.78434104142099</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X299">
+        <v>140.78049911898799</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -18104,8 +18443,11 @@
       <c r="W300">
         <v>510.78430831730202</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X300">
+        <v>148.414239184151</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -18175,8 +18517,11 @@
       <c r="W301">
         <v>521.17647883801305</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X301">
+        <v>147.70025979751</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -18246,8 +18591,11 @@
       <c r="W302">
         <v>559.16667562684199</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X302">
+        <v>150.27936188366201</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -18317,8 +18665,11 @@
       <c r="W303">
         <v>548.627452263691</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X303">
+        <v>146.45441656616799</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -18388,8 +18739,11 @@
       <c r="W304">
         <v>567.99022016319896</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X304">
+        <v>151.69197929232101</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -18459,8 +18813,11 @@
       <c r="W305">
         <v>545.19609461010305</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X305">
+        <v>148.32639496439899</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -18530,8 +18887,11 @@
       <c r="W306">
         <v>556.42158950397197</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X306">
+        <v>152.58264915662201</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -18601,8 +18961,11 @@
       <c r="W307">
         <v>564.16665926478197</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X307">
+        <v>155.89910556803</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -18672,8 +19035,11 @@
       <c r="W308">
         <v>571.22549489386802</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X308">
+        <v>160.57459208298599</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -18743,8 +19109,11 @@
       <c r="W309">
         <v>581.17646948826496</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X309">
+        <v>160.74875085503101</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -18814,8 +19183,11 @@
       <c r="W310">
         <v>547.05882627933704</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X310">
+        <v>157.70784181593501</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -18885,8 +19257,11 @@
       <c r="W311">
         <v>567.54902423688497</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X311">
+        <v>163.756424844679</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -18956,8 +19331,11 @@
       <c r="W312">
         <v>612.59805665479996</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X312">
+        <v>164.30361215487301</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -19027,8 +19405,11 @@
       <c r="W313">
         <v>631.61768878894998</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X313">
+        <v>163.84010791130501</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -19098,8 +19479,11 @@
       <c r="W314">
         <v>629.11764087149004</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X314">
+        <v>168.89506848156299</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -19169,8 +19553,11 @@
       <c r="W315">
         <v>620.39215649608798</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X315">
+        <v>172.03607244051199</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -19240,8 +19627,11 @@
       <c r="W316">
         <v>614.85295416987003</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X316">
+        <v>171.07163911331901</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -19311,8 +19701,11 @@
       <c r="W317">
         <v>672.79413022796996</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X317">
+        <v>179.749982256159</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -19382,8 +19775,11 @@
       <c r="W318">
         <v>677.15687241567105</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X318">
+        <v>177.94633646154301</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -19453,8 +19849,11 @@
       <c r="W319">
         <v>687.05885432858202</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X319">
+        <v>181.490602320579</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -19524,8 +19923,11 @@
       <c r="W320">
         <v>728.87257461683498</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X320">
+        <v>185.939158298221</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -19595,8 +19997,11 @@
       <c r="W321">
         <v>736.02939560889001</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X321">
+        <v>187.411931654868</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -19666,8 +20071,11 @@
       <c r="W322">
         <v>705.44120761349996</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X322">
+        <v>197.651380910716</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -19737,8 +20145,11 @@
       <c r="W323">
         <v>722.59807067942199</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X323">
+        <v>211.05733969945899</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -19808,8 +20219,11 @@
       <c r="W324">
         <v>707.45102952416698</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X324">
+        <v>215.36838381839601</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -19879,8 +20293,11 @@
       <c r="W325">
         <v>692.20592820795696</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X325">
+        <v>213.535748600863</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -19950,8 +20367,11 @@
       <c r="W326">
         <v>700.98040526484294</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X326">
+        <v>217.889646787934</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -20021,8 +20441,11 @@
       <c r="W327">
         <v>667.20589782127399</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X327">
+        <v>207.94229770242799</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -20092,8 +20515,11 @@
       <c r="W328">
         <v>699.70592236436403</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X328">
+        <v>212.65719212516501</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -20163,8 +20589,11 @@
       <c r="W329">
         <v>657.058802904966</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X329">
+        <v>195.09434965959201</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -20234,8 +20663,11 @@
       <c r="W330">
         <v>639.21566830832603</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X330">
+        <v>186.78664739764301</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -20305,8 +20737,11 @@
       <c r="W331">
         <v>666.76473929395297</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X331">
+        <v>204.12055061997901</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -20376,8 +20811,11 @@
       <c r="W332">
         <v>657.30391590836302</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X332">
+        <v>212.8035900536</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -20447,8 +20885,11 @@
       <c r="W333">
         <v>647.25488115301096</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X333">
+        <v>198.960160780016</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -20518,8 +20959,11 @@
       <c r="W334">
         <v>636.12748381909103</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X334">
+        <v>189.06546358297899</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -20589,8 +21033,11 @@
       <c r="W335">
         <v>657.69608175419899</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X335">
+        <v>187.14225235258601</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -20660,8 +21107,11 @@
       <c r="W336">
         <v>695.49023301910302</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X336">
+        <v>193.67279302785099</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -20731,8 +21181,11 @@
       <c r="W337">
         <v>713.13724729383205</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X337">
+        <v>194.23441757942399</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -20802,8 +21255,11 @@
       <c r="W338">
         <v>688.92154859882305</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X338">
+        <v>200.90218161534801</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -20873,8 +21329,11 @@
       <c r="W339">
         <v>709.75488232172904</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X339">
+        <v>198.713331330139</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -20944,8 +21403,11 @@
       <c r="W340">
         <v>707.20591652077098</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X340">
+        <v>206.749680243</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -21015,8 +21477,11 @@
       <c r="W341">
         <v>737.69611915319297</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X341">
+        <v>208.35509531308301</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -21086,8 +21551,11 @@
       <c r="W342">
         <v>708.18629373636895</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X342">
+        <v>207.78484409272701</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -21157,8 +21625,11 @@
       <c r="W343">
         <v>707.35296936321197</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X343">
+        <v>207.83726466054199</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -21228,8 +21699,11 @@
       <c r="W344">
         <v>771.76473228164195</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X344">
+        <v>222.76094352569501</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -21299,8 +21773,11 @@
       <c r="W345">
         <v>798.92156262344497</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X345">
+        <v>228.890949191846</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -21370,8 +21847,11 @@
       <c r="W346">
         <v>804.60785519109697</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X346">
+        <v>230.28814631344099</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -21441,8 +21921,11 @@
       <c r="W347">
         <v>840.29412438437703</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X347">
+        <v>238.83577623980301</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -21512,8 +21995,11 @@
       <c r="W348">
         <v>817.058802904966</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X348">
+        <v>237.46369915553299</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -21583,8 +22069,11 @@
       <c r="W349">
         <v>809.85298923142705</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X349">
+        <v>235.61273389765299</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -21654,8 +22143,11 @@
       <c r="W350">
         <v>810.19608759779203</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X350">
+        <v>231.923043634729</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -21725,8 +22217,11 @@
       <c r="W351">
         <v>830.24508962902496</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X351">
+        <v>227.856084368989</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -21796,8 +22291,11 @@
       <c r="W352">
         <v>857.69610045369598</v>
       </c>
-    </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X352">
+        <v>227.08631078540699</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -21867,8 +22365,11 @@
       <c r="W353">
         <v>888.03925024367697</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X353">
+        <v>224.08796954291199</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -21938,8 +22439,11 @@
       <c r="W354">
         <v>898.62750368730701</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X354">
+        <v>231.93552456702199</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -22009,8 +22513,11 @@
       <c r="W355">
         <v>916.37257812299094</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X355">
+        <v>239.118460247358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -22080,8 +22587,11 @@
       <c r="W356">
         <v>946.12744174522402</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X356">
+        <v>241.14994903571801</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -22151,8 +22661,11 @@
       <c r="W357">
         <v>971.66669082018302</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X357">
+        <v>239.617507974033</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -22222,8 +22735,11 @@
       <c r="W358">
         <v>1050.8823965275001</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X358">
+        <v>242.67273835840501</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -22293,8 +22809,11 @@
       <c r="W359">
         <v>1015.68627854302</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X359">
+        <v>235.61157679512499</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -22364,8 +22883,11 @@
       <c r="W360">
         <v>977.84313459663997</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X360">
+        <v>230.86133341722299</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -22435,8 +22957,11 @@
       <c r="W361">
         <v>949.65685955976699</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X361">
+        <v>235.66040566657099</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -22506,8 +23031,11 @@
       <c r="W362">
         <v>938.87256059221295</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X362">
+        <v>247.93640313035499</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -22577,8 +23105,11 @@
       <c r="W363">
         <v>914.95096758208501</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X363">
+        <v>244.390855629078</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -22648,8 +23179,11 @@
       <c r="W364">
         <v>969.95097459439603</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X364">
+        <v>251.417071973661</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -22719,8 +23253,11 @@
       <c r="W365">
         <v>1023.13728001795</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X365">
+        <v>256.26129145883999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -22790,8 +23327,11 @@
       <c r="W366">
         <v>1049.55884614755</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X366">
+        <v>254.94447651496799</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -22861,8 +23401,11 @@
       <c r="W367">
         <v>1006.2745226369</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X367">
+        <v>239.90656218107199</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -22932,8 +23475,11 @@
       <c r="W368">
         <v>1069.80396850069</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X368">
+        <v>242.40308098157399</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -23003,8 +23549,11 @@
       <c r="W369">
         <v>1000.8823357541301</v>
       </c>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X369">
+        <v>217.18736515232399</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -23074,8 +23623,11 @@
       <c r="W370">
         <v>1007.54900553738</v>
       </c>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X370">
+        <v>235.44863397248801</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -23145,8 +23697,11 @@
       <c r="W371">
         <v>986.76473929395297</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X371">
+        <v>244.844467359493</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -23216,8 +23771,11 @@
       <c r="W372">
         <v>984.75491738328606</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X372">
+        <v>248.051590703024</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -23287,8 +23845,11 @@
       <c r="W373">
         <v>1062.3039743442901</v>
       </c>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X373">
+        <v>258.51159154698701</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -23358,8 +23919,11 @@
       <c r="W374">
         <v>967.74510715980296</v>
       </c>
-    </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X374">
+        <v>241.54507515478099</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -23429,8 +23993,11 @@
       <c r="W375">
         <v>1044.9509909564499</v>
       </c>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X375">
+        <v>250.80181232976099</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -23500,8 +24067,11 @@
       <c r="W376">
         <v>1007.00978684911</v>
       </c>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X376">
+        <v>256.92517936338697</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -23571,8 +24141,11 @@
       <c r="W377">
         <v>997.10787973418599</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X377">
+        <v>252.58160400273101</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -23642,8 +24215,11 @@
       <c r="W378">
         <v>1019.70592236436</v>
       </c>
-    </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X378">
+        <v>259.831902651213</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -23713,8 +24289,11 @@
       <c r="W379">
         <v>1042.05885199114</v>
       </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X379">
+        <v>261.32950903531798</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -23784,8 +24363,11 @@
       <c r="W380">
         <v>1079.90199593753</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X380">
+        <v>272.15024904947597</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -23855,8 +24437,11 @@
       <c r="W381">
         <v>1110.294138409</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X381">
+        <v>274.455931183399</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -23926,8 +24511,11 @@
       <c r="W382">
         <v>1100.14704349269</v>
       </c>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X382">
+        <v>272.03714799626499</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -23997,8 +24585,11 @@
       <c r="W383">
         <v>1011.47058919776</v>
       </c>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X383">
+        <v>248.80564835894</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -24068,8 +24659,11 @@
       <c r="W384">
         <v>896.22551593080198</v>
       </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X384">
+        <v>205.740970286866</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -24139,8 +24733,11 @@
       <c r="W385">
         <v>918.43139271514303</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X385">
+        <v>234.33517538378501</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -24210,8 +24807,11 @@
       <c r="W386">
         <v>909.70590833974097</v>
       </c>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X386">
+        <v>241.33693705210399</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -24281,8 +24881,11 @@
       <c r="W387">
         <v>875.04900904354395</v>
       </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X387">
+        <v>243.341114210717</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -24352,8 +24955,11 @@
       <c r="W388">
         <v>959.70589431511905</v>
       </c>
-    </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X388">
+        <v>241.46757621616101</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -24423,8 +25029,11 @@
       <c r="W389">
         <v>1068.8235164871101</v>
       </c>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X389">
+        <v>254.54465696182999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -24494,8 +25103,11 @@
       <c r="W390">
         <v>1043.8235608984101</v>
       </c>
-    </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X390">
+        <v>249.62207561974299</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -24565,8 +25177,11 @@
       <c r="W391">
         <v>989.70587094074801</v>
       </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X391">
+        <v>247.733912495026</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -24636,8 +25251,11 @@
       <c r="W392">
         <v>1122.10788207162</v>
       </c>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X392">
+        <v>272.93817172261299</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -24707,8 +25325,11 @@
       <c r="W393">
         <v>1136.6176443776401</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X393">
+        <v>276.20770180329902</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -24778,8 +25399,11 @@
       <c r="W394">
         <v>1117.00980087373</v>
       </c>
-    </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X394">
+        <v>279.97055889180302</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -24849,8 +25473,11 @@
       <c r="W395">
         <v>1178.97058335417</v>
       </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X395">
+        <v>294.29115364903299</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -24920,8 +25547,11 @@
       <c r="W396">
         <v>1252.3039509699099</v>
       </c>
-    </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X396">
+        <v>314.57563204442602</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -24991,8 +25621,11 @@
       <c r="W397">
         <v>1347.79420268852</v>
       </c>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X397">
+        <v>316.44897384368397</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -25062,8 +25695,11 @@
       <c r="W398">
         <v>1418.8235679107199</v>
       </c>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X398">
+        <v>320.59707105457898</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -25133,8 +25769,11 @@
       <c r="W399">
         <v>1362.35303247401</v>
       </c>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X399">
+        <v>328.25465586297901</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -25204,8 +25843,11 @@
       <c r="W400">
         <v>1364.16673406276</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X400">
+        <v>331.595378937654</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -25275,8 +25917,11 @@
       <c r="W401">
         <v>1400.8333056736601</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X401">
+        <v>340.82187047131799</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -25346,8 +25991,11 @@
       <c r="W402">
         <v>1337.94121345709</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X402">
+        <v>331.63523736179297</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -25417,8 +26065,11 @@
       <c r="W403">
         <v>1406.91183888513</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X403">
+        <v>348.94222985007701</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -25488,8 +26139,11 @@
       <c r="W404">
         <v>1356.3235667420099</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X404">
+        <v>349.226294115087</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -25559,8 +26213,11 @@
       <c r="W405">
         <v>1465.68630191739</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X405">
+        <v>353.82158862976502</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -25630,8 +26287,11 @@
       <c r="W406">
         <v>1534.4117395440501</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X406">
+        <v>343.33031898364101</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -25701,8 +26361,11 @@
       <c r="W407">
         <v>1575.73538342149</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X407">
+        <v>336.91915628721301</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -25772,8 +26435,11 @@
       <c r="W408">
         <v>1729.9510306928801</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X408">
+        <v>342.374535497642</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -25843,8 +26509,11 @@
       <c r="W409">
         <v>1582.4999637697199</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X409">
+        <v>336.91019277643898</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -25914,8 +26583,11 @@
       <c r="W410">
         <v>1548.92165144605</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X410">
+        <v>333.47730135617098</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -25985,8 +26657,11 @@
       <c r="W411">
         <v>1338.3333045049401</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X411">
+        <v>311.47615128846297</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -26056,8 +26731,11 @@
       <c r="W412">
         <v>1473.5294692381501</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X412">
+        <v>341.62297953252897</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -26127,8 +26805,11 @@
       <c r="W413">
         <v>1376.47055413621</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X413">
+        <v>335.79915674630001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -26198,8 +26879,11 @@
       <c r="W414">
         <v>1308.9215392490701</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X414">
+        <v>307.75216676749301</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -26269,8 +26953,11 @@
       <c r="W415">
         <v>1446.5196169408</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X415">
+        <v>328.09952218915299</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -26340,8 +27027,11 @@
       <c r="W416">
         <v>1561.76476500576</v>
       </c>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X416">
+        <v>341.15329833886602</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -26411,8 +27101,11 @@
       <c r="W417">
         <v>1514.2156846703799</v>
       </c>
-    </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X417">
+        <v>303.75379934040302</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -26482,8 +27175,11 @@
       <c r="W418">
         <v>1527.0587982300899</v>
       </c>
-    </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X418">
+        <v>322.67172119078799</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -26553,8 +27249,11 @@
       <c r="W419">
         <v>1495.9803842279</v>
       </c>
-    </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X419">
+        <v>321.21295915069999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -26624,8 +27323,11 @@
       <c r="W420">
         <v>1513.57840582115</v>
       </c>
-    </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X420">
+        <v>314.95082309478499</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -26695,8 +27397,11 @@
       <c r="W421">
         <v>1610.53918596415</v>
       </c>
-    </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X421">
+        <v>311.618343817084</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -26766,8 +27471,11 @@
       <c r="W422">
         <v>1573.92153223676</v>
       </c>
-    </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X422">
+        <v>316.29843140491198</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -26837,8 +27545,11 @@
       <c r="W423">
         <v>1671.5686587084699</v>
       </c>
-    </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X423">
+        <v>331.03316546672602</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -26908,8 +27619,11 @@
       <c r="W424">
         <v>1725.29410802231</v>
       </c>
-    </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X424">
+        <v>339.13070260497898</v>
+      </c>
+    </row>
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -26979,8 +27693,11 @@
       <c r="W425">
         <v>1765.6863673656301</v>
       </c>
-    </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X425">
+        <v>333.15210518227701</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -27050,8 +27767,11 @@
       <c r="W426">
         <v>1717.1568350166699</v>
       </c>
-    </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X426">
+        <v>328.470136407621</v>
+      </c>
+    </row>
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -27121,8 +27841,11 @@
       <c r="W427">
         <v>1673.1862399753099</v>
       </c>
-    </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X427">
+        <v>316.66976827645601</v>
+      </c>
+    </row>
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -27192,8 +27915,11 @@
       <c r="W428">
         <v>1764.7059153520499</v>
       </c>
-    </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X428">
+        <v>332.35363939096698</v>
+      </c>
+    </row>
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -27263,8 +27989,11 @@
       <c r="W429">
         <v>1748.3333839777999</v>
       </c>
-    </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X429">
+        <v>340.847101503734</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -27334,8 +28063,11 @@
       <c r="W430">
         <v>1881.07841867705</v>
       </c>
-    </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X430">
+        <v>346.72622928834801</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -27405,8 +28137,11 @@
       <c r="W431">
         <v>2006.8627527061601</v>
       </c>
-    </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X431">
+        <v>362.39085797058198</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -27476,8 +28211,11 @@
       <c r="W432">
         <v>2061.3725337116798</v>
       </c>
-    </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X432">
+        <v>376.35307107056502</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -27547,8 +28285,11 @@
       <c r="W433">
         <v>1944.7549921812699</v>
       </c>
-    </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X433">
+        <v>364.59239452624797</v>
+      </c>
+    </row>
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -27618,8 +28359,11 @@
       <c r="W434">
         <v>2031.3725570860499</v>
       </c>
-    </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X434">
+        <v>377.68523835422701</v>
+      </c>
+    </row>
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -27689,8 +28433,11 @@
       <c r="W435">
         <v>1994.11762450943</v>
       </c>
-    </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X435">
+        <v>382.73390656380201</v>
+      </c>
+    </row>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -27758,8 +28505,11 @@
       <c r="W436">
         <v>2149.50984411632</v>
       </c>
-    </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X436">
+        <v>391.16685644661402</v>
+      </c>
+    </row>
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -27827,8 +28577,11 @@
       <c r="W437">
         <v>2332.94128591764</v>
       </c>
-    </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X437">
+        <v>389.29226244934398</v>
+      </c>
+    </row>
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -27896,8 +28649,11 @@
       <c r="W438">
         <v>2256.17656064831</v>
       </c>
-    </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X438">
+        <v>391.06892176755503</v>
+      </c>
+    </row>
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -27965,8 +28721,11 @@
       <c r="W439">
         <v>2210.39226401819</v>
       </c>
-    </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X439">
+        <v>394.39748878462802</v>
+      </c>
+    </row>
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -28034,8 +28793,11 @@
       <c r="W440">
         <v>2367.7450884602999</v>
       </c>
-    </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X440">
+        <v>424.874582045078</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -28103,8 +28865,11 @@
       <c r="W441">
         <v>2221.9608198794299</v>
       </c>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X441">
+        <v>404.43649903399597</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -28172,8 +28937,11 @@
       <c r="W442">
         <v>2297.4020695668</v>
       </c>
-    </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X442">
+        <v>416.43856810765902</v>
+      </c>
+    </row>
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -28241,8 +29009,11 @@
       <c r="W443">
         <v>2518.77464067748</v>
       </c>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X443">
+        <v>413.43187000509801</v>
+      </c>
+    </row>
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -28310,8 +29081,11 @@
       <c r="W444">
         <v>2610.68640710206</v>
       </c>
-    </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X444">
+        <v>381.05701495235701</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -28379,8 +29153,11 @@
       <c r="W445">
         <v>2613.9706371152201</v>
       </c>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X445">
+        <v>360.51312671126198</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -28448,8 +29225,11 @@
       <c r="W446">
         <v>2470.3921611709602</v>
       </c>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X446">
+        <v>382.76537857809501</v>
+      </c>
+    </row>
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -28515,8 +29295,11 @@
       <c r="W447">
         <v>2381.2254808692401</v>
       </c>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X447">
+        <v>386.07758012360603</v>
+      </c>
+    </row>
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -28582,8 +29365,11 @@
       <c r="W448">
         <v>2313.1373220918099</v>
       </c>
-    </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X448">
+        <v>401.665750775513</v>
+      </c>
+    </row>
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -28649,8 +29435,11 @@
       <c r="W449">
         <v>2465.5883352539199</v>
       </c>
-    </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X449">
+        <v>405.638311274378</v>
+      </c>
+    </row>
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -28710,8 +29499,11 @@
       <c r="W450">
         <v>2464.4117629184302</v>
       </c>
-    </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X450">
+        <v>413.35573111309901</v>
+      </c>
+    </row>
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -28769,8 +29561,11 @@
       <c r="W451">
         <v>2340.8824386013698</v>
       </c>
-    </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X451">
+        <v>423.09524996682001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>
@@ -28828,8 +29623,14 @@
       <c r="W452">
         <v>2518.6765057185398</v>
       </c>
-    </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X452">
+        <v>426.789818710036</v>
+      </c>
+    </row>
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>45992</v>
+      </c>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
@@ -28842,6 +29643,17 @@
       <c r="L453" s="5"/>
       <c r="M453" s="5"/>
       <c r="N453" s="5"/>
+      <c r="X453">
+        <v>417.43035218067899</v>
+      </c>
+    </row>
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>46023</v>
+      </c>
+      <c r="X454">
+        <v>421.54046081597602</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/curvo_data_202511.xlsx
+++ b/public/curvo_data_202511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F06F4-6EB1-044A-BA8C-095A54CD9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3161CD-3F84-2947-8D53-C014F4203FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25060" windowHeight="20880" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,9 @@
   <si>
     <t>Dimensional Global Core Equity</t>
   </si>
+  <si>
+    <t>Dimensional global core UCITS</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -189,6 +192,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:X454"/>
+  <dimension ref="A1:Y454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V446" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X454" sqref="X454"/>
+      <selection pane="bottomRight" activeCell="Y358" sqref="Y358:Y453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +554,7 @@
     <col min="14" max="14" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,8 +627,11 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -657,7 +664,7 @@
         <v>43882.050631717699</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -690,7 +697,7 @@
         <v>46295.067418052597</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -723,7 +730,7 @@
         <v>50574.710335387601</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -756,7 +763,7 @@
         <v>48894.977021351697</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -789,7 +796,7 @@
         <v>47694.135103446803</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -822,7 +829,7 @@
         <v>49555.644802220697</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -855,7 +862,7 @@
         <v>47370.027265386401</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -888,7 +895,7 @@
         <v>47646.147347513099</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -921,7 +928,7 @@
         <v>54687.585201072099</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -954,7 +961,7 @@
         <v>51058.369608144101</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -987,7 +994,7 @@
         <v>52248.1018121792</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>54263.017510707301</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>54008.004016034502</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>52704.227357630203</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -22295,7 +22302,7 @@
         <v>227.08631078540699</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -22369,7 +22376,7 @@
         <v>224.08796954291199</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -22443,7 +22450,7 @@
         <v>231.93552456702199</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -22517,7 +22524,7 @@
         <v>239.118460247358</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -22591,7 +22598,7 @@
         <v>241.14994903571801</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -22665,7 +22672,7 @@
         <v>239.617507974033</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -22738,8 +22745,11 @@
       <c r="X358">
         <v>242.67273835840501</v>
       </c>
-    </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y358" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -22812,8 +22822,11 @@
       <c r="X359">
         <v>235.61157679512499</v>
       </c>
-    </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y359" s="14">
+        <v>97.255717799999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -22886,8 +22899,11 @@
       <c r="X360">
         <v>230.86133341722299</v>
       </c>
-    </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y360" s="14">
+        <v>95.384620600000005</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -22960,8 +22976,11 @@
       <c r="X361">
         <v>235.66040566657099</v>
       </c>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y361" s="14">
+        <v>97.879424799999995</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -23034,8 +23053,11 @@
       <c r="X362">
         <v>247.93640313035499</v>
       </c>
-    </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y362" s="14">
+        <v>102.079002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -23108,8 +23130,11 @@
       <c r="X363">
         <v>244.390855629078</v>
       </c>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y363" s="14">
+        <v>101.91268599999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -23182,8 +23207,11 @@
       <c r="X364">
         <v>251.417071973661</v>
       </c>
-    </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y364" s="14">
+        <v>104.532225</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -23256,8 +23284,11 @@
       <c r="X365">
         <v>256.26129145883999</v>
       </c>
-    </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y365" s="14">
+        <v>106.444911</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -23330,8 +23361,11 @@
       <c r="X366">
         <v>254.94447651496799</v>
       </c>
-    </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y366" s="14">
+        <v>106.40333</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -23404,8 +23438,11 @@
       <c r="X367">
         <v>239.90656218107199</v>
       </c>
-    </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y367" s="14">
+        <v>100.498964</v>
+      </c>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -23478,8 +23515,11 @@
       <c r="X368">
         <v>242.40308098157399</v>
       </c>
-    </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y368" s="14">
+        <v>101.663208</v>
+      </c>
+    </row>
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -23552,8 +23592,11 @@
       <c r="X369">
         <v>217.18736515232399</v>
       </c>
-    </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y369" s="14">
+        <v>92.141374400000004</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -23626,8 +23669,11 @@
       <c r="X370">
         <v>235.44863397248801</v>
       </c>
-    </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y370" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -23700,8 +23746,11 @@
       <c r="X371">
         <v>244.844467359493</v>
       </c>
-    </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y371" s="14">
+        <v>103.617467</v>
+      </c>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -23774,8 +23823,11 @@
       <c r="X372">
         <v>248.051590703024</v>
       </c>
-    </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y372" s="14">
+        <v>105.821212</v>
+      </c>
+    </row>
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -23848,8 +23900,11 @@
       <c r="X373">
         <v>258.51159154698701</v>
       </c>
-    </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y373" s="14">
+        <v>109.68814999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -23922,8 +23977,11 @@
       <c r="X374">
         <v>241.54507515478099</v>
       </c>
-    </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y374" s="14">
+        <v>103.118503</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -23996,8 +24054,11 @@
       <c r="X375">
         <v>250.80181232976099</v>
       </c>
-    </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y375" s="14">
+        <v>107.90021400000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -24070,8 +24131,11 @@
       <c r="X376">
         <v>256.92517936338697</v>
       </c>
-    </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y376" s="14">
+        <v>110.93555600000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -24144,8 +24208,11 @@
       <c r="X377">
         <v>252.58160400273101</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y377" s="14">
+        <v>108.939716</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -24218,8 +24285,11 @@
       <c r="X378">
         <v>259.831902651213</v>
       </c>
-    </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y378" s="14">
+        <v>112.806653</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -24292,8 +24362,11 @@
       <c r="X379">
         <v>261.32950903531798</v>
       </c>
-    </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y379" s="14">
+        <v>113.139293</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -24366,8 +24439,11 @@
       <c r="X380">
         <v>272.15024904947597</v>
       </c>
-    </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y380" s="14">
+        <v>117.62994500000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -24440,8 +24516,11 @@
       <c r="X381">
         <v>274.455931183399</v>
       </c>
-    </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y381" s="14">
+        <v>119.12682100000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -24514,8 +24593,11 @@
       <c r="X382">
         <v>272.03714799626499</v>
       </c>
-    </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y382" s="14">
+        <v>118.004158</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -24588,8 +24670,11 @@
       <c r="X383">
         <v>248.80564835894</v>
       </c>
-    </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y383" s="14">
+        <v>108.482333</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -24662,8 +24747,11 @@
       <c r="X384">
         <v>205.740970286866</v>
       </c>
-    </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y384" s="14">
+        <v>90.727652300000003</v>
+      </c>
+    </row>
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -24736,8 +24824,11 @@
       <c r="X385">
         <v>234.33517538378501</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y385" s="14">
+        <v>101.746362</v>
+      </c>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -24810,8 +24901,11 @@
       <c r="X386">
         <v>241.33693705210399</v>
       </c>
-    </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y386" s="14">
+        <v>105.821212</v>
+      </c>
+    </row>
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -24884,8 +24978,11 @@
       <c r="X387">
         <v>243.341114210717</v>
       </c>
-    </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y387" s="14">
+        <v>106.943867</v>
+      </c>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -24958,8 +25055,11 @@
       <c r="X388">
         <v>241.46757621616101</v>
       </c>
-    </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y388" s="14">
+        <v>106.153852</v>
+      </c>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -25032,8 +25132,11 @@
       <c r="X389">
         <v>254.54465696182999</v>
       </c>
-    </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y389" s="14">
+        <v>112.016638</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -25106,8 +25209,11 @@
       <c r="X390">
         <v>249.62207561974299</v>
       </c>
-    </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y390" s="14">
+        <v>109.812893</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -25180,8 +25286,11 @@
       <c r="X391">
         <v>247.733912495026</v>
       </c>
-    </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y391" s="14">
+        <v>108.399171</v>
+      </c>
+    </row>
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -25254,8 +25363,11 @@
       <c r="X392">
         <v>272.93817172261299</v>
       </c>
-    </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y392" s="14">
+        <v>120.04158700000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -25328,8 +25440,11 @@
       <c r="X393">
         <v>276.20770180329902</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y393" s="14">
+        <v>123.16009099999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -25402,8 +25517,11 @@
       <c r="X394">
         <v>279.97055889180302</v>
       </c>
-    </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y394" s="14">
+        <v>123.49273100000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -25476,8 +25594,11 @@
       <c r="X395">
         <v>294.29115364903299</v>
       </c>
-    </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y395" s="14">
+        <v>129.230773</v>
+      </c>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -25550,8 +25671,11 @@
       <c r="X396">
         <v>314.57563204442602</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y396" s="14">
+        <v>138.58629099999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -25624,8 +25748,11 @@
       <c r="X397">
         <v>316.44897384368397</v>
       </c>
-    </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y397" s="14">
+        <v>140.79002800000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -25698,8 +25825,11 @@
       <c r="X398">
         <v>320.59707105457898</v>
       </c>
-    </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y398" s="14">
+        <v>141.70479399999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -25772,8 +25902,11 @@
       <c r="X399">
         <v>328.25465586297901</v>
       </c>
-    </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y399" s="14">
+        <v>146.19542999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -25846,8 +25979,11 @@
       <c r="X400">
         <v>331.595378937654</v>
       </c>
-    </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y400" s="14">
+        <v>147.817049</v>
+      </c>
+    </row>
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -25920,8 +26056,11 @@
       <c r="X401">
         <v>340.82187047131799</v>
       </c>
-    </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y401" s="14">
+        <v>151.64242200000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -25994,8 +26133,11 @@
       <c r="X402">
         <v>331.63523736179297</v>
       </c>
-    </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y402" s="14">
+        <v>148.648653</v>
+      </c>
+    </row>
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -26068,8 +26210,11 @@
       <c r="X403">
         <v>348.94222985007701</v>
       </c>
-    </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y403" s="14">
+        <v>156.17464699999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -26142,8 +26287,11 @@
       <c r="X404">
         <v>349.226294115087</v>
       </c>
-    </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y404" s="14">
+        <v>154.88566</v>
+      </c>
+    </row>
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -26216,8 +26364,11 @@
       <c r="X405">
         <v>353.82158862976502</v>
       </c>
-    </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y405" s="14">
+        <v>161.70478399999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -26290,8 +26441,11 @@
       <c r="X406">
         <v>343.33031898364101</v>
       </c>
-    </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y406" s="14">
+        <v>156.46570600000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -26364,8 +26518,11 @@
       <c r="X407">
         <v>336.91915628721301</v>
       </c>
-    </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y407" s="14">
+        <v>153.76299700000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -26438,8 +26595,11 @@
       <c r="X408">
         <v>342.374535497642</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y408" s="14">
+        <v>158.75260499999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -26512,8 +26672,11 @@
       <c r="X409">
         <v>336.91019277643898</v>
       </c>
-    </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y409" s="14">
+        <v>154.63617400000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -26586,8 +26749,11 @@
       <c r="X410">
         <v>333.47730135617098</v>
       </c>
-    </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y410" s="14">
+        <v>153.72142400000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -26660,8 +26826,11 @@
       <c r="X411">
         <v>311.47615128846297</v>
       </c>
-    </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y411" s="14">
+        <v>142.78586799999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -26734,8 +26903,11 @@
       <c r="X412">
         <v>341.62297953252897</v>
       </c>
-    </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y412" s="14">
+        <v>157.796266</v>
+      </c>
+    </row>
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -26808,8 +26980,11 @@
       <c r="X413">
         <v>335.79915674630001</v>
       </c>
-    </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y413" s="14">
+        <v>153.846159</v>
+      </c>
+    </row>
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -26882,8 +27057,11 @@
       <c r="X414">
         <v>307.75216676749301</v>
       </c>
-    </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y414" s="14">
+        <v>142.78586799999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -26956,8 +27134,11 @@
       <c r="X415">
         <v>328.09952218915299</v>
       </c>
-    </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y415" s="14">
+        <v>153.30561399999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -27030,8 +27211,11 @@
       <c r="X416">
         <v>341.15329833886602</v>
       </c>
-    </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y416" s="14">
+        <v>156.88149999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -27104,8 +27288,11 @@
       <c r="X417">
         <v>303.75379934040302</v>
       </c>
-    </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y417" s="14">
+        <v>145.904371</v>
+      </c>
+    </row>
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -27178,8 +27365,11 @@
       <c r="X418">
         <v>322.67172119078799</v>
       </c>
-    </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y418" s="14">
+        <v>154.677763</v>
+      </c>
+    </row>
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -27252,8 +27442,11 @@
       <c r="X419">
         <v>321.21295915069999</v>
       </c>
-    </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y419" s="14">
+        <v>154.63617400000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -27326,8 +27519,11 @@
       <c r="X420">
         <v>314.95082309478499</v>
       </c>
-    </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y420" s="14">
+        <v>152.30770200000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -27400,8 +27596,11 @@
       <c r="X421">
         <v>311.618343817084</v>
       </c>
-    </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y421" s="14">
+        <v>151.55925999999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -27474,8 +27673,11 @@
       <c r="X422">
         <v>316.29843140491198</v>
       </c>
-    </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y422" s="14">
+        <v>152.182951</v>
+      </c>
+    </row>
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -27548,8 +27750,11 @@
       <c r="X423">
         <v>331.03316546672602</v>
       </c>
-    </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y423" s="14">
+        <v>158.669443</v>
+      </c>
+    </row>
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -27622,8 +27827,11 @@
       <c r="X424">
         <v>339.13070260497898</v>
       </c>
-    </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y424" s="14">
+        <v>163.36799199999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -27696,8 +27904,11 @@
       <c r="X425">
         <v>333.15210518227701</v>
       </c>
-    </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y425" s="14">
+        <v>161.372152</v>
+      </c>
+    </row>
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -27770,8 +27981,11 @@
       <c r="X426">
         <v>328.470136407621</v>
       </c>
-    </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y426" s="14">
+        <v>158.79417799999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -27844,8 +28058,11 @@
       <c r="X427">
         <v>316.66976827645601</v>
       </c>
-    </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y427" s="14">
+        <v>152.806658</v>
+      </c>
+    </row>
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -27918,8 +28135,11 @@
       <c r="X428">
         <v>332.35363939096698</v>
       </c>
-    </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y428" s="14">
+        <v>161.28899000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -27992,8 +28212,11 @@
       <c r="X429">
         <v>340.847101503734</v>
       </c>
-    </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y429" s="14">
+        <v>168.482336</v>
+      </c>
+    </row>
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -28066,8 +28289,11 @@
       <c r="X430">
         <v>346.72622928834801</v>
       </c>
-    </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y430" s="14">
+        <v>171.933471</v>
+      </c>
+    </row>
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -28140,8 +28366,11 @@
       <c r="X431">
         <v>362.39085797058198</v>
       </c>
-    </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y431" s="14">
+        <v>179.209979</v>
+      </c>
+    </row>
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -28214,8 +28443,11 @@
       <c r="X432">
         <v>376.35307107056502</v>
       </c>
-    </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y432" s="14">
+        <v>186.48648600000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -28288,8 +28520,11 @@
       <c r="X433">
         <v>364.59239452624797</v>
       </c>
-    </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y433" s="14">
+        <v>180.58212800000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -28362,8 +28597,11 @@
       <c r="X434">
         <v>377.68523835422701</v>
       </c>
-    </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y434" s="14">
+        <v>185.90436800000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -28436,8 +28674,11 @@
       <c r="X435">
         <v>382.73390656380201</v>
       </c>
-    </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y435" s="14">
+        <v>188.69023899999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -28508,8 +28749,11 @@
       <c r="X436">
         <v>391.16685644661402</v>
       </c>
-    </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y436" s="14">
+        <v>192.76508100000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -28580,8 +28824,11 @@
       <c r="X437">
         <v>389.29226244934398</v>
       </c>
-    </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y437" s="14">
+        <v>192.76508100000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -28652,8 +28899,11 @@
       <c r="X438">
         <v>391.06892176755503</v>
       </c>
-    </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y438" s="14">
+        <v>194.469863</v>
+      </c>
+    </row>
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -28724,8 +28974,11 @@
       <c r="X439">
         <v>394.39748878462802</v>
       </c>
-    </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y439" s="14">
+        <v>194.71934899999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -28796,8 +29049,11 @@
       <c r="X440">
         <v>424.874582045078</v>
       </c>
-    </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y440" s="14">
+        <v>210.228703</v>
+      </c>
+    </row>
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -28868,8 +29124,11 @@
       <c r="X441">
         <v>404.43649903399597</v>
       </c>
-    </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y441" s="14">
+        <v>205.488564</v>
+      </c>
+    </row>
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -28940,8 +29199,11 @@
       <c r="X442">
         <v>416.43856810765902</v>
       </c>
-    </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y442" s="14">
+        <v>212.307705</v>
+      </c>
+    </row>
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -29012,8 +29274,11 @@
       <c r="X443">
         <v>413.43187000509801</v>
       </c>
-    </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y443" s="14">
+        <v>211.18504200000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -29084,8 +29349,11 @@
       <c r="X444">
         <v>381.05701495235701</v>
       </c>
-    </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y444" s="14">
+        <v>195.09355400000001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -29156,8 +29424,11 @@
       <c r="X445">
         <v>360.51312671126198</v>
       </c>
-    </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y445" s="14">
+        <v>185.94595699999999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -29228,8 +29499,11 @@
       <c r="X446">
         <v>382.76537857809501</v>
       </c>
-    </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y446" s="14">
+        <v>195.84199599999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45809</v>
       </c>
@@ -29298,8 +29572,11 @@
       <c r="X447">
         <v>386.07758012360603</v>
       </c>
-    </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y447" s="14">
+        <v>196.798351</v>
+      </c>
+    </row>
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45839</v>
       </c>
@@ -29368,8 +29645,11 @@
       <c r="X448">
         <v>401.665750775513</v>
       </c>
-    </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y448" s="14">
+        <v>204.823284</v>
+      </c>
+    </row>
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45870</v>
       </c>
@@ -29438,8 +29718,11 @@
       <c r="X449">
         <v>405.638311274378</v>
       </c>
-    </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y449" s="14">
+        <v>206.652816</v>
+      </c>
+    </row>
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45901</v>
       </c>
@@ -29502,8 +29785,11 @@
       <c r="X450">
         <v>413.35573111309901</v>
       </c>
-    </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y450" s="14">
+        <v>210.72765899999999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45931</v>
       </c>
@@ -29564,8 +29850,11 @@
       <c r="X451">
         <v>423.09524996682001</v>
       </c>
-    </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y451" s="14">
+        <v>216.42411999999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45962</v>
       </c>
@@ -29626,8 +29915,11 @@
       <c r="X452">
         <v>426.789818710036</v>
       </c>
-    </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y452" s="14">
+        <v>217.71310700000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>45992</v>
       </c>
@@ -29646,8 +29938,11 @@
       <c r="X453">
         <v>417.43035218067899</v>
       </c>
-    </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y453" s="14">
+        <v>217.04782700000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>46023</v>
       </c>
